--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>DTEGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>83070300</v>
+        <v>89196100</v>
       </c>
       <c r="E8" s="3">
-        <v>82291800</v>
+        <v>83796600</v>
       </c>
       <c r="F8" s="3">
-        <v>80258300</v>
+        <v>83011300</v>
       </c>
       <c r="G8" s="3">
-        <v>76012300</v>
+        <v>80960000</v>
       </c>
       <c r="H8" s="3">
-        <v>68798500</v>
+        <v>76676900</v>
       </c>
       <c r="I8" s="3">
-        <v>66024900</v>
+        <v>69400000</v>
       </c>
       <c r="J8" s="3">
+        <v>66602200</v>
+      </c>
+      <c r="K8" s="3">
         <v>63869600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68847500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39243600</v>
+        <v>38222200</v>
       </c>
       <c r="E9" s="3">
-        <v>39361100</v>
+        <v>39586700</v>
       </c>
       <c r="F9" s="3">
-        <v>38412400</v>
+        <v>39705200</v>
       </c>
       <c r="G9" s="3">
-        <v>46088600</v>
+        <v>38748300</v>
       </c>
       <c r="H9" s="3">
-        <v>42315800</v>
+        <v>46491500</v>
       </c>
       <c r="I9" s="3">
-        <v>39808000</v>
+        <v>42685800</v>
       </c>
       <c r="J9" s="3">
+        <v>40156000</v>
+      </c>
+      <c r="K9" s="3">
         <v>37613100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39774600</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43826700</v>
+        <v>50974000</v>
       </c>
       <c r="E10" s="3">
-        <v>42930700</v>
+        <v>44209900</v>
       </c>
       <c r="F10" s="3">
-        <v>41845900</v>
+        <v>43306100</v>
       </c>
       <c r="G10" s="3">
-        <v>29923800</v>
+        <v>42211700</v>
       </c>
       <c r="H10" s="3">
-        <v>26482700</v>
+        <v>30185400</v>
       </c>
       <c r="I10" s="3">
-        <v>26216900</v>
+        <v>26714200</v>
       </c>
       <c r="J10" s="3">
+        <v>26446200</v>
+      </c>
+      <c r="K10" s="3">
         <v>26256500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29072900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,53 +887,59 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1322000</v>
+        <v>814100</v>
       </c>
       <c r="E14" s="3">
-        <v>539100</v>
+        <v>1333600</v>
       </c>
       <c r="F14" s="3">
-        <v>741200</v>
+        <v>543800</v>
       </c>
       <c r="G14" s="3">
-        <v>162500</v>
+        <v>747600</v>
       </c>
       <c r="H14" s="3">
-        <v>130700</v>
+        <v>163900</v>
       </c>
       <c r="I14" s="3">
-        <v>898200</v>
+        <v>131800</v>
       </c>
       <c r="J14" s="3">
+        <v>906000</v>
+      </c>
+      <c r="K14" s="3">
         <v>24202100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3917000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14398100</v>
+        <v>19128300</v>
       </c>
       <c r="E15" s="3">
-        <v>13648100</v>
+        <v>14525100</v>
       </c>
       <c r="F15" s="3">
-        <v>13931400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>13767500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14053200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -931,9 +953,12 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74257700</v>
+        <v>78721600</v>
       </c>
       <c r="E17" s="3">
-        <v>71989300</v>
+        <v>74907000</v>
       </c>
       <c r="F17" s="3">
-        <v>70196200</v>
+        <v>72618700</v>
       </c>
       <c r="G17" s="3">
-        <v>68295600</v>
+        <v>70810000</v>
       </c>
       <c r="H17" s="3">
-        <v>60841300</v>
+        <v>68892700</v>
       </c>
       <c r="I17" s="3">
-        <v>60611800</v>
+        <v>61373200</v>
       </c>
       <c r="J17" s="3">
+        <v>61141700</v>
+      </c>
+      <c r="K17" s="3">
         <v>68219800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62290600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8812500</v>
+        <v>10474600</v>
       </c>
       <c r="E18" s="3">
-        <v>10302500</v>
+        <v>8889600</v>
       </c>
       <c r="F18" s="3">
-        <v>10062100</v>
+        <v>10392600</v>
       </c>
       <c r="G18" s="3">
-        <v>7716700</v>
+        <v>10150000</v>
       </c>
       <c r="H18" s="3">
-        <v>7957200</v>
+        <v>7784200</v>
       </c>
       <c r="I18" s="3">
-        <v>5413100</v>
+        <v>8026800</v>
       </c>
       <c r="J18" s="3">
+        <v>5460500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4350300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6556900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-855300</v>
+        <v>570400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2055500</v>
+        <v>-862800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2088400</v>
+        <v>-2073400</v>
       </c>
       <c r="G20" s="3">
-        <v>394200</v>
+        <v>-2106700</v>
       </c>
       <c r="H20" s="3">
-        <v>-254700</v>
+        <v>397600</v>
       </c>
       <c r="I20" s="3">
-        <v>-452400</v>
+        <v>-257000</v>
       </c>
       <c r="J20" s="3">
+        <v>-456300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-80200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23172700</v>
+        <v>30128600</v>
       </c>
       <c r="E21" s="3">
-        <v>24287300</v>
+        <v>23250500</v>
       </c>
       <c r="F21" s="3">
-        <v>22687700</v>
+        <v>24368200</v>
       </c>
       <c r="G21" s="3">
-        <v>20603500</v>
+        <v>22765400</v>
       </c>
       <c r="H21" s="3">
-        <v>19330700</v>
+        <v>20681200</v>
       </c>
       <c r="I21" s="3">
-        <v>16951900</v>
+        <v>19404400</v>
       </c>
       <c r="J21" s="3">
+        <v>17001800</v>
+      </c>
+      <c r="K21" s="3">
         <v>19715700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23544100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2299200</v>
+        <v>3003800</v>
       </c>
       <c r="E22" s="3">
-        <v>2763700</v>
+        <v>2319300</v>
       </c>
       <c r="F22" s="3">
-        <v>2981100</v>
+        <v>2787800</v>
       </c>
       <c r="G22" s="3">
-        <v>2864700</v>
+        <v>3007100</v>
       </c>
       <c r="H22" s="3">
-        <v>2926200</v>
+        <v>2889700</v>
       </c>
       <c r="I22" s="3">
-        <v>2624200</v>
+        <v>2951800</v>
       </c>
       <c r="J22" s="3">
+        <v>2647200</v>
+      </c>
+      <c r="K22" s="3">
         <v>2568200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3043700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5658000</v>
+        <v>8041200</v>
       </c>
       <c r="E23" s="3">
-        <v>5483400</v>
+        <v>5707500</v>
       </c>
       <c r="F23" s="3">
-        <v>4992600</v>
+        <v>5531400</v>
       </c>
       <c r="G23" s="3">
-        <v>5246200</v>
+        <v>5036300</v>
       </c>
       <c r="H23" s="3">
-        <v>4776300</v>
+        <v>5292100</v>
       </c>
       <c r="I23" s="3">
-        <v>2336500</v>
+        <v>4818100</v>
       </c>
       <c r="J23" s="3">
+        <v>2357000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6998700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3543700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2002800</v>
+        <v>2207400</v>
       </c>
       <c r="E24" s="3">
-        <v>-612700</v>
+        <v>2020300</v>
       </c>
       <c r="F24" s="3">
-        <v>1584400</v>
+        <v>-618000</v>
       </c>
       <c r="G24" s="3">
-        <v>1401000</v>
+        <v>1598300</v>
       </c>
       <c r="H24" s="3">
-        <v>1214400</v>
+        <v>1413300</v>
       </c>
       <c r="I24" s="3">
-        <v>1014600</v>
+        <v>1225000</v>
       </c>
       <c r="J24" s="3">
+        <v>1023400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1664600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2757300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3655200</v>
+        <v>5833700</v>
       </c>
       <c r="E26" s="3">
-        <v>6096100</v>
+        <v>3687200</v>
       </c>
       <c r="F26" s="3">
-        <v>3408200</v>
+        <v>6149400</v>
       </c>
       <c r="G26" s="3">
-        <v>3845200</v>
+        <v>3438000</v>
       </c>
       <c r="H26" s="3">
-        <v>3561900</v>
+        <v>3878800</v>
       </c>
       <c r="I26" s="3">
-        <v>1322000</v>
+        <v>3593100</v>
       </c>
       <c r="J26" s="3">
+        <v>1333600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-5334100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>786500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2378300</v>
+        <v>4283100</v>
       </c>
       <c r="E27" s="3">
-        <v>3800200</v>
+        <v>2399100</v>
       </c>
       <c r="F27" s="3">
-        <v>2937200</v>
+        <v>3833400</v>
       </c>
       <c r="G27" s="3">
-        <v>3572900</v>
+        <v>2962800</v>
       </c>
       <c r="H27" s="3">
-        <v>3210600</v>
+        <v>3604100</v>
       </c>
       <c r="I27" s="3">
-        <v>1021100</v>
+        <v>3238600</v>
       </c>
       <c r="J27" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-5877600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>653800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>855300</v>
+        <v>-570400</v>
       </c>
       <c r="E32" s="3">
-        <v>2055500</v>
+        <v>862800</v>
       </c>
       <c r="F32" s="3">
-        <v>2088400</v>
+        <v>2073400</v>
       </c>
       <c r="G32" s="3">
-        <v>-394200</v>
+        <v>2106700</v>
       </c>
       <c r="H32" s="3">
-        <v>254700</v>
+        <v>-397600</v>
       </c>
       <c r="I32" s="3">
-        <v>452400</v>
+        <v>257000</v>
       </c>
       <c r="J32" s="3">
+        <v>456300</v>
+      </c>
+      <c r="K32" s="3">
         <v>80200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2378300</v>
+        <v>4283100</v>
       </c>
       <c r="E33" s="3">
-        <v>3800200</v>
+        <v>2399100</v>
       </c>
       <c r="F33" s="3">
-        <v>2937200</v>
+        <v>3833400</v>
       </c>
       <c r="G33" s="3">
-        <v>3572900</v>
+        <v>2962800</v>
       </c>
       <c r="H33" s="3">
-        <v>3210600</v>
+        <v>3604100</v>
       </c>
       <c r="I33" s="3">
-        <v>1021100</v>
+        <v>3238600</v>
       </c>
       <c r="J33" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-5877600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>653800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2378300</v>
+        <v>4283100</v>
       </c>
       <c r="E35" s="3">
-        <v>3800200</v>
+        <v>2399100</v>
       </c>
       <c r="F35" s="3">
-        <v>2937200</v>
+        <v>3833400</v>
       </c>
       <c r="G35" s="3">
-        <v>3572900</v>
+        <v>2962800</v>
       </c>
       <c r="H35" s="3">
-        <v>3210600</v>
+        <v>3604100</v>
       </c>
       <c r="I35" s="3">
-        <v>1021100</v>
+        <v>3238600</v>
       </c>
       <c r="J35" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-5877600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>653800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4039500</v>
+        <v>5985200</v>
       </c>
       <c r="E41" s="3">
-        <v>3636600</v>
+        <v>4083000</v>
       </c>
       <c r="F41" s="3">
-        <v>8506200</v>
+        <v>3675700</v>
       </c>
       <c r="G41" s="3">
-        <v>7572900</v>
+        <v>8597600</v>
       </c>
       <c r="H41" s="3">
-        <v>8260300</v>
+        <v>7654300</v>
       </c>
       <c r="I41" s="3">
-        <v>8751100</v>
+        <v>8349000</v>
       </c>
       <c r="J41" s="3">
+        <v>8845100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4420500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13200</v>
+        <v>32200</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>2200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2301400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5570900</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16392000</v>
+        <v>18134100</v>
       </c>
       <c r="E43" s="3">
-        <v>14245500</v>
+        <v>16568200</v>
       </c>
       <c r="F43" s="3">
-        <v>16123000</v>
+        <v>14398500</v>
       </c>
       <c r="G43" s="3">
-        <v>13243000</v>
+        <v>16296300</v>
       </c>
       <c r="H43" s="3">
-        <v>14460700</v>
+        <v>13385300</v>
       </c>
       <c r="I43" s="3">
-        <v>11152400</v>
+        <v>14616100</v>
       </c>
       <c r="J43" s="3">
+        <v>11272200</v>
+      </c>
+      <c r="K43" s="3">
         <v>9036500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15544800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1965400</v>
+        <v>1740200</v>
       </c>
       <c r="E44" s="3">
-        <v>2179500</v>
+        <v>1986500</v>
       </c>
       <c r="F44" s="3">
-        <v>1788600</v>
+        <v>2203000</v>
       </c>
       <c r="G44" s="3">
-        <v>2028000</v>
+        <v>1807900</v>
       </c>
       <c r="H44" s="3">
-        <v>1650300</v>
+        <v>2049800</v>
       </c>
       <c r="I44" s="3">
-        <v>1166100</v>
+        <v>1668000</v>
       </c>
       <c r="J44" s="3">
+        <v>1178600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1214400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2544800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1603100</v>
+        <v>1508200</v>
       </c>
       <c r="E45" s="3">
-        <v>2328900</v>
+        <v>1620300</v>
       </c>
       <c r="F45" s="3">
-        <v>2828400</v>
+        <v>2353900</v>
       </c>
       <c r="G45" s="3">
-        <v>12489800</v>
+        <v>2858800</v>
       </c>
       <c r="H45" s="3">
-        <v>8343700</v>
+        <v>12624000</v>
       </c>
       <c r="I45" s="3">
-        <v>3040400</v>
+        <v>8433400</v>
       </c>
       <c r="J45" s="3">
+        <v>3073000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1735900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2315900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24013300</v>
+        <v>27399900</v>
       </c>
       <c r="E46" s="3">
-        <v>22390400</v>
+        <v>24271300</v>
       </c>
       <c r="F46" s="3">
-        <v>29248500</v>
+        <v>22631000</v>
       </c>
       <c r="G46" s="3">
-        <v>35338000</v>
+        <v>29562900</v>
       </c>
       <c r="H46" s="3">
-        <v>32718200</v>
+        <v>35717800</v>
       </c>
       <c r="I46" s="3">
-        <v>24115400</v>
+        <v>33069800</v>
       </c>
       <c r="J46" s="3">
+        <v>24374500</v>
+      </c>
+      <c r="K46" s="3">
         <v>16490900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18622500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2372800</v>
+        <v>4977500</v>
       </c>
       <c r="E47" s="3">
-        <v>6991000</v>
+        <v>2398300</v>
       </c>
       <c r="F47" s="3">
-        <v>9454900</v>
+        <v>7066100</v>
       </c>
       <c r="G47" s="3">
-        <v>4778500</v>
+        <v>9556500</v>
       </c>
       <c r="H47" s="3">
-        <v>3185300</v>
+        <v>4829800</v>
       </c>
       <c r="I47" s="3">
-        <v>8266800</v>
+        <v>3219500</v>
       </c>
       <c r="J47" s="3">
+        <v>8355700</v>
+      </c>
+      <c r="K47" s="3">
         <v>9472400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10527900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55592800</v>
+        <v>74962600</v>
       </c>
       <c r="E48" s="3">
-        <v>51472000</v>
+        <v>56190300</v>
       </c>
       <c r="F48" s="3">
-        <v>51340300</v>
+        <v>52025200</v>
       </c>
       <c r="G48" s="3">
-        <v>49011400</v>
+        <v>51892000</v>
       </c>
       <c r="H48" s="3">
-        <v>43498400</v>
+        <v>49538100</v>
       </c>
       <c r="I48" s="3">
-        <v>41094800</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>43965800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>41536500</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>202972000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>71315100</v>
+        <v>75690600</v>
       </c>
       <c r="E49" s="3">
-        <v>69025800</v>
+        <v>72081500</v>
       </c>
       <c r="F49" s="3">
-        <v>66537700</v>
+        <v>69767600</v>
       </c>
       <c r="G49" s="3">
-        <v>62613500</v>
+        <v>67252800</v>
       </c>
       <c r="H49" s="3">
-        <v>56618400</v>
+        <v>63286300</v>
       </c>
       <c r="I49" s="3">
-        <v>50471800</v>
+        <v>57226800</v>
       </c>
       <c r="J49" s="3">
+        <v>51014200</v>
+      </c>
+      <c r="K49" s="3">
         <v>75914600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>117761000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6327800</v>
+        <v>6381300</v>
       </c>
       <c r="E52" s="3">
-        <v>5305500</v>
+        <v>6395800</v>
       </c>
       <c r="F52" s="3">
-        <v>6455100</v>
+        <v>5362600</v>
       </c>
       <c r="G52" s="3">
-        <v>6282800</v>
+        <v>6524500</v>
       </c>
       <c r="H52" s="3">
-        <v>6017000</v>
+        <v>6350300</v>
       </c>
       <c r="I52" s="3">
-        <v>5777700</v>
+        <v>6081700</v>
       </c>
       <c r="J52" s="3">
+        <v>5839800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7088700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9460900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>159622000</v>
+        <v>189412000</v>
       </c>
       <c r="E54" s="3">
-        <v>155185000</v>
+        <v>161337000</v>
       </c>
       <c r="F54" s="3">
-        <v>163037000</v>
+        <v>156853000</v>
       </c>
       <c r="G54" s="3">
-        <v>158024000</v>
+        <v>164789000</v>
       </c>
       <c r="H54" s="3">
-        <v>142037000</v>
+        <v>159722000</v>
       </c>
       <c r="I54" s="3">
-        <v>129727000</v>
+        <v>143564000</v>
       </c>
       <c r="J54" s="3">
+        <v>131121000</v>
+      </c>
+      <c r="K54" s="3">
         <v>118520000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>143787000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11747500</v>
+        <v>10443200</v>
       </c>
       <c r="E57" s="3">
-        <v>12005500</v>
+        <v>11873800</v>
       </c>
       <c r="F57" s="3">
-        <v>11406000</v>
+        <v>12134600</v>
       </c>
       <c r="G57" s="3">
-        <v>12118600</v>
+        <v>11528600</v>
       </c>
       <c r="H57" s="3">
-        <v>10574800</v>
+        <v>12248900</v>
       </c>
       <c r="I57" s="3">
-        <v>7939600</v>
+        <v>10688500</v>
       </c>
       <c r="J57" s="3">
+        <v>8025000</v>
+      </c>
+      <c r="K57" s="3">
         <v>7043700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15077600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9461500</v>
+        <v>14441800</v>
       </c>
       <c r="E58" s="3">
-        <v>7633300</v>
+        <v>9563100</v>
       </c>
       <c r="F58" s="3">
-        <v>12468900</v>
+        <v>7715300</v>
       </c>
       <c r="G58" s="3">
-        <v>13801900</v>
+        <v>12602900</v>
       </c>
       <c r="H58" s="3">
-        <v>9014600</v>
+        <v>13950200</v>
       </c>
       <c r="I58" s="3">
-        <v>6480400</v>
+        <v>9111500</v>
       </c>
       <c r="J58" s="3">
+        <v>6550000</v>
+      </c>
+      <c r="K58" s="3">
         <v>8352500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23990300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10791100</v>
+        <v>11641800</v>
       </c>
       <c r="E59" s="3">
-        <v>10409000</v>
+        <v>10907100</v>
       </c>
       <c r="F59" s="3">
-        <v>12497400</v>
+        <v>10520900</v>
       </c>
       <c r="G59" s="3">
-        <v>10915200</v>
+        <v>12631700</v>
       </c>
       <c r="H59" s="3">
-        <v>11372000</v>
+        <v>11032500</v>
       </c>
       <c r="I59" s="3">
-        <v>10280600</v>
+        <v>11494200</v>
       </c>
       <c r="J59" s="3">
+        <v>10391100</v>
+      </c>
+      <c r="K59" s="3">
         <v>17387900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17246800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32000100</v>
+        <v>36526800</v>
       </c>
       <c r="E60" s="3">
-        <v>30047900</v>
+        <v>32344000</v>
       </c>
       <c r="F60" s="3">
-        <v>36372300</v>
+        <v>30370800</v>
       </c>
       <c r="G60" s="3">
-        <v>36835700</v>
+        <v>36763200</v>
       </c>
       <c r="H60" s="3">
-        <v>30961400</v>
+        <v>37231600</v>
       </c>
       <c r="I60" s="3">
-        <v>24700600</v>
+        <v>31294100</v>
       </c>
       <c r="J60" s="3">
+        <v>24966100</v>
+      </c>
+      <c r="K60" s="3">
         <v>25248500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28423800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55967300</v>
+        <v>77741500</v>
       </c>
       <c r="E61" s="3">
-        <v>53055400</v>
+        <v>56568700</v>
       </c>
       <c r="F61" s="3">
-        <v>54649700</v>
+        <v>53625500</v>
       </c>
       <c r="G61" s="3">
-        <v>51815700</v>
+        <v>55237000</v>
       </c>
       <c r="H61" s="3">
-        <v>48290000</v>
+        <v>52372600</v>
       </c>
       <c r="I61" s="3">
-        <v>46400400</v>
+        <v>48809000</v>
       </c>
       <c r="J61" s="3">
+        <v>46899000</v>
+      </c>
+      <c r="K61" s="3">
         <v>37940300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44721000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23960600</v>
+        <v>23836300</v>
       </c>
       <c r="E62" s="3">
-        <v>25449400</v>
+        <v>24218100</v>
       </c>
       <c r="F62" s="3">
-        <v>29362700</v>
+        <v>25722900</v>
       </c>
       <c r="G62" s="3">
-        <v>27484000</v>
+        <v>29678300</v>
       </c>
       <c r="H62" s="3">
-        <v>25381400</v>
+        <v>27779400</v>
       </c>
       <c r="I62" s="3">
-        <v>23420300</v>
+        <v>25654100</v>
       </c>
       <c r="J62" s="3">
+        <v>23672000</v>
+      </c>
+      <c r="K62" s="3">
         <v>28140600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30198600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>125686000</v>
+        <v>154223000</v>
       </c>
       <c r="E66" s="3">
-        <v>121440000</v>
+        <v>127037000</v>
       </c>
       <c r="F66" s="3">
-        <v>130860000</v>
+        <v>122745000</v>
       </c>
       <c r="G66" s="3">
-        <v>125743000</v>
+        <v>132266000</v>
       </c>
       <c r="H66" s="3">
-        <v>114108000</v>
+        <v>127094000</v>
       </c>
       <c r="I66" s="3">
-        <v>103507000</v>
+        <v>115334000</v>
       </c>
       <c r="J66" s="3">
+        <v>104620000</v>
+      </c>
+      <c r="K66" s="3">
         <v>90051400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102232000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38678100</v>
+        <v>-38667700</v>
       </c>
       <c r="E72" s="3">
-        <v>-38747300</v>
+        <v>-39093800</v>
       </c>
       <c r="F72" s="3">
-        <v>-39585100</v>
+        <v>-39163700</v>
       </c>
       <c r="G72" s="3">
-        <v>-39215100</v>
+        <v>-40010500</v>
       </c>
       <c r="H72" s="3">
-        <v>-40471200</v>
+        <v>-39636500</v>
       </c>
       <c r="I72" s="3">
-        <v>-40084700</v>
+        <v>-40906100</v>
       </c>
       <c r="J72" s="3">
+        <v>-40515500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-75680700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58425200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33935900</v>
+        <v>35188400</v>
       </c>
       <c r="E76" s="3">
-        <v>33744800</v>
+        <v>34300600</v>
       </c>
       <c r="F76" s="3">
-        <v>32176900</v>
+        <v>34107500</v>
       </c>
       <c r="G76" s="3">
-        <v>32281200</v>
+        <v>32522700</v>
       </c>
       <c r="H76" s="3">
-        <v>27929800</v>
+        <v>32628100</v>
       </c>
       <c r="I76" s="3">
-        <v>26219100</v>
+        <v>28230000</v>
       </c>
       <c r="J76" s="3">
+        <v>26500900</v>
+      </c>
+      <c r="K76" s="3">
         <v>28468900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41555200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2378300</v>
+        <v>4283100</v>
       </c>
       <c r="E81" s="3">
-        <v>3800200</v>
+        <v>2399100</v>
       </c>
       <c r="F81" s="3">
-        <v>2937200</v>
+        <v>3833400</v>
       </c>
       <c r="G81" s="3">
-        <v>3572900</v>
+        <v>2962800</v>
       </c>
       <c r="H81" s="3">
-        <v>3210600</v>
+        <v>3604100</v>
       </c>
       <c r="I81" s="3">
-        <v>1021100</v>
+        <v>3238600</v>
       </c>
       <c r="J81" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-5877600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>653800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15191900</v>
+        <v>19210200</v>
       </c>
       <c r="E83" s="3">
-        <v>16015400</v>
+        <v>15324800</v>
       </c>
       <c r="F83" s="3">
-        <v>14691200</v>
+        <v>16155500</v>
       </c>
       <c r="G83" s="3">
-        <v>12473300</v>
+        <v>14819700</v>
       </c>
       <c r="H83" s="3">
-        <v>11610300</v>
+        <v>12582300</v>
       </c>
       <c r="I83" s="3">
-        <v>11972600</v>
+        <v>11711800</v>
       </c>
       <c r="J83" s="3">
+        <v>12077300</v>
+      </c>
+      <c r="K83" s="3">
         <v>24108800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16945100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19698100</v>
+        <v>25556800</v>
       </c>
       <c r="E89" s="3">
-        <v>18884500</v>
+        <v>19870300</v>
       </c>
       <c r="F89" s="3">
-        <v>17051900</v>
+        <v>19049600</v>
       </c>
       <c r="G89" s="3">
-        <v>16467800</v>
+        <v>17201000</v>
       </c>
       <c r="H89" s="3">
-        <v>14740700</v>
+        <v>16611800</v>
       </c>
       <c r="I89" s="3">
-        <v>14257500</v>
+        <v>14869500</v>
       </c>
       <c r="J89" s="3">
+        <v>14382200</v>
+      </c>
+      <c r="K89" s="3">
         <v>14907500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19032200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10034600</v>
+        <v>-11056100</v>
       </c>
       <c r="E91" s="3">
-        <v>-10045600</v>
+        <v>-10122400</v>
       </c>
       <c r="F91" s="3">
-        <v>-8824600</v>
+        <v>-10133400</v>
       </c>
       <c r="G91" s="3">
-        <v>-8967400</v>
+        <v>-8901800</v>
       </c>
       <c r="H91" s="3">
-        <v>-7890200</v>
+        <v>-9045800</v>
       </c>
       <c r="I91" s="3">
-        <v>-7213900</v>
+        <v>-7959200</v>
       </c>
       <c r="J91" s="3">
+        <v>-7276900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6171900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9867000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15698100</v>
+        <v>-15761100</v>
       </c>
       <c r="E94" s="3">
-        <v>-18461800</v>
+        <v>-15835400</v>
       </c>
       <c r="F94" s="3">
-        <v>-14941600</v>
+        <v>-18623200</v>
       </c>
       <c r="G94" s="3">
-        <v>-16486500</v>
+        <v>-15072200</v>
       </c>
       <c r="H94" s="3">
-        <v>-11815600</v>
+        <v>-16630600</v>
       </c>
       <c r="I94" s="3">
-        <v>-10865800</v>
+        <v>-11918900</v>
       </c>
       <c r="J94" s="3">
+        <v>-10960800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7324800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10887100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3572900</v>
+        <v>-3944200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1711800</v>
+        <v>-3604100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1752400</v>
+        <v>-1726700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1379100</v>
+        <v>-1767700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1416400</v>
+        <v>-1391100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2462800</v>
+        <v>-1428800</v>
       </c>
       <c r="J96" s="3">
+        <v>-2484300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3733200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4133000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3578400</v>
+        <v>-7909400</v>
       </c>
       <c r="E100" s="3">
-        <v>-5044200</v>
+        <v>-3609700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1451600</v>
+        <v>-5088300</v>
       </c>
       <c r="G100" s="3">
-        <v>-961800</v>
+        <v>-1464200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3770500</v>
+        <v>-970300</v>
       </c>
       <c r="I100" s="3">
-        <v>1122200</v>
+        <v>-3803500</v>
       </c>
       <c r="J100" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7247900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6993600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18700</v>
+        <v>12200</v>
       </c>
       <c r="E101" s="3">
-        <v>-248100</v>
+        <v>-18800</v>
       </c>
       <c r="F101" s="3">
-        <v>274500</v>
+        <v>-250300</v>
       </c>
       <c r="G101" s="3">
-        <v>293200</v>
+        <v>276900</v>
       </c>
       <c r="H101" s="3">
-        <v>354700</v>
+        <v>295700</v>
       </c>
       <c r="I101" s="3">
-        <v>-183400</v>
+        <v>357800</v>
       </c>
       <c r="J101" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-30700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-47000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>403000</v>
+        <v>1898400</v>
       </c>
       <c r="E102" s="3">
-        <v>-4869600</v>
+        <v>406500</v>
       </c>
       <c r="F102" s="3">
-        <v>933300</v>
+        <v>-4912200</v>
       </c>
       <c r="G102" s="3">
-        <v>-687300</v>
+        <v>941500</v>
       </c>
       <c r="H102" s="3">
-        <v>-490800</v>
+        <v>-693400</v>
       </c>
       <c r="I102" s="3">
-        <v>4330500</v>
+        <v>-495100</v>
       </c>
       <c r="J102" s="3">
+        <v>4368400</v>
+      </c>
+      <c r="K102" s="3">
         <v>304100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1104600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>89196100</v>
+        <v>95260100</v>
       </c>
       <c r="E8" s="3">
-        <v>83796600</v>
+        <v>89493500</v>
       </c>
       <c r="F8" s="3">
-        <v>83011300</v>
+        <v>88654800</v>
       </c>
       <c r="G8" s="3">
-        <v>80960000</v>
+        <v>86464100</v>
       </c>
       <c r="H8" s="3">
-        <v>76676900</v>
+        <v>81889800</v>
       </c>
       <c r="I8" s="3">
-        <v>69400000</v>
+        <v>74118100</v>
       </c>
       <c r="J8" s="3">
-        <v>66602200</v>
+        <v>71130100</v>
       </c>
       <c r="K8" s="3">
         <v>63869600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38222200</v>
+        <v>40820700</v>
       </c>
       <c r="E9" s="3">
-        <v>39586700</v>
+        <v>42278000</v>
       </c>
       <c r="F9" s="3">
-        <v>39705200</v>
+        <v>42404600</v>
       </c>
       <c r="G9" s="3">
-        <v>38748300</v>
+        <v>41382600</v>
       </c>
       <c r="H9" s="3">
-        <v>46491500</v>
+        <v>49652200</v>
       </c>
       <c r="I9" s="3">
-        <v>42685800</v>
+        <v>45587800</v>
       </c>
       <c r="J9" s="3">
-        <v>40156000</v>
+        <v>42886000</v>
       </c>
       <c r="K9" s="3">
         <v>37613100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50974000</v>
+        <v>54439400</v>
       </c>
       <c r="E10" s="3">
-        <v>44209900</v>
+        <v>47215500</v>
       </c>
       <c r="F10" s="3">
-        <v>43306100</v>
+        <v>46250200</v>
       </c>
       <c r="G10" s="3">
-        <v>42211700</v>
+        <v>45081500</v>
       </c>
       <c r="H10" s="3">
-        <v>30185400</v>
+        <v>32237600</v>
       </c>
       <c r="I10" s="3">
-        <v>26714200</v>
+        <v>28530400</v>
       </c>
       <c r="J10" s="3">
-        <v>26446200</v>
+        <v>28244100</v>
       </c>
       <c r="K10" s="3">
         <v>26256500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>814100</v>
+        <v>869400</v>
       </c>
       <c r="E14" s="3">
-        <v>1333600</v>
+        <v>1424200</v>
       </c>
       <c r="F14" s="3">
-        <v>543800</v>
+        <v>580800</v>
       </c>
       <c r="G14" s="3">
-        <v>747600</v>
+        <v>798500</v>
       </c>
       <c r="H14" s="3">
-        <v>163900</v>
+        <v>175100</v>
       </c>
       <c r="I14" s="3">
-        <v>131800</v>
+        <v>140800</v>
       </c>
       <c r="J14" s="3">
-        <v>906000</v>
+        <v>967600</v>
       </c>
       <c r="K14" s="3">
         <v>24202100</v>
@@ -930,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19128300</v>
+        <v>20428700</v>
       </c>
       <c r="E15" s="3">
-        <v>14525100</v>
+        <v>15512600</v>
       </c>
       <c r="F15" s="3">
-        <v>13767500</v>
+        <v>14703400</v>
       </c>
       <c r="G15" s="3">
-        <v>14053200</v>
+        <v>15008600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>78721600</v>
+        <v>84073400</v>
       </c>
       <c r="E17" s="3">
-        <v>74907000</v>
+        <v>79999500</v>
       </c>
       <c r="F17" s="3">
-        <v>72618700</v>
+        <v>77555700</v>
       </c>
       <c r="G17" s="3">
-        <v>70810000</v>
+        <v>75624000</v>
       </c>
       <c r="H17" s="3">
-        <v>68892700</v>
+        <v>73576400</v>
       </c>
       <c r="I17" s="3">
-        <v>61373200</v>
+        <v>65545700</v>
       </c>
       <c r="J17" s="3">
-        <v>61141700</v>
+        <v>65298400</v>
       </c>
       <c r="K17" s="3">
         <v>68219800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10474600</v>
+        <v>11186700</v>
       </c>
       <c r="E18" s="3">
-        <v>8889600</v>
+        <v>9494000</v>
       </c>
       <c r="F18" s="3">
-        <v>10392600</v>
+        <v>11099200</v>
       </c>
       <c r="G18" s="3">
-        <v>10150000</v>
+        <v>10840100</v>
       </c>
       <c r="H18" s="3">
-        <v>7784200</v>
+        <v>8313400</v>
       </c>
       <c r="I18" s="3">
-        <v>8026800</v>
+        <v>8572500</v>
       </c>
       <c r="J18" s="3">
-        <v>5460500</v>
+        <v>5831700</v>
       </c>
       <c r="K18" s="3">
         <v>-4350300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>570400</v>
+        <v>609200</v>
       </c>
       <c r="E20" s="3">
-        <v>-862800</v>
+        <v>-921500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2073400</v>
+        <v>-2214400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2106700</v>
+        <v>-2249900</v>
       </c>
       <c r="H20" s="3">
-        <v>397600</v>
+        <v>424700</v>
       </c>
       <c r="I20" s="3">
-        <v>-257000</v>
+        <v>-274400</v>
       </c>
       <c r="J20" s="3">
-        <v>-456300</v>
+        <v>-487400</v>
       </c>
       <c r="K20" s="3">
         <v>-80200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>30128600</v>
+        <v>32319200</v>
       </c>
       <c r="E21" s="3">
-        <v>23250500</v>
+        <v>24944800</v>
       </c>
       <c r="F21" s="3">
-        <v>24368200</v>
+        <v>26144500</v>
       </c>
       <c r="G21" s="3">
-        <v>22765400</v>
+        <v>24422900</v>
       </c>
       <c r="H21" s="3">
-        <v>20681200</v>
+        <v>22180500</v>
       </c>
       <c r="I21" s="3">
-        <v>19404400</v>
+        <v>20810400</v>
       </c>
       <c r="J21" s="3">
-        <v>17001800</v>
+        <v>18247200</v>
       </c>
       <c r="K21" s="3">
         <v>19715700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3003800</v>
+        <v>3208000</v>
       </c>
       <c r="E22" s="3">
-        <v>2319300</v>
+        <v>2477000</v>
       </c>
       <c r="F22" s="3">
-        <v>2787800</v>
+        <v>2977400</v>
       </c>
       <c r="G22" s="3">
-        <v>3007100</v>
+        <v>3211600</v>
       </c>
       <c r="H22" s="3">
-        <v>2889700</v>
+        <v>3086200</v>
       </c>
       <c r="I22" s="3">
-        <v>2951800</v>
+        <v>3152400</v>
       </c>
       <c r="J22" s="3">
-        <v>2647200</v>
+        <v>2827100</v>
       </c>
       <c r="K22" s="3">
         <v>2568200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8041200</v>
+        <v>8587900</v>
       </c>
       <c r="E23" s="3">
-        <v>5707500</v>
+        <v>6095500</v>
       </c>
       <c r="F23" s="3">
-        <v>5531400</v>
+        <v>5907400</v>
       </c>
       <c r="G23" s="3">
-        <v>5036300</v>
+        <v>5378600</v>
       </c>
       <c r="H23" s="3">
-        <v>5292100</v>
+        <v>5651900</v>
       </c>
       <c r="I23" s="3">
-        <v>4818100</v>
+        <v>5145600</v>
       </c>
       <c r="J23" s="3">
-        <v>2357000</v>
+        <v>2517200</v>
       </c>
       <c r="K23" s="3">
         <v>-6998700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2207400</v>
+        <v>2357500</v>
       </c>
       <c r="E24" s="3">
-        <v>2020300</v>
+        <v>2157600</v>
       </c>
       <c r="F24" s="3">
-        <v>-618000</v>
+        <v>-660100</v>
       </c>
       <c r="G24" s="3">
-        <v>1598300</v>
+        <v>1706900</v>
       </c>
       <c r="H24" s="3">
-        <v>1413300</v>
+        <v>1509400</v>
       </c>
       <c r="I24" s="3">
-        <v>1225000</v>
+        <v>1308300</v>
       </c>
       <c r="J24" s="3">
-        <v>1023400</v>
+        <v>1093000</v>
       </c>
       <c r="K24" s="3">
         <v>-1664600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5833700</v>
+        <v>6230300</v>
       </c>
       <c r="E26" s="3">
-        <v>3687200</v>
+        <v>3937900</v>
       </c>
       <c r="F26" s="3">
-        <v>6149400</v>
+        <v>6567500</v>
       </c>
       <c r="G26" s="3">
-        <v>3438000</v>
+        <v>3671700</v>
       </c>
       <c r="H26" s="3">
-        <v>3878800</v>
+        <v>4142500</v>
       </c>
       <c r="I26" s="3">
-        <v>3593100</v>
+        <v>3837300</v>
       </c>
       <c r="J26" s="3">
-        <v>1333600</v>
+        <v>1424200</v>
       </c>
       <c r="K26" s="3">
         <v>-5334100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4283100</v>
+        <v>4574300</v>
       </c>
       <c r="E27" s="3">
-        <v>2399100</v>
+        <v>2562200</v>
       </c>
       <c r="F27" s="3">
-        <v>3833400</v>
+        <v>4094000</v>
       </c>
       <c r="G27" s="3">
-        <v>2962800</v>
+        <v>3164300</v>
       </c>
       <c r="H27" s="3">
-        <v>3604100</v>
+        <v>3849200</v>
       </c>
       <c r="I27" s="3">
-        <v>3238600</v>
+        <v>3458800</v>
       </c>
       <c r="J27" s="3">
-        <v>1030100</v>
+        <v>1100100</v>
       </c>
       <c r="K27" s="3">
         <v>-5877600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-570400</v>
+        <v>-609200</v>
       </c>
       <c r="E32" s="3">
-        <v>862800</v>
+        <v>921500</v>
       </c>
       <c r="F32" s="3">
-        <v>2073400</v>
+        <v>2214400</v>
       </c>
       <c r="G32" s="3">
-        <v>2106700</v>
+        <v>2249900</v>
       </c>
       <c r="H32" s="3">
-        <v>-397600</v>
+        <v>-424700</v>
       </c>
       <c r="I32" s="3">
-        <v>257000</v>
+        <v>274400</v>
       </c>
       <c r="J32" s="3">
-        <v>456300</v>
+        <v>487400</v>
       </c>
       <c r="K32" s="3">
         <v>80200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4283100</v>
+        <v>4574300</v>
       </c>
       <c r="E33" s="3">
-        <v>2399100</v>
+        <v>2562200</v>
       </c>
       <c r="F33" s="3">
-        <v>3833400</v>
+        <v>4094000</v>
       </c>
       <c r="G33" s="3">
-        <v>2962800</v>
+        <v>3164300</v>
       </c>
       <c r="H33" s="3">
-        <v>3604100</v>
+        <v>3849200</v>
       </c>
       <c r="I33" s="3">
-        <v>3238600</v>
+        <v>3458800</v>
       </c>
       <c r="J33" s="3">
-        <v>1030100</v>
+        <v>1100100</v>
       </c>
       <c r="K33" s="3">
         <v>-5877600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4283100</v>
+        <v>4574300</v>
       </c>
       <c r="E35" s="3">
-        <v>2399100</v>
+        <v>2562200</v>
       </c>
       <c r="F35" s="3">
-        <v>3833400</v>
+        <v>4094000</v>
       </c>
       <c r="G35" s="3">
-        <v>2962800</v>
+        <v>3164300</v>
       </c>
       <c r="H35" s="3">
-        <v>3604100</v>
+        <v>3849200</v>
       </c>
       <c r="I35" s="3">
-        <v>3238600</v>
+        <v>3458800</v>
       </c>
       <c r="J35" s="3">
-        <v>1030100</v>
+        <v>1100100</v>
       </c>
       <c r="K35" s="3">
         <v>-5877600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5985200</v>
+        <v>6379400</v>
       </c>
       <c r="E41" s="3">
-        <v>4083000</v>
+        <v>4351900</v>
       </c>
       <c r="F41" s="3">
-        <v>3675700</v>
+        <v>3917800</v>
       </c>
       <c r="G41" s="3">
-        <v>8597600</v>
+        <v>9163900</v>
       </c>
       <c r="H41" s="3">
-        <v>7654300</v>
+        <v>8158500</v>
       </c>
       <c r="I41" s="3">
-        <v>8349000</v>
+        <v>8899000</v>
       </c>
       <c r="J41" s="3">
-        <v>8845100</v>
+        <v>9427700</v>
       </c>
       <c r="K41" s="3">
         <v>4420500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32200</v>
+        <v>34300</v>
       </c>
       <c r="E42" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H42" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="I42" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J42" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="K42" s="3">
         <v>2301400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18134100</v>
+        <v>19328600</v>
       </c>
       <c r="E43" s="3">
-        <v>16568200</v>
+        <v>17659500</v>
       </c>
       <c r="F43" s="3">
-        <v>14398500</v>
+        <v>15346900</v>
       </c>
       <c r="G43" s="3">
-        <v>16296300</v>
+        <v>17369700</v>
       </c>
       <c r="H43" s="3">
-        <v>13385300</v>
+        <v>14267000</v>
       </c>
       <c r="I43" s="3">
-        <v>14616100</v>
+        <v>15578800</v>
       </c>
       <c r="J43" s="3">
-        <v>11272200</v>
+        <v>12014700</v>
       </c>
       <c r="K43" s="3">
         <v>9036500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1740200</v>
+        <v>1854800</v>
       </c>
       <c r="E44" s="3">
-        <v>1986500</v>
+        <v>2117400</v>
       </c>
       <c r="F44" s="3">
-        <v>2203000</v>
+        <v>2348100</v>
       </c>
       <c r="G44" s="3">
-        <v>1807900</v>
+        <v>1926900</v>
       </c>
       <c r="H44" s="3">
-        <v>2049800</v>
+        <v>2184800</v>
       </c>
       <c r="I44" s="3">
-        <v>1668000</v>
+        <v>1777900</v>
       </c>
       <c r="J44" s="3">
-        <v>1178600</v>
+        <v>1256200</v>
       </c>
       <c r="K44" s="3">
         <v>1214400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1508200</v>
+        <v>1607600</v>
       </c>
       <c r="E45" s="3">
-        <v>1620300</v>
+        <v>1727000</v>
       </c>
       <c r="F45" s="3">
-        <v>2353900</v>
+        <v>2508900</v>
       </c>
       <c r="G45" s="3">
-        <v>2858800</v>
+        <v>3047200</v>
       </c>
       <c r="H45" s="3">
-        <v>12624000</v>
+        <v>13455500</v>
       </c>
       <c r="I45" s="3">
-        <v>8433400</v>
+        <v>8988900</v>
       </c>
       <c r="J45" s="3">
-        <v>3073000</v>
+        <v>3275500</v>
       </c>
       <c r="K45" s="3">
         <v>1735900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27399900</v>
+        <v>29204600</v>
       </c>
       <c r="E46" s="3">
-        <v>24271300</v>
+        <v>25870000</v>
       </c>
       <c r="F46" s="3">
-        <v>22631000</v>
+        <v>24121700</v>
       </c>
       <c r="G46" s="3">
-        <v>29562900</v>
+        <v>31510100</v>
       </c>
       <c r="H46" s="3">
-        <v>35717800</v>
+        <v>38070500</v>
       </c>
       <c r="I46" s="3">
-        <v>33069800</v>
+        <v>35248100</v>
       </c>
       <c r="J46" s="3">
-        <v>24374500</v>
+        <v>25980000</v>
       </c>
       <c r="K46" s="3">
         <v>16490900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4977500</v>
+        <v>5305300</v>
       </c>
       <c r="E47" s="3">
-        <v>2398300</v>
+        <v>2556200</v>
       </c>
       <c r="F47" s="3">
-        <v>7066100</v>
+        <v>7531500</v>
       </c>
       <c r="G47" s="3">
-        <v>9556500</v>
+        <v>10186000</v>
       </c>
       <c r="H47" s="3">
-        <v>4829800</v>
+        <v>5148000</v>
       </c>
       <c r="I47" s="3">
-        <v>3219500</v>
+        <v>3431600</v>
       </c>
       <c r="J47" s="3">
-        <v>8355700</v>
+        <v>8906100</v>
       </c>
       <c r="K47" s="3">
         <v>9472400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74962600</v>
+        <v>79900200</v>
       </c>
       <c r="E48" s="3">
-        <v>56190300</v>
+        <v>59891400</v>
       </c>
       <c r="F48" s="3">
-        <v>52025200</v>
+        <v>55452000</v>
       </c>
       <c r="G48" s="3">
-        <v>51892000</v>
+        <v>55310000</v>
       </c>
       <c r="H48" s="3">
-        <v>49538100</v>
+        <v>52801100</v>
       </c>
       <c r="I48" s="3">
-        <v>43965800</v>
+        <v>46861800</v>
       </c>
       <c r="J48" s="3">
-        <v>41536500</v>
+        <v>44272400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>75690600</v>
+        <v>80676100</v>
       </c>
       <c r="E49" s="3">
-        <v>72081500</v>
+        <v>76829400</v>
       </c>
       <c r="F49" s="3">
-        <v>69767600</v>
+        <v>74363000</v>
       </c>
       <c r="G49" s="3">
-        <v>67252800</v>
+        <v>71682600</v>
       </c>
       <c r="H49" s="3">
-        <v>63286300</v>
+        <v>67454900</v>
       </c>
       <c r="I49" s="3">
-        <v>57226800</v>
+        <v>60996200</v>
       </c>
       <c r="J49" s="3">
-        <v>51014200</v>
+        <v>54374400</v>
       </c>
       <c r="K49" s="3">
         <v>75914600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6381300</v>
+        <v>6801700</v>
       </c>
       <c r="E52" s="3">
-        <v>6395800</v>
+        <v>6817100</v>
       </c>
       <c r="F52" s="3">
-        <v>5362600</v>
+        <v>5715800</v>
       </c>
       <c r="G52" s="3">
-        <v>6524500</v>
+        <v>6954300</v>
       </c>
       <c r="H52" s="3">
-        <v>6350300</v>
+        <v>6768600</v>
       </c>
       <c r="I52" s="3">
-        <v>6081700</v>
+        <v>6482300</v>
       </c>
       <c r="J52" s="3">
-        <v>5839800</v>
+        <v>6224400</v>
       </c>
       <c r="K52" s="3">
         <v>7088700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189412000</v>
+        <v>201888000</v>
       </c>
       <c r="E54" s="3">
-        <v>161337000</v>
+        <v>171964000</v>
       </c>
       <c r="F54" s="3">
-        <v>156853000</v>
+        <v>167184000</v>
       </c>
       <c r="G54" s="3">
-        <v>164789000</v>
+        <v>175643000</v>
       </c>
       <c r="H54" s="3">
-        <v>159722000</v>
+        <v>170243000</v>
       </c>
       <c r="I54" s="3">
-        <v>143564000</v>
+        <v>153020000</v>
       </c>
       <c r="J54" s="3">
-        <v>131121000</v>
+        <v>139757000</v>
       </c>
       <c r="K54" s="3">
         <v>118520000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10443200</v>
+        <v>11131100</v>
       </c>
       <c r="E57" s="3">
-        <v>11873800</v>
+        <v>12655800</v>
       </c>
       <c r="F57" s="3">
-        <v>12134600</v>
+        <v>12933800</v>
       </c>
       <c r="G57" s="3">
-        <v>11528600</v>
+        <v>12288000</v>
       </c>
       <c r="H57" s="3">
-        <v>12248900</v>
+        <v>13055700</v>
       </c>
       <c r="I57" s="3">
-        <v>10688500</v>
+        <v>11392500</v>
       </c>
       <c r="J57" s="3">
-        <v>8025000</v>
+        <v>8553500</v>
       </c>
       <c r="K57" s="3">
         <v>7043700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14441800</v>
+        <v>15393100</v>
       </c>
       <c r="E58" s="3">
-        <v>9563100</v>
+        <v>10193000</v>
       </c>
       <c r="F58" s="3">
-        <v>7715300</v>
+        <v>8223500</v>
       </c>
       <c r="G58" s="3">
-        <v>12602900</v>
+        <v>13433000</v>
       </c>
       <c r="H58" s="3">
-        <v>13950200</v>
+        <v>14869100</v>
       </c>
       <c r="I58" s="3">
-        <v>9111500</v>
+        <v>9711600</v>
       </c>
       <c r="J58" s="3">
-        <v>6550000</v>
+        <v>6981500</v>
       </c>
       <c r="K58" s="3">
         <v>8352500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11641800</v>
+        <v>12408600</v>
       </c>
       <c r="E59" s="3">
-        <v>10907100</v>
+        <v>11625500</v>
       </c>
       <c r="F59" s="3">
-        <v>10520900</v>
+        <v>11213900</v>
       </c>
       <c r="G59" s="3">
-        <v>12631700</v>
+        <v>13463800</v>
       </c>
       <c r="H59" s="3">
-        <v>11032500</v>
+        <v>11759200</v>
       </c>
       <c r="I59" s="3">
-        <v>11494200</v>
+        <v>12251300</v>
       </c>
       <c r="J59" s="3">
-        <v>10391100</v>
+        <v>11075500</v>
       </c>
       <c r="K59" s="3">
         <v>17387900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36526800</v>
+        <v>38932800</v>
       </c>
       <c r="E60" s="3">
-        <v>32344000</v>
+        <v>34474400</v>
       </c>
       <c r="F60" s="3">
-        <v>30370800</v>
+        <v>32371200</v>
       </c>
       <c r="G60" s="3">
-        <v>36763200</v>
+        <v>39184700</v>
       </c>
       <c r="H60" s="3">
-        <v>37231600</v>
+        <v>39683900</v>
       </c>
       <c r="I60" s="3">
-        <v>31294100</v>
+        <v>33355400</v>
       </c>
       <c r="J60" s="3">
-        <v>24966100</v>
+        <v>26610500</v>
       </c>
       <c r="K60" s="3">
         <v>25248500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77741500</v>
+        <v>82862100</v>
       </c>
       <c r="E61" s="3">
-        <v>56568700</v>
+        <v>60294800</v>
       </c>
       <c r="F61" s="3">
-        <v>53625500</v>
+        <v>57157700</v>
       </c>
       <c r="G61" s="3">
-        <v>55237000</v>
+        <v>58875300</v>
       </c>
       <c r="H61" s="3">
-        <v>52372600</v>
+        <v>55822200</v>
       </c>
       <c r="I61" s="3">
-        <v>48809000</v>
+        <v>52023900</v>
       </c>
       <c r="J61" s="3">
-        <v>46899000</v>
+        <v>49988200</v>
       </c>
       <c r="K61" s="3">
         <v>37940300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23836300</v>
+        <v>25406300</v>
       </c>
       <c r="E62" s="3">
-        <v>24218100</v>
+        <v>25813200</v>
       </c>
       <c r="F62" s="3">
-        <v>25722900</v>
+        <v>27417300</v>
       </c>
       <c r="G62" s="3">
-        <v>29678300</v>
+        <v>31633100</v>
       </c>
       <c r="H62" s="3">
-        <v>27779400</v>
+        <v>29609200</v>
       </c>
       <c r="I62" s="3">
-        <v>25654100</v>
+        <v>27343900</v>
       </c>
       <c r="J62" s="3">
-        <v>23672000</v>
+        <v>25231300</v>
       </c>
       <c r="K62" s="3">
         <v>28140600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>154223000</v>
+        <v>164382000</v>
       </c>
       <c r="E66" s="3">
-        <v>127037000</v>
+        <v>135404000</v>
       </c>
       <c r="F66" s="3">
-        <v>122745000</v>
+        <v>130830000</v>
       </c>
       <c r="G66" s="3">
-        <v>132266000</v>
+        <v>140978000</v>
       </c>
       <c r="H66" s="3">
-        <v>127094000</v>
+        <v>135466000</v>
       </c>
       <c r="I66" s="3">
-        <v>115334000</v>
+        <v>122931000</v>
       </c>
       <c r="J66" s="3">
-        <v>104620000</v>
+        <v>111511000</v>
       </c>
       <c r="K66" s="3">
         <v>90051400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38667700</v>
+        <v>-41214600</v>
       </c>
       <c r="E72" s="3">
-        <v>-39093800</v>
+        <v>-41668800</v>
       </c>
       <c r="F72" s="3">
-        <v>-39163700</v>
+        <v>-41743400</v>
       </c>
       <c r="G72" s="3">
-        <v>-40010500</v>
+        <v>-42645900</v>
       </c>
       <c r="H72" s="3">
-        <v>-39636500</v>
+        <v>-42247300</v>
       </c>
       <c r="I72" s="3">
-        <v>-40906100</v>
+        <v>-43600500</v>
       </c>
       <c r="J72" s="3">
-        <v>-40515500</v>
+        <v>-43184100</v>
       </c>
       <c r="K72" s="3">
         <v>-75680700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35188400</v>
+        <v>37506200</v>
       </c>
       <c r="E76" s="3">
-        <v>34300600</v>
+        <v>36559900</v>
       </c>
       <c r="F76" s="3">
-        <v>34107500</v>
+        <v>36354100</v>
       </c>
       <c r="G76" s="3">
-        <v>32522700</v>
+        <v>34664900</v>
       </c>
       <c r="H76" s="3">
-        <v>32628100</v>
+        <v>34777300</v>
       </c>
       <c r="I76" s="3">
-        <v>28230000</v>
+        <v>30089400</v>
       </c>
       <c r="J76" s="3">
-        <v>26500900</v>
+        <v>28246500</v>
       </c>
       <c r="K76" s="3">
         <v>28468900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4283100</v>
+        <v>4574300</v>
       </c>
       <c r="E81" s="3">
-        <v>2399100</v>
+        <v>2562200</v>
       </c>
       <c r="F81" s="3">
-        <v>3833400</v>
+        <v>4094000</v>
       </c>
       <c r="G81" s="3">
-        <v>2962800</v>
+        <v>3164300</v>
       </c>
       <c r="H81" s="3">
-        <v>3604100</v>
+        <v>3849200</v>
       </c>
       <c r="I81" s="3">
-        <v>3238600</v>
+        <v>3458800</v>
       </c>
       <c r="J81" s="3">
-        <v>1030100</v>
+        <v>1100100</v>
       </c>
       <c r="K81" s="3">
         <v>-5877600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19210200</v>
+        <v>20516200</v>
       </c>
       <c r="E83" s="3">
-        <v>15324800</v>
+        <v>16366600</v>
       </c>
       <c r="F83" s="3">
-        <v>16155500</v>
+        <v>17253800</v>
       </c>
       <c r="G83" s="3">
-        <v>14819700</v>
+        <v>15827200</v>
       </c>
       <c r="H83" s="3">
-        <v>12582300</v>
+        <v>13437700</v>
       </c>
       <c r="I83" s="3">
-        <v>11711800</v>
+        <v>12508000</v>
       </c>
       <c r="J83" s="3">
-        <v>12077300</v>
+        <v>12898300</v>
       </c>
       <c r="K83" s="3">
         <v>24108800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25556800</v>
+        <v>27294200</v>
       </c>
       <c r="E89" s="3">
-        <v>19870300</v>
+        <v>21221200</v>
       </c>
       <c r="F89" s="3">
-        <v>19049600</v>
+        <v>20344700</v>
       </c>
       <c r="G89" s="3">
-        <v>17201000</v>
+        <v>18370400</v>
       </c>
       <c r="H89" s="3">
-        <v>16611800</v>
+        <v>17741100</v>
       </c>
       <c r="I89" s="3">
-        <v>14869500</v>
+        <v>15880400</v>
       </c>
       <c r="J89" s="3">
-        <v>14382200</v>
+        <v>15360000</v>
       </c>
       <c r="K89" s="3">
         <v>14907500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11056100</v>
+        <v>-11807700</v>
       </c>
       <c r="E91" s="3">
-        <v>-10122400</v>
+        <v>-10810500</v>
       </c>
       <c r="F91" s="3">
-        <v>-10133400</v>
+        <v>-10822400</v>
       </c>
       <c r="G91" s="3">
-        <v>-8901800</v>
+        <v>-9507000</v>
       </c>
       <c r="H91" s="3">
-        <v>-9045800</v>
+        <v>-9660700</v>
       </c>
       <c r="I91" s="3">
-        <v>-7959200</v>
+        <v>-8500300</v>
       </c>
       <c r="J91" s="3">
-        <v>-7276900</v>
+        <v>-7771700</v>
       </c>
       <c r="K91" s="3">
         <v>-6171900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15761100</v>
+        <v>-16832700</v>
       </c>
       <c r="E94" s="3">
-        <v>-15835400</v>
+        <v>-16911900</v>
       </c>
       <c r="F94" s="3">
-        <v>-18623200</v>
+        <v>-19889300</v>
       </c>
       <c r="G94" s="3">
-        <v>-15072200</v>
+        <v>-16096900</v>
       </c>
       <c r="H94" s="3">
-        <v>-16630600</v>
+        <v>-17761200</v>
       </c>
       <c r="I94" s="3">
-        <v>-11918900</v>
+        <v>-12729200</v>
       </c>
       <c r="J94" s="3">
-        <v>-10960800</v>
+        <v>-11706000</v>
       </c>
       <c r="K94" s="3">
         <v>-7324800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3944200</v>
+        <v>-4212300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3604100</v>
+        <v>-3849200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1726700</v>
+        <v>-1844100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1767700</v>
+        <v>-1887900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1391100</v>
+        <v>-1485700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1428800</v>
+        <v>-1525900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2484300</v>
+        <v>-2653200</v>
       </c>
       <c r="K96" s="3">
         <v>-3733200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7909400</v>
+        <v>-8447100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3609700</v>
+        <v>-3855100</v>
       </c>
       <c r="F100" s="3">
-        <v>-5088300</v>
+        <v>-5434200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1464200</v>
+        <v>-1563800</v>
       </c>
       <c r="H100" s="3">
-        <v>-970300</v>
+        <v>-1036200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3803500</v>
+        <v>-4062100</v>
       </c>
       <c r="J100" s="3">
-        <v>1132000</v>
+        <v>1208900</v>
       </c>
       <c r="K100" s="3">
         <v>-7247900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="E101" s="3">
-        <v>-18800</v>
+        <v>-20100</v>
       </c>
       <c r="F101" s="3">
-        <v>-250300</v>
+        <v>-267300</v>
       </c>
       <c r="G101" s="3">
-        <v>276900</v>
+        <v>295700</v>
       </c>
       <c r="H101" s="3">
-        <v>295700</v>
+        <v>315800</v>
       </c>
       <c r="I101" s="3">
-        <v>357800</v>
+        <v>382100</v>
       </c>
       <c r="J101" s="3">
-        <v>-185000</v>
+        <v>-197500</v>
       </c>
       <c r="K101" s="3">
         <v>-30700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1898400</v>
+        <v>2027500</v>
       </c>
       <c r="E102" s="3">
-        <v>406500</v>
+        <v>434100</v>
       </c>
       <c r="F102" s="3">
-        <v>-4912200</v>
+        <v>-5246200</v>
       </c>
       <c r="G102" s="3">
-        <v>941500</v>
+        <v>1005500</v>
       </c>
       <c r="H102" s="3">
-        <v>-693400</v>
+        <v>-740500</v>
       </c>
       <c r="I102" s="3">
-        <v>-495100</v>
+        <v>-528800</v>
       </c>
       <c r="J102" s="3">
-        <v>4368400</v>
+        <v>4665400</v>
       </c>
       <c r="K102" s="3">
         <v>304100</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>95260100</v>
+        <v>96331200</v>
       </c>
       <c r="E8" s="3">
-        <v>89493500</v>
+        <v>90499700</v>
       </c>
       <c r="F8" s="3">
-        <v>88654800</v>
+        <v>89651600</v>
       </c>
       <c r="G8" s="3">
-        <v>86464100</v>
+        <v>87436200</v>
       </c>
       <c r="H8" s="3">
-        <v>81889800</v>
+        <v>82810500</v>
       </c>
       <c r="I8" s="3">
-        <v>74118100</v>
+        <v>74951500</v>
       </c>
       <c r="J8" s="3">
-        <v>71130100</v>
+        <v>71929900</v>
       </c>
       <c r="K8" s="3">
         <v>63869600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40820700</v>
+        <v>41279700</v>
       </c>
       <c r="E9" s="3">
-        <v>42278000</v>
+        <v>42753400</v>
       </c>
       <c r="F9" s="3">
-        <v>42404600</v>
+        <v>42881400</v>
       </c>
       <c r="G9" s="3">
-        <v>41382600</v>
+        <v>41847900</v>
       </c>
       <c r="H9" s="3">
-        <v>49652200</v>
+        <v>50210500</v>
       </c>
       <c r="I9" s="3">
-        <v>45587800</v>
+        <v>46100400</v>
       </c>
       <c r="J9" s="3">
-        <v>42886000</v>
+        <v>43368200</v>
       </c>
       <c r="K9" s="3">
         <v>37613100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>54439400</v>
+        <v>55051500</v>
       </c>
       <c r="E10" s="3">
-        <v>47215500</v>
+        <v>47746300</v>
       </c>
       <c r="F10" s="3">
-        <v>46250200</v>
+        <v>46770200</v>
       </c>
       <c r="G10" s="3">
-        <v>45081500</v>
+        <v>45588400</v>
       </c>
       <c r="H10" s="3">
-        <v>32237600</v>
+        <v>32600000</v>
       </c>
       <c r="I10" s="3">
-        <v>28530400</v>
+        <v>28851100</v>
       </c>
       <c r="J10" s="3">
-        <v>28244100</v>
+        <v>28561700</v>
       </c>
       <c r="K10" s="3">
         <v>26256500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>869400</v>
+        <v>879200</v>
       </c>
       <c r="E14" s="3">
-        <v>1424200</v>
+        <v>1440200</v>
       </c>
       <c r="F14" s="3">
-        <v>580800</v>
+        <v>587300</v>
       </c>
       <c r="G14" s="3">
-        <v>798500</v>
+        <v>807400</v>
       </c>
       <c r="H14" s="3">
-        <v>175100</v>
+        <v>177000</v>
       </c>
       <c r="I14" s="3">
-        <v>140800</v>
+        <v>142300</v>
       </c>
       <c r="J14" s="3">
-        <v>967600</v>
+        <v>978500</v>
       </c>
       <c r="K14" s="3">
         <v>24202100</v>
@@ -930,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20428700</v>
+        <v>20658400</v>
       </c>
       <c r="E15" s="3">
-        <v>15512600</v>
+        <v>15687000</v>
       </c>
       <c r="F15" s="3">
-        <v>14703400</v>
+        <v>14868800</v>
       </c>
       <c r="G15" s="3">
-        <v>15008600</v>
+        <v>15177400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>84073400</v>
+        <v>85018700</v>
       </c>
       <c r="E17" s="3">
-        <v>79999500</v>
+        <v>80899000</v>
       </c>
       <c r="F17" s="3">
-        <v>77555700</v>
+        <v>78427700</v>
       </c>
       <c r="G17" s="3">
-        <v>75624000</v>
+        <v>76474300</v>
       </c>
       <c r="H17" s="3">
-        <v>73576400</v>
+        <v>74403600</v>
       </c>
       <c r="I17" s="3">
-        <v>65545700</v>
+        <v>66282600</v>
       </c>
       <c r="J17" s="3">
-        <v>65298400</v>
+        <v>66032600</v>
       </c>
       <c r="K17" s="3">
         <v>68219800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11186700</v>
+        <v>11312500</v>
       </c>
       <c r="E18" s="3">
-        <v>9494000</v>
+        <v>9600700</v>
       </c>
       <c r="F18" s="3">
-        <v>11099200</v>
+        <v>11223900</v>
       </c>
       <c r="G18" s="3">
-        <v>10840100</v>
+        <v>10962000</v>
       </c>
       <c r="H18" s="3">
-        <v>8313400</v>
+        <v>8406900</v>
       </c>
       <c r="I18" s="3">
-        <v>8572500</v>
+        <v>8668900</v>
       </c>
       <c r="J18" s="3">
-        <v>5831700</v>
+        <v>5897300</v>
       </c>
       <c r="K18" s="3">
         <v>-4350300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>609200</v>
+        <v>616000</v>
       </c>
       <c r="E20" s="3">
-        <v>-921500</v>
+        <v>-931800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2214400</v>
+        <v>-2239300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2249900</v>
+        <v>-2275200</v>
       </c>
       <c r="H20" s="3">
-        <v>424700</v>
+        <v>429400</v>
       </c>
       <c r="I20" s="3">
-        <v>-274400</v>
+        <v>-277500</v>
       </c>
       <c r="J20" s="3">
-        <v>-487400</v>
+        <v>-492800</v>
       </c>
       <c r="K20" s="3">
         <v>-80200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>32319200</v>
+        <v>32590400</v>
       </c>
       <c r="E21" s="3">
-        <v>24944800</v>
+        <v>25151700</v>
       </c>
       <c r="F21" s="3">
-        <v>26144500</v>
+        <v>26361000</v>
       </c>
       <c r="G21" s="3">
-        <v>24422900</v>
+        <v>24626400</v>
       </c>
       <c r="H21" s="3">
-        <v>22180500</v>
+        <v>22369500</v>
       </c>
       <c r="I21" s="3">
-        <v>20810400</v>
+        <v>20988100</v>
       </c>
       <c r="J21" s="3">
-        <v>18247200</v>
+        <v>18394400</v>
       </c>
       <c r="K21" s="3">
         <v>19715700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3208000</v>
+        <v>3244100</v>
       </c>
       <c r="E22" s="3">
-        <v>2477000</v>
+        <v>2504800</v>
       </c>
       <c r="F22" s="3">
-        <v>2977400</v>
+        <v>3010800</v>
       </c>
       <c r="G22" s="3">
-        <v>3211600</v>
+        <v>3247700</v>
       </c>
       <c r="H22" s="3">
-        <v>3086200</v>
+        <v>3120900</v>
       </c>
       <c r="I22" s="3">
-        <v>3152400</v>
+        <v>3187900</v>
       </c>
       <c r="J22" s="3">
-        <v>2827100</v>
+        <v>2858900</v>
       </c>
       <c r="K22" s="3">
         <v>2568200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8587900</v>
+        <v>8684400</v>
       </c>
       <c r="E23" s="3">
-        <v>6095500</v>
+        <v>6164000</v>
       </c>
       <c r="F23" s="3">
-        <v>5907400</v>
+        <v>5973800</v>
       </c>
       <c r="G23" s="3">
-        <v>5378600</v>
+        <v>5439100</v>
       </c>
       <c r="H23" s="3">
-        <v>5651900</v>
+        <v>5715400</v>
       </c>
       <c r="I23" s="3">
-        <v>5145600</v>
+        <v>5203500</v>
       </c>
       <c r="J23" s="3">
-        <v>2517200</v>
+        <v>2545500</v>
       </c>
       <c r="K23" s="3">
         <v>-6998700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2357500</v>
+        <v>2384000</v>
       </c>
       <c r="E24" s="3">
-        <v>2157600</v>
+        <v>2181900</v>
       </c>
       <c r="F24" s="3">
-        <v>-660100</v>
+        <v>-667500</v>
       </c>
       <c r="G24" s="3">
-        <v>1706900</v>
+        <v>1726100</v>
       </c>
       <c r="H24" s="3">
-        <v>1509400</v>
+        <v>1526400</v>
       </c>
       <c r="I24" s="3">
-        <v>1308300</v>
+        <v>1323000</v>
       </c>
       <c r="J24" s="3">
-        <v>1093000</v>
+        <v>1105300</v>
       </c>
       <c r="K24" s="3">
         <v>-1664600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6230300</v>
+        <v>6300400</v>
       </c>
       <c r="E26" s="3">
-        <v>3937900</v>
+        <v>3982100</v>
       </c>
       <c r="F26" s="3">
-        <v>6567500</v>
+        <v>6641300</v>
       </c>
       <c r="G26" s="3">
-        <v>3671700</v>
+        <v>3713000</v>
       </c>
       <c r="H26" s="3">
-        <v>4142500</v>
+        <v>4189100</v>
       </c>
       <c r="I26" s="3">
-        <v>3837300</v>
+        <v>3880500</v>
       </c>
       <c r="J26" s="3">
-        <v>1424200</v>
+        <v>1440200</v>
       </c>
       <c r="K26" s="3">
         <v>-5334100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4574300</v>
+        <v>4625700</v>
       </c>
       <c r="E27" s="3">
-        <v>2562200</v>
+        <v>2591000</v>
       </c>
       <c r="F27" s="3">
-        <v>4094000</v>
+        <v>4140000</v>
       </c>
       <c r="G27" s="3">
-        <v>3164300</v>
+        <v>3199800</v>
       </c>
       <c r="H27" s="3">
-        <v>3849200</v>
+        <v>3892400</v>
       </c>
       <c r="I27" s="3">
-        <v>3458800</v>
+        <v>3497700</v>
       </c>
       <c r="J27" s="3">
-        <v>1100100</v>
+        <v>1112500</v>
       </c>
       <c r="K27" s="3">
         <v>-5877600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-609200</v>
+        <v>-616000</v>
       </c>
       <c r="E32" s="3">
-        <v>921500</v>
+        <v>931800</v>
       </c>
       <c r="F32" s="3">
-        <v>2214400</v>
+        <v>2239300</v>
       </c>
       <c r="G32" s="3">
-        <v>2249900</v>
+        <v>2275200</v>
       </c>
       <c r="H32" s="3">
-        <v>-424700</v>
+        <v>-429400</v>
       </c>
       <c r="I32" s="3">
-        <v>274400</v>
+        <v>277500</v>
       </c>
       <c r="J32" s="3">
-        <v>487400</v>
+        <v>492800</v>
       </c>
       <c r="K32" s="3">
         <v>80200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4574300</v>
+        <v>4625700</v>
       </c>
       <c r="E33" s="3">
-        <v>2562200</v>
+        <v>2591000</v>
       </c>
       <c r="F33" s="3">
-        <v>4094000</v>
+        <v>4140000</v>
       </c>
       <c r="G33" s="3">
-        <v>3164300</v>
+        <v>3199800</v>
       </c>
       <c r="H33" s="3">
-        <v>3849200</v>
+        <v>3892400</v>
       </c>
       <c r="I33" s="3">
-        <v>3458800</v>
+        <v>3497700</v>
       </c>
       <c r="J33" s="3">
-        <v>1100100</v>
+        <v>1112500</v>
       </c>
       <c r="K33" s="3">
         <v>-5877600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4574300</v>
+        <v>4625700</v>
       </c>
       <c r="E35" s="3">
-        <v>2562200</v>
+        <v>2591000</v>
       </c>
       <c r="F35" s="3">
-        <v>4094000</v>
+        <v>4140000</v>
       </c>
       <c r="G35" s="3">
-        <v>3164300</v>
+        <v>3199800</v>
       </c>
       <c r="H35" s="3">
-        <v>3849200</v>
+        <v>3892400</v>
       </c>
       <c r="I35" s="3">
-        <v>3458800</v>
+        <v>3497700</v>
       </c>
       <c r="J35" s="3">
-        <v>1100100</v>
+        <v>1112500</v>
       </c>
       <c r="K35" s="3">
         <v>-5877600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6379400</v>
+        <v>6451100</v>
       </c>
       <c r="E41" s="3">
-        <v>4351900</v>
+        <v>4400800</v>
       </c>
       <c r="F41" s="3">
-        <v>3917800</v>
+        <v>3961800</v>
       </c>
       <c r="G41" s="3">
-        <v>9163900</v>
+        <v>9267000</v>
       </c>
       <c r="H41" s="3">
-        <v>8158500</v>
+        <v>8250200</v>
       </c>
       <c r="I41" s="3">
-        <v>8899000</v>
+        <v>8999000</v>
       </c>
       <c r="J41" s="3">
-        <v>9427700</v>
+        <v>9533700</v>
       </c>
       <c r="K41" s="3">
         <v>4420500</v>
@@ -1685,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34300</v>
+        <v>34700</v>
       </c>
       <c r="E42" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>2400</v>
       </c>
       <c r="H42" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I42" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J42" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K42" s="3">
         <v>2301400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19328600</v>
+        <v>19545900</v>
       </c>
       <c r="E43" s="3">
-        <v>17659500</v>
+        <v>17858100</v>
       </c>
       <c r="F43" s="3">
-        <v>15346900</v>
+        <v>15519500</v>
       </c>
       <c r="G43" s="3">
-        <v>17369700</v>
+        <v>17565000</v>
       </c>
       <c r="H43" s="3">
-        <v>14267000</v>
+        <v>14427400</v>
       </c>
       <c r="I43" s="3">
-        <v>15578800</v>
+        <v>15754000</v>
       </c>
       <c r="J43" s="3">
-        <v>12014700</v>
+        <v>12149800</v>
       </c>
       <c r="K43" s="3">
         <v>9036500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1854800</v>
+        <v>1875600</v>
       </c>
       <c r="E44" s="3">
-        <v>2117400</v>
+        <v>2141200</v>
       </c>
       <c r="F44" s="3">
-        <v>2348100</v>
+        <v>2374500</v>
       </c>
       <c r="G44" s="3">
-        <v>1926900</v>
+        <v>1948600</v>
       </c>
       <c r="H44" s="3">
-        <v>2184800</v>
+        <v>2209400</v>
       </c>
       <c r="I44" s="3">
-        <v>1777900</v>
+        <v>1797900</v>
       </c>
       <c r="J44" s="3">
-        <v>1256200</v>
+        <v>1270400</v>
       </c>
       <c r="K44" s="3">
         <v>1214400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1607600</v>
+        <v>1625600</v>
       </c>
       <c r="E45" s="3">
-        <v>1727000</v>
+        <v>1746500</v>
       </c>
       <c r="F45" s="3">
-        <v>2508900</v>
+        <v>2537100</v>
       </c>
       <c r="G45" s="3">
-        <v>3047200</v>
+        <v>3081400</v>
       </c>
       <c r="H45" s="3">
-        <v>13455500</v>
+        <v>13606800</v>
       </c>
       <c r="I45" s="3">
-        <v>8988900</v>
+        <v>9089900</v>
       </c>
       <c r="J45" s="3">
-        <v>3275500</v>
+        <v>3312300</v>
       </c>
       <c r="K45" s="3">
         <v>1735900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29204600</v>
+        <v>29533000</v>
       </c>
       <c r="E46" s="3">
-        <v>25870000</v>
+        <v>26160900</v>
       </c>
       <c r="F46" s="3">
-        <v>24121700</v>
+        <v>24392900</v>
       </c>
       <c r="G46" s="3">
-        <v>31510100</v>
+        <v>31864400</v>
       </c>
       <c r="H46" s="3">
-        <v>38070500</v>
+        <v>38498500</v>
       </c>
       <c r="I46" s="3">
-        <v>35248100</v>
+        <v>35644400</v>
       </c>
       <c r="J46" s="3">
-        <v>25980000</v>
+        <v>26272100</v>
       </c>
       <c r="K46" s="3">
         <v>16490900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5305300</v>
+        <v>5365000</v>
       </c>
       <c r="E47" s="3">
-        <v>2556200</v>
+        <v>2585000</v>
       </c>
       <c r="F47" s="3">
-        <v>7531500</v>
+        <v>7616200</v>
       </c>
       <c r="G47" s="3">
-        <v>10186000</v>
+        <v>10300500</v>
       </c>
       <c r="H47" s="3">
-        <v>5148000</v>
+        <v>5205900</v>
       </c>
       <c r="I47" s="3">
-        <v>3431600</v>
+        <v>3470200</v>
       </c>
       <c r="J47" s="3">
-        <v>8906100</v>
+        <v>9006200</v>
       </c>
       <c r="K47" s="3">
         <v>9472400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>79900200</v>
+        <v>80798500</v>
       </c>
       <c r="E48" s="3">
-        <v>59891400</v>
+        <v>60564800</v>
       </c>
       <c r="F48" s="3">
-        <v>55452000</v>
+        <v>56075500</v>
       </c>
       <c r="G48" s="3">
-        <v>55310000</v>
+        <v>55931900</v>
       </c>
       <c r="H48" s="3">
-        <v>52801100</v>
+        <v>53394800</v>
       </c>
       <c r="I48" s="3">
-        <v>46861800</v>
+        <v>47388700</v>
       </c>
       <c r="J48" s="3">
-        <v>44272400</v>
+        <v>44770200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>80676100</v>
+        <v>81583200</v>
       </c>
       <c r="E49" s="3">
-        <v>76829400</v>
+        <v>77693200</v>
       </c>
       <c r="F49" s="3">
-        <v>74363000</v>
+        <v>75199100</v>
       </c>
       <c r="G49" s="3">
-        <v>71682600</v>
+        <v>72488500</v>
       </c>
       <c r="H49" s="3">
-        <v>67454900</v>
+        <v>68213300</v>
       </c>
       <c r="I49" s="3">
-        <v>60996200</v>
+        <v>61682100</v>
       </c>
       <c r="J49" s="3">
-        <v>54374400</v>
+        <v>54985700</v>
       </c>
       <c r="K49" s="3">
         <v>75914600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6801700</v>
+        <v>6878100</v>
       </c>
       <c r="E52" s="3">
-        <v>6817100</v>
+        <v>6893700</v>
       </c>
       <c r="F52" s="3">
-        <v>5715800</v>
+        <v>5780000</v>
       </c>
       <c r="G52" s="3">
-        <v>6954300</v>
+        <v>7032500</v>
       </c>
       <c r="H52" s="3">
-        <v>6768600</v>
+        <v>6844700</v>
       </c>
       <c r="I52" s="3">
-        <v>6482300</v>
+        <v>6555200</v>
       </c>
       <c r="J52" s="3">
-        <v>6224400</v>
+        <v>6294400</v>
       </c>
       <c r="K52" s="3">
         <v>7088700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>201888000</v>
+        <v>204158000</v>
       </c>
       <c r="E54" s="3">
-        <v>171964000</v>
+        <v>173898000</v>
       </c>
       <c r="F54" s="3">
-        <v>167184000</v>
+        <v>169064000</v>
       </c>
       <c r="G54" s="3">
-        <v>175643000</v>
+        <v>177618000</v>
       </c>
       <c r="H54" s="3">
-        <v>170243000</v>
+        <v>172157000</v>
       </c>
       <c r="I54" s="3">
-        <v>153020000</v>
+        <v>154740000</v>
       </c>
       <c r="J54" s="3">
-        <v>139757000</v>
+        <v>141329000</v>
       </c>
       <c r="K54" s="3">
         <v>118520000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11131100</v>
+        <v>11256200</v>
       </c>
       <c r="E57" s="3">
-        <v>12655800</v>
+        <v>12798100</v>
       </c>
       <c r="F57" s="3">
-        <v>12933800</v>
+        <v>13079300</v>
       </c>
       <c r="G57" s="3">
-        <v>12288000</v>
+        <v>12426100</v>
       </c>
       <c r="H57" s="3">
-        <v>13055700</v>
+        <v>13202500</v>
       </c>
       <c r="I57" s="3">
-        <v>11392500</v>
+        <v>11520600</v>
       </c>
       <c r="J57" s="3">
-        <v>8553500</v>
+        <v>8649700</v>
       </c>
       <c r="K57" s="3">
         <v>7043700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15393100</v>
+        <v>15566200</v>
       </c>
       <c r="E58" s="3">
-        <v>10193000</v>
+        <v>10307700</v>
       </c>
       <c r="F58" s="3">
-        <v>8223500</v>
+        <v>8316000</v>
       </c>
       <c r="G58" s="3">
-        <v>13433000</v>
+        <v>13584000</v>
       </c>
       <c r="H58" s="3">
-        <v>14869100</v>
+        <v>15036200</v>
       </c>
       <c r="I58" s="3">
-        <v>9711600</v>
+        <v>9820800</v>
       </c>
       <c r="J58" s="3">
-        <v>6981500</v>
+        <v>7060000</v>
       </c>
       <c r="K58" s="3">
         <v>8352500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12408600</v>
+        <v>12548100</v>
       </c>
       <c r="E59" s="3">
-        <v>11625500</v>
+        <v>11756300</v>
       </c>
       <c r="F59" s="3">
-        <v>11213900</v>
+        <v>11340000</v>
       </c>
       <c r="G59" s="3">
-        <v>13463800</v>
+        <v>13615100</v>
       </c>
       <c r="H59" s="3">
-        <v>11759200</v>
+        <v>11891400</v>
       </c>
       <c r="I59" s="3">
-        <v>12251300</v>
+        <v>12389000</v>
       </c>
       <c r="J59" s="3">
-        <v>11075500</v>
+        <v>11200000</v>
       </c>
       <c r="K59" s="3">
         <v>17387900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38932800</v>
+        <v>39370500</v>
       </c>
       <c r="E60" s="3">
-        <v>34474400</v>
+        <v>34862100</v>
       </c>
       <c r="F60" s="3">
-        <v>32371200</v>
+        <v>32735200</v>
       </c>
       <c r="G60" s="3">
-        <v>39184700</v>
+        <v>39625300</v>
       </c>
       <c r="H60" s="3">
-        <v>39683900</v>
+        <v>40130100</v>
       </c>
       <c r="I60" s="3">
-        <v>33355400</v>
+        <v>33730400</v>
       </c>
       <c r="J60" s="3">
-        <v>26610500</v>
+        <v>26909700</v>
       </c>
       <c r="K60" s="3">
         <v>25248500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82862100</v>
+        <v>83793800</v>
       </c>
       <c r="E61" s="3">
-        <v>60294800</v>
+        <v>60972700</v>
       </c>
       <c r="F61" s="3">
-        <v>57157700</v>
+        <v>57800400</v>
       </c>
       <c r="G61" s="3">
-        <v>58875300</v>
+        <v>59537300</v>
       </c>
       <c r="H61" s="3">
-        <v>55822200</v>
+        <v>56449900</v>
       </c>
       <c r="I61" s="3">
-        <v>52023900</v>
+        <v>52608900</v>
       </c>
       <c r="J61" s="3">
-        <v>49988200</v>
+        <v>50550200</v>
       </c>
       <c r="K61" s="3">
         <v>37940300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25406300</v>
+        <v>25692000</v>
       </c>
       <c r="E62" s="3">
-        <v>25813200</v>
+        <v>26103500</v>
       </c>
       <c r="F62" s="3">
-        <v>27417300</v>
+        <v>27725500</v>
       </c>
       <c r="G62" s="3">
-        <v>31633100</v>
+        <v>31988800</v>
       </c>
       <c r="H62" s="3">
-        <v>29609200</v>
+        <v>29942100</v>
       </c>
       <c r="I62" s="3">
-        <v>27343900</v>
+        <v>27651400</v>
       </c>
       <c r="J62" s="3">
-        <v>25231300</v>
+        <v>25514900</v>
       </c>
       <c r="K62" s="3">
         <v>28140600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>164382000</v>
+        <v>166230000</v>
       </c>
       <c r="E66" s="3">
-        <v>135404000</v>
+        <v>136927000</v>
       </c>
       <c r="F66" s="3">
-        <v>130830000</v>
+        <v>132301000</v>
       </c>
       <c r="G66" s="3">
-        <v>140978000</v>
+        <v>142563000</v>
       </c>
       <c r="H66" s="3">
-        <v>135466000</v>
+        <v>136989000</v>
       </c>
       <c r="I66" s="3">
-        <v>122931000</v>
+        <v>124313000</v>
       </c>
       <c r="J66" s="3">
-        <v>111511000</v>
+        <v>112765000</v>
       </c>
       <c r="K66" s="3">
         <v>90051400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41214600</v>
+        <v>-41678000</v>
       </c>
       <c r="E72" s="3">
-        <v>-41668800</v>
+        <v>-42137300</v>
       </c>
       <c r="F72" s="3">
-        <v>-41743400</v>
+        <v>-42212700</v>
       </c>
       <c r="G72" s="3">
-        <v>-42645900</v>
+        <v>-43125400</v>
       </c>
       <c r="H72" s="3">
-        <v>-42247300</v>
+        <v>-42722300</v>
       </c>
       <c r="I72" s="3">
-        <v>-43600500</v>
+        <v>-44090700</v>
       </c>
       <c r="J72" s="3">
-        <v>-43184100</v>
+        <v>-43669700</v>
       </c>
       <c r="K72" s="3">
         <v>-75680700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37506200</v>
+        <v>37927900</v>
       </c>
       <c r="E76" s="3">
-        <v>36559900</v>
+        <v>36971000</v>
       </c>
       <c r="F76" s="3">
-        <v>36354100</v>
+        <v>36762800</v>
       </c>
       <c r="G76" s="3">
-        <v>34664900</v>
+        <v>35054600</v>
       </c>
       <c r="H76" s="3">
-        <v>34777300</v>
+        <v>35168300</v>
       </c>
       <c r="I76" s="3">
-        <v>30089400</v>
+        <v>30427700</v>
       </c>
       <c r="J76" s="3">
-        <v>28246500</v>
+        <v>28564100</v>
       </c>
       <c r="K76" s="3">
         <v>28468900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4574300</v>
+        <v>4625700</v>
       </c>
       <c r="E81" s="3">
-        <v>2562200</v>
+        <v>2591000</v>
       </c>
       <c r="F81" s="3">
-        <v>4094000</v>
+        <v>4140000</v>
       </c>
       <c r="G81" s="3">
-        <v>3164300</v>
+        <v>3199800</v>
       </c>
       <c r="H81" s="3">
-        <v>3849200</v>
+        <v>3892400</v>
       </c>
       <c r="I81" s="3">
-        <v>3458800</v>
+        <v>3497700</v>
       </c>
       <c r="J81" s="3">
-        <v>1100100</v>
+        <v>1112500</v>
       </c>
       <c r="K81" s="3">
         <v>-5877600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20516200</v>
+        <v>20746900</v>
       </c>
       <c r="E83" s="3">
-        <v>16366600</v>
+        <v>16550600</v>
       </c>
       <c r="F83" s="3">
-        <v>17253800</v>
+        <v>17447800</v>
       </c>
       <c r="G83" s="3">
-        <v>15827200</v>
+        <v>16005200</v>
       </c>
       <c r="H83" s="3">
-        <v>13437700</v>
+        <v>13588800</v>
       </c>
       <c r="I83" s="3">
-        <v>12508000</v>
+        <v>12648600</v>
       </c>
       <c r="J83" s="3">
-        <v>12898300</v>
+        <v>13043400</v>
       </c>
       <c r="K83" s="3">
         <v>24108800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27294200</v>
+        <v>27601100</v>
       </c>
       <c r="E89" s="3">
-        <v>21221200</v>
+        <v>21459800</v>
       </c>
       <c r="F89" s="3">
-        <v>20344700</v>
+        <v>20573400</v>
       </c>
       <c r="G89" s="3">
-        <v>18370400</v>
+        <v>18577000</v>
       </c>
       <c r="H89" s="3">
-        <v>17741100</v>
+        <v>17940600</v>
       </c>
       <c r="I89" s="3">
-        <v>15880400</v>
+        <v>16059000</v>
       </c>
       <c r="J89" s="3">
-        <v>15360000</v>
+        <v>15532700</v>
       </c>
       <c r="K89" s="3">
         <v>14907500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11807700</v>
+        <v>-11940500</v>
       </c>
       <c r="E91" s="3">
-        <v>-10810500</v>
+        <v>-10932100</v>
       </c>
       <c r="F91" s="3">
-        <v>-10822400</v>
+        <v>-10944000</v>
       </c>
       <c r="G91" s="3">
-        <v>-9507000</v>
+        <v>-9613900</v>
       </c>
       <c r="H91" s="3">
-        <v>-9660700</v>
+        <v>-9769400</v>
       </c>
       <c r="I91" s="3">
-        <v>-8500300</v>
+        <v>-8595900</v>
       </c>
       <c r="J91" s="3">
-        <v>-7771700</v>
+        <v>-7859000</v>
       </c>
       <c r="K91" s="3">
         <v>-6171900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16832700</v>
+        <v>-17021900</v>
       </c>
       <c r="E94" s="3">
-        <v>-16911900</v>
+        <v>-17102100</v>
       </c>
       <c r="F94" s="3">
-        <v>-19889300</v>
+        <v>-20112900</v>
       </c>
       <c r="G94" s="3">
-        <v>-16096900</v>
+        <v>-16277900</v>
       </c>
       <c r="H94" s="3">
-        <v>-17761200</v>
+        <v>-17960900</v>
       </c>
       <c r="I94" s="3">
-        <v>-12729200</v>
+        <v>-12872300</v>
       </c>
       <c r="J94" s="3">
-        <v>-11706000</v>
+        <v>-11837600</v>
       </c>
       <c r="K94" s="3">
         <v>-7324800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4212300</v>
+        <v>-4259700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3849200</v>
+        <v>-3892400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1844100</v>
+        <v>-1864900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1887900</v>
+        <v>-1909100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1485700</v>
+        <v>-1502400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1525900</v>
+        <v>-1543100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2653200</v>
+        <v>-2683100</v>
       </c>
       <c r="K96" s="3">
         <v>-3733200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8447100</v>
+        <v>-8542100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3855100</v>
+        <v>-3898400</v>
       </c>
       <c r="F100" s="3">
-        <v>-5434200</v>
+        <v>-5495300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1563800</v>
+        <v>-1581400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1036200</v>
+        <v>-1047900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4062100</v>
+        <v>-4107800</v>
       </c>
       <c r="J100" s="3">
-        <v>1208900</v>
+        <v>1222500</v>
       </c>
       <c r="K100" s="3">
         <v>-7247900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="E101" s="3">
-        <v>-20100</v>
+        <v>-20300</v>
       </c>
       <c r="F101" s="3">
-        <v>-267300</v>
+        <v>-270300</v>
       </c>
       <c r="G101" s="3">
-        <v>295700</v>
+        <v>299100</v>
       </c>
       <c r="H101" s="3">
-        <v>315800</v>
+        <v>319400</v>
       </c>
       <c r="I101" s="3">
-        <v>382100</v>
+        <v>386400</v>
       </c>
       <c r="J101" s="3">
-        <v>-197500</v>
+        <v>-199800</v>
       </c>
       <c r="K101" s="3">
         <v>-30700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2027500</v>
+        <v>2050300</v>
       </c>
       <c r="E102" s="3">
-        <v>434100</v>
+        <v>439000</v>
       </c>
       <c r="F102" s="3">
-        <v>-5246200</v>
+        <v>-5305100</v>
       </c>
       <c r="G102" s="3">
-        <v>1005500</v>
+        <v>1016800</v>
       </c>
       <c r="H102" s="3">
-        <v>-740500</v>
+        <v>-748800</v>
       </c>
       <c r="I102" s="3">
-        <v>-528800</v>
+        <v>-534700</v>
       </c>
       <c r="J102" s="3">
-        <v>4665400</v>
+        <v>4717800</v>
       </c>
       <c r="K102" s="3">
         <v>304100</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>DTEGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>96331200</v>
+        <v>118815200</v>
       </c>
       <c r="E8" s="3">
-        <v>90499700</v>
+        <v>94736700</v>
       </c>
       <c r="F8" s="3">
-        <v>89651600</v>
+        <v>89001700</v>
       </c>
       <c r="G8" s="3">
-        <v>87436200</v>
+        <v>88167700</v>
       </c>
       <c r="H8" s="3">
-        <v>82810500</v>
+        <v>85989000</v>
       </c>
       <c r="I8" s="3">
-        <v>74951500</v>
+        <v>81439800</v>
       </c>
       <c r="J8" s="3">
+        <v>73710900</v>
+      </c>
+      <c r="K8" s="3">
         <v>71929900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63869600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68847500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41279700</v>
+        <v>49308800</v>
       </c>
       <c r="E9" s="3">
-        <v>42753400</v>
+        <v>40596400</v>
       </c>
       <c r="F9" s="3">
-        <v>42881400</v>
+        <v>42045700</v>
       </c>
       <c r="G9" s="3">
-        <v>41847900</v>
+        <v>42171600</v>
       </c>
       <c r="H9" s="3">
-        <v>50210500</v>
+        <v>41155200</v>
       </c>
       <c r="I9" s="3">
-        <v>46100400</v>
+        <v>49379400</v>
       </c>
       <c r="J9" s="3">
+        <v>45337300</v>
+      </c>
+      <c r="K9" s="3">
         <v>43368200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37613100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39774600</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>55051500</v>
+        <v>69506400</v>
       </c>
       <c r="E10" s="3">
-        <v>47746300</v>
+        <v>54140300</v>
       </c>
       <c r="F10" s="3">
-        <v>46770200</v>
+        <v>46956000</v>
       </c>
       <c r="G10" s="3">
-        <v>45588400</v>
+        <v>45996100</v>
       </c>
       <c r="H10" s="3">
-        <v>32600000</v>
+        <v>44833800</v>
       </c>
       <c r="I10" s="3">
-        <v>28851100</v>
+        <v>32060400</v>
       </c>
       <c r="J10" s="3">
+        <v>28373600</v>
+      </c>
+      <c r="K10" s="3">
         <v>28561700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26256500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29072900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,59 +906,65 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>879200</v>
+        <v>208200</v>
       </c>
       <c r="E14" s="3">
-        <v>1440200</v>
+        <v>864700</v>
       </c>
       <c r="F14" s="3">
-        <v>587300</v>
+        <v>1416400</v>
       </c>
       <c r="G14" s="3">
-        <v>807400</v>
+        <v>577600</v>
       </c>
       <c r="H14" s="3">
-        <v>177000</v>
+        <v>794100</v>
       </c>
       <c r="I14" s="3">
-        <v>142300</v>
+        <v>174100</v>
       </c>
       <c r="J14" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K14" s="3">
         <v>978500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24202100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3917000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20658400</v>
+        <v>29446500</v>
       </c>
       <c r="E15" s="3">
-        <v>15687000</v>
+        <v>20316400</v>
       </c>
       <c r="F15" s="3">
-        <v>14868800</v>
+        <v>15427300</v>
       </c>
       <c r="G15" s="3">
-        <v>15177400</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>14622700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14926200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -956,9 +978,12 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>85018700</v>
+        <v>103752600</v>
       </c>
       <c r="E17" s="3">
-        <v>80899000</v>
+        <v>83611500</v>
       </c>
       <c r="F17" s="3">
-        <v>78427700</v>
+        <v>79559900</v>
       </c>
       <c r="G17" s="3">
-        <v>76474300</v>
+        <v>77129500</v>
       </c>
       <c r="H17" s="3">
-        <v>74403600</v>
+        <v>75208400</v>
       </c>
       <c r="I17" s="3">
-        <v>66282600</v>
+        <v>73172100</v>
       </c>
       <c r="J17" s="3">
+        <v>65185500</v>
+      </c>
+      <c r="K17" s="3">
         <v>66032600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68219800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62290600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11312500</v>
+        <v>15062600</v>
       </c>
       <c r="E18" s="3">
-        <v>9600700</v>
+        <v>11125200</v>
       </c>
       <c r="F18" s="3">
-        <v>11223900</v>
+        <v>9441800</v>
       </c>
       <c r="G18" s="3">
-        <v>10962000</v>
+        <v>11038200</v>
       </c>
       <c r="H18" s="3">
-        <v>8406900</v>
+        <v>10780500</v>
       </c>
       <c r="I18" s="3">
-        <v>8668900</v>
+        <v>8267700</v>
       </c>
       <c r="J18" s="3">
+        <v>8525400</v>
+      </c>
+      <c r="K18" s="3">
         <v>5897300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4350300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6556900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>616000</v>
+        <v>601100</v>
       </c>
       <c r="E20" s="3">
-        <v>-931800</v>
+        <v>605800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2239300</v>
+        <v>-916400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2275200</v>
+        <v>-2202200</v>
       </c>
       <c r="H20" s="3">
-        <v>429400</v>
+        <v>-2237500</v>
       </c>
       <c r="I20" s="3">
-        <v>-277500</v>
+        <v>422300</v>
       </c>
       <c r="J20" s="3">
+        <v>-272900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-492800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-80200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>30500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>32590400</v>
+        <v>45050800</v>
       </c>
       <c r="E21" s="3">
-        <v>25151700</v>
+        <v>32217800</v>
       </c>
       <c r="F21" s="3">
-        <v>26361000</v>
+        <v>24868500</v>
       </c>
       <c r="G21" s="3">
-        <v>24626400</v>
+        <v>26064900</v>
       </c>
       <c r="H21" s="3">
-        <v>22369500</v>
+        <v>24347500</v>
       </c>
       <c r="I21" s="3">
-        <v>20988100</v>
+        <v>22108500</v>
       </c>
       <c r="J21" s="3">
+        <v>20742500</v>
+      </c>
+      <c r="K21" s="3">
         <v>18394400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19715700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23544100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3244100</v>
+        <v>5456100</v>
       </c>
       <c r="E22" s="3">
-        <v>2504800</v>
+        <v>3190400</v>
       </c>
       <c r="F22" s="3">
-        <v>3010800</v>
+        <v>2463400</v>
       </c>
       <c r="G22" s="3">
-        <v>3247700</v>
+        <v>2961000</v>
       </c>
       <c r="H22" s="3">
-        <v>3120900</v>
+        <v>3193900</v>
       </c>
       <c r="I22" s="3">
-        <v>3187900</v>
+        <v>3069200</v>
       </c>
       <c r="J22" s="3">
+        <v>3135100</v>
+      </c>
+      <c r="K22" s="3">
         <v>2858900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2568200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3043700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8684400</v>
+        <v>10207600</v>
       </c>
       <c r="E23" s="3">
-        <v>6164000</v>
+        <v>8540700</v>
       </c>
       <c r="F23" s="3">
-        <v>5973800</v>
+        <v>6062000</v>
       </c>
       <c r="G23" s="3">
-        <v>5439100</v>
+        <v>5874900</v>
       </c>
       <c r="H23" s="3">
-        <v>5715400</v>
+        <v>5349100</v>
       </c>
       <c r="I23" s="3">
-        <v>5203500</v>
+        <v>5620800</v>
       </c>
       <c r="J23" s="3">
+        <v>5117300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2545500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6998700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3543700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2384000</v>
+        <v>2269300</v>
       </c>
       <c r="E24" s="3">
-        <v>2181900</v>
+        <v>2344600</v>
       </c>
       <c r="F24" s="3">
-        <v>-667500</v>
+        <v>2145800</v>
       </c>
       <c r="G24" s="3">
-        <v>1726100</v>
+        <v>-656400</v>
       </c>
       <c r="H24" s="3">
-        <v>1526400</v>
+        <v>1697500</v>
       </c>
       <c r="I24" s="3">
-        <v>1323000</v>
+        <v>1501100</v>
       </c>
       <c r="J24" s="3">
+        <v>1301100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1105300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1664600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2757300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6300400</v>
+        <v>7938300</v>
       </c>
       <c r="E26" s="3">
-        <v>3982100</v>
+        <v>6196100</v>
       </c>
       <c r="F26" s="3">
-        <v>6641300</v>
+        <v>3916200</v>
       </c>
       <c r="G26" s="3">
-        <v>3713000</v>
+        <v>6531400</v>
       </c>
       <c r="H26" s="3">
-        <v>4189100</v>
+        <v>3651500</v>
       </c>
       <c r="I26" s="3">
-        <v>3880500</v>
+        <v>4119800</v>
       </c>
       <c r="J26" s="3">
+        <v>3816200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1440200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5334100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>786500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4625700</v>
+        <v>4891500</v>
       </c>
       <c r="E27" s="3">
-        <v>2591000</v>
+        <v>4549100</v>
       </c>
       <c r="F27" s="3">
-        <v>4140000</v>
+        <v>2548100</v>
       </c>
       <c r="G27" s="3">
-        <v>3199800</v>
+        <v>4071500</v>
       </c>
       <c r="H27" s="3">
-        <v>3892400</v>
+        <v>3146900</v>
       </c>
       <c r="I27" s="3">
-        <v>3497700</v>
+        <v>3828000</v>
       </c>
       <c r="J27" s="3">
+        <v>3439800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1112500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5877600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>653800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-616000</v>
+        <v>-601100</v>
       </c>
       <c r="E32" s="3">
-        <v>931800</v>
+        <v>-605800</v>
       </c>
       <c r="F32" s="3">
-        <v>2239300</v>
+        <v>916400</v>
       </c>
       <c r="G32" s="3">
-        <v>2275200</v>
+        <v>2202200</v>
       </c>
       <c r="H32" s="3">
-        <v>-429400</v>
+        <v>2237500</v>
       </c>
       <c r="I32" s="3">
-        <v>277500</v>
+        <v>-422300</v>
       </c>
       <c r="J32" s="3">
+        <v>272900</v>
+      </c>
+      <c r="K32" s="3">
         <v>492800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>80200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-30500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4625700</v>
+        <v>4891500</v>
       </c>
       <c r="E33" s="3">
-        <v>2591000</v>
+        <v>4549100</v>
       </c>
       <c r="F33" s="3">
-        <v>4140000</v>
+        <v>2548100</v>
       </c>
       <c r="G33" s="3">
-        <v>3199800</v>
+        <v>4071500</v>
       </c>
       <c r="H33" s="3">
-        <v>3892400</v>
+        <v>3146900</v>
       </c>
       <c r="I33" s="3">
-        <v>3497700</v>
+        <v>3828000</v>
       </c>
       <c r="J33" s="3">
+        <v>3439800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1112500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5877600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>653800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4625700</v>
+        <v>4891500</v>
       </c>
       <c r="E35" s="3">
-        <v>2591000</v>
+        <v>4549100</v>
       </c>
       <c r="F35" s="3">
-        <v>4140000</v>
+        <v>2548100</v>
       </c>
       <c r="G35" s="3">
-        <v>3199800</v>
+        <v>4071500</v>
       </c>
       <c r="H35" s="3">
-        <v>3892400</v>
+        <v>3146900</v>
       </c>
       <c r="I35" s="3">
-        <v>3497700</v>
+        <v>3828000</v>
       </c>
       <c r="J35" s="3">
+        <v>3439800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1112500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5877600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>653800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6451100</v>
+        <v>15221400</v>
       </c>
       <c r="E41" s="3">
-        <v>4400800</v>
+        <v>6344300</v>
       </c>
       <c r="F41" s="3">
-        <v>3961800</v>
+        <v>4328000</v>
       </c>
       <c r="G41" s="3">
-        <v>9267000</v>
+        <v>3896200</v>
       </c>
       <c r="H41" s="3">
-        <v>8250200</v>
+        <v>9113600</v>
       </c>
       <c r="I41" s="3">
-        <v>8999000</v>
+        <v>8113600</v>
       </c>
       <c r="J41" s="3">
+        <v>8850100</v>
+      </c>
+      <c r="K41" s="3">
         <v>9533700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4420500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34700</v>
+        <v>109400</v>
       </c>
       <c r="E42" s="3">
-        <v>14400</v>
+        <v>34100</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>2400</v>
       </c>
-      <c r="H42" s="3">
-        <v>4800</v>
-      </c>
       <c r="I42" s="3">
-        <v>3600</v>
+        <v>4700</v>
       </c>
       <c r="J42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K42" s="3">
         <v>6000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2301400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5570900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19545900</v>
+        <v>22262200</v>
       </c>
       <c r="E43" s="3">
-        <v>17858100</v>
+        <v>19222400</v>
       </c>
       <c r="F43" s="3">
-        <v>15519500</v>
+        <v>17562500</v>
       </c>
       <c r="G43" s="3">
-        <v>17565000</v>
+        <v>15262600</v>
       </c>
       <c r="H43" s="3">
-        <v>14427400</v>
+        <v>17274300</v>
       </c>
       <c r="I43" s="3">
-        <v>15754000</v>
+        <v>14188600</v>
       </c>
       <c r="J43" s="3">
+        <v>15493200</v>
+      </c>
+      <c r="K43" s="3">
         <v>12149800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9036500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15544800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1875600</v>
+        <v>3170400</v>
       </c>
       <c r="E44" s="3">
-        <v>2141200</v>
+        <v>1844600</v>
       </c>
       <c r="F44" s="3">
-        <v>2374500</v>
+        <v>2105800</v>
       </c>
       <c r="G44" s="3">
-        <v>1948600</v>
+        <v>2335200</v>
       </c>
       <c r="H44" s="3">
-        <v>2209400</v>
+        <v>1916400</v>
       </c>
       <c r="I44" s="3">
-        <v>1797900</v>
+        <v>2172800</v>
       </c>
       <c r="J44" s="3">
+        <v>1768100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1270400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1214400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2544800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1625600</v>
+        <v>3108000</v>
       </c>
       <c r="E45" s="3">
-        <v>1746500</v>
+        <v>1598700</v>
       </c>
       <c r="F45" s="3">
-        <v>2537100</v>
+        <v>1717500</v>
       </c>
       <c r="G45" s="3">
-        <v>3081400</v>
+        <v>2495100</v>
       </c>
       <c r="H45" s="3">
-        <v>13606800</v>
+        <v>3030400</v>
       </c>
       <c r="I45" s="3">
-        <v>9089900</v>
+        <v>13381500</v>
       </c>
       <c r="J45" s="3">
+        <v>8939500</v>
+      </c>
+      <c r="K45" s="3">
         <v>3312300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1735900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2315900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29533000</v>
+        <v>43871500</v>
       </c>
       <c r="E46" s="3">
-        <v>26160900</v>
+        <v>29044100</v>
       </c>
       <c r="F46" s="3">
-        <v>24392900</v>
+        <v>25727900</v>
       </c>
       <c r="G46" s="3">
-        <v>31864400</v>
+        <v>23989100</v>
       </c>
       <c r="H46" s="3">
-        <v>38498500</v>
+        <v>31336900</v>
       </c>
       <c r="I46" s="3">
-        <v>35644400</v>
+        <v>37861300</v>
       </c>
       <c r="J46" s="3">
+        <v>35054400</v>
+      </c>
+      <c r="K46" s="3">
         <v>26272100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16490900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18622500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5365000</v>
+        <v>8186600</v>
       </c>
       <c r="E47" s="3">
-        <v>2585000</v>
+        <v>5276200</v>
       </c>
       <c r="F47" s="3">
-        <v>7616200</v>
+        <v>2542200</v>
       </c>
       <c r="G47" s="3">
-        <v>10300500</v>
+        <v>7490100</v>
       </c>
       <c r="H47" s="3">
-        <v>5205900</v>
+        <v>10130000</v>
       </c>
       <c r="I47" s="3">
-        <v>3470200</v>
+        <v>5119700</v>
       </c>
       <c r="J47" s="3">
+        <v>3412700</v>
+      </c>
+      <c r="K47" s="3">
         <v>9006200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9472400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10527900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80798500</v>
+        <v>107378000</v>
       </c>
       <c r="E48" s="3">
-        <v>60564800</v>
+        <v>79461100</v>
       </c>
       <c r="F48" s="3">
-        <v>56075500</v>
+        <v>59562300</v>
       </c>
       <c r="G48" s="3">
-        <v>55931900</v>
+        <v>55147300</v>
       </c>
       <c r="H48" s="3">
-        <v>53394800</v>
+        <v>55006100</v>
       </c>
       <c r="I48" s="3">
-        <v>47388700</v>
+        <v>52511000</v>
       </c>
       <c r="J48" s="3">
+        <v>46604300</v>
+      </c>
+      <c r="K48" s="3">
         <v>44770200</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>202972000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>81583200</v>
+        <v>138893000</v>
       </c>
       <c r="E49" s="3">
-        <v>77693200</v>
+        <v>80232800</v>
       </c>
       <c r="F49" s="3">
-        <v>75199100</v>
+        <v>76407200</v>
       </c>
       <c r="G49" s="3">
-        <v>72488500</v>
+        <v>73954400</v>
       </c>
       <c r="H49" s="3">
-        <v>68213300</v>
+        <v>71288700</v>
       </c>
       <c r="I49" s="3">
-        <v>61682100</v>
+        <v>67084200</v>
       </c>
       <c r="J49" s="3">
+        <v>60661100</v>
+      </c>
+      <c r="K49" s="3">
         <v>54985700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>75914600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>117761000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6878100</v>
+        <v>13319200</v>
       </c>
       <c r="E52" s="3">
-        <v>6893700</v>
+        <v>6764300</v>
       </c>
       <c r="F52" s="3">
-        <v>5780000</v>
+        <v>6779600</v>
       </c>
       <c r="G52" s="3">
-        <v>7032500</v>
+        <v>5684400</v>
       </c>
       <c r="H52" s="3">
-        <v>6844700</v>
+        <v>6916100</v>
       </c>
       <c r="I52" s="3">
-        <v>6555200</v>
+        <v>6731400</v>
       </c>
       <c r="J52" s="3">
+        <v>6446700</v>
+      </c>
+      <c r="K52" s="3">
         <v>6294400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7088700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9460900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>204158000</v>
+        <v>311648000</v>
       </c>
       <c r="E54" s="3">
-        <v>173898000</v>
+        <v>200779000</v>
       </c>
       <c r="F54" s="3">
-        <v>169064000</v>
+        <v>171019000</v>
       </c>
       <c r="G54" s="3">
-        <v>177618000</v>
+        <v>166265000</v>
       </c>
       <c r="H54" s="3">
-        <v>172157000</v>
+        <v>174678000</v>
       </c>
       <c r="I54" s="3">
-        <v>154740000</v>
+        <v>169308000</v>
       </c>
       <c r="J54" s="3">
+        <v>152179000</v>
+      </c>
+      <c r="K54" s="3">
         <v>141329000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118520000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>143787000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11256200</v>
+        <v>11400500</v>
       </c>
       <c r="E57" s="3">
-        <v>12798100</v>
+        <v>11069900</v>
       </c>
       <c r="F57" s="3">
-        <v>13079300</v>
+        <v>12586300</v>
       </c>
       <c r="G57" s="3">
-        <v>12426100</v>
+        <v>12862800</v>
       </c>
       <c r="H57" s="3">
-        <v>13202500</v>
+        <v>12220400</v>
       </c>
       <c r="I57" s="3">
-        <v>11520600</v>
+        <v>12983900</v>
       </c>
       <c r="J57" s="3">
+        <v>11329900</v>
+      </c>
+      <c r="K57" s="3">
         <v>8649700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7043700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15077600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15566200</v>
+        <v>17943600</v>
       </c>
       <c r="E58" s="3">
-        <v>10307700</v>
+        <v>15308500</v>
       </c>
       <c r="F58" s="3">
-        <v>8316000</v>
+        <v>10137000</v>
       </c>
       <c r="G58" s="3">
-        <v>13584000</v>
+        <v>8178300</v>
       </c>
       <c r="H58" s="3">
-        <v>15036200</v>
+        <v>13359200</v>
       </c>
       <c r="I58" s="3">
-        <v>9820800</v>
+        <v>14787300</v>
       </c>
       <c r="J58" s="3">
+        <v>9658200</v>
+      </c>
+      <c r="K58" s="3">
         <v>7060000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8352500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23990300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12548100</v>
+        <v>14341500</v>
       </c>
       <c r="E59" s="3">
-        <v>11756300</v>
+        <v>12340400</v>
       </c>
       <c r="F59" s="3">
-        <v>11340000</v>
+        <v>11561700</v>
       </c>
       <c r="G59" s="3">
-        <v>13615100</v>
+        <v>11152300</v>
       </c>
       <c r="H59" s="3">
-        <v>11891400</v>
+        <v>13389800</v>
       </c>
       <c r="I59" s="3">
-        <v>12389000</v>
+        <v>11694600</v>
       </c>
       <c r="J59" s="3">
+        <v>12184000</v>
+      </c>
+      <c r="K59" s="3">
         <v>11200000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17387900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17246800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39370500</v>
+        <v>43685600</v>
       </c>
       <c r="E60" s="3">
-        <v>34862100</v>
+        <v>38718900</v>
       </c>
       <c r="F60" s="3">
-        <v>32735200</v>
+        <v>34285000</v>
       </c>
       <c r="G60" s="3">
-        <v>39625300</v>
+        <v>32193400</v>
       </c>
       <c r="H60" s="3">
-        <v>40130100</v>
+        <v>38969400</v>
       </c>
       <c r="I60" s="3">
-        <v>33730400</v>
+        <v>39465900</v>
       </c>
       <c r="J60" s="3">
+        <v>33172100</v>
+      </c>
+      <c r="K60" s="3">
         <v>26909700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25248500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28423800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>83793800</v>
+        <v>142514000</v>
       </c>
       <c r="E61" s="3">
-        <v>60972700</v>
+        <v>82406800</v>
       </c>
       <c r="F61" s="3">
-        <v>57800400</v>
+        <v>59963500</v>
       </c>
       <c r="G61" s="3">
-        <v>59537300</v>
+        <v>56843600</v>
       </c>
       <c r="H61" s="3">
-        <v>56449900</v>
+        <v>58551800</v>
       </c>
       <c r="I61" s="3">
-        <v>52608900</v>
+        <v>55515500</v>
       </c>
       <c r="J61" s="3">
+        <v>51738100</v>
+      </c>
+      <c r="K61" s="3">
         <v>50550200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37940300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44721000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25692000</v>
+        <v>40101100</v>
       </c>
       <c r="E62" s="3">
-        <v>26103500</v>
+        <v>25266700</v>
       </c>
       <c r="F62" s="3">
-        <v>27725500</v>
+        <v>25671400</v>
       </c>
       <c r="G62" s="3">
-        <v>31988800</v>
+        <v>27266600</v>
       </c>
       <c r="H62" s="3">
-        <v>29942100</v>
+        <v>31459300</v>
       </c>
       <c r="I62" s="3">
-        <v>27651400</v>
+        <v>29446500</v>
       </c>
       <c r="J62" s="3">
+        <v>27193700</v>
+      </c>
+      <c r="K62" s="3">
         <v>25514900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28140600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30198600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>166230000</v>
+        <v>269390000</v>
       </c>
       <c r="E66" s="3">
-        <v>136927000</v>
+        <v>163478000</v>
       </c>
       <c r="F66" s="3">
-        <v>132301000</v>
+        <v>134660000</v>
       </c>
       <c r="G66" s="3">
-        <v>142563000</v>
+        <v>130111000</v>
       </c>
       <c r="H66" s="3">
-        <v>136989000</v>
+        <v>140203000</v>
       </c>
       <c r="I66" s="3">
-        <v>124313000</v>
+        <v>134721000</v>
       </c>
       <c r="J66" s="3">
+        <v>122255000</v>
+      </c>
+      <c r="K66" s="3">
         <v>112765000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90051400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102232000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41678000</v>
+        <v>-40876400</v>
       </c>
       <c r="E72" s="3">
-        <v>-42137300</v>
+        <v>-40988100</v>
       </c>
       <c r="F72" s="3">
-        <v>-42212700</v>
+        <v>-41439900</v>
       </c>
       <c r="G72" s="3">
-        <v>-43125400</v>
+        <v>-41514000</v>
       </c>
       <c r="H72" s="3">
-        <v>-42722300</v>
+        <v>-42411600</v>
       </c>
       <c r="I72" s="3">
-        <v>-44090700</v>
+        <v>-42015100</v>
       </c>
       <c r="J72" s="3">
+        <v>-43360900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-43669700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-75680700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58425200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37927900</v>
+        <v>42258600</v>
       </c>
       <c r="E76" s="3">
-        <v>36971000</v>
+        <v>37300100</v>
       </c>
       <c r="F76" s="3">
-        <v>36762800</v>
+        <v>36359000</v>
       </c>
       <c r="G76" s="3">
-        <v>35054600</v>
+        <v>36154300</v>
       </c>
       <c r="H76" s="3">
-        <v>35168300</v>
+        <v>34474400</v>
       </c>
       <c r="I76" s="3">
-        <v>30427700</v>
+        <v>34586200</v>
       </c>
       <c r="J76" s="3">
+        <v>29924100</v>
+      </c>
+      <c r="K76" s="3">
         <v>28564100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28468900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41555200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4625700</v>
+        <v>4891500</v>
       </c>
       <c r="E81" s="3">
-        <v>2591000</v>
+        <v>4549100</v>
       </c>
       <c r="F81" s="3">
-        <v>4140000</v>
+        <v>2548100</v>
       </c>
       <c r="G81" s="3">
-        <v>3199800</v>
+        <v>4071500</v>
       </c>
       <c r="H81" s="3">
-        <v>3892400</v>
+        <v>3146900</v>
       </c>
       <c r="I81" s="3">
-        <v>3497700</v>
+        <v>3828000</v>
       </c>
       <c r="J81" s="3">
+        <v>3439800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1112500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5877600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>653800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20746900</v>
+        <v>29267700</v>
       </c>
       <c r="E83" s="3">
-        <v>16550600</v>
+        <v>20403500</v>
       </c>
       <c r="F83" s="3">
-        <v>17447800</v>
+        <v>16276700</v>
       </c>
       <c r="G83" s="3">
-        <v>16005200</v>
+        <v>17159000</v>
       </c>
       <c r="H83" s="3">
-        <v>13588800</v>
+        <v>15740200</v>
       </c>
       <c r="I83" s="3">
-        <v>12648600</v>
+        <v>13363900</v>
       </c>
       <c r="J83" s="3">
+        <v>12439300</v>
+      </c>
+      <c r="K83" s="3">
         <v>13043400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24108800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16945100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27601100</v>
+        <v>27846600</v>
       </c>
       <c r="E89" s="3">
-        <v>21459800</v>
+        <v>27144300</v>
       </c>
       <c r="F89" s="3">
-        <v>20573400</v>
+        <v>21104600</v>
       </c>
       <c r="G89" s="3">
-        <v>18577000</v>
+        <v>20232900</v>
       </c>
       <c r="H89" s="3">
-        <v>17940600</v>
+        <v>18269500</v>
       </c>
       <c r="I89" s="3">
-        <v>16059000</v>
+        <v>17643600</v>
       </c>
       <c r="J89" s="3">
+        <v>15793200</v>
+      </c>
+      <c r="K89" s="3">
         <v>15532700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14907500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19032200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11940500</v>
+        <v>-15220300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10932100</v>
+        <v>-11742800</v>
       </c>
       <c r="F91" s="3">
-        <v>-10944000</v>
+        <v>-10751100</v>
       </c>
       <c r="G91" s="3">
-        <v>-9613900</v>
+        <v>-10762900</v>
       </c>
       <c r="H91" s="3">
-        <v>-9769400</v>
+        <v>-9454700</v>
       </c>
       <c r="I91" s="3">
-        <v>-8595900</v>
+        <v>-9607700</v>
       </c>
       <c r="J91" s="3">
+        <v>-8453600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7859000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6171900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9867000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17021900</v>
+        <v>-26644300</v>
       </c>
       <c r="E94" s="3">
-        <v>-17102100</v>
+        <v>-16740200</v>
       </c>
       <c r="F94" s="3">
-        <v>-20112900</v>
+        <v>-16819000</v>
       </c>
       <c r="G94" s="3">
-        <v>-16277900</v>
+        <v>-19780000</v>
       </c>
       <c r="H94" s="3">
-        <v>-17960900</v>
+        <v>-16008500</v>
       </c>
       <c r="I94" s="3">
-        <v>-12872300</v>
+        <v>-17663600</v>
       </c>
       <c r="J94" s="3">
+        <v>-12659200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11837600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7324800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10887100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4259700</v>
+        <v>-3608000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3892400</v>
+        <v>-4189200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1864900</v>
+        <v>-3828000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1909100</v>
+        <v>-1834000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1502400</v>
+        <v>-1877500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1543100</v>
+        <v>-1477600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1517600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2683100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3733200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4133000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8542100</v>
+        <v>8894800</v>
       </c>
       <c r="E100" s="3">
-        <v>-3898400</v>
+        <v>-8400700</v>
       </c>
       <c r="F100" s="3">
-        <v>-5495300</v>
+        <v>-3833900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1581400</v>
+        <v>-5404400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1047900</v>
+        <v>-1555200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4107800</v>
+        <v>-1030500</v>
       </c>
       <c r="J100" s="3">
+        <v>-4039800</v>
+      </c>
+      <c r="K100" s="3">
         <v>1222500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7247900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6993600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13200</v>
+        <v>-1218800</v>
       </c>
       <c r="E101" s="3">
-        <v>-20300</v>
+        <v>12900</v>
       </c>
       <c r="F101" s="3">
-        <v>-270300</v>
+        <v>-20000</v>
       </c>
       <c r="G101" s="3">
-        <v>299100</v>
+        <v>-265900</v>
       </c>
       <c r="H101" s="3">
-        <v>319400</v>
+        <v>294100</v>
       </c>
       <c r="I101" s="3">
-        <v>386400</v>
+        <v>314100</v>
       </c>
       <c r="J101" s="3">
+        <v>380000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-199800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-30700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-47000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2050300</v>
+        <v>8878300</v>
       </c>
       <c r="E102" s="3">
-        <v>439000</v>
+        <v>2016300</v>
       </c>
       <c r="F102" s="3">
-        <v>-5305100</v>
+        <v>431700</v>
       </c>
       <c r="G102" s="3">
-        <v>1016800</v>
+        <v>-5217300</v>
       </c>
       <c r="H102" s="3">
-        <v>-748800</v>
+        <v>999900</v>
       </c>
       <c r="I102" s="3">
-        <v>-534700</v>
+        <v>-736400</v>
       </c>
       <c r="J102" s="3">
+        <v>-525900</v>
+      </c>
+      <c r="K102" s="3">
         <v>4717800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>304100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1104600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>118815200</v>
+        <v>123722800</v>
       </c>
       <c r="E8" s="3">
-        <v>94736700</v>
+        <v>98649700</v>
       </c>
       <c r="F8" s="3">
-        <v>89001700</v>
+        <v>92677800</v>
       </c>
       <c r="G8" s="3">
-        <v>88167700</v>
+        <v>91809300</v>
       </c>
       <c r="H8" s="3">
-        <v>85989000</v>
+        <v>89540600</v>
       </c>
       <c r="I8" s="3">
-        <v>81439800</v>
+        <v>84803600</v>
       </c>
       <c r="J8" s="3">
-        <v>73710900</v>
+        <v>76755400</v>
       </c>
       <c r="K8" s="3">
         <v>71929900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>49308800</v>
+        <v>51345500</v>
       </c>
       <c r="E9" s="3">
-        <v>40596400</v>
+        <v>42273200</v>
       </c>
       <c r="F9" s="3">
-        <v>42045700</v>
+        <v>43782400</v>
       </c>
       <c r="G9" s="3">
-        <v>42171600</v>
+        <v>43913400</v>
       </c>
       <c r="H9" s="3">
-        <v>41155200</v>
+        <v>42855100</v>
       </c>
       <c r="I9" s="3">
-        <v>49379400</v>
+        <v>51419000</v>
       </c>
       <c r="J9" s="3">
-        <v>45337300</v>
+        <v>47209900</v>
       </c>
       <c r="K9" s="3">
         <v>43368200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>69506400</v>
+        <v>72377300</v>
       </c>
       <c r="E10" s="3">
-        <v>54140300</v>
+        <v>56376500</v>
       </c>
       <c r="F10" s="3">
-        <v>46956000</v>
+        <v>48895500</v>
       </c>
       <c r="G10" s="3">
-        <v>45996100</v>
+        <v>47895900</v>
       </c>
       <c r="H10" s="3">
-        <v>44833800</v>
+        <v>46685600</v>
       </c>
       <c r="I10" s="3">
-        <v>32060400</v>
+        <v>33384700</v>
       </c>
       <c r="J10" s="3">
-        <v>28373600</v>
+        <v>29545500</v>
       </c>
       <c r="K10" s="3">
         <v>28561700</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>208200</v>
+        <v>216800</v>
       </c>
       <c r="E14" s="3">
-        <v>864700</v>
+        <v>900400</v>
       </c>
       <c r="F14" s="3">
-        <v>1416400</v>
+        <v>1474900</v>
       </c>
       <c r="G14" s="3">
-        <v>577600</v>
+        <v>601500</v>
       </c>
       <c r="H14" s="3">
-        <v>794100</v>
+        <v>826900</v>
       </c>
       <c r="I14" s="3">
-        <v>174100</v>
+        <v>181300</v>
       </c>
       <c r="J14" s="3">
-        <v>140000</v>
+        <v>145800</v>
       </c>
       <c r="K14" s="3">
         <v>978500</v>
@@ -952,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29446500</v>
+        <v>30662700</v>
       </c>
       <c r="E15" s="3">
-        <v>20316400</v>
+        <v>21155600</v>
       </c>
       <c r="F15" s="3">
-        <v>15427300</v>
+        <v>16064500</v>
       </c>
       <c r="G15" s="3">
-        <v>14622700</v>
+        <v>15226600</v>
       </c>
       <c r="H15" s="3">
-        <v>14926200</v>
+        <v>15542700</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>103752600</v>
+        <v>108038000</v>
       </c>
       <c r="E17" s="3">
-        <v>83611500</v>
+        <v>87064900</v>
       </c>
       <c r="F17" s="3">
-        <v>79559900</v>
+        <v>82846100</v>
       </c>
       <c r="G17" s="3">
-        <v>77129500</v>
+        <v>80315200</v>
       </c>
       <c r="H17" s="3">
-        <v>75208400</v>
+        <v>78314800</v>
       </c>
       <c r="I17" s="3">
-        <v>73172100</v>
+        <v>76194400</v>
       </c>
       <c r="J17" s="3">
-        <v>65185500</v>
+        <v>67877900</v>
       </c>
       <c r="K17" s="3">
         <v>66032600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15062600</v>
+        <v>15684800</v>
       </c>
       <c r="E18" s="3">
-        <v>11125200</v>
+        <v>11584700</v>
       </c>
       <c r="F18" s="3">
-        <v>9441800</v>
+        <v>9831800</v>
       </c>
       <c r="G18" s="3">
-        <v>11038200</v>
+        <v>11494100</v>
       </c>
       <c r="H18" s="3">
-        <v>10780500</v>
+        <v>11225800</v>
       </c>
       <c r="I18" s="3">
-        <v>8267700</v>
+        <v>8609200</v>
       </c>
       <c r="J18" s="3">
-        <v>8525400</v>
+        <v>8877500</v>
       </c>
       <c r="K18" s="3">
         <v>5897300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>601100</v>
+        <v>626000</v>
       </c>
       <c r="E20" s="3">
-        <v>605800</v>
+        <v>630900</v>
       </c>
       <c r="F20" s="3">
-        <v>-916400</v>
+        <v>-954300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2202200</v>
+        <v>-2293200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2237500</v>
+        <v>-2329900</v>
       </c>
       <c r="I20" s="3">
-        <v>422300</v>
+        <v>439800</v>
       </c>
       <c r="J20" s="3">
-        <v>-272900</v>
+        <v>-284200</v>
       </c>
       <c r="K20" s="3">
         <v>-492800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45050800</v>
+        <v>46700200</v>
       </c>
       <c r="E21" s="3">
-        <v>32217800</v>
+        <v>33401100</v>
       </c>
       <c r="F21" s="3">
-        <v>24868500</v>
+        <v>25778000</v>
       </c>
       <c r="G21" s="3">
-        <v>26064900</v>
+        <v>27017600</v>
       </c>
       <c r="H21" s="3">
-        <v>24347500</v>
+        <v>25239400</v>
       </c>
       <c r="I21" s="3">
-        <v>22108500</v>
+        <v>22925100</v>
       </c>
       <c r="J21" s="3">
-        <v>20742500</v>
+        <v>21509300</v>
       </c>
       <c r="K21" s="3">
         <v>18394400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5456100</v>
+        <v>5681500</v>
       </c>
       <c r="E22" s="3">
-        <v>3190400</v>
+        <v>3322200</v>
       </c>
       <c r="F22" s="3">
-        <v>2463400</v>
+        <v>2565100</v>
       </c>
       <c r="G22" s="3">
-        <v>2961000</v>
+        <v>3083300</v>
       </c>
       <c r="H22" s="3">
-        <v>3193900</v>
+        <v>3325800</v>
       </c>
       <c r="I22" s="3">
-        <v>3069200</v>
+        <v>3196000</v>
       </c>
       <c r="J22" s="3">
-        <v>3135100</v>
+        <v>3264600</v>
       </c>
       <c r="K22" s="3">
         <v>2858900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10207600</v>
+        <v>10629200</v>
       </c>
       <c r="E23" s="3">
-        <v>8540700</v>
+        <v>8893400</v>
       </c>
       <c r="F23" s="3">
-        <v>6062000</v>
+        <v>6312400</v>
       </c>
       <c r="G23" s="3">
-        <v>5874900</v>
+        <v>6117600</v>
       </c>
       <c r="H23" s="3">
-        <v>5349100</v>
+        <v>5570000</v>
       </c>
       <c r="I23" s="3">
-        <v>5620800</v>
+        <v>5853000</v>
       </c>
       <c r="J23" s="3">
-        <v>5117300</v>
+        <v>5328700</v>
       </c>
       <c r="K23" s="3">
         <v>2545500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2269300</v>
+        <v>2363000</v>
       </c>
       <c r="E24" s="3">
-        <v>2344600</v>
+        <v>2441400</v>
       </c>
       <c r="F24" s="3">
-        <v>2145800</v>
+        <v>2234400</v>
       </c>
       <c r="G24" s="3">
-        <v>-656400</v>
+        <v>-683500</v>
       </c>
       <c r="H24" s="3">
-        <v>1697500</v>
+        <v>1767700</v>
       </c>
       <c r="I24" s="3">
-        <v>1501100</v>
+        <v>1563100</v>
       </c>
       <c r="J24" s="3">
-        <v>1301100</v>
+        <v>1354800</v>
       </c>
       <c r="K24" s="3">
         <v>1105300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7938300</v>
+        <v>8266200</v>
       </c>
       <c r="E26" s="3">
-        <v>6196100</v>
+        <v>6452000</v>
       </c>
       <c r="F26" s="3">
-        <v>3916200</v>
+        <v>4078000</v>
       </c>
       <c r="G26" s="3">
-        <v>6531400</v>
+        <v>6801100</v>
       </c>
       <c r="H26" s="3">
-        <v>3651500</v>
+        <v>3802400</v>
       </c>
       <c r="I26" s="3">
-        <v>4119800</v>
+        <v>4289900</v>
       </c>
       <c r="J26" s="3">
-        <v>3816200</v>
+        <v>3973900</v>
       </c>
       <c r="K26" s="3">
         <v>1440200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4891500</v>
+        <v>5093500</v>
       </c>
       <c r="E27" s="3">
-        <v>4549100</v>
+        <v>4737000</v>
       </c>
       <c r="F27" s="3">
-        <v>2548100</v>
+        <v>2653300</v>
       </c>
       <c r="G27" s="3">
-        <v>4071500</v>
+        <v>4239700</v>
       </c>
       <c r="H27" s="3">
-        <v>3146900</v>
+        <v>3276800</v>
       </c>
       <c r="I27" s="3">
-        <v>3828000</v>
+        <v>3986100</v>
       </c>
       <c r="J27" s="3">
-        <v>3439800</v>
+        <v>3581900</v>
       </c>
       <c r="K27" s="3">
         <v>1112500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-601100</v>
+        <v>-626000</v>
       </c>
       <c r="E32" s="3">
-        <v>-605800</v>
+        <v>-630900</v>
       </c>
       <c r="F32" s="3">
-        <v>916400</v>
+        <v>954300</v>
       </c>
       <c r="G32" s="3">
-        <v>2202200</v>
+        <v>2293200</v>
       </c>
       <c r="H32" s="3">
-        <v>2237500</v>
+        <v>2329900</v>
       </c>
       <c r="I32" s="3">
-        <v>-422300</v>
+        <v>-439800</v>
       </c>
       <c r="J32" s="3">
-        <v>272900</v>
+        <v>284200</v>
       </c>
       <c r="K32" s="3">
         <v>492800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4891500</v>
+        <v>5093500</v>
       </c>
       <c r="E33" s="3">
-        <v>4549100</v>
+        <v>4737000</v>
       </c>
       <c r="F33" s="3">
-        <v>2548100</v>
+        <v>2653300</v>
       </c>
       <c r="G33" s="3">
-        <v>4071500</v>
+        <v>4239700</v>
       </c>
       <c r="H33" s="3">
-        <v>3146900</v>
+        <v>3276800</v>
       </c>
       <c r="I33" s="3">
-        <v>3828000</v>
+        <v>3986100</v>
       </c>
       <c r="J33" s="3">
-        <v>3439800</v>
+        <v>3581900</v>
       </c>
       <c r="K33" s="3">
         <v>1112500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4891500</v>
+        <v>5093500</v>
       </c>
       <c r="E35" s="3">
-        <v>4549100</v>
+        <v>4737000</v>
       </c>
       <c r="F35" s="3">
-        <v>2548100</v>
+        <v>2653300</v>
       </c>
       <c r="G35" s="3">
-        <v>4071500</v>
+        <v>4239700</v>
       </c>
       <c r="H35" s="3">
-        <v>3146900</v>
+        <v>3276800</v>
       </c>
       <c r="I35" s="3">
-        <v>3828000</v>
+        <v>3986100</v>
       </c>
       <c r="J35" s="3">
-        <v>3439800</v>
+        <v>3581900</v>
       </c>
       <c r="K35" s="3">
         <v>1112500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15221400</v>
+        <v>15850100</v>
       </c>
       <c r="E41" s="3">
-        <v>6344300</v>
+        <v>6606400</v>
       </c>
       <c r="F41" s="3">
-        <v>4328000</v>
+        <v>4506700</v>
       </c>
       <c r="G41" s="3">
-        <v>3896200</v>
+        <v>4057200</v>
       </c>
       <c r="H41" s="3">
-        <v>9113600</v>
+        <v>9490000</v>
       </c>
       <c r="I41" s="3">
-        <v>8113600</v>
+        <v>8448800</v>
       </c>
       <c r="J41" s="3">
-        <v>8850100</v>
+        <v>9215600</v>
       </c>
       <c r="K41" s="3">
         <v>9533700</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>109400</v>
+        <v>113900</v>
       </c>
       <c r="E42" s="3">
-        <v>34100</v>
+        <v>35500</v>
       </c>
       <c r="F42" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>2400</v>
       </c>
       <c r="I42" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J42" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="K42" s="3">
         <v>6000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22262200</v>
+        <v>23181700</v>
       </c>
       <c r="E43" s="3">
-        <v>19222400</v>
+        <v>20016300</v>
       </c>
       <c r="F43" s="3">
-        <v>17562500</v>
+        <v>18287900</v>
       </c>
       <c r="G43" s="3">
-        <v>15262600</v>
+        <v>15893000</v>
       </c>
       <c r="H43" s="3">
-        <v>17274300</v>
+        <v>17987800</v>
       </c>
       <c r="I43" s="3">
-        <v>14188600</v>
+        <v>14774600</v>
       </c>
       <c r="J43" s="3">
-        <v>15493200</v>
+        <v>16133100</v>
       </c>
       <c r="K43" s="3">
         <v>12149800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3170400</v>
+        <v>3301300</v>
       </c>
       <c r="E44" s="3">
-        <v>1844600</v>
+        <v>1920800</v>
       </c>
       <c r="F44" s="3">
-        <v>2105800</v>
+        <v>2192700</v>
       </c>
       <c r="G44" s="3">
-        <v>2335200</v>
+        <v>2431600</v>
       </c>
       <c r="H44" s="3">
-        <v>1916400</v>
+        <v>1995500</v>
       </c>
       <c r="I44" s="3">
-        <v>2172800</v>
+        <v>2262600</v>
       </c>
       <c r="J44" s="3">
-        <v>1768100</v>
+        <v>1841200</v>
       </c>
       <c r="K44" s="3">
         <v>1270400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3108000</v>
+        <v>3236400</v>
       </c>
       <c r="E45" s="3">
-        <v>1598700</v>
+        <v>1664800</v>
       </c>
       <c r="F45" s="3">
-        <v>1717500</v>
+        <v>1788500</v>
       </c>
       <c r="G45" s="3">
-        <v>2495100</v>
+        <v>2598200</v>
       </c>
       <c r="H45" s="3">
-        <v>3030400</v>
+        <v>3155600</v>
       </c>
       <c r="I45" s="3">
-        <v>13381500</v>
+        <v>13934300</v>
       </c>
       <c r="J45" s="3">
-        <v>8939500</v>
+        <v>9308700</v>
       </c>
       <c r="K45" s="3">
         <v>3312300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43871500</v>
+        <v>45683600</v>
       </c>
       <c r="E46" s="3">
-        <v>29044100</v>
+        <v>30243800</v>
       </c>
       <c r="F46" s="3">
-        <v>25727900</v>
+        <v>26790500</v>
       </c>
       <c r="G46" s="3">
-        <v>23989100</v>
+        <v>24980000</v>
       </c>
       <c r="H46" s="3">
-        <v>31336900</v>
+        <v>32631300</v>
       </c>
       <c r="I46" s="3">
-        <v>37861300</v>
+        <v>39425100</v>
       </c>
       <c r="J46" s="3">
-        <v>35054400</v>
+        <v>36502300</v>
       </c>
       <c r="K46" s="3">
         <v>26272100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8186600</v>
+        <v>8524700</v>
       </c>
       <c r="E47" s="3">
-        <v>5276200</v>
+        <v>5494100</v>
       </c>
       <c r="F47" s="3">
-        <v>2542200</v>
+        <v>2647200</v>
       </c>
       <c r="G47" s="3">
-        <v>7490100</v>
+        <v>7799500</v>
       </c>
       <c r="H47" s="3">
-        <v>10130000</v>
+        <v>10548400</v>
       </c>
       <c r="I47" s="3">
-        <v>5119700</v>
+        <v>5331200</v>
       </c>
       <c r="J47" s="3">
-        <v>3412700</v>
+        <v>3553700</v>
       </c>
       <c r="K47" s="3">
         <v>9006200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107378000</v>
+        <v>111813000</v>
       </c>
       <c r="E48" s="3">
-        <v>79461100</v>
+        <v>82743200</v>
       </c>
       <c r="F48" s="3">
-        <v>59562300</v>
+        <v>62022500</v>
       </c>
       <c r="G48" s="3">
-        <v>55147300</v>
+        <v>57425100</v>
       </c>
       <c r="H48" s="3">
-        <v>55006100</v>
+        <v>57278100</v>
       </c>
       <c r="I48" s="3">
-        <v>52511000</v>
+        <v>54679900</v>
       </c>
       <c r="J48" s="3">
-        <v>46604300</v>
+        <v>48529200</v>
       </c>
       <c r="K48" s="3">
         <v>44770200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>138893000</v>
+        <v>144630000</v>
       </c>
       <c r="E49" s="3">
-        <v>80232800</v>
+        <v>83546800</v>
       </c>
       <c r="F49" s="3">
-        <v>76407200</v>
+        <v>79563100</v>
       </c>
       <c r="G49" s="3">
-        <v>73954400</v>
+        <v>77009000</v>
       </c>
       <c r="H49" s="3">
-        <v>71288700</v>
+        <v>74233200</v>
       </c>
       <c r="I49" s="3">
-        <v>67084200</v>
+        <v>69855100</v>
       </c>
       <c r="J49" s="3">
-        <v>60661100</v>
+        <v>63166600</v>
       </c>
       <c r="K49" s="3">
         <v>54985700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13319200</v>
+        <v>13869300</v>
       </c>
       <c r="E52" s="3">
-        <v>6764300</v>
+        <v>7043700</v>
       </c>
       <c r="F52" s="3">
-        <v>6779600</v>
+        <v>7059600</v>
       </c>
       <c r="G52" s="3">
-        <v>5684400</v>
+        <v>5919200</v>
       </c>
       <c r="H52" s="3">
-        <v>6916100</v>
+        <v>7201700</v>
       </c>
       <c r="I52" s="3">
-        <v>6731400</v>
+        <v>7009400</v>
       </c>
       <c r="J52" s="3">
-        <v>6446700</v>
+        <v>6712900</v>
       </c>
       <c r="K52" s="3">
         <v>6294400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>311648000</v>
+        <v>324521000</v>
       </c>
       <c r="E54" s="3">
-        <v>200779000</v>
+        <v>209072000</v>
       </c>
       <c r="F54" s="3">
-        <v>171019000</v>
+        <v>178083000</v>
       </c>
       <c r="G54" s="3">
-        <v>166265000</v>
+        <v>173133000</v>
       </c>
       <c r="H54" s="3">
-        <v>174678000</v>
+        <v>181893000</v>
       </c>
       <c r="I54" s="3">
-        <v>169308000</v>
+        <v>176301000</v>
       </c>
       <c r="J54" s="3">
-        <v>152179000</v>
+        <v>158465000</v>
       </c>
       <c r="K54" s="3">
         <v>141329000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11400500</v>
+        <v>11871400</v>
       </c>
       <c r="E57" s="3">
-        <v>11069900</v>
+        <v>11527200</v>
       </c>
       <c r="F57" s="3">
-        <v>12586300</v>
+        <v>13106200</v>
       </c>
       <c r="G57" s="3">
-        <v>12862800</v>
+        <v>13394000</v>
       </c>
       <c r="H57" s="3">
-        <v>12220400</v>
+        <v>12725200</v>
       </c>
       <c r="I57" s="3">
-        <v>12983900</v>
+        <v>13520200</v>
       </c>
       <c r="J57" s="3">
-        <v>11329900</v>
+        <v>11797900</v>
       </c>
       <c r="K57" s="3">
         <v>8649700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17943600</v>
+        <v>18684800</v>
       </c>
       <c r="E58" s="3">
-        <v>15308500</v>
+        <v>15940800</v>
       </c>
       <c r="F58" s="3">
-        <v>10137000</v>
+        <v>10555700</v>
       </c>
       <c r="G58" s="3">
-        <v>8178300</v>
+        <v>8516100</v>
       </c>
       <c r="H58" s="3">
-        <v>13359200</v>
+        <v>13911000</v>
       </c>
       <c r="I58" s="3">
-        <v>14787300</v>
+        <v>15398100</v>
       </c>
       <c r="J58" s="3">
-        <v>9658200</v>
+        <v>10057200</v>
       </c>
       <c r="K58" s="3">
         <v>7060000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14341500</v>
+        <v>14933900</v>
       </c>
       <c r="E59" s="3">
-        <v>12340400</v>
+        <v>12850100</v>
       </c>
       <c r="F59" s="3">
-        <v>11561700</v>
+        <v>12039200</v>
       </c>
       <c r="G59" s="3">
-        <v>11152300</v>
+        <v>11612900</v>
       </c>
       <c r="H59" s="3">
-        <v>13389800</v>
+        <v>13942800</v>
       </c>
       <c r="I59" s="3">
-        <v>11694600</v>
+        <v>12177600</v>
       </c>
       <c r="J59" s="3">
-        <v>12184000</v>
+        <v>12687200</v>
       </c>
       <c r="K59" s="3">
         <v>11200000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43685600</v>
+        <v>45490000</v>
       </c>
       <c r="E60" s="3">
-        <v>38718900</v>
+        <v>40318100</v>
       </c>
       <c r="F60" s="3">
-        <v>34285000</v>
+        <v>35701100</v>
       </c>
       <c r="G60" s="3">
-        <v>32193400</v>
+        <v>33523100</v>
       </c>
       <c r="H60" s="3">
-        <v>38969400</v>
+        <v>40579000</v>
       </c>
       <c r="I60" s="3">
-        <v>39465900</v>
+        <v>41096000</v>
       </c>
       <c r="J60" s="3">
-        <v>33172100</v>
+        <v>34542300</v>
       </c>
       <c r="K60" s="3">
         <v>26909700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>142514000</v>
+        <v>148400000</v>
       </c>
       <c r="E61" s="3">
-        <v>82406800</v>
+        <v>85810500</v>
       </c>
       <c r="F61" s="3">
-        <v>59963500</v>
+        <v>62440200</v>
       </c>
       <c r="G61" s="3">
-        <v>56843600</v>
+        <v>59191500</v>
       </c>
       <c r="H61" s="3">
-        <v>58551800</v>
+        <v>60970200</v>
       </c>
       <c r="I61" s="3">
-        <v>55515500</v>
+        <v>57808500</v>
       </c>
       <c r="J61" s="3">
-        <v>51738100</v>
+        <v>53875100</v>
       </c>
       <c r="K61" s="3">
         <v>50550200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40101100</v>
+        <v>41757500</v>
       </c>
       <c r="E62" s="3">
-        <v>25266700</v>
+        <v>26310300</v>
       </c>
       <c r="F62" s="3">
-        <v>25671400</v>
+        <v>26731700</v>
       </c>
       <c r="G62" s="3">
-        <v>27266600</v>
+        <v>28392800</v>
       </c>
       <c r="H62" s="3">
-        <v>31459300</v>
+        <v>32758700</v>
       </c>
       <c r="I62" s="3">
-        <v>29446500</v>
+        <v>30662700</v>
       </c>
       <c r="J62" s="3">
-        <v>27193700</v>
+        <v>28316900</v>
       </c>
       <c r="K62" s="3">
         <v>25514900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>269390000</v>
+        <v>280517000</v>
       </c>
       <c r="E66" s="3">
-        <v>163478000</v>
+        <v>170231000</v>
       </c>
       <c r="F66" s="3">
-        <v>134660000</v>
+        <v>140222000</v>
       </c>
       <c r="G66" s="3">
-        <v>130111000</v>
+        <v>135485000</v>
       </c>
       <c r="H66" s="3">
-        <v>140203000</v>
+        <v>145994000</v>
       </c>
       <c r="I66" s="3">
-        <v>134721000</v>
+        <v>140286000</v>
       </c>
       <c r="J66" s="3">
-        <v>122255000</v>
+        <v>127305000</v>
       </c>
       <c r="K66" s="3">
         <v>112765000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40876400</v>
+        <v>-42564700</v>
       </c>
       <c r="E72" s="3">
-        <v>-40988100</v>
+        <v>-42681100</v>
       </c>
       <c r="F72" s="3">
-        <v>-41439900</v>
+        <v>-43151500</v>
       </c>
       <c r="G72" s="3">
-        <v>-41514000</v>
+        <v>-43228700</v>
       </c>
       <c r="H72" s="3">
-        <v>-42411600</v>
+        <v>-44163300</v>
       </c>
       <c r="I72" s="3">
-        <v>-42015100</v>
+        <v>-43750500</v>
       </c>
       <c r="J72" s="3">
-        <v>-43360900</v>
+        <v>-45151900</v>
       </c>
       <c r="K72" s="3">
         <v>-43669700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42258600</v>
+        <v>44004100</v>
       </c>
       <c r="E76" s="3">
-        <v>37300100</v>
+        <v>38840800</v>
       </c>
       <c r="F76" s="3">
-        <v>36359000</v>
+        <v>37860800</v>
       </c>
       <c r="G76" s="3">
-        <v>36154300</v>
+        <v>37647600</v>
       </c>
       <c r="H76" s="3">
-        <v>34474400</v>
+        <v>35898300</v>
       </c>
       <c r="I76" s="3">
-        <v>34586200</v>
+        <v>36014700</v>
       </c>
       <c r="J76" s="3">
-        <v>29924100</v>
+        <v>31160100</v>
       </c>
       <c r="K76" s="3">
         <v>28564100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4891500</v>
+        <v>5093500</v>
       </c>
       <c r="E81" s="3">
-        <v>4549100</v>
+        <v>4737000</v>
       </c>
       <c r="F81" s="3">
-        <v>2548100</v>
+        <v>2653300</v>
       </c>
       <c r="G81" s="3">
-        <v>4071500</v>
+        <v>4239700</v>
       </c>
       <c r="H81" s="3">
-        <v>3146900</v>
+        <v>3276800</v>
       </c>
       <c r="I81" s="3">
-        <v>3828000</v>
+        <v>3986100</v>
       </c>
       <c r="J81" s="3">
-        <v>3439800</v>
+        <v>3581900</v>
       </c>
       <c r="K81" s="3">
         <v>1112500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29267700</v>
+        <v>30476500</v>
       </c>
       <c r="E83" s="3">
-        <v>20403500</v>
+        <v>21246200</v>
       </c>
       <c r="F83" s="3">
-        <v>16276700</v>
+        <v>16949000</v>
       </c>
       <c r="G83" s="3">
-        <v>17159000</v>
+        <v>17867700</v>
       </c>
       <c r="H83" s="3">
-        <v>15740200</v>
+        <v>16390400</v>
       </c>
       <c r="I83" s="3">
-        <v>13363900</v>
+        <v>13915900</v>
       </c>
       <c r="J83" s="3">
-        <v>12439300</v>
+        <v>12953000</v>
       </c>
       <c r="K83" s="3">
         <v>13043400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27846600</v>
+        <v>28996700</v>
       </c>
       <c r="E89" s="3">
-        <v>27144300</v>
+        <v>28265400</v>
       </c>
       <c r="F89" s="3">
-        <v>21104600</v>
+        <v>21976300</v>
       </c>
       <c r="G89" s="3">
-        <v>20232900</v>
+        <v>21068600</v>
       </c>
       <c r="H89" s="3">
-        <v>18269500</v>
+        <v>19024100</v>
       </c>
       <c r="I89" s="3">
-        <v>17643600</v>
+        <v>18372400</v>
       </c>
       <c r="J89" s="3">
-        <v>15793200</v>
+        <v>16445500</v>
       </c>
       <c r="K89" s="3">
         <v>15532700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15220300</v>
+        <v>-15848900</v>
       </c>
       <c r="E91" s="3">
-        <v>-11742800</v>
+        <v>-12227900</v>
       </c>
       <c r="F91" s="3">
-        <v>-10751100</v>
+        <v>-11195200</v>
       </c>
       <c r="G91" s="3">
-        <v>-10762900</v>
+        <v>-11207400</v>
       </c>
       <c r="H91" s="3">
-        <v>-9454700</v>
+        <v>-9845200</v>
       </c>
       <c r="I91" s="3">
-        <v>-9607700</v>
+        <v>-10004500</v>
       </c>
       <c r="J91" s="3">
-        <v>-8453600</v>
+        <v>-8802800</v>
       </c>
       <c r="K91" s="3">
         <v>-7859000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26644300</v>
+        <v>-27744800</v>
       </c>
       <c r="E94" s="3">
-        <v>-16740200</v>
+        <v>-17431600</v>
       </c>
       <c r="F94" s="3">
-        <v>-16819000</v>
+        <v>-17513700</v>
       </c>
       <c r="G94" s="3">
-        <v>-19780000</v>
+        <v>-20597000</v>
       </c>
       <c r="H94" s="3">
-        <v>-16008500</v>
+        <v>-16669700</v>
       </c>
       <c r="I94" s="3">
-        <v>-17663600</v>
+        <v>-18393200</v>
       </c>
       <c r="J94" s="3">
-        <v>-12659200</v>
+        <v>-13182100</v>
       </c>
       <c r="K94" s="3">
         <v>-11837600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3608000</v>
+        <v>-3757000</v>
       </c>
       <c r="E96" s="3">
-        <v>-4189200</v>
+        <v>-4362200</v>
       </c>
       <c r="F96" s="3">
-        <v>-3828000</v>
+        <v>-3986100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1834000</v>
+        <v>-1909800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1877500</v>
+        <v>-1955100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1477600</v>
+        <v>-1538600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1517600</v>
+        <v>-1580200</v>
       </c>
       <c r="K96" s="3">
         <v>-2683100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8894800</v>
+        <v>9262100</v>
       </c>
       <c r="E100" s="3">
-        <v>-8400700</v>
+        <v>-8747700</v>
       </c>
       <c r="F100" s="3">
-        <v>-3833900</v>
+        <v>-3992200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5404400</v>
+        <v>-5627600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1555200</v>
+        <v>-1619400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1030500</v>
+        <v>-1073100</v>
       </c>
       <c r="J100" s="3">
-        <v>-4039800</v>
+        <v>-4206600</v>
       </c>
       <c r="K100" s="3">
         <v>1222500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1218800</v>
+        <v>-1269100</v>
       </c>
       <c r="E101" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="F101" s="3">
-        <v>-20000</v>
+        <v>-20800</v>
       </c>
       <c r="G101" s="3">
-        <v>-265900</v>
+        <v>-276800</v>
       </c>
       <c r="H101" s="3">
-        <v>294100</v>
+        <v>306200</v>
       </c>
       <c r="I101" s="3">
-        <v>314100</v>
+        <v>327100</v>
       </c>
       <c r="J101" s="3">
-        <v>380000</v>
+        <v>395700</v>
       </c>
       <c r="K101" s="3">
         <v>-199800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8878300</v>
+        <v>9245000</v>
       </c>
       <c r="E102" s="3">
-        <v>2016300</v>
+        <v>2099600</v>
       </c>
       <c r="F102" s="3">
-        <v>431700</v>
+        <v>449600</v>
       </c>
       <c r="G102" s="3">
-        <v>-5217300</v>
+        <v>-5432800</v>
       </c>
       <c r="H102" s="3">
-        <v>999900</v>
+        <v>1041200</v>
       </c>
       <c r="I102" s="3">
-        <v>-736400</v>
+        <v>-766800</v>
       </c>
       <c r="J102" s="3">
-        <v>-525900</v>
+        <v>-547600</v>
       </c>
       <c r="K102" s="3">
         <v>4717800</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>123722800</v>
+        <v>117907200</v>
       </c>
       <c r="E8" s="3">
-        <v>98649700</v>
+        <v>94012700</v>
       </c>
       <c r="F8" s="3">
-        <v>92677800</v>
+        <v>88321600</v>
       </c>
       <c r="G8" s="3">
-        <v>91809300</v>
+        <v>87493900</v>
       </c>
       <c r="H8" s="3">
-        <v>89540600</v>
+        <v>85331800</v>
       </c>
       <c r="I8" s="3">
-        <v>84803600</v>
+        <v>80817500</v>
       </c>
       <c r="J8" s="3">
-        <v>76755400</v>
+        <v>73147600</v>
       </c>
       <c r="K8" s="3">
         <v>71929900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51345500</v>
+        <v>48932000</v>
       </c>
       <c r="E9" s="3">
-        <v>42273200</v>
+        <v>40286200</v>
       </c>
       <c r="F9" s="3">
-        <v>43782400</v>
+        <v>41724400</v>
       </c>
       <c r="G9" s="3">
-        <v>43913400</v>
+        <v>41849300</v>
       </c>
       <c r="H9" s="3">
-        <v>42855100</v>
+        <v>40840700</v>
       </c>
       <c r="I9" s="3">
-        <v>51419000</v>
+        <v>49002000</v>
       </c>
       <c r="J9" s="3">
-        <v>47209900</v>
+        <v>44990800</v>
       </c>
       <c r="K9" s="3">
         <v>43368200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>72377300</v>
+        <v>68975300</v>
       </c>
       <c r="E10" s="3">
-        <v>56376500</v>
+        <v>53726500</v>
       </c>
       <c r="F10" s="3">
-        <v>48895500</v>
+        <v>46597200</v>
       </c>
       <c r="G10" s="3">
-        <v>47895900</v>
+        <v>45644600</v>
       </c>
       <c r="H10" s="3">
-        <v>46685600</v>
+        <v>44491200</v>
       </c>
       <c r="I10" s="3">
-        <v>33384700</v>
+        <v>31815400</v>
       </c>
       <c r="J10" s="3">
-        <v>29545500</v>
+        <v>28156800</v>
       </c>
       <c r="K10" s="3">
         <v>28561700</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>216800</v>
+        <v>206600</v>
       </c>
       <c r="E14" s="3">
-        <v>900400</v>
+        <v>858000</v>
       </c>
       <c r="F14" s="3">
-        <v>1474900</v>
+        <v>1405600</v>
       </c>
       <c r="G14" s="3">
-        <v>601500</v>
+        <v>573200</v>
       </c>
       <c r="H14" s="3">
-        <v>826900</v>
+        <v>788000</v>
       </c>
       <c r="I14" s="3">
-        <v>181300</v>
+        <v>172800</v>
       </c>
       <c r="J14" s="3">
-        <v>145800</v>
+        <v>138900</v>
       </c>
       <c r="K14" s="3">
         <v>978500</v>
@@ -952,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30662700</v>
+        <v>29221400</v>
       </c>
       <c r="E15" s="3">
-        <v>21155600</v>
+        <v>20161200</v>
       </c>
       <c r="F15" s="3">
-        <v>16064500</v>
+        <v>15309400</v>
       </c>
       <c r="G15" s="3">
-        <v>15226600</v>
+        <v>14510900</v>
       </c>
       <c r="H15" s="3">
-        <v>15542700</v>
+        <v>14812100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>108038000</v>
+        <v>102959700</v>
       </c>
       <c r="E17" s="3">
-        <v>87064900</v>
+        <v>82972500</v>
       </c>
       <c r="F17" s="3">
-        <v>82846100</v>
+        <v>78951900</v>
       </c>
       <c r="G17" s="3">
-        <v>80315200</v>
+        <v>76540100</v>
       </c>
       <c r="H17" s="3">
-        <v>78314800</v>
+        <v>74633700</v>
       </c>
       <c r="I17" s="3">
-        <v>76194400</v>
+        <v>72612900</v>
       </c>
       <c r="J17" s="3">
-        <v>67877900</v>
+        <v>64687400</v>
       </c>
       <c r="K17" s="3">
         <v>66032600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15684800</v>
+        <v>14947500</v>
       </c>
       <c r="E18" s="3">
-        <v>11584700</v>
+        <v>11040200</v>
       </c>
       <c r="F18" s="3">
-        <v>9831800</v>
+        <v>9369600</v>
       </c>
       <c r="G18" s="3">
-        <v>11494100</v>
+        <v>10953800</v>
       </c>
       <c r="H18" s="3">
-        <v>11225800</v>
+        <v>10698100</v>
       </c>
       <c r="I18" s="3">
-        <v>8609200</v>
+        <v>8204600</v>
       </c>
       <c r="J18" s="3">
-        <v>8877500</v>
+        <v>8460200</v>
       </c>
       <c r="K18" s="3">
         <v>5897300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>626000</v>
+        <v>596500</v>
       </c>
       <c r="E20" s="3">
-        <v>630900</v>
+        <v>601200</v>
       </c>
       <c r="F20" s="3">
-        <v>-954300</v>
+        <v>-909400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2293200</v>
+        <v>-2185400</v>
       </c>
       <c r="H20" s="3">
-        <v>-2329900</v>
+        <v>-2220400</v>
       </c>
       <c r="I20" s="3">
-        <v>439800</v>
+        <v>419100</v>
       </c>
       <c r="J20" s="3">
-        <v>-284200</v>
+        <v>-270800</v>
       </c>
       <c r="K20" s="3">
         <v>-492800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46700200</v>
+        <v>44677400</v>
       </c>
       <c r="E21" s="3">
-        <v>33401100</v>
+        <v>31951200</v>
       </c>
       <c r="F21" s="3">
-        <v>25778000</v>
+        <v>24662200</v>
       </c>
       <c r="G21" s="3">
-        <v>27017600</v>
+        <v>25848600</v>
       </c>
       <c r="H21" s="3">
-        <v>25239400</v>
+        <v>24145700</v>
       </c>
       <c r="I21" s="3">
-        <v>22925100</v>
+        <v>21926200</v>
       </c>
       <c r="J21" s="3">
-        <v>21509300</v>
+        <v>20571500</v>
       </c>
       <c r="K21" s="3">
         <v>18394400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5681500</v>
+        <v>5414400</v>
       </c>
       <c r="E22" s="3">
-        <v>3322200</v>
+        <v>3166000</v>
       </c>
       <c r="F22" s="3">
-        <v>2565100</v>
+        <v>2444600</v>
       </c>
       <c r="G22" s="3">
-        <v>3083300</v>
+        <v>2938400</v>
       </c>
       <c r="H22" s="3">
-        <v>3325800</v>
+        <v>3169500</v>
       </c>
       <c r="I22" s="3">
-        <v>3196000</v>
+        <v>3045800</v>
       </c>
       <c r="J22" s="3">
-        <v>3264600</v>
+        <v>3111100</v>
       </c>
       <c r="K22" s="3">
         <v>2858900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10629200</v>
+        <v>10129600</v>
       </c>
       <c r="E23" s="3">
-        <v>8893400</v>
+        <v>8475400</v>
       </c>
       <c r="F23" s="3">
-        <v>6312400</v>
+        <v>6015700</v>
       </c>
       <c r="G23" s="3">
-        <v>6117600</v>
+        <v>5830000</v>
       </c>
       <c r="H23" s="3">
-        <v>5570000</v>
+        <v>5308200</v>
       </c>
       <c r="I23" s="3">
-        <v>5853000</v>
+        <v>5577900</v>
       </c>
       <c r="J23" s="3">
-        <v>5328700</v>
+        <v>5078200</v>
       </c>
       <c r="K23" s="3">
         <v>2545500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2363000</v>
+        <v>2251900</v>
       </c>
       <c r="E24" s="3">
-        <v>2441400</v>
+        <v>2326600</v>
       </c>
       <c r="F24" s="3">
-        <v>2234400</v>
+        <v>2129400</v>
       </c>
       <c r="G24" s="3">
-        <v>-683500</v>
+        <v>-651400</v>
       </c>
       <c r="H24" s="3">
-        <v>1767700</v>
+        <v>1684600</v>
       </c>
       <c r="I24" s="3">
-        <v>1563100</v>
+        <v>1489600</v>
       </c>
       <c r="J24" s="3">
-        <v>1354800</v>
+        <v>1291200</v>
       </c>
       <c r="K24" s="3">
         <v>1105300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8266200</v>
+        <v>7877700</v>
       </c>
       <c r="E26" s="3">
-        <v>6452000</v>
+        <v>6148700</v>
       </c>
       <c r="F26" s="3">
-        <v>4078000</v>
+        <v>3886300</v>
       </c>
       <c r="G26" s="3">
-        <v>6801100</v>
+        <v>6481500</v>
       </c>
       <c r="H26" s="3">
-        <v>3802400</v>
+        <v>3623600</v>
       </c>
       <c r="I26" s="3">
-        <v>4289900</v>
+        <v>4088300</v>
       </c>
       <c r="J26" s="3">
-        <v>3973900</v>
+        <v>3787100</v>
       </c>
       <c r="K26" s="3">
         <v>1440200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5093500</v>
+        <v>4854100</v>
       </c>
       <c r="E27" s="3">
-        <v>4737000</v>
+        <v>4514400</v>
       </c>
       <c r="F27" s="3">
-        <v>2653300</v>
+        <v>2528600</v>
       </c>
       <c r="G27" s="3">
-        <v>4239700</v>
+        <v>4040400</v>
       </c>
       <c r="H27" s="3">
-        <v>3276800</v>
+        <v>3122800</v>
       </c>
       <c r="I27" s="3">
-        <v>3986100</v>
+        <v>3798800</v>
       </c>
       <c r="J27" s="3">
-        <v>3581900</v>
+        <v>3413500</v>
       </c>
       <c r="K27" s="3">
         <v>1112500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-626000</v>
+        <v>-596500</v>
       </c>
       <c r="E32" s="3">
-        <v>-630900</v>
+        <v>-601200</v>
       </c>
       <c r="F32" s="3">
-        <v>954300</v>
+        <v>909400</v>
       </c>
       <c r="G32" s="3">
-        <v>2293200</v>
+        <v>2185400</v>
       </c>
       <c r="H32" s="3">
-        <v>2329900</v>
+        <v>2220400</v>
       </c>
       <c r="I32" s="3">
-        <v>-439800</v>
+        <v>-419100</v>
       </c>
       <c r="J32" s="3">
-        <v>284200</v>
+        <v>270800</v>
       </c>
       <c r="K32" s="3">
         <v>492800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5093500</v>
+        <v>4854100</v>
       </c>
       <c r="E33" s="3">
-        <v>4737000</v>
+        <v>4514400</v>
       </c>
       <c r="F33" s="3">
-        <v>2653300</v>
+        <v>2528600</v>
       </c>
       <c r="G33" s="3">
-        <v>4239700</v>
+        <v>4040400</v>
       </c>
       <c r="H33" s="3">
-        <v>3276800</v>
+        <v>3122800</v>
       </c>
       <c r="I33" s="3">
-        <v>3986100</v>
+        <v>3798800</v>
       </c>
       <c r="J33" s="3">
-        <v>3581900</v>
+        <v>3413500</v>
       </c>
       <c r="K33" s="3">
         <v>1112500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5093500</v>
+        <v>4854100</v>
       </c>
       <c r="E35" s="3">
-        <v>4737000</v>
+        <v>4514400</v>
       </c>
       <c r="F35" s="3">
-        <v>2653300</v>
+        <v>2528600</v>
       </c>
       <c r="G35" s="3">
-        <v>4239700</v>
+        <v>4040400</v>
       </c>
       <c r="H35" s="3">
-        <v>3276800</v>
+        <v>3122800</v>
       </c>
       <c r="I35" s="3">
-        <v>3986100</v>
+        <v>3798800</v>
       </c>
       <c r="J35" s="3">
-        <v>3581900</v>
+        <v>3413500</v>
       </c>
       <c r="K35" s="3">
         <v>1112500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15850100</v>
+        <v>15105100</v>
       </c>
       <c r="E41" s="3">
-        <v>6606400</v>
+        <v>6295800</v>
       </c>
       <c r="F41" s="3">
-        <v>4506700</v>
+        <v>4294900</v>
       </c>
       <c r="G41" s="3">
-        <v>4057200</v>
+        <v>3866500</v>
       </c>
       <c r="H41" s="3">
-        <v>9490000</v>
+        <v>9043900</v>
       </c>
       <c r="I41" s="3">
-        <v>8448800</v>
+        <v>8051600</v>
       </c>
       <c r="J41" s="3">
-        <v>9215600</v>
+        <v>8782400</v>
       </c>
       <c r="K41" s="3">
         <v>9533700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>113900</v>
+        <v>108600</v>
       </c>
       <c r="E42" s="3">
-        <v>35500</v>
+        <v>33900</v>
       </c>
       <c r="F42" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I42" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="J42" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K42" s="3">
         <v>6000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23181700</v>
+        <v>22092100</v>
       </c>
       <c r="E43" s="3">
-        <v>20016300</v>
+        <v>19075500</v>
       </c>
       <c r="F43" s="3">
-        <v>18287900</v>
+        <v>17428300</v>
       </c>
       <c r="G43" s="3">
-        <v>15893000</v>
+        <v>15146000</v>
       </c>
       <c r="H43" s="3">
-        <v>17987800</v>
+        <v>17142200</v>
       </c>
       <c r="I43" s="3">
-        <v>14774600</v>
+        <v>14080100</v>
       </c>
       <c r="J43" s="3">
-        <v>16133100</v>
+        <v>15374800</v>
       </c>
       <c r="K43" s="3">
         <v>12149800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3301300</v>
+        <v>3146200</v>
       </c>
       <c r="E44" s="3">
-        <v>1920800</v>
+        <v>1830500</v>
       </c>
       <c r="F44" s="3">
-        <v>2192700</v>
+        <v>2089700</v>
       </c>
       <c r="G44" s="3">
-        <v>2431600</v>
+        <v>2317300</v>
       </c>
       <c r="H44" s="3">
-        <v>1995500</v>
+        <v>1901700</v>
       </c>
       <c r="I44" s="3">
-        <v>2262600</v>
+        <v>2156200</v>
       </c>
       <c r="J44" s="3">
-        <v>1841200</v>
+        <v>1754600</v>
       </c>
       <c r="K44" s="3">
         <v>1270400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3236400</v>
+        <v>3084300</v>
       </c>
       <c r="E45" s="3">
-        <v>1664800</v>
+        <v>1586500</v>
       </c>
       <c r="F45" s="3">
-        <v>1788500</v>
+        <v>1704400</v>
       </c>
       <c r="G45" s="3">
-        <v>2598200</v>
+        <v>2476100</v>
       </c>
       <c r="H45" s="3">
-        <v>3155600</v>
+        <v>3007200</v>
       </c>
       <c r="I45" s="3">
-        <v>13934300</v>
+        <v>13279300</v>
       </c>
       <c r="J45" s="3">
-        <v>9308700</v>
+        <v>8871100</v>
       </c>
       <c r="K45" s="3">
         <v>3312300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45683600</v>
+        <v>43536200</v>
       </c>
       <c r="E46" s="3">
-        <v>30243800</v>
+        <v>28822200</v>
       </c>
       <c r="F46" s="3">
-        <v>26790500</v>
+        <v>25531300</v>
       </c>
       <c r="G46" s="3">
-        <v>24980000</v>
+        <v>23805800</v>
       </c>
       <c r="H46" s="3">
-        <v>32631300</v>
+        <v>31097500</v>
       </c>
       <c r="I46" s="3">
-        <v>39425100</v>
+        <v>37571900</v>
       </c>
       <c r="J46" s="3">
-        <v>36502300</v>
+        <v>34786500</v>
       </c>
       <c r="K46" s="3">
         <v>26272100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8524700</v>
+        <v>8124000</v>
       </c>
       <c r="E47" s="3">
-        <v>5494100</v>
+        <v>5235800</v>
       </c>
       <c r="F47" s="3">
-        <v>2647200</v>
+        <v>2522800</v>
       </c>
       <c r="G47" s="3">
-        <v>7799500</v>
+        <v>7432900</v>
       </c>
       <c r="H47" s="3">
-        <v>10548400</v>
+        <v>10052600</v>
       </c>
       <c r="I47" s="3">
-        <v>5331200</v>
+        <v>5080600</v>
       </c>
       <c r="J47" s="3">
-        <v>3553700</v>
+        <v>3386700</v>
       </c>
       <c r="K47" s="3">
         <v>9006200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>111813000</v>
+        <v>106558000</v>
       </c>
       <c r="E48" s="3">
-        <v>82743200</v>
+        <v>78853900</v>
       </c>
       <c r="F48" s="3">
-        <v>62022500</v>
+        <v>59107100</v>
       </c>
       <c r="G48" s="3">
-        <v>57425100</v>
+        <v>54725800</v>
       </c>
       <c r="H48" s="3">
-        <v>57278100</v>
+        <v>54585800</v>
       </c>
       <c r="I48" s="3">
-        <v>54679900</v>
+        <v>52109700</v>
       </c>
       <c r="J48" s="3">
-        <v>48529200</v>
+        <v>46248100</v>
       </c>
       <c r="K48" s="3">
         <v>44770200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>144630000</v>
+        <v>137831000</v>
       </c>
       <c r="E49" s="3">
-        <v>83546800</v>
+        <v>79619700</v>
       </c>
       <c r="F49" s="3">
-        <v>79563100</v>
+        <v>75823300</v>
       </c>
       <c r="G49" s="3">
-        <v>77009000</v>
+        <v>73389200</v>
       </c>
       <c r="H49" s="3">
-        <v>74233200</v>
+        <v>70743900</v>
       </c>
       <c r="I49" s="3">
-        <v>69855100</v>
+        <v>66571600</v>
       </c>
       <c r="J49" s="3">
-        <v>63166600</v>
+        <v>60197500</v>
       </c>
       <c r="K49" s="3">
         <v>54985700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13869300</v>
+        <v>13217400</v>
       </c>
       <c r="E52" s="3">
-        <v>7043700</v>
+        <v>6712600</v>
       </c>
       <c r="F52" s="3">
-        <v>7059600</v>
+        <v>6727800</v>
       </c>
       <c r="G52" s="3">
-        <v>5919200</v>
+        <v>5640900</v>
       </c>
       <c r="H52" s="3">
-        <v>7201700</v>
+        <v>6863200</v>
       </c>
       <c r="I52" s="3">
-        <v>7009400</v>
+        <v>6679900</v>
       </c>
       <c r="J52" s="3">
-        <v>6712900</v>
+        <v>6397400</v>
       </c>
       <c r="K52" s="3">
         <v>6294400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>324521000</v>
+        <v>309267000</v>
       </c>
       <c r="E54" s="3">
-        <v>209072000</v>
+        <v>199244000</v>
       </c>
       <c r="F54" s="3">
-        <v>178083000</v>
+        <v>169712000</v>
       </c>
       <c r="G54" s="3">
-        <v>173133000</v>
+        <v>164995000</v>
       </c>
       <c r="H54" s="3">
-        <v>181893000</v>
+        <v>173343000</v>
       </c>
       <c r="I54" s="3">
-        <v>176301000</v>
+        <v>168014000</v>
       </c>
       <c r="J54" s="3">
-        <v>158465000</v>
+        <v>151016000</v>
       </c>
       <c r="K54" s="3">
         <v>141329000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11871400</v>
+        <v>11313400</v>
       </c>
       <c r="E57" s="3">
-        <v>11527200</v>
+        <v>10985300</v>
       </c>
       <c r="F57" s="3">
-        <v>13106200</v>
+        <v>12490100</v>
       </c>
       <c r="G57" s="3">
-        <v>13394000</v>
+        <v>12764500</v>
       </c>
       <c r="H57" s="3">
-        <v>12725200</v>
+        <v>12127100</v>
       </c>
       <c r="I57" s="3">
-        <v>13520200</v>
+        <v>12884700</v>
       </c>
       <c r="J57" s="3">
-        <v>11797900</v>
+        <v>11243300</v>
       </c>
       <c r="K57" s="3">
         <v>8649700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18684800</v>
+        <v>17806500</v>
       </c>
       <c r="E58" s="3">
-        <v>15940800</v>
+        <v>15191500</v>
       </c>
       <c r="F58" s="3">
-        <v>10555700</v>
+        <v>10059600</v>
       </c>
       <c r="G58" s="3">
-        <v>8516100</v>
+        <v>8115800</v>
       </c>
       <c r="H58" s="3">
-        <v>13911000</v>
+        <v>13257100</v>
       </c>
       <c r="I58" s="3">
-        <v>15398100</v>
+        <v>14674300</v>
       </c>
       <c r="J58" s="3">
-        <v>10057200</v>
+        <v>9584400</v>
       </c>
       <c r="K58" s="3">
         <v>7060000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14933900</v>
+        <v>14231900</v>
       </c>
       <c r="E59" s="3">
-        <v>12850100</v>
+        <v>12246100</v>
       </c>
       <c r="F59" s="3">
-        <v>12039200</v>
+        <v>11473300</v>
       </c>
       <c r="G59" s="3">
-        <v>11612900</v>
+        <v>11067000</v>
       </c>
       <c r="H59" s="3">
-        <v>13942800</v>
+        <v>13287500</v>
       </c>
       <c r="I59" s="3">
-        <v>12177600</v>
+        <v>11605200</v>
       </c>
       <c r="J59" s="3">
-        <v>12687200</v>
+        <v>12090900</v>
       </c>
       <c r="K59" s="3">
         <v>11200000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45490000</v>
+        <v>43351800</v>
       </c>
       <c r="E60" s="3">
-        <v>40318100</v>
+        <v>38423000</v>
       </c>
       <c r="F60" s="3">
-        <v>35701100</v>
+        <v>34023000</v>
       </c>
       <c r="G60" s="3">
-        <v>33523100</v>
+        <v>31947300</v>
       </c>
       <c r="H60" s="3">
-        <v>40579000</v>
+        <v>38671600</v>
       </c>
       <c r="I60" s="3">
-        <v>41096000</v>
+        <v>39164300</v>
       </c>
       <c r="J60" s="3">
-        <v>34542300</v>
+        <v>32918600</v>
       </c>
       <c r="K60" s="3">
         <v>26909700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>148400000</v>
+        <v>141425000</v>
       </c>
       <c r="E61" s="3">
-        <v>85810500</v>
+        <v>81777100</v>
       </c>
       <c r="F61" s="3">
-        <v>62440200</v>
+        <v>59505200</v>
       </c>
       <c r="G61" s="3">
-        <v>59191500</v>
+        <v>56409300</v>
       </c>
       <c r="H61" s="3">
-        <v>60970200</v>
+        <v>58104300</v>
       </c>
       <c r="I61" s="3">
-        <v>57808500</v>
+        <v>55091200</v>
       </c>
       <c r="J61" s="3">
-        <v>53875100</v>
+        <v>51342700</v>
       </c>
       <c r="K61" s="3">
         <v>50550200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41757500</v>
+        <v>39794700</v>
       </c>
       <c r="E62" s="3">
-        <v>26310300</v>
+        <v>25073600</v>
       </c>
       <c r="F62" s="3">
-        <v>26731700</v>
+        <v>25475200</v>
       </c>
       <c r="G62" s="3">
-        <v>28392800</v>
+        <v>27058200</v>
       </c>
       <c r="H62" s="3">
-        <v>32758700</v>
+        <v>31218900</v>
       </c>
       <c r="I62" s="3">
-        <v>30662700</v>
+        <v>29221400</v>
       </c>
       <c r="J62" s="3">
-        <v>28316900</v>
+        <v>26985800</v>
       </c>
       <c r="K62" s="3">
         <v>25514900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>280517000</v>
+        <v>267331000</v>
       </c>
       <c r="E66" s="3">
-        <v>170231000</v>
+        <v>162229000</v>
       </c>
       <c r="F66" s="3">
-        <v>140222000</v>
+        <v>133631000</v>
       </c>
       <c r="G66" s="3">
-        <v>135485000</v>
+        <v>129117000</v>
       </c>
       <c r="H66" s="3">
-        <v>145994000</v>
+        <v>139132000</v>
       </c>
       <c r="I66" s="3">
-        <v>140286000</v>
+        <v>133692000</v>
       </c>
       <c r="J66" s="3">
-        <v>127305000</v>
+        <v>121321000</v>
       </c>
       <c r="K66" s="3">
         <v>112765000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42564700</v>
+        <v>-40564000</v>
       </c>
       <c r="E72" s="3">
-        <v>-42681100</v>
+        <v>-40674900</v>
       </c>
       <c r="F72" s="3">
-        <v>-43151500</v>
+        <v>-41123200</v>
       </c>
       <c r="G72" s="3">
-        <v>-43228700</v>
+        <v>-41196700</v>
       </c>
       <c r="H72" s="3">
-        <v>-44163300</v>
+        <v>-42087500</v>
       </c>
       <c r="I72" s="3">
-        <v>-43750500</v>
+        <v>-41694000</v>
       </c>
       <c r="J72" s="3">
-        <v>-45151900</v>
+        <v>-43029600</v>
       </c>
       <c r="K72" s="3">
         <v>-43669700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44004100</v>
+        <v>41935700</v>
       </c>
       <c r="E76" s="3">
-        <v>38840800</v>
+        <v>37015100</v>
       </c>
       <c r="F76" s="3">
-        <v>37860800</v>
+        <v>36081100</v>
       </c>
       <c r="G76" s="3">
-        <v>37647600</v>
+        <v>35878000</v>
       </c>
       <c r="H76" s="3">
-        <v>35898300</v>
+        <v>34211000</v>
       </c>
       <c r="I76" s="3">
-        <v>36014700</v>
+        <v>34321900</v>
       </c>
       <c r="J76" s="3">
-        <v>31160100</v>
+        <v>29695400</v>
       </c>
       <c r="K76" s="3">
         <v>28564100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5093500</v>
+        <v>4854100</v>
       </c>
       <c r="E81" s="3">
-        <v>4737000</v>
+        <v>4514400</v>
       </c>
       <c r="F81" s="3">
-        <v>2653300</v>
+        <v>2528600</v>
       </c>
       <c r="G81" s="3">
-        <v>4239700</v>
+        <v>4040400</v>
       </c>
       <c r="H81" s="3">
-        <v>3276800</v>
+        <v>3122800</v>
       </c>
       <c r="I81" s="3">
-        <v>3986100</v>
+        <v>3798800</v>
       </c>
       <c r="J81" s="3">
-        <v>3581900</v>
+        <v>3413500</v>
       </c>
       <c r="K81" s="3">
         <v>1112500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30476500</v>
+        <v>29044000</v>
       </c>
       <c r="E83" s="3">
-        <v>21246200</v>
+        <v>20247600</v>
       </c>
       <c r="F83" s="3">
-        <v>16949000</v>
+        <v>16152300</v>
       </c>
       <c r="G83" s="3">
-        <v>17867700</v>
+        <v>17027800</v>
       </c>
       <c r="H83" s="3">
-        <v>16390400</v>
+        <v>15619900</v>
       </c>
       <c r="I83" s="3">
-        <v>13915900</v>
+        <v>13261800</v>
       </c>
       <c r="J83" s="3">
-        <v>12953000</v>
+        <v>12344200</v>
       </c>
       <c r="K83" s="3">
         <v>13043400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28996700</v>
+        <v>27633800</v>
       </c>
       <c r="E89" s="3">
-        <v>28265400</v>
+        <v>26936800</v>
       </c>
       <c r="F89" s="3">
-        <v>21976300</v>
+        <v>20943300</v>
       </c>
       <c r="G89" s="3">
-        <v>21068600</v>
+        <v>20078300</v>
       </c>
       <c r="H89" s="3">
-        <v>19024100</v>
+        <v>18129900</v>
       </c>
       <c r="I89" s="3">
-        <v>18372400</v>
+        <v>17508800</v>
       </c>
       <c r="J89" s="3">
-        <v>16445500</v>
+        <v>15672500</v>
       </c>
       <c r="K89" s="3">
         <v>15532700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15848900</v>
+        <v>-15104000</v>
       </c>
       <c r="E91" s="3">
-        <v>-12227900</v>
+        <v>-11653100</v>
       </c>
       <c r="F91" s="3">
-        <v>-11195200</v>
+        <v>-10669000</v>
       </c>
       <c r="G91" s="3">
-        <v>-11207400</v>
+        <v>-10680600</v>
       </c>
       <c r="H91" s="3">
-        <v>-9845200</v>
+        <v>-9382500</v>
       </c>
       <c r="I91" s="3">
-        <v>-10004500</v>
+        <v>-9534200</v>
       </c>
       <c r="J91" s="3">
-        <v>-8802800</v>
+        <v>-8389000</v>
       </c>
       <c r="K91" s="3">
         <v>-7859000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27744800</v>
+        <v>-26440700</v>
       </c>
       <c r="E94" s="3">
-        <v>-17431600</v>
+        <v>-16612200</v>
       </c>
       <c r="F94" s="3">
-        <v>-17513700</v>
+        <v>-16690500</v>
       </c>
       <c r="G94" s="3">
-        <v>-20597000</v>
+        <v>-19628800</v>
       </c>
       <c r="H94" s="3">
-        <v>-16669700</v>
+        <v>-15886100</v>
       </c>
       <c r="I94" s="3">
-        <v>-18393200</v>
+        <v>-17528700</v>
       </c>
       <c r="J94" s="3">
-        <v>-13182100</v>
+        <v>-12562500</v>
       </c>
       <c r="K94" s="3">
         <v>-11837600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3757000</v>
+        <v>-3580400</v>
       </c>
       <c r="E96" s="3">
-        <v>-4362200</v>
+        <v>-4157100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3986100</v>
+        <v>-3598000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1909800</v>
+        <v>-1820000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1955100</v>
+        <v>-1863200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1538600</v>
+        <v>-1466300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1580200</v>
+        <v>-1506000</v>
       </c>
       <c r="K96" s="3">
         <v>-2683100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9262100</v>
+        <v>8826800</v>
       </c>
       <c r="E100" s="3">
-        <v>-8747700</v>
+        <v>-8336500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3992200</v>
+        <v>-3804600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5627600</v>
+        <v>-5363100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1619400</v>
+        <v>-1543300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1073100</v>
+        <v>-1022700</v>
       </c>
       <c r="J100" s="3">
-        <v>-4206600</v>
+        <v>-4008900</v>
       </c>
       <c r="K100" s="3">
         <v>1222500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1269100</v>
+        <v>-1209400</v>
       </c>
       <c r="E101" s="3">
-        <v>13500</v>
+        <v>12800</v>
       </c>
       <c r="F101" s="3">
-        <v>-20800</v>
+        <v>-19800</v>
       </c>
       <c r="G101" s="3">
-        <v>-276800</v>
+        <v>-263800</v>
       </c>
       <c r="H101" s="3">
-        <v>306200</v>
+        <v>291900</v>
       </c>
       <c r="I101" s="3">
-        <v>327100</v>
+        <v>311700</v>
       </c>
       <c r="J101" s="3">
-        <v>395700</v>
+        <v>377100</v>
       </c>
       <c r="K101" s="3">
         <v>-199800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9245000</v>
+        <v>8810400</v>
       </c>
       <c r="E102" s="3">
-        <v>2099600</v>
+        <v>2000900</v>
       </c>
       <c r="F102" s="3">
-        <v>449600</v>
+        <v>428400</v>
       </c>
       <c r="G102" s="3">
-        <v>-5432800</v>
+        <v>-5177500</v>
       </c>
       <c r="H102" s="3">
-        <v>1041200</v>
+        <v>992300</v>
       </c>
       <c r="I102" s="3">
-        <v>-766800</v>
+        <v>-730800</v>
       </c>
       <c r="J102" s="3">
-        <v>-547600</v>
+        <v>-521800</v>
       </c>
       <c r="K102" s="3">
         <v>4717800</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>117907200</v>
+        <v>114038000</v>
       </c>
       <c r="E8" s="3">
-        <v>94012700</v>
+        <v>90927600</v>
       </c>
       <c r="F8" s="3">
-        <v>88321600</v>
+        <v>85423200</v>
       </c>
       <c r="G8" s="3">
-        <v>87493900</v>
+        <v>84622700</v>
       </c>
       <c r="H8" s="3">
-        <v>85331800</v>
+        <v>82531600</v>
       </c>
       <c r="I8" s="3">
-        <v>80817500</v>
+        <v>78165300</v>
       </c>
       <c r="J8" s="3">
-        <v>73147600</v>
+        <v>70747100</v>
       </c>
       <c r="K8" s="3">
         <v>71929900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48932000</v>
+        <v>47326200</v>
       </c>
       <c r="E9" s="3">
-        <v>40286200</v>
+        <v>38964100</v>
       </c>
       <c r="F9" s="3">
-        <v>41724400</v>
+        <v>40355200</v>
       </c>
       <c r="G9" s="3">
-        <v>41849300</v>
+        <v>40476000</v>
       </c>
       <c r="H9" s="3">
-        <v>40840700</v>
+        <v>39500400</v>
       </c>
       <c r="I9" s="3">
-        <v>49002000</v>
+        <v>47394000</v>
       </c>
       <c r="J9" s="3">
-        <v>44990800</v>
+        <v>43514400</v>
       </c>
       <c r="K9" s="3">
         <v>43368200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>68975300</v>
+        <v>66711700</v>
       </c>
       <c r="E10" s="3">
-        <v>53726500</v>
+        <v>51963400</v>
       </c>
       <c r="F10" s="3">
-        <v>46597200</v>
+        <v>45068000</v>
       </c>
       <c r="G10" s="3">
-        <v>45644600</v>
+        <v>44146700</v>
       </c>
       <c r="H10" s="3">
-        <v>44491200</v>
+        <v>43031100</v>
       </c>
       <c r="I10" s="3">
-        <v>31815400</v>
+        <v>30771400</v>
       </c>
       <c r="J10" s="3">
-        <v>28156800</v>
+        <v>27232800</v>
       </c>
       <c r="K10" s="3">
         <v>28561700</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>206600</v>
+        <v>199900</v>
       </c>
       <c r="E14" s="3">
-        <v>858000</v>
+        <v>829900</v>
       </c>
       <c r="F14" s="3">
-        <v>1405600</v>
+        <v>1359400</v>
       </c>
       <c r="G14" s="3">
-        <v>573200</v>
+        <v>554400</v>
       </c>
       <c r="H14" s="3">
-        <v>788000</v>
+        <v>762100</v>
       </c>
       <c r="I14" s="3">
-        <v>172800</v>
+        <v>167100</v>
       </c>
       <c r="J14" s="3">
-        <v>138900</v>
+        <v>134400</v>
       </c>
       <c r="K14" s="3">
         <v>978500</v>
@@ -952,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29221400</v>
+        <v>28262500</v>
       </c>
       <c r="E15" s="3">
-        <v>20161200</v>
+        <v>19499600</v>
       </c>
       <c r="F15" s="3">
-        <v>15309400</v>
+        <v>14807000</v>
       </c>
       <c r="G15" s="3">
-        <v>14510900</v>
+        <v>14034700</v>
       </c>
       <c r="H15" s="3">
-        <v>14812100</v>
+        <v>14326000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>102959700</v>
+        <v>99581000</v>
       </c>
       <c r="E17" s="3">
-        <v>82972500</v>
+        <v>80249700</v>
       </c>
       <c r="F17" s="3">
-        <v>78951900</v>
+        <v>76361000</v>
       </c>
       <c r="G17" s="3">
-        <v>76540100</v>
+        <v>74028300</v>
       </c>
       <c r="H17" s="3">
-        <v>74633700</v>
+        <v>72184500</v>
       </c>
       <c r="I17" s="3">
-        <v>72612900</v>
+        <v>70230000</v>
       </c>
       <c r="J17" s="3">
-        <v>64687400</v>
+        <v>62564600</v>
       </c>
       <c r="K17" s="3">
         <v>66032600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14947500</v>
+        <v>14457000</v>
       </c>
       <c r="E18" s="3">
-        <v>11040200</v>
+        <v>10677900</v>
       </c>
       <c r="F18" s="3">
-        <v>9369600</v>
+        <v>9062200</v>
       </c>
       <c r="G18" s="3">
-        <v>10953800</v>
+        <v>10594300</v>
       </c>
       <c r="H18" s="3">
-        <v>10698100</v>
+        <v>10347100</v>
       </c>
       <c r="I18" s="3">
-        <v>8204600</v>
+        <v>7935300</v>
       </c>
       <c r="J18" s="3">
-        <v>8460200</v>
+        <v>8182600</v>
       </c>
       <c r="K18" s="3">
         <v>5897300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>596500</v>
+        <v>577000</v>
       </c>
       <c r="E20" s="3">
-        <v>601200</v>
+        <v>581500</v>
       </c>
       <c r="F20" s="3">
-        <v>-909400</v>
+        <v>-879600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2185400</v>
+        <v>-2113700</v>
       </c>
       <c r="H20" s="3">
-        <v>-2220400</v>
+        <v>-2147500</v>
       </c>
       <c r="I20" s="3">
-        <v>419100</v>
+        <v>405300</v>
       </c>
       <c r="J20" s="3">
-        <v>-270800</v>
+        <v>-262000</v>
       </c>
       <c r="K20" s="3">
         <v>-492800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>44677400</v>
+        <v>43189500</v>
       </c>
       <c r="E21" s="3">
-        <v>31951200</v>
+        <v>30887600</v>
       </c>
       <c r="F21" s="3">
-        <v>24662200</v>
+        <v>23840800</v>
       </c>
       <c r="G21" s="3">
-        <v>25848600</v>
+        <v>24987600</v>
       </c>
       <c r="H21" s="3">
-        <v>24145700</v>
+        <v>23341700</v>
       </c>
       <c r="I21" s="3">
-        <v>21926200</v>
+        <v>21196800</v>
       </c>
       <c r="J21" s="3">
-        <v>20571500</v>
+        <v>19887200</v>
       </c>
       <c r="K21" s="3">
         <v>18394400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5414400</v>
+        <v>5236800</v>
       </c>
       <c r="E22" s="3">
-        <v>3166000</v>
+        <v>3062100</v>
       </c>
       <c r="F22" s="3">
-        <v>2444600</v>
+        <v>2364300</v>
       </c>
       <c r="G22" s="3">
-        <v>2938400</v>
+        <v>2841900</v>
       </c>
       <c r="H22" s="3">
-        <v>3169500</v>
+        <v>3065500</v>
       </c>
       <c r="I22" s="3">
-        <v>3045800</v>
+        <v>2945800</v>
       </c>
       <c r="J22" s="3">
-        <v>3111100</v>
+        <v>3009100</v>
       </c>
       <c r="K22" s="3">
         <v>2858900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10129600</v>
+        <v>9797200</v>
       </c>
       <c r="E23" s="3">
-        <v>8475400</v>
+        <v>8197300</v>
       </c>
       <c r="F23" s="3">
-        <v>6015700</v>
+        <v>5818300</v>
       </c>
       <c r="G23" s="3">
-        <v>5830000</v>
+        <v>5638700</v>
       </c>
       <c r="H23" s="3">
-        <v>5308200</v>
+        <v>5134000</v>
       </c>
       <c r="I23" s="3">
-        <v>5577900</v>
+        <v>5394800</v>
       </c>
       <c r="J23" s="3">
-        <v>5078200</v>
+        <v>4911600</v>
       </c>
       <c r="K23" s="3">
         <v>2545500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2251900</v>
+        <v>2178000</v>
       </c>
       <c r="E24" s="3">
-        <v>2326600</v>
+        <v>2250300</v>
       </c>
       <c r="F24" s="3">
-        <v>2129400</v>
+        <v>2059500</v>
       </c>
       <c r="G24" s="3">
-        <v>-651400</v>
+        <v>-630000</v>
       </c>
       <c r="H24" s="3">
-        <v>1684600</v>
+        <v>1629300</v>
       </c>
       <c r="I24" s="3">
-        <v>1489600</v>
+        <v>1440700</v>
       </c>
       <c r="J24" s="3">
-        <v>1291200</v>
+        <v>1248800</v>
       </c>
       <c r="K24" s="3">
         <v>1105300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7877700</v>
+        <v>7619200</v>
       </c>
       <c r="E26" s="3">
-        <v>6148700</v>
+        <v>5947000</v>
       </c>
       <c r="F26" s="3">
-        <v>3886300</v>
+        <v>3758800</v>
       </c>
       <c r="G26" s="3">
-        <v>6481500</v>
+        <v>6268800</v>
       </c>
       <c r="H26" s="3">
-        <v>3623600</v>
+        <v>3504700</v>
       </c>
       <c r="I26" s="3">
-        <v>4088300</v>
+        <v>3954100</v>
       </c>
       <c r="J26" s="3">
-        <v>3787100</v>
+        <v>3662800</v>
       </c>
       <c r="K26" s="3">
         <v>1440200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4854100</v>
+        <v>4694800</v>
       </c>
       <c r="E27" s="3">
-        <v>4514400</v>
+        <v>4366200</v>
       </c>
       <c r="F27" s="3">
-        <v>2528600</v>
+        <v>2445600</v>
       </c>
       <c r="G27" s="3">
-        <v>4040400</v>
+        <v>3907800</v>
       </c>
       <c r="H27" s="3">
-        <v>3122800</v>
+        <v>3020300</v>
       </c>
       <c r="I27" s="3">
-        <v>3798800</v>
+        <v>3674100</v>
       </c>
       <c r="J27" s="3">
-        <v>3413500</v>
+        <v>3301500</v>
       </c>
       <c r="K27" s="3">
         <v>1112500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-596500</v>
+        <v>-577000</v>
       </c>
       <c r="E32" s="3">
-        <v>-601200</v>
+        <v>-581500</v>
       </c>
       <c r="F32" s="3">
-        <v>909400</v>
+        <v>879600</v>
       </c>
       <c r="G32" s="3">
-        <v>2185400</v>
+        <v>2113700</v>
       </c>
       <c r="H32" s="3">
-        <v>2220400</v>
+        <v>2147500</v>
       </c>
       <c r="I32" s="3">
-        <v>-419100</v>
+        <v>-405300</v>
       </c>
       <c r="J32" s="3">
-        <v>270800</v>
+        <v>262000</v>
       </c>
       <c r="K32" s="3">
         <v>492800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4854100</v>
+        <v>4694800</v>
       </c>
       <c r="E33" s="3">
-        <v>4514400</v>
+        <v>4366200</v>
       </c>
       <c r="F33" s="3">
-        <v>2528600</v>
+        <v>2445600</v>
       </c>
       <c r="G33" s="3">
-        <v>4040400</v>
+        <v>3907800</v>
       </c>
       <c r="H33" s="3">
-        <v>3122800</v>
+        <v>3020300</v>
       </c>
       <c r="I33" s="3">
-        <v>3798800</v>
+        <v>3674100</v>
       </c>
       <c r="J33" s="3">
-        <v>3413500</v>
+        <v>3301500</v>
       </c>
       <c r="K33" s="3">
         <v>1112500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4854100</v>
+        <v>4694800</v>
       </c>
       <c r="E35" s="3">
-        <v>4514400</v>
+        <v>4366200</v>
       </c>
       <c r="F35" s="3">
-        <v>2528600</v>
+        <v>2445600</v>
       </c>
       <c r="G35" s="3">
-        <v>4040400</v>
+        <v>3907800</v>
       </c>
       <c r="H35" s="3">
-        <v>3122800</v>
+        <v>3020300</v>
       </c>
       <c r="I35" s="3">
-        <v>3798800</v>
+        <v>3674100</v>
       </c>
       <c r="J35" s="3">
-        <v>3413500</v>
+        <v>3301500</v>
       </c>
       <c r="K35" s="3">
         <v>1112500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15105100</v>
+        <v>14609400</v>
       </c>
       <c r="E41" s="3">
-        <v>6295800</v>
+        <v>6089200</v>
       </c>
       <c r="F41" s="3">
-        <v>4294900</v>
+        <v>4154000</v>
       </c>
       <c r="G41" s="3">
-        <v>3866500</v>
+        <v>3739600</v>
       </c>
       <c r="H41" s="3">
-        <v>9043900</v>
+        <v>8747100</v>
       </c>
       <c r="I41" s="3">
-        <v>8051600</v>
+        <v>7787400</v>
       </c>
       <c r="J41" s="3">
-        <v>8782400</v>
+        <v>8494200</v>
       </c>
       <c r="K41" s="3">
         <v>9533700</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>108600</v>
+        <v>105000</v>
       </c>
       <c r="E42" s="3">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="F42" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>2300</v>
       </c>
       <c r="I42" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J42" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K42" s="3">
         <v>6000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22092100</v>
+        <v>21367100</v>
       </c>
       <c r="E43" s="3">
-        <v>19075500</v>
+        <v>18449500</v>
       </c>
       <c r="F43" s="3">
-        <v>17428300</v>
+        <v>16856300</v>
       </c>
       <c r="G43" s="3">
-        <v>15146000</v>
+        <v>14648900</v>
       </c>
       <c r="H43" s="3">
-        <v>17142200</v>
+        <v>16579700</v>
       </c>
       <c r="I43" s="3">
-        <v>14080100</v>
+        <v>13618100</v>
       </c>
       <c r="J43" s="3">
-        <v>15374800</v>
+        <v>14870200</v>
       </c>
       <c r="K43" s="3">
         <v>12149800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3146200</v>
+        <v>3042900</v>
       </c>
       <c r="E44" s="3">
-        <v>1830500</v>
+        <v>1770400</v>
       </c>
       <c r="F44" s="3">
-        <v>2089700</v>
+        <v>2021100</v>
       </c>
       <c r="G44" s="3">
-        <v>2317300</v>
+        <v>2241300</v>
       </c>
       <c r="H44" s="3">
-        <v>1901700</v>
+        <v>1839300</v>
       </c>
       <c r="I44" s="3">
-        <v>2156200</v>
+        <v>2085400</v>
       </c>
       <c r="J44" s="3">
-        <v>1754600</v>
+        <v>1697000</v>
       </c>
       <c r="K44" s="3">
         <v>1270400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3084300</v>
+        <v>2983100</v>
       </c>
       <c r="E45" s="3">
-        <v>1586500</v>
+        <v>1534400</v>
       </c>
       <c r="F45" s="3">
-        <v>1704400</v>
+        <v>1648500</v>
       </c>
       <c r="G45" s="3">
-        <v>2476100</v>
+        <v>2394800</v>
       </c>
       <c r="H45" s="3">
-        <v>3007200</v>
+        <v>2908600</v>
       </c>
       <c r="I45" s="3">
-        <v>13279300</v>
+        <v>12843500</v>
       </c>
       <c r="J45" s="3">
-        <v>8871100</v>
+        <v>8580000</v>
       </c>
       <c r="K45" s="3">
         <v>3312300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43536200</v>
+        <v>42107500</v>
       </c>
       <c r="E46" s="3">
-        <v>28822200</v>
+        <v>27876300</v>
       </c>
       <c r="F46" s="3">
-        <v>25531300</v>
+        <v>24693400</v>
       </c>
       <c r="G46" s="3">
-        <v>23805800</v>
+        <v>23024600</v>
       </c>
       <c r="H46" s="3">
-        <v>31097500</v>
+        <v>30077000</v>
       </c>
       <c r="I46" s="3">
-        <v>37571900</v>
+        <v>36339000</v>
       </c>
       <c r="J46" s="3">
-        <v>34786500</v>
+        <v>33644900</v>
       </c>
       <c r="K46" s="3">
         <v>26272100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8124000</v>
+        <v>7857400</v>
       </c>
       <c r="E47" s="3">
-        <v>5235800</v>
+        <v>5064000</v>
       </c>
       <c r="F47" s="3">
-        <v>2522800</v>
+        <v>2440000</v>
       </c>
       <c r="G47" s="3">
-        <v>7432900</v>
+        <v>7189000</v>
       </c>
       <c r="H47" s="3">
-        <v>10052600</v>
+        <v>9722700</v>
       </c>
       <c r="I47" s="3">
-        <v>5080600</v>
+        <v>4913800</v>
       </c>
       <c r="J47" s="3">
-        <v>3386700</v>
+        <v>3275500</v>
       </c>
       <c r="K47" s="3">
         <v>9006200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>106558000</v>
+        <v>103061000</v>
       </c>
       <c r="E48" s="3">
-        <v>78853900</v>
+        <v>76266200</v>
       </c>
       <c r="F48" s="3">
-        <v>59107100</v>
+        <v>57167500</v>
       </c>
       <c r="G48" s="3">
-        <v>54725800</v>
+        <v>52929900</v>
       </c>
       <c r="H48" s="3">
-        <v>54585800</v>
+        <v>52794500</v>
       </c>
       <c r="I48" s="3">
-        <v>52109700</v>
+        <v>50399600</v>
       </c>
       <c r="J48" s="3">
-        <v>46248100</v>
+        <v>44730400</v>
       </c>
       <c r="K48" s="3">
         <v>44770200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>137831000</v>
+        <v>133308000</v>
       </c>
       <c r="E49" s="3">
-        <v>79619700</v>
+        <v>77006900</v>
       </c>
       <c r="F49" s="3">
-        <v>75823300</v>
+        <v>73335000</v>
       </c>
       <c r="G49" s="3">
-        <v>73389200</v>
+        <v>70980900</v>
       </c>
       <c r="H49" s="3">
-        <v>70743900</v>
+        <v>68422300</v>
       </c>
       <c r="I49" s="3">
-        <v>66571600</v>
+        <v>64386900</v>
       </c>
       <c r="J49" s="3">
-        <v>60197500</v>
+        <v>58222000</v>
       </c>
       <c r="K49" s="3">
         <v>54985700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13217400</v>
+        <v>12783700</v>
       </c>
       <c r="E52" s="3">
-        <v>6712600</v>
+        <v>6492300</v>
       </c>
       <c r="F52" s="3">
-        <v>6727800</v>
+        <v>6507000</v>
       </c>
       <c r="G52" s="3">
-        <v>5640900</v>
+        <v>5455800</v>
       </c>
       <c r="H52" s="3">
-        <v>6863200</v>
+        <v>6638000</v>
       </c>
       <c r="I52" s="3">
-        <v>6679900</v>
+        <v>6460700</v>
       </c>
       <c r="J52" s="3">
-        <v>6397400</v>
+        <v>6187500</v>
       </c>
       <c r="K52" s="3">
         <v>6294400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>309267000</v>
+        <v>299118000</v>
       </c>
       <c r="E54" s="3">
-        <v>199244000</v>
+        <v>192706000</v>
       </c>
       <c r="F54" s="3">
-        <v>169712000</v>
+        <v>164143000</v>
       </c>
       <c r="G54" s="3">
-        <v>164995000</v>
+        <v>159580000</v>
       </c>
       <c r="H54" s="3">
-        <v>173343000</v>
+        <v>167654000</v>
       </c>
       <c r="I54" s="3">
-        <v>168014000</v>
+        <v>162500000</v>
       </c>
       <c r="J54" s="3">
-        <v>151016000</v>
+        <v>146060000</v>
       </c>
       <c r="K54" s="3">
         <v>141329000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11313400</v>
+        <v>10942100</v>
       </c>
       <c r="E57" s="3">
-        <v>10985300</v>
+        <v>10624800</v>
       </c>
       <c r="F57" s="3">
-        <v>12490100</v>
+        <v>12080200</v>
       </c>
       <c r="G57" s="3">
-        <v>12764500</v>
+        <v>12345600</v>
       </c>
       <c r="H57" s="3">
-        <v>12127100</v>
+        <v>11729100</v>
       </c>
       <c r="I57" s="3">
-        <v>12884700</v>
+        <v>12461900</v>
       </c>
       <c r="J57" s="3">
-        <v>11243300</v>
+        <v>10874400</v>
       </c>
       <c r="K57" s="3">
         <v>8649700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17806500</v>
+        <v>17222200</v>
       </c>
       <c r="E58" s="3">
-        <v>15191500</v>
+        <v>14693000</v>
       </c>
       <c r="F58" s="3">
-        <v>10059600</v>
+        <v>9729500</v>
       </c>
       <c r="G58" s="3">
-        <v>8115800</v>
+        <v>7849500</v>
       </c>
       <c r="H58" s="3">
-        <v>13257100</v>
+        <v>12822100</v>
       </c>
       <c r="I58" s="3">
-        <v>14674300</v>
+        <v>14192800</v>
       </c>
       <c r="J58" s="3">
-        <v>9584400</v>
+        <v>9269900</v>
       </c>
       <c r="K58" s="3">
         <v>7060000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14231900</v>
+        <v>13764900</v>
       </c>
       <c r="E59" s="3">
-        <v>12246100</v>
+        <v>11844300</v>
       </c>
       <c r="F59" s="3">
-        <v>11473300</v>
+        <v>11096800</v>
       </c>
       <c r="G59" s="3">
-        <v>11067000</v>
+        <v>10703900</v>
       </c>
       <c r="H59" s="3">
-        <v>13287500</v>
+        <v>12851400</v>
       </c>
       <c r="I59" s="3">
-        <v>11605200</v>
+        <v>11224400</v>
       </c>
       <c r="J59" s="3">
-        <v>12090900</v>
+        <v>11694100</v>
       </c>
       <c r="K59" s="3">
         <v>11200000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43351800</v>
+        <v>41929100</v>
       </c>
       <c r="E60" s="3">
-        <v>38423000</v>
+        <v>37162100</v>
       </c>
       <c r="F60" s="3">
-        <v>34023000</v>
+        <v>32906500</v>
       </c>
       <c r="G60" s="3">
-        <v>31947300</v>
+        <v>30899000</v>
       </c>
       <c r="H60" s="3">
-        <v>38671600</v>
+        <v>37402600</v>
       </c>
       <c r="I60" s="3">
-        <v>39164300</v>
+        <v>37879000</v>
       </c>
       <c r="J60" s="3">
-        <v>32918600</v>
+        <v>31838400</v>
       </c>
       <c r="K60" s="3">
         <v>26909700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>141425000</v>
+        <v>136784000</v>
       </c>
       <c r="E61" s="3">
-        <v>81777100</v>
+        <v>79093500</v>
       </c>
       <c r="F61" s="3">
-        <v>59505200</v>
+        <v>57552500</v>
       </c>
       <c r="G61" s="3">
-        <v>56409300</v>
+        <v>54558100</v>
       </c>
       <c r="H61" s="3">
-        <v>58104300</v>
+        <v>56197600</v>
       </c>
       <c r="I61" s="3">
-        <v>55091200</v>
+        <v>53283400</v>
       </c>
       <c r="J61" s="3">
-        <v>51342700</v>
+        <v>49657800</v>
       </c>
       <c r="K61" s="3">
         <v>50550200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39794700</v>
+        <v>38488800</v>
       </c>
       <c r="E62" s="3">
-        <v>25073600</v>
+        <v>24250800</v>
       </c>
       <c r="F62" s="3">
-        <v>25475200</v>
+        <v>24639200</v>
       </c>
       <c r="G62" s="3">
-        <v>27058200</v>
+        <v>26170300</v>
       </c>
       <c r="H62" s="3">
-        <v>31218900</v>
+        <v>30194400</v>
       </c>
       <c r="I62" s="3">
-        <v>29221400</v>
+        <v>28262500</v>
       </c>
       <c r="J62" s="3">
-        <v>26985800</v>
+        <v>26100300</v>
       </c>
       <c r="K62" s="3">
         <v>25514900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>267331000</v>
+        <v>258558000</v>
       </c>
       <c r="E66" s="3">
-        <v>162229000</v>
+        <v>156905000</v>
       </c>
       <c r="F66" s="3">
-        <v>133631000</v>
+        <v>129246000</v>
       </c>
       <c r="G66" s="3">
-        <v>129117000</v>
+        <v>124880000</v>
       </c>
       <c r="H66" s="3">
-        <v>139132000</v>
+        <v>134566000</v>
       </c>
       <c r="I66" s="3">
-        <v>133692000</v>
+        <v>129305000</v>
       </c>
       <c r="J66" s="3">
-        <v>121321000</v>
+        <v>117340000</v>
       </c>
       <c r="K66" s="3">
         <v>112765000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40564000</v>
+        <v>-39232800</v>
       </c>
       <c r="E72" s="3">
-        <v>-40674900</v>
+        <v>-39340100</v>
       </c>
       <c r="F72" s="3">
-        <v>-41123200</v>
+        <v>-39773700</v>
       </c>
       <c r="G72" s="3">
-        <v>-41196700</v>
+        <v>-39844800</v>
       </c>
       <c r="H72" s="3">
-        <v>-42087500</v>
+        <v>-40706300</v>
       </c>
       <c r="I72" s="3">
-        <v>-41694000</v>
+        <v>-40325800</v>
       </c>
       <c r="J72" s="3">
-        <v>-43029600</v>
+        <v>-41617500</v>
       </c>
       <c r="K72" s="3">
         <v>-43669700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41935700</v>
+        <v>40559500</v>
       </c>
       <c r="E76" s="3">
-        <v>37015100</v>
+        <v>35800400</v>
       </c>
       <c r="F76" s="3">
-        <v>36081100</v>
+        <v>34897100</v>
       </c>
       <c r="G76" s="3">
-        <v>35878000</v>
+        <v>34700600</v>
       </c>
       <c r="H76" s="3">
-        <v>34211000</v>
+        <v>33088300</v>
       </c>
       <c r="I76" s="3">
-        <v>34321900</v>
+        <v>33195500</v>
       </c>
       <c r="J76" s="3">
-        <v>29695400</v>
+        <v>28720900</v>
       </c>
       <c r="K76" s="3">
         <v>28564100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4854100</v>
+        <v>4694800</v>
       </c>
       <c r="E81" s="3">
-        <v>4514400</v>
+        <v>4366200</v>
       </c>
       <c r="F81" s="3">
-        <v>2528600</v>
+        <v>2445600</v>
       </c>
       <c r="G81" s="3">
-        <v>4040400</v>
+        <v>3907800</v>
       </c>
       <c r="H81" s="3">
-        <v>3122800</v>
+        <v>3020300</v>
       </c>
       <c r="I81" s="3">
-        <v>3798800</v>
+        <v>3674100</v>
       </c>
       <c r="J81" s="3">
-        <v>3413500</v>
+        <v>3301500</v>
       </c>
       <c r="K81" s="3">
         <v>1112500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29044000</v>
+        <v>28090900</v>
       </c>
       <c r="E83" s="3">
-        <v>20247600</v>
+        <v>19583100</v>
       </c>
       <c r="F83" s="3">
-        <v>16152300</v>
+        <v>15622200</v>
       </c>
       <c r="G83" s="3">
-        <v>17027800</v>
+        <v>16469100</v>
       </c>
       <c r="H83" s="3">
-        <v>15619900</v>
+        <v>15107400</v>
       </c>
       <c r="I83" s="3">
-        <v>13261800</v>
+        <v>12826600</v>
       </c>
       <c r="J83" s="3">
-        <v>12344200</v>
+        <v>11939100</v>
       </c>
       <c r="K83" s="3">
         <v>13043400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27633800</v>
+        <v>26726900</v>
       </c>
       <c r="E89" s="3">
-        <v>26936800</v>
+        <v>26052900</v>
       </c>
       <c r="F89" s="3">
-        <v>20943300</v>
+        <v>20256100</v>
       </c>
       <c r="G89" s="3">
-        <v>20078300</v>
+        <v>19419400</v>
       </c>
       <c r="H89" s="3">
-        <v>18129900</v>
+        <v>17534900</v>
       </c>
       <c r="I89" s="3">
-        <v>17508800</v>
+        <v>16934200</v>
       </c>
       <c r="J89" s="3">
-        <v>15672500</v>
+        <v>15158200</v>
       </c>
       <c r="K89" s="3">
         <v>15532700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15104000</v>
+        <v>-14608300</v>
       </c>
       <c r="E91" s="3">
-        <v>-11653100</v>
+        <v>-11270700</v>
       </c>
       <c r="F91" s="3">
-        <v>-10669000</v>
+        <v>-10318800</v>
       </c>
       <c r="G91" s="3">
-        <v>-10680600</v>
+        <v>-10330100</v>
       </c>
       <c r="H91" s="3">
-        <v>-9382500</v>
+        <v>-9074600</v>
       </c>
       <c r="I91" s="3">
-        <v>-9534200</v>
+        <v>-9221400</v>
       </c>
       <c r="J91" s="3">
-        <v>-8389000</v>
+        <v>-8113700</v>
       </c>
       <c r="K91" s="3">
         <v>-7859000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26440700</v>
+        <v>-25573000</v>
       </c>
       <c r="E94" s="3">
-        <v>-16612200</v>
+        <v>-16067100</v>
       </c>
       <c r="F94" s="3">
-        <v>-16690500</v>
+        <v>-16142700</v>
       </c>
       <c r="G94" s="3">
-        <v>-19628800</v>
+        <v>-18984700</v>
       </c>
       <c r="H94" s="3">
-        <v>-15886100</v>
+        <v>-15364800</v>
       </c>
       <c r="I94" s="3">
-        <v>-17528700</v>
+        <v>-16953400</v>
       </c>
       <c r="J94" s="3">
-        <v>-12562500</v>
+        <v>-12150200</v>
       </c>
       <c r="K94" s="3">
         <v>-11837600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3580400</v>
+        <v>-3462900</v>
       </c>
       <c r="E96" s="3">
-        <v>-4157100</v>
+        <v>-4020700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3598000</v>
+        <v>-3479900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1820000</v>
+        <v>-1760300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1863200</v>
+        <v>-1802000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1466300</v>
+        <v>-1418100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1506000</v>
+        <v>-1456500</v>
       </c>
       <c r="K96" s="3">
         <v>-2683100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8826800</v>
+        <v>8537100</v>
       </c>
       <c r="E100" s="3">
-        <v>-8336500</v>
+        <v>-8062900</v>
       </c>
       <c r="F100" s="3">
-        <v>-3804600</v>
+        <v>-3679700</v>
       </c>
       <c r="G100" s="3">
-        <v>-5363100</v>
+        <v>-5187100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1543300</v>
+        <v>-1492700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1022700</v>
+        <v>-989100</v>
       </c>
       <c r="J100" s="3">
-        <v>-4008900</v>
+        <v>-3877300</v>
       </c>
       <c r="K100" s="3">
         <v>1222500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1209400</v>
+        <v>-1169700</v>
       </c>
       <c r="E101" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="F101" s="3">
-        <v>-19800</v>
+        <v>-19200</v>
       </c>
       <c r="G101" s="3">
-        <v>-263800</v>
+        <v>-255200</v>
       </c>
       <c r="H101" s="3">
-        <v>291900</v>
+        <v>282300</v>
       </c>
       <c r="I101" s="3">
-        <v>311700</v>
+        <v>301500</v>
       </c>
       <c r="J101" s="3">
-        <v>377100</v>
+        <v>364700</v>
       </c>
       <c r="K101" s="3">
         <v>-199800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8810400</v>
+        <v>8521300</v>
       </c>
       <c r="E102" s="3">
-        <v>2000900</v>
+        <v>1935300</v>
       </c>
       <c r="F102" s="3">
-        <v>428400</v>
+        <v>414400</v>
       </c>
       <c r="G102" s="3">
-        <v>-5177500</v>
+        <v>-5007600</v>
       </c>
       <c r="H102" s="3">
-        <v>992300</v>
+        <v>959700</v>
       </c>
       <c r="I102" s="3">
-        <v>-730800</v>
+        <v>-706800</v>
       </c>
       <c r="J102" s="3">
-        <v>-521800</v>
+        <v>-504700</v>
       </c>
       <c r="K102" s="3">
         <v>4717800</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>DTEGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>114038000</v>
+        <v>118684500</v>
       </c>
       <c r="E8" s="3">
-        <v>90927600</v>
+        <v>110180800</v>
       </c>
       <c r="F8" s="3">
-        <v>85423200</v>
+        <v>87852100</v>
       </c>
       <c r="G8" s="3">
-        <v>84622700</v>
+        <v>82533900</v>
       </c>
       <c r="H8" s="3">
-        <v>82531600</v>
+        <v>81760400</v>
       </c>
       <c r="I8" s="3">
-        <v>78165300</v>
+        <v>79740100</v>
       </c>
       <c r="J8" s="3">
+        <v>75521500</v>
+      </c>
+      <c r="K8" s="3">
         <v>70747100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71929900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63869600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68847500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47326200</v>
+        <v>51077500</v>
       </c>
       <c r="E9" s="3">
-        <v>38964100</v>
+        <v>45725500</v>
       </c>
       <c r="F9" s="3">
-        <v>40355200</v>
+        <v>37646200</v>
       </c>
       <c r="G9" s="3">
-        <v>40476000</v>
+        <v>38990200</v>
       </c>
       <c r="H9" s="3">
-        <v>39500400</v>
+        <v>39106900</v>
       </c>
       <c r="I9" s="3">
-        <v>47394000</v>
+        <v>38164400</v>
       </c>
       <c r="J9" s="3">
+        <v>45790900</v>
+      </c>
+      <c r="K9" s="3">
         <v>43514400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43368200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37613100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39774600</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66711700</v>
+        <v>67607000</v>
       </c>
       <c r="E10" s="3">
-        <v>51963400</v>
+        <v>64455300</v>
       </c>
       <c r="F10" s="3">
-        <v>45068000</v>
+        <v>50205900</v>
       </c>
       <c r="G10" s="3">
-        <v>44146700</v>
+        <v>43543700</v>
       </c>
       <c r="H10" s="3">
-        <v>43031100</v>
+        <v>42653500</v>
       </c>
       <c r="I10" s="3">
-        <v>30771400</v>
+        <v>41575700</v>
       </c>
       <c r="J10" s="3">
+        <v>29730600</v>
+      </c>
+      <c r="K10" s="3">
         <v>27232800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28561700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26256500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29072900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,65 +925,71 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>199900</v>
+        <v>919600</v>
       </c>
       <c r="E14" s="3">
-        <v>829900</v>
+        <v>193100</v>
       </c>
       <c r="F14" s="3">
-        <v>1359400</v>
+        <v>801800</v>
       </c>
       <c r="G14" s="3">
-        <v>554400</v>
+        <v>1313500</v>
       </c>
       <c r="H14" s="3">
-        <v>762100</v>
+        <v>535600</v>
       </c>
       <c r="I14" s="3">
-        <v>167100</v>
+        <v>736400</v>
       </c>
       <c r="J14" s="3">
+        <v>161500</v>
+      </c>
+      <c r="K14" s="3">
         <v>134400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>978500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24202100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3917000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28262500</v>
+        <v>29670600</v>
       </c>
       <c r="E15" s="3">
-        <v>19499600</v>
+        <v>27306600</v>
       </c>
       <c r="F15" s="3">
-        <v>14807000</v>
+        <v>18840000</v>
       </c>
       <c r="G15" s="3">
-        <v>14034700</v>
+        <v>14306200</v>
       </c>
       <c r="H15" s="3">
-        <v>14326000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>13560000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>13841500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>99581000</v>
+        <v>104454600</v>
       </c>
       <c r="E17" s="3">
-        <v>80249700</v>
+        <v>96212800</v>
       </c>
       <c r="F17" s="3">
-        <v>76361000</v>
+        <v>77535300</v>
       </c>
       <c r="G17" s="3">
-        <v>74028300</v>
+        <v>73778200</v>
       </c>
       <c r="H17" s="3">
-        <v>72184500</v>
+        <v>71524400</v>
       </c>
       <c r="I17" s="3">
-        <v>70230000</v>
+        <v>69743000</v>
       </c>
       <c r="J17" s="3">
+        <v>67854600</v>
+      </c>
+      <c r="K17" s="3">
         <v>62564600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>66032600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68219800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62290600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14457000</v>
+        <v>14229800</v>
       </c>
       <c r="E18" s="3">
-        <v>10677900</v>
+        <v>13968000</v>
       </c>
       <c r="F18" s="3">
-        <v>9062200</v>
+        <v>10316700</v>
       </c>
       <c r="G18" s="3">
-        <v>10594300</v>
+        <v>8755600</v>
       </c>
       <c r="H18" s="3">
-        <v>10347100</v>
+        <v>10236000</v>
       </c>
       <c r="I18" s="3">
-        <v>7935300</v>
+        <v>9997100</v>
       </c>
       <c r="J18" s="3">
+        <v>7666900</v>
+      </c>
+      <c r="K18" s="3">
         <v>8182600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5897300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4350300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6556900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>577000</v>
+        <v>-80700</v>
       </c>
       <c r="E20" s="3">
-        <v>581500</v>
+        <v>557500</v>
       </c>
       <c r="F20" s="3">
-        <v>-879600</v>
+        <v>561800</v>
       </c>
       <c r="G20" s="3">
-        <v>-2113700</v>
+        <v>-849800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2147500</v>
+        <v>-2042200</v>
       </c>
       <c r="I20" s="3">
-        <v>405300</v>
+        <v>-2074900</v>
       </c>
       <c r="J20" s="3">
+        <v>391600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-262000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-492800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-80200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>30500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>43189500</v>
+        <v>44266700</v>
       </c>
       <c r="E21" s="3">
-        <v>30887600</v>
+        <v>42079200</v>
       </c>
       <c r="F21" s="3">
-        <v>23840800</v>
+        <v>30087200</v>
       </c>
       <c r="G21" s="3">
-        <v>24987600</v>
+        <v>23229300</v>
       </c>
       <c r="H21" s="3">
-        <v>23341700</v>
+        <v>24348000</v>
       </c>
       <c r="I21" s="3">
-        <v>21196800</v>
+        <v>22740700</v>
       </c>
       <c r="J21" s="3">
+        <v>20639900</v>
+      </c>
+      <c r="K21" s="3">
         <v>19887200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18394400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19715700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23544100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5236800</v>
+        <v>5511300</v>
       </c>
       <c r="E22" s="3">
-        <v>3062100</v>
+        <v>5059600</v>
       </c>
       <c r="F22" s="3">
-        <v>2364300</v>
+        <v>2958500</v>
       </c>
       <c r="G22" s="3">
-        <v>2841900</v>
+        <v>2284400</v>
       </c>
       <c r="H22" s="3">
-        <v>3065500</v>
+        <v>2745800</v>
       </c>
       <c r="I22" s="3">
-        <v>2945800</v>
+        <v>2961800</v>
       </c>
       <c r="J22" s="3">
+        <v>2846200</v>
+      </c>
+      <c r="K22" s="3">
         <v>3009100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2858900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2568200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3043700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9797200</v>
+        <v>8637800</v>
       </c>
       <c r="E23" s="3">
-        <v>8197300</v>
+        <v>9465800</v>
       </c>
       <c r="F23" s="3">
-        <v>5818300</v>
+        <v>7920000</v>
       </c>
       <c r="G23" s="3">
-        <v>5638700</v>
+        <v>5621500</v>
       </c>
       <c r="H23" s="3">
-        <v>5134000</v>
+        <v>5448000</v>
       </c>
       <c r="I23" s="3">
-        <v>5394800</v>
+        <v>4960400</v>
       </c>
       <c r="J23" s="3">
+        <v>5212400</v>
+      </c>
+      <c r="K23" s="3">
         <v>4911600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2545500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6998700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3543700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2178000</v>
+        <v>1980000</v>
       </c>
       <c r="E24" s="3">
-        <v>2250300</v>
+        <v>2104400</v>
       </c>
       <c r="F24" s="3">
-        <v>2059500</v>
+        <v>2174200</v>
       </c>
       <c r="G24" s="3">
-        <v>-630000</v>
+        <v>1989800</v>
       </c>
       <c r="H24" s="3">
-        <v>1629300</v>
+        <v>-608700</v>
       </c>
       <c r="I24" s="3">
-        <v>1440700</v>
+        <v>1574200</v>
       </c>
       <c r="J24" s="3">
+        <v>1392000</v>
+      </c>
+      <c r="K24" s="3">
         <v>1248800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1105300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1664600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2757300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7619200</v>
+        <v>6657800</v>
       </c>
       <c r="E26" s="3">
-        <v>5947000</v>
+        <v>7361500</v>
       </c>
       <c r="F26" s="3">
-        <v>3758800</v>
+        <v>5745800</v>
       </c>
       <c r="G26" s="3">
-        <v>6268800</v>
+        <v>3631600</v>
       </c>
       <c r="H26" s="3">
-        <v>3504700</v>
+        <v>6056700</v>
       </c>
       <c r="I26" s="3">
-        <v>3954100</v>
+        <v>3386200</v>
       </c>
       <c r="J26" s="3">
+        <v>3820400</v>
+      </c>
+      <c r="K26" s="3">
         <v>3662800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1440200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5334100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>786500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4694800</v>
+        <v>4555600</v>
       </c>
       <c r="E27" s="3">
-        <v>4366200</v>
+        <v>4536000</v>
       </c>
       <c r="F27" s="3">
-        <v>2445600</v>
+        <v>4218500</v>
       </c>
       <c r="G27" s="3">
-        <v>3907800</v>
+        <v>2362900</v>
       </c>
       <c r="H27" s="3">
-        <v>3020300</v>
+        <v>3775600</v>
       </c>
       <c r="I27" s="3">
-        <v>3674100</v>
+        <v>2918200</v>
       </c>
       <c r="J27" s="3">
+        <v>3549800</v>
+      </c>
+      <c r="K27" s="3">
         <v>3301500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1112500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5877600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>653800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-577000</v>
+        <v>80700</v>
       </c>
       <c r="E32" s="3">
-        <v>-581500</v>
+        <v>-557500</v>
       </c>
       <c r="F32" s="3">
-        <v>879600</v>
+        <v>-561800</v>
       </c>
       <c r="G32" s="3">
-        <v>2113700</v>
+        <v>849800</v>
       </c>
       <c r="H32" s="3">
-        <v>2147500</v>
+        <v>2042200</v>
       </c>
       <c r="I32" s="3">
-        <v>-405300</v>
+        <v>2074900</v>
       </c>
       <c r="J32" s="3">
+        <v>-391600</v>
+      </c>
+      <c r="K32" s="3">
         <v>262000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>492800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>80200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-30500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4694800</v>
+        <v>4555600</v>
       </c>
       <c r="E33" s="3">
-        <v>4366200</v>
+        <v>4536000</v>
       </c>
       <c r="F33" s="3">
-        <v>2445600</v>
+        <v>4218500</v>
       </c>
       <c r="G33" s="3">
-        <v>3907800</v>
+        <v>2362900</v>
       </c>
       <c r="H33" s="3">
-        <v>3020300</v>
+        <v>3775600</v>
       </c>
       <c r="I33" s="3">
-        <v>3674100</v>
+        <v>2918200</v>
       </c>
       <c r="J33" s="3">
+        <v>3549800</v>
+      </c>
+      <c r="K33" s="3">
         <v>3301500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1112500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5877600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>653800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4694800</v>
+        <v>4555600</v>
       </c>
       <c r="E35" s="3">
-        <v>4366200</v>
+        <v>4536000</v>
       </c>
       <c r="F35" s="3">
-        <v>2445600</v>
+        <v>4218500</v>
       </c>
       <c r="G35" s="3">
-        <v>3907800</v>
+        <v>2362900</v>
       </c>
       <c r="H35" s="3">
-        <v>3020300</v>
+        <v>3775600</v>
       </c>
       <c r="I35" s="3">
-        <v>3674100</v>
+        <v>2918200</v>
       </c>
       <c r="J35" s="3">
+        <v>3549800</v>
+      </c>
+      <c r="K35" s="3">
         <v>3301500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1112500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5877600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>653800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14609400</v>
+        <v>8309500</v>
       </c>
       <c r="E41" s="3">
-        <v>6089200</v>
+        <v>14115300</v>
       </c>
       <c r="F41" s="3">
-        <v>4154000</v>
+        <v>5883300</v>
       </c>
       <c r="G41" s="3">
-        <v>3739600</v>
+        <v>4013500</v>
       </c>
       <c r="H41" s="3">
-        <v>8747100</v>
+        <v>3613100</v>
       </c>
       <c r="I41" s="3">
-        <v>7787400</v>
+        <v>8451300</v>
       </c>
       <c r="J41" s="3">
+        <v>7524000</v>
+      </c>
+      <c r="K41" s="3">
         <v>8494200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9533700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4420500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>105000</v>
+        <v>101500</v>
       </c>
       <c r="E42" s="3">
-        <v>32700</v>
+        <v>101500</v>
       </c>
       <c r="F42" s="3">
-        <v>13500</v>
+        <v>31600</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>13100</v>
       </c>
       <c r="H42" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>4500</v>
+        <v>2200</v>
       </c>
       <c r="J42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K42" s="3">
         <v>3400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2301400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5570900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21367100</v>
+        <v>23370600</v>
       </c>
       <c r="E43" s="3">
-        <v>18449500</v>
+        <v>20644400</v>
       </c>
       <c r="F43" s="3">
-        <v>16856300</v>
+        <v>17825500</v>
       </c>
       <c r="G43" s="3">
-        <v>14648900</v>
+        <v>16286200</v>
       </c>
       <c r="H43" s="3">
-        <v>16579700</v>
+        <v>14153500</v>
       </c>
       <c r="I43" s="3">
-        <v>13618100</v>
+        <v>16018900</v>
       </c>
       <c r="J43" s="3">
+        <v>13157500</v>
+      </c>
+      <c r="K43" s="3">
         <v>14870200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12149800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9036500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15544800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3042900</v>
+        <v>3114500</v>
       </c>
       <c r="E44" s="3">
-        <v>1770400</v>
+        <v>2940000</v>
       </c>
       <c r="F44" s="3">
-        <v>2021100</v>
+        <v>1710500</v>
       </c>
       <c r="G44" s="3">
-        <v>2241300</v>
+        <v>1952700</v>
       </c>
       <c r="H44" s="3">
-        <v>1839300</v>
+        <v>2165500</v>
       </c>
       <c r="I44" s="3">
-        <v>2085400</v>
+        <v>1777100</v>
       </c>
       <c r="J44" s="3">
+        <v>2014900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1697000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1270400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1214400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2544800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2983100</v>
+        <v>7430200</v>
       </c>
       <c r="E45" s="3">
-        <v>1534400</v>
+        <v>2882200</v>
       </c>
       <c r="F45" s="3">
-        <v>1648500</v>
+        <v>1482500</v>
       </c>
       <c r="G45" s="3">
-        <v>2394800</v>
+        <v>1592700</v>
       </c>
       <c r="H45" s="3">
-        <v>2908600</v>
+        <v>2313800</v>
       </c>
       <c r="I45" s="3">
-        <v>12843500</v>
+        <v>2810200</v>
       </c>
       <c r="J45" s="3">
+        <v>12409100</v>
+      </c>
+      <c r="K45" s="3">
         <v>8580000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3312300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1735900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2315900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42107500</v>
+        <v>42326200</v>
       </c>
       <c r="E46" s="3">
-        <v>27876300</v>
+        <v>40683300</v>
       </c>
       <c r="F46" s="3">
-        <v>24693400</v>
+        <v>26933500</v>
       </c>
       <c r="G46" s="3">
-        <v>23024600</v>
+        <v>23858200</v>
       </c>
       <c r="H46" s="3">
-        <v>30077000</v>
+        <v>22245800</v>
       </c>
       <c r="I46" s="3">
-        <v>36339000</v>
+        <v>29059700</v>
       </c>
       <c r="J46" s="3">
+        <v>35109800</v>
+      </c>
+      <c r="K46" s="3">
         <v>33644900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26272100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16490900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18622500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7857400</v>
+        <v>6298900</v>
       </c>
       <c r="E47" s="3">
-        <v>5064000</v>
+        <v>7591600</v>
       </c>
       <c r="F47" s="3">
-        <v>2440000</v>
+        <v>4892700</v>
       </c>
       <c r="G47" s="3">
-        <v>7189000</v>
+        <v>2357500</v>
       </c>
       <c r="H47" s="3">
-        <v>9722700</v>
+        <v>6945800</v>
       </c>
       <c r="I47" s="3">
-        <v>4913800</v>
+        <v>9393800</v>
       </c>
       <c r="J47" s="3">
+        <v>4747600</v>
+      </c>
+      <c r="K47" s="3">
         <v>3275500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9006200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9472400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10527900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>103061000</v>
+        <v>100960000</v>
       </c>
       <c r="E48" s="3">
-        <v>76266200</v>
+        <v>99575000</v>
       </c>
       <c r="F48" s="3">
-        <v>57167500</v>
+        <v>73686600</v>
       </c>
       <c r="G48" s="3">
-        <v>52929900</v>
+        <v>55233900</v>
       </c>
       <c r="H48" s="3">
-        <v>52794500</v>
+        <v>51139700</v>
       </c>
       <c r="I48" s="3">
-        <v>50399600</v>
+        <v>51008800</v>
       </c>
       <c r="J48" s="3">
+        <v>48694900</v>
+      </c>
+      <c r="K48" s="3">
         <v>44730400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44770200</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>202972000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>133308000</v>
+        <v>144706000</v>
       </c>
       <c r="E49" s="3">
-        <v>77006900</v>
+        <v>128799000</v>
       </c>
       <c r="F49" s="3">
-        <v>73335000</v>
+        <v>74402200</v>
       </c>
       <c r="G49" s="3">
-        <v>70980900</v>
+        <v>70854600</v>
       </c>
       <c r="H49" s="3">
-        <v>68422300</v>
+        <v>68580100</v>
       </c>
       <c r="I49" s="3">
-        <v>64386900</v>
+        <v>66108100</v>
       </c>
       <c r="J49" s="3">
+        <v>62209100</v>
+      </c>
+      <c r="K49" s="3">
         <v>58222000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54985700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>75914600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>117761000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12783700</v>
+        <v>12938200</v>
       </c>
       <c r="E52" s="3">
-        <v>6492300</v>
+        <v>12351300</v>
       </c>
       <c r="F52" s="3">
-        <v>6507000</v>
+        <v>6272700</v>
       </c>
       <c r="G52" s="3">
-        <v>5455800</v>
+        <v>6286900</v>
       </c>
       <c r="H52" s="3">
-        <v>6638000</v>
+        <v>5271300</v>
       </c>
       <c r="I52" s="3">
-        <v>6460700</v>
+        <v>6413500</v>
       </c>
       <c r="J52" s="3">
+        <v>6242200</v>
+      </c>
+      <c r="K52" s="3">
         <v>6187500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6294400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7088700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9460900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>299118000</v>
+        <v>307230000</v>
       </c>
       <c r="E54" s="3">
-        <v>192706000</v>
+        <v>289001000</v>
       </c>
       <c r="F54" s="3">
-        <v>164143000</v>
+        <v>186188000</v>
       </c>
       <c r="G54" s="3">
-        <v>159580000</v>
+        <v>158591000</v>
       </c>
       <c r="H54" s="3">
-        <v>167654000</v>
+        <v>154183000</v>
       </c>
       <c r="I54" s="3">
-        <v>162500000</v>
+        <v>161984000</v>
       </c>
       <c r="J54" s="3">
+        <v>157004000</v>
+      </c>
+      <c r="K54" s="3">
         <v>146060000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>141329000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118520000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>143787000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10942100</v>
+        <v>11341100</v>
       </c>
       <c r="E57" s="3">
-        <v>10624800</v>
+        <v>10572000</v>
       </c>
       <c r="F57" s="3">
-        <v>12080200</v>
+        <v>10265500</v>
       </c>
       <c r="G57" s="3">
-        <v>12345600</v>
+        <v>11671600</v>
       </c>
       <c r="H57" s="3">
-        <v>11729100</v>
+        <v>11928000</v>
       </c>
       <c r="I57" s="3">
-        <v>12461900</v>
+        <v>11332400</v>
       </c>
       <c r="J57" s="3">
+        <v>12040400</v>
+      </c>
+      <c r="K57" s="3">
         <v>10874400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8649700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7043700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15077600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17222200</v>
+        <v>17167700</v>
       </c>
       <c r="E58" s="3">
-        <v>14693000</v>
+        <v>17576700</v>
       </c>
       <c r="F58" s="3">
-        <v>9729500</v>
+        <v>14196000</v>
       </c>
       <c r="G58" s="3">
-        <v>7849500</v>
+        <v>9400400</v>
       </c>
       <c r="H58" s="3">
-        <v>12822100</v>
+        <v>7584000</v>
       </c>
       <c r="I58" s="3">
-        <v>14192800</v>
+        <v>12388400</v>
       </c>
       <c r="J58" s="3">
+        <v>13712700</v>
+      </c>
+      <c r="K58" s="3">
         <v>9269900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7060000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8352500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23990300</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13764900</v>
+        <v>13821800</v>
       </c>
       <c r="E59" s="3">
-        <v>11844300</v>
+        <v>12362200</v>
       </c>
       <c r="F59" s="3">
-        <v>11096800</v>
+        <v>11443600</v>
       </c>
       <c r="G59" s="3">
-        <v>10703900</v>
+        <v>10721500</v>
       </c>
       <c r="H59" s="3">
-        <v>12851400</v>
+        <v>10341800</v>
       </c>
       <c r="I59" s="3">
-        <v>11224400</v>
+        <v>12416700</v>
       </c>
       <c r="J59" s="3">
+        <v>10844700</v>
+      </c>
+      <c r="K59" s="3">
         <v>11694100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11200000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17387900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17246800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>41929100</v>
+        <v>42330600</v>
       </c>
       <c r="E60" s="3">
-        <v>37162100</v>
+        <v>40510900</v>
       </c>
       <c r="F60" s="3">
-        <v>32906500</v>
+        <v>35905100</v>
       </c>
       <c r="G60" s="3">
-        <v>30899000</v>
+        <v>31793500</v>
       </c>
       <c r="H60" s="3">
-        <v>37402600</v>
+        <v>29853800</v>
       </c>
       <c r="I60" s="3">
-        <v>37879000</v>
+        <v>36137500</v>
       </c>
       <c r="J60" s="3">
+        <v>36597800</v>
+      </c>
+      <c r="K60" s="3">
         <v>31838400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26909700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25248500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28423800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>136784000</v>
+        <v>137816000</v>
       </c>
       <c r="E61" s="3">
-        <v>79093500</v>
+        <v>132157000</v>
       </c>
       <c r="F61" s="3">
-        <v>57552500</v>
+        <v>76418200</v>
       </c>
       <c r="G61" s="3">
-        <v>54558100</v>
+        <v>55605900</v>
       </c>
       <c r="H61" s="3">
-        <v>56197600</v>
+        <v>52712800</v>
       </c>
       <c r="I61" s="3">
-        <v>53283400</v>
+        <v>54296800</v>
       </c>
       <c r="J61" s="3">
+        <v>51481100</v>
+      </c>
+      <c r="K61" s="3">
         <v>49657800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>50550200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37940300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44721000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38488800</v>
+        <v>38208000</v>
       </c>
       <c r="E62" s="3">
-        <v>24250800</v>
+        <v>37186900</v>
       </c>
       <c r="F62" s="3">
-        <v>24639200</v>
+        <v>23430600</v>
       </c>
       <c r="G62" s="3">
-        <v>26170300</v>
+        <v>23805800</v>
       </c>
       <c r="H62" s="3">
-        <v>30194400</v>
+        <v>25285100</v>
       </c>
       <c r="I62" s="3">
-        <v>28262500</v>
+        <v>29173100</v>
       </c>
       <c r="J62" s="3">
+        <v>27306600</v>
+      </c>
+      <c r="K62" s="3">
         <v>26100300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25514900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28140600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30198600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>258558000</v>
+        <v>260671000</v>
       </c>
       <c r="E66" s="3">
-        <v>156905000</v>
+        <v>249813000</v>
       </c>
       <c r="F66" s="3">
-        <v>129246000</v>
+        <v>151598000</v>
       </c>
       <c r="G66" s="3">
-        <v>124880000</v>
+        <v>124874000</v>
       </c>
       <c r="H66" s="3">
-        <v>134566000</v>
+        <v>120656000</v>
       </c>
       <c r="I66" s="3">
-        <v>129305000</v>
+        <v>130015000</v>
       </c>
       <c r="J66" s="3">
+        <v>124931000</v>
+      </c>
+      <c r="K66" s="3">
         <v>117340000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112765000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90051400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102232000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39232800</v>
+        <v>-35107700</v>
       </c>
       <c r="E72" s="3">
-        <v>-39340100</v>
+        <v>-37905800</v>
       </c>
       <c r="F72" s="3">
-        <v>-39773700</v>
+        <v>-38009500</v>
       </c>
       <c r="G72" s="3">
-        <v>-39844800</v>
+        <v>-38428400</v>
       </c>
       <c r="H72" s="3">
-        <v>-40706300</v>
+        <v>-38497100</v>
       </c>
       <c r="I72" s="3">
-        <v>-40325800</v>
+        <v>-39329500</v>
       </c>
       <c r="J72" s="3">
+        <v>-38961900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-41617500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43669700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75680700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58425200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40559500</v>
+        <v>46558900</v>
       </c>
       <c r="E76" s="3">
-        <v>35800400</v>
+        <v>39187700</v>
       </c>
       <c r="F76" s="3">
-        <v>34897100</v>
+        <v>34589500</v>
       </c>
       <c r="G76" s="3">
-        <v>34700600</v>
+        <v>33716800</v>
       </c>
       <c r="H76" s="3">
-        <v>33088300</v>
+        <v>33526900</v>
       </c>
       <c r="I76" s="3">
-        <v>33195500</v>
+        <v>31969100</v>
       </c>
       <c r="J76" s="3">
+        <v>32072800</v>
+      </c>
+      <c r="K76" s="3">
         <v>28720900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28564100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28468900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41555200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4694800</v>
+        <v>4555600</v>
       </c>
       <c r="E81" s="3">
-        <v>4366200</v>
+        <v>4536000</v>
       </c>
       <c r="F81" s="3">
-        <v>2445600</v>
+        <v>4218500</v>
       </c>
       <c r="G81" s="3">
-        <v>3907800</v>
+        <v>2362900</v>
       </c>
       <c r="H81" s="3">
-        <v>3020300</v>
+        <v>3775600</v>
       </c>
       <c r="I81" s="3">
-        <v>3674100</v>
+        <v>2918200</v>
       </c>
       <c r="J81" s="3">
+        <v>3549800</v>
+      </c>
+      <c r="K81" s="3">
         <v>3301500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1112500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5877600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>653800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28090900</v>
+        <v>29666200</v>
       </c>
       <c r="E83" s="3">
-        <v>19583100</v>
+        <v>27140700</v>
       </c>
       <c r="F83" s="3">
-        <v>15622200</v>
+        <v>18920700</v>
       </c>
       <c r="G83" s="3">
-        <v>16469100</v>
+        <v>15093800</v>
       </c>
       <c r="H83" s="3">
-        <v>15107400</v>
+        <v>15912000</v>
       </c>
       <c r="I83" s="3">
-        <v>12826600</v>
+        <v>14596400</v>
       </c>
       <c r="J83" s="3">
+        <v>12392700</v>
+      </c>
+      <c r="K83" s="3">
         <v>11939100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13043400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24108800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16945100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26726900</v>
+        <v>35169800</v>
       </c>
       <c r="E89" s="3">
-        <v>26052900</v>
+        <v>25822900</v>
       </c>
       <c r="F89" s="3">
-        <v>20256100</v>
+        <v>25171700</v>
       </c>
       <c r="G89" s="3">
-        <v>19419400</v>
+        <v>19570900</v>
       </c>
       <c r="H89" s="3">
-        <v>17534900</v>
+        <v>18762600</v>
       </c>
       <c r="I89" s="3">
-        <v>16934200</v>
+        <v>16941800</v>
       </c>
       <c r="J89" s="3">
+        <v>16361500</v>
+      </c>
+      <c r="K89" s="3">
         <v>15158200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15532700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14907500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19032200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14608300</v>
+        <v>-14853800</v>
       </c>
       <c r="E91" s="3">
-        <v>-11270700</v>
+        <v>-14114200</v>
       </c>
       <c r="F91" s="3">
-        <v>-10318800</v>
+        <v>-10889500</v>
       </c>
       <c r="G91" s="3">
-        <v>-10330100</v>
+        <v>-9969800</v>
       </c>
       <c r="H91" s="3">
-        <v>-9074600</v>
+        <v>-9980700</v>
       </c>
       <c r="I91" s="3">
-        <v>-9221400</v>
+        <v>-8767600</v>
       </c>
       <c r="J91" s="3">
+        <v>-8909500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8113700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7859000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6171900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9867000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25573000</v>
+        <v>-29894200</v>
       </c>
       <c r="E94" s="3">
-        <v>-16067100</v>
+        <v>-24708000</v>
       </c>
       <c r="F94" s="3">
-        <v>-16142700</v>
+        <v>-15523600</v>
       </c>
       <c r="G94" s="3">
-        <v>-18984700</v>
+        <v>-15596700</v>
       </c>
       <c r="H94" s="3">
-        <v>-15364800</v>
+        <v>-18342600</v>
       </c>
       <c r="I94" s="3">
-        <v>-16953400</v>
+        <v>-14845100</v>
       </c>
       <c r="J94" s="3">
+        <v>-16380000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12150200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11837600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7324800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10887100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3462900</v>
+        <v>-3430900</v>
       </c>
       <c r="E96" s="3">
-        <v>-4020700</v>
+        <v>-3345800</v>
       </c>
       <c r="F96" s="3">
-        <v>-3479900</v>
+        <v>-3884700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1760300</v>
+        <v>-3362200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1802000</v>
+        <v>-1700700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1418100</v>
+        <v>-1741100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1370200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1456500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2683100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3733200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4133000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8537100</v>
+        <v>-11758900</v>
       </c>
       <c r="E100" s="3">
-        <v>-8062900</v>
+        <v>8248400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3679700</v>
+        <v>-7790200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5187100</v>
+        <v>-3555300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1492700</v>
+        <v>-5011600</v>
       </c>
       <c r="I100" s="3">
-        <v>-989100</v>
+        <v>-1442200</v>
       </c>
       <c r="J100" s="3">
+        <v>-955600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3877300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1222500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7247900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6993600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1169700</v>
+        <v>676400</v>
       </c>
       <c r="E101" s="3">
-        <v>12400</v>
+        <v>-1130200</v>
       </c>
       <c r="F101" s="3">
-        <v>-19200</v>
+        <v>12000</v>
       </c>
       <c r="G101" s="3">
-        <v>-255200</v>
+        <v>-18500</v>
       </c>
       <c r="H101" s="3">
-        <v>282300</v>
+        <v>-246500</v>
       </c>
       <c r="I101" s="3">
-        <v>301500</v>
+        <v>272700</v>
       </c>
       <c r="J101" s="3">
+        <v>291300</v>
+      </c>
+      <c r="K101" s="3">
         <v>364700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-199800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-30700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-47000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8521300</v>
+        <v>-5806900</v>
       </c>
       <c r="E102" s="3">
-        <v>1935300</v>
+        <v>8233100</v>
       </c>
       <c r="F102" s="3">
-        <v>414400</v>
+        <v>1869800</v>
       </c>
       <c r="G102" s="3">
-        <v>-5007600</v>
+        <v>400400</v>
       </c>
       <c r="H102" s="3">
-        <v>959700</v>
+        <v>-4838200</v>
       </c>
       <c r="I102" s="3">
-        <v>-706800</v>
+        <v>927300</v>
       </c>
       <c r="J102" s="3">
+        <v>-682900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-504700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4717800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>304100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1104600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>118684500</v>
+        <v>112917300</v>
       </c>
       <c r="E8" s="3">
-        <v>110180800</v>
+        <v>104826900</v>
       </c>
       <c r="F8" s="3">
-        <v>87852100</v>
+        <v>83583100</v>
       </c>
       <c r="G8" s="3">
-        <v>82533900</v>
+        <v>78523400</v>
       </c>
       <c r="H8" s="3">
-        <v>81760400</v>
+        <v>77787500</v>
       </c>
       <c r="I8" s="3">
-        <v>79740100</v>
+        <v>75865300</v>
       </c>
       <c r="J8" s="3">
-        <v>75521500</v>
+        <v>71851700</v>
       </c>
       <c r="K8" s="3">
         <v>70747100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51077500</v>
+        <v>48595500</v>
       </c>
       <c r="E9" s="3">
-        <v>45725500</v>
+        <v>43503600</v>
       </c>
       <c r="F9" s="3">
-        <v>37646200</v>
+        <v>35816900</v>
       </c>
       <c r="G9" s="3">
-        <v>38990200</v>
+        <v>37095600</v>
       </c>
       <c r="H9" s="3">
-        <v>39106900</v>
+        <v>37206600</v>
       </c>
       <c r="I9" s="3">
-        <v>38164400</v>
+        <v>36309900</v>
       </c>
       <c r="J9" s="3">
-        <v>45790900</v>
+        <v>43565900</v>
       </c>
       <c r="K9" s="3">
         <v>43514400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>67607000</v>
+        <v>64321800</v>
       </c>
       <c r="E10" s="3">
-        <v>64455300</v>
+        <v>61323300</v>
       </c>
       <c r="F10" s="3">
-        <v>50205900</v>
+        <v>47766200</v>
       </c>
       <c r="G10" s="3">
-        <v>43543700</v>
+        <v>41427800</v>
       </c>
       <c r="H10" s="3">
-        <v>42653500</v>
+        <v>40580900</v>
       </c>
       <c r="I10" s="3">
-        <v>41575700</v>
+        <v>39555400</v>
       </c>
       <c r="J10" s="3">
-        <v>29730600</v>
+        <v>28285900</v>
       </c>
       <c r="K10" s="3">
         <v>27232800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>919600</v>
+        <v>874900</v>
       </c>
       <c r="E14" s="3">
-        <v>193100</v>
+        <v>183700</v>
       </c>
       <c r="F14" s="3">
-        <v>801800</v>
+        <v>762900</v>
       </c>
       <c r="G14" s="3">
-        <v>1313500</v>
+        <v>1249600</v>
       </c>
       <c r="H14" s="3">
-        <v>535600</v>
+        <v>509600</v>
       </c>
       <c r="I14" s="3">
-        <v>736400</v>
+        <v>700600</v>
       </c>
       <c r="J14" s="3">
-        <v>161500</v>
+        <v>153600</v>
       </c>
       <c r="K14" s="3">
         <v>134400</v>
@@ -974,22 +974,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29670600</v>
+        <v>28228800</v>
       </c>
       <c r="E15" s="3">
-        <v>27306600</v>
+        <v>25979700</v>
       </c>
       <c r="F15" s="3">
-        <v>18840000</v>
+        <v>17924500</v>
       </c>
       <c r="G15" s="3">
-        <v>14306200</v>
+        <v>13611000</v>
       </c>
       <c r="H15" s="3">
-        <v>13560000</v>
+        <v>12901100</v>
       </c>
       <c r="I15" s="3">
-        <v>13841500</v>
+        <v>13168900</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>104454600</v>
+        <v>99378900</v>
       </c>
       <c r="E17" s="3">
-        <v>96212800</v>
+        <v>91537600</v>
       </c>
       <c r="F17" s="3">
-        <v>77535300</v>
+        <v>73767700</v>
       </c>
       <c r="G17" s="3">
-        <v>73778200</v>
+        <v>70193200</v>
       </c>
       <c r="H17" s="3">
-        <v>71524400</v>
+        <v>68048900</v>
       </c>
       <c r="I17" s="3">
-        <v>69743000</v>
+        <v>66354000</v>
       </c>
       <c r="J17" s="3">
-        <v>67854600</v>
+        <v>64557400</v>
       </c>
       <c r="K17" s="3">
         <v>62564600</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14229800</v>
+        <v>13538400</v>
       </c>
       <c r="E18" s="3">
-        <v>13968000</v>
+        <v>13289300</v>
       </c>
       <c r="F18" s="3">
-        <v>10316700</v>
+        <v>9815400</v>
       </c>
       <c r="G18" s="3">
-        <v>8755600</v>
+        <v>8330200</v>
       </c>
       <c r="H18" s="3">
-        <v>10236000</v>
+        <v>9738600</v>
       </c>
       <c r="I18" s="3">
-        <v>9997100</v>
+        <v>9511300</v>
       </c>
       <c r="J18" s="3">
-        <v>7666900</v>
+        <v>7294400</v>
       </c>
       <c r="K18" s="3">
         <v>8182600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-80700</v>
+        <v>-76800</v>
       </c>
       <c r="E20" s="3">
-        <v>557500</v>
+        <v>530400</v>
       </c>
       <c r="F20" s="3">
-        <v>561800</v>
+        <v>534500</v>
       </c>
       <c r="G20" s="3">
-        <v>-849800</v>
+        <v>-808500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2042200</v>
+        <v>-1942900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2074900</v>
+        <v>-1974100</v>
       </c>
       <c r="J20" s="3">
-        <v>391600</v>
+        <v>372600</v>
       </c>
       <c r="K20" s="3">
         <v>-262000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>44266700</v>
+        <v>42045200</v>
       </c>
       <c r="E21" s="3">
-        <v>42079200</v>
+        <v>39970000</v>
       </c>
       <c r="F21" s="3">
-        <v>30087200</v>
+        <v>28580200</v>
       </c>
       <c r="G21" s="3">
-        <v>23229300</v>
+        <v>22064700</v>
       </c>
       <c r="H21" s="3">
-        <v>24348000</v>
+        <v>23127000</v>
       </c>
       <c r="I21" s="3">
-        <v>22740700</v>
+        <v>21600900</v>
       </c>
       <c r="J21" s="3">
-        <v>20639900</v>
+        <v>19607500</v>
       </c>
       <c r="K21" s="3">
         <v>19887200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5511300</v>
+        <v>5243500</v>
       </c>
       <c r="E22" s="3">
-        <v>5059600</v>
+        <v>4813800</v>
       </c>
       <c r="F22" s="3">
-        <v>2958500</v>
+        <v>2814800</v>
       </c>
       <c r="G22" s="3">
-        <v>2284400</v>
+        <v>2173400</v>
       </c>
       <c r="H22" s="3">
-        <v>2745800</v>
+        <v>2612400</v>
       </c>
       <c r="I22" s="3">
-        <v>2961800</v>
+        <v>2817900</v>
       </c>
       <c r="J22" s="3">
-        <v>2846200</v>
+        <v>2707900</v>
       </c>
       <c r="K22" s="3">
         <v>3009100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8637800</v>
+        <v>8218100</v>
       </c>
       <c r="E23" s="3">
-        <v>9465800</v>
+        <v>9005900</v>
       </c>
       <c r="F23" s="3">
-        <v>7920000</v>
+        <v>7535200</v>
       </c>
       <c r="G23" s="3">
-        <v>5621500</v>
+        <v>5348300</v>
       </c>
       <c r="H23" s="3">
-        <v>5448000</v>
+        <v>5183300</v>
       </c>
       <c r="I23" s="3">
-        <v>4960400</v>
+        <v>4719300</v>
       </c>
       <c r="J23" s="3">
-        <v>5212400</v>
+        <v>4959100</v>
       </c>
       <c r="K23" s="3">
         <v>4911600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1980000</v>
+        <v>1883800</v>
       </c>
       <c r="E24" s="3">
-        <v>2104400</v>
+        <v>2002100</v>
       </c>
       <c r="F24" s="3">
-        <v>2174200</v>
+        <v>2068500</v>
       </c>
       <c r="G24" s="3">
-        <v>1989800</v>
+        <v>1893100</v>
       </c>
       <c r="H24" s="3">
-        <v>-608700</v>
+        <v>-579100</v>
       </c>
       <c r="I24" s="3">
-        <v>1574200</v>
+        <v>1497700</v>
       </c>
       <c r="J24" s="3">
-        <v>1392000</v>
+        <v>1324400</v>
       </c>
       <c r="K24" s="3">
         <v>1248800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6657800</v>
+        <v>6334300</v>
       </c>
       <c r="E26" s="3">
-        <v>7361500</v>
+        <v>7003700</v>
       </c>
       <c r="F26" s="3">
-        <v>5745800</v>
+        <v>5466600</v>
       </c>
       <c r="G26" s="3">
-        <v>3631600</v>
+        <v>3455200</v>
       </c>
       <c r="H26" s="3">
-        <v>6056700</v>
+        <v>5762400</v>
       </c>
       <c r="I26" s="3">
-        <v>3386200</v>
+        <v>3221600</v>
       </c>
       <c r="J26" s="3">
-        <v>3820400</v>
+        <v>3634700</v>
       </c>
       <c r="K26" s="3">
         <v>3662800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4555600</v>
+        <v>4334300</v>
       </c>
       <c r="E27" s="3">
-        <v>4536000</v>
+        <v>4315600</v>
       </c>
       <c r="F27" s="3">
-        <v>4218500</v>
+        <v>4013600</v>
       </c>
       <c r="G27" s="3">
-        <v>2362900</v>
+        <v>2248100</v>
       </c>
       <c r="H27" s="3">
-        <v>3775600</v>
+        <v>3592200</v>
       </c>
       <c r="I27" s="3">
-        <v>2918200</v>
+        <v>2776400</v>
       </c>
       <c r="J27" s="3">
-        <v>3549800</v>
+        <v>3377300</v>
       </c>
       <c r="K27" s="3">
         <v>3301500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>80700</v>
+        <v>76800</v>
       </c>
       <c r="E32" s="3">
-        <v>-557500</v>
+        <v>-530400</v>
       </c>
       <c r="F32" s="3">
-        <v>-561800</v>
+        <v>-534500</v>
       </c>
       <c r="G32" s="3">
-        <v>849800</v>
+        <v>808500</v>
       </c>
       <c r="H32" s="3">
-        <v>2042200</v>
+        <v>1942900</v>
       </c>
       <c r="I32" s="3">
-        <v>2074900</v>
+        <v>1974100</v>
       </c>
       <c r="J32" s="3">
-        <v>-391600</v>
+        <v>-372600</v>
       </c>
       <c r="K32" s="3">
         <v>262000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4555600</v>
+        <v>4334300</v>
       </c>
       <c r="E33" s="3">
-        <v>4536000</v>
+        <v>4315600</v>
       </c>
       <c r="F33" s="3">
-        <v>4218500</v>
+        <v>4013600</v>
       </c>
       <c r="G33" s="3">
-        <v>2362900</v>
+        <v>2248100</v>
       </c>
       <c r="H33" s="3">
-        <v>3775600</v>
+        <v>3592200</v>
       </c>
       <c r="I33" s="3">
-        <v>2918200</v>
+        <v>2776400</v>
       </c>
       <c r="J33" s="3">
-        <v>3549800</v>
+        <v>3377300</v>
       </c>
       <c r="K33" s="3">
         <v>3301500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4555600</v>
+        <v>4334300</v>
       </c>
       <c r="E35" s="3">
-        <v>4536000</v>
+        <v>4315600</v>
       </c>
       <c r="F35" s="3">
-        <v>4218500</v>
+        <v>4013600</v>
       </c>
       <c r="G35" s="3">
-        <v>2362900</v>
+        <v>2248100</v>
       </c>
       <c r="H35" s="3">
-        <v>3775600</v>
+        <v>3592200</v>
       </c>
       <c r="I35" s="3">
-        <v>2918200</v>
+        <v>2776400</v>
       </c>
       <c r="J35" s="3">
-        <v>3549800</v>
+        <v>3377300</v>
       </c>
       <c r="K35" s="3">
         <v>3301500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8309500</v>
+        <v>7905700</v>
       </c>
       <c r="E41" s="3">
-        <v>14115300</v>
+        <v>13429400</v>
       </c>
       <c r="F41" s="3">
-        <v>5883300</v>
+        <v>5597400</v>
       </c>
       <c r="G41" s="3">
-        <v>4013500</v>
+        <v>3818400</v>
       </c>
       <c r="H41" s="3">
-        <v>3613100</v>
+        <v>3437500</v>
       </c>
       <c r="I41" s="3">
-        <v>8451300</v>
+        <v>8040600</v>
       </c>
       <c r="J41" s="3">
-        <v>7524000</v>
+        <v>7158400</v>
       </c>
       <c r="K41" s="3">
         <v>8494200</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>101500</v>
+        <v>96500</v>
       </c>
       <c r="E42" s="3">
-        <v>101500</v>
+        <v>96500</v>
       </c>
       <c r="F42" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="G42" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J42" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="K42" s="3">
         <v>3400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23370600</v>
+        <v>22234900</v>
       </c>
       <c r="E43" s="3">
-        <v>20644400</v>
+        <v>19641200</v>
       </c>
       <c r="F43" s="3">
-        <v>17825500</v>
+        <v>16959300</v>
       </c>
       <c r="G43" s="3">
-        <v>16286200</v>
+        <v>15494800</v>
       </c>
       <c r="H43" s="3">
-        <v>14153500</v>
+        <v>13465700</v>
       </c>
       <c r="I43" s="3">
-        <v>16018900</v>
+        <v>15240500</v>
       </c>
       <c r="J43" s="3">
-        <v>13157500</v>
+        <v>12518100</v>
       </c>
       <c r="K43" s="3">
         <v>14870200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3114500</v>
+        <v>2963200</v>
       </c>
       <c r="E44" s="3">
-        <v>2940000</v>
+        <v>2797100</v>
       </c>
       <c r="F44" s="3">
-        <v>1710500</v>
+        <v>1627400</v>
       </c>
       <c r="G44" s="3">
-        <v>1952700</v>
+        <v>1857800</v>
       </c>
       <c r="H44" s="3">
-        <v>2165500</v>
+        <v>2060200</v>
       </c>
       <c r="I44" s="3">
-        <v>1777100</v>
+        <v>1690700</v>
       </c>
       <c r="J44" s="3">
-        <v>2014900</v>
+        <v>1917000</v>
       </c>
       <c r="K44" s="3">
         <v>1697000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7430200</v>
+        <v>7069100</v>
       </c>
       <c r="E45" s="3">
-        <v>2882200</v>
+        <v>2742100</v>
       </c>
       <c r="F45" s="3">
-        <v>1482500</v>
+        <v>1410500</v>
       </c>
       <c r="G45" s="3">
-        <v>1592700</v>
+        <v>1515300</v>
       </c>
       <c r="H45" s="3">
-        <v>2313800</v>
+        <v>2201400</v>
       </c>
       <c r="I45" s="3">
-        <v>2810200</v>
+        <v>2673600</v>
       </c>
       <c r="J45" s="3">
-        <v>12409100</v>
+        <v>11806100</v>
       </c>
       <c r="K45" s="3">
         <v>8580000</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42326200</v>
+        <v>40269500</v>
       </c>
       <c r="E46" s="3">
-        <v>40683300</v>
+        <v>38706400</v>
       </c>
       <c r="F46" s="3">
-        <v>26933500</v>
+        <v>25624700</v>
       </c>
       <c r="G46" s="3">
-        <v>23858200</v>
+        <v>22698900</v>
       </c>
       <c r="H46" s="3">
-        <v>22245800</v>
+        <v>21164900</v>
       </c>
       <c r="I46" s="3">
-        <v>29059700</v>
+        <v>27647600</v>
       </c>
       <c r="J46" s="3">
-        <v>35109800</v>
+        <v>33403800</v>
       </c>
       <c r="K46" s="3">
         <v>33644900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6298900</v>
+        <v>5992800</v>
       </c>
       <c r="E47" s="3">
-        <v>7591600</v>
+        <v>7222700</v>
       </c>
       <c r="F47" s="3">
-        <v>4892700</v>
+        <v>4655000</v>
       </c>
       <c r="G47" s="3">
-        <v>2357500</v>
+        <v>2242900</v>
       </c>
       <c r="H47" s="3">
-        <v>6945800</v>
+        <v>6608300</v>
       </c>
       <c r="I47" s="3">
-        <v>9393800</v>
+        <v>8937400</v>
       </c>
       <c r="J47" s="3">
-        <v>4747600</v>
+        <v>4516900</v>
       </c>
       <c r="K47" s="3">
         <v>3275500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100960000</v>
+        <v>96054500</v>
       </c>
       <c r="E48" s="3">
-        <v>99575000</v>
+        <v>94736400</v>
       </c>
       <c r="F48" s="3">
-        <v>73686600</v>
+        <v>70106000</v>
       </c>
       <c r="G48" s="3">
-        <v>55233900</v>
+        <v>52549900</v>
       </c>
       <c r="H48" s="3">
-        <v>51139700</v>
+        <v>48654700</v>
       </c>
       <c r="I48" s="3">
-        <v>51008800</v>
+        <v>48530100</v>
       </c>
       <c r="J48" s="3">
-        <v>48694900</v>
+        <v>46328700</v>
       </c>
       <c r="K48" s="3">
         <v>44730400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>144706000</v>
+        <v>137674000</v>
       </c>
       <c r="E49" s="3">
-        <v>128799000</v>
+        <v>122541000</v>
       </c>
       <c r="F49" s="3">
-        <v>74402200</v>
+        <v>70786900</v>
       </c>
       <c r="G49" s="3">
-        <v>70854600</v>
+        <v>67411600</v>
       </c>
       <c r="H49" s="3">
-        <v>68580100</v>
+        <v>65247600</v>
       </c>
       <c r="I49" s="3">
-        <v>66108100</v>
+        <v>62895700</v>
       </c>
       <c r="J49" s="3">
-        <v>62209100</v>
+        <v>59186200</v>
       </c>
       <c r="K49" s="3">
         <v>58222000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12938200</v>
+        <v>12309500</v>
       </c>
       <c r="E52" s="3">
-        <v>12351300</v>
+        <v>11751100</v>
       </c>
       <c r="F52" s="3">
-        <v>6272700</v>
+        <v>5967900</v>
       </c>
       <c r="G52" s="3">
-        <v>6286900</v>
+        <v>5981400</v>
       </c>
       <c r="H52" s="3">
-        <v>5271300</v>
+        <v>5015100</v>
       </c>
       <c r="I52" s="3">
-        <v>6413500</v>
+        <v>6101800</v>
       </c>
       <c r="J52" s="3">
-        <v>6242200</v>
+        <v>5938900</v>
       </c>
       <c r="K52" s="3">
         <v>6187500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>307230000</v>
+        <v>292301000</v>
       </c>
       <c r="E54" s="3">
-        <v>289001000</v>
+        <v>274957000</v>
       </c>
       <c r="F54" s="3">
-        <v>186188000</v>
+        <v>177141000</v>
       </c>
       <c r="G54" s="3">
-        <v>158591000</v>
+        <v>150885000</v>
       </c>
       <c r="H54" s="3">
-        <v>154183000</v>
+        <v>146691000</v>
       </c>
       <c r="I54" s="3">
-        <v>161984000</v>
+        <v>154113000</v>
       </c>
       <c r="J54" s="3">
-        <v>157004000</v>
+        <v>149375000</v>
       </c>
       <c r="K54" s="3">
         <v>146060000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11341100</v>
+        <v>10790000</v>
       </c>
       <c r="E57" s="3">
-        <v>10572000</v>
+        <v>10058300</v>
       </c>
       <c r="F57" s="3">
-        <v>10265500</v>
+        <v>9766600</v>
       </c>
       <c r="G57" s="3">
-        <v>11671600</v>
+        <v>11104500</v>
       </c>
       <c r="H57" s="3">
-        <v>11928000</v>
+        <v>11348400</v>
       </c>
       <c r="I57" s="3">
-        <v>11332400</v>
+        <v>10781700</v>
       </c>
       <c r="J57" s="3">
-        <v>12040400</v>
+        <v>11455300</v>
       </c>
       <c r="K57" s="3">
         <v>10874400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17167700</v>
+        <v>16333400</v>
       </c>
       <c r="E58" s="3">
-        <v>17576700</v>
+        <v>16722600</v>
       </c>
       <c r="F58" s="3">
-        <v>14196000</v>
+        <v>13506200</v>
       </c>
       <c r="G58" s="3">
-        <v>9400400</v>
+        <v>8943600</v>
       </c>
       <c r="H58" s="3">
-        <v>7584000</v>
+        <v>7215500</v>
       </c>
       <c r="I58" s="3">
-        <v>12388400</v>
+        <v>11786400</v>
       </c>
       <c r="J58" s="3">
-        <v>13712700</v>
+        <v>13046400</v>
       </c>
       <c r="K58" s="3">
         <v>9269900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13821800</v>
+        <v>13150200</v>
       </c>
       <c r="E59" s="3">
-        <v>12362200</v>
+        <v>11761500</v>
       </c>
       <c r="F59" s="3">
-        <v>11443600</v>
+        <v>10887600</v>
       </c>
       <c r="G59" s="3">
-        <v>10721500</v>
+        <v>10200500</v>
       </c>
       <c r="H59" s="3">
-        <v>10341800</v>
+        <v>9839300</v>
       </c>
       <c r="I59" s="3">
-        <v>12416700</v>
+        <v>11813400</v>
       </c>
       <c r="J59" s="3">
-        <v>10844700</v>
+        <v>10317800</v>
       </c>
       <c r="K59" s="3">
         <v>11694100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42330600</v>
+        <v>40273600</v>
       </c>
       <c r="E60" s="3">
-        <v>40510900</v>
+        <v>38542400</v>
       </c>
       <c r="F60" s="3">
-        <v>35905100</v>
+        <v>34160400</v>
       </c>
       <c r="G60" s="3">
-        <v>31793500</v>
+        <v>30248600</v>
       </c>
       <c r="H60" s="3">
-        <v>29853800</v>
+        <v>28403200</v>
       </c>
       <c r="I60" s="3">
-        <v>36137500</v>
+        <v>34381500</v>
       </c>
       <c r="J60" s="3">
-        <v>36597800</v>
+        <v>34819500</v>
       </c>
       <c r="K60" s="3">
         <v>31838400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>137816000</v>
+        <v>131119000</v>
       </c>
       <c r="E61" s="3">
-        <v>132157000</v>
+        <v>125735000</v>
       </c>
       <c r="F61" s="3">
-        <v>76418200</v>
+        <v>72704900</v>
       </c>
       <c r="G61" s="3">
-        <v>55605900</v>
+        <v>52903800</v>
       </c>
       <c r="H61" s="3">
-        <v>52712800</v>
+        <v>50151300</v>
       </c>
       <c r="I61" s="3">
-        <v>54296800</v>
+        <v>51658400</v>
       </c>
       <c r="J61" s="3">
-        <v>51481100</v>
+        <v>48979500</v>
       </c>
       <c r="K61" s="3">
         <v>49657800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38208000</v>
+        <v>36351400</v>
       </c>
       <c r="E62" s="3">
-        <v>37186900</v>
+        <v>35379900</v>
       </c>
       <c r="F62" s="3">
-        <v>23430600</v>
+        <v>22292000</v>
       </c>
       <c r="G62" s="3">
-        <v>23805800</v>
+        <v>22649100</v>
       </c>
       <c r="H62" s="3">
-        <v>25285100</v>
+        <v>24056400</v>
       </c>
       <c r="I62" s="3">
-        <v>29173100</v>
+        <v>27755500</v>
       </c>
       <c r="J62" s="3">
-        <v>27306600</v>
+        <v>25979700</v>
       </c>
       <c r="K62" s="3">
         <v>26100300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>260671000</v>
+        <v>248004000</v>
       </c>
       <c r="E66" s="3">
-        <v>249813000</v>
+        <v>237674000</v>
       </c>
       <c r="F66" s="3">
-        <v>151598000</v>
+        <v>144232000</v>
       </c>
       <c r="G66" s="3">
-        <v>124874000</v>
+        <v>118806000</v>
       </c>
       <c r="H66" s="3">
-        <v>120656000</v>
+        <v>114793000</v>
       </c>
       <c r="I66" s="3">
-        <v>130015000</v>
+        <v>123697000</v>
       </c>
       <c r="J66" s="3">
-        <v>124931000</v>
+        <v>118860000</v>
       </c>
       <c r="K66" s="3">
         <v>117340000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35107700</v>
+        <v>-33401700</v>
       </c>
       <c r="E72" s="3">
-        <v>-37905800</v>
+        <v>-36063900</v>
       </c>
       <c r="F72" s="3">
-        <v>-38009500</v>
+        <v>-36162500</v>
       </c>
       <c r="G72" s="3">
-        <v>-38428400</v>
+        <v>-36561100</v>
       </c>
       <c r="H72" s="3">
-        <v>-38497100</v>
+        <v>-36626500</v>
       </c>
       <c r="I72" s="3">
-        <v>-39329500</v>
+        <v>-37418400</v>
       </c>
       <c r="J72" s="3">
-        <v>-38961900</v>
+        <v>-37068600</v>
       </c>
       <c r="K72" s="3">
         <v>-41617500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46558900</v>
+        <v>44296500</v>
       </c>
       <c r="E76" s="3">
-        <v>39187700</v>
+        <v>37283400</v>
       </c>
       <c r="F76" s="3">
-        <v>34589500</v>
+        <v>32908700</v>
       </c>
       <c r="G76" s="3">
-        <v>33716800</v>
+        <v>32078400</v>
       </c>
       <c r="H76" s="3">
-        <v>33526900</v>
+        <v>31897800</v>
       </c>
       <c r="I76" s="3">
-        <v>31969100</v>
+        <v>30415700</v>
       </c>
       <c r="J76" s="3">
-        <v>32072800</v>
+        <v>30514300</v>
       </c>
       <c r="K76" s="3">
         <v>28720900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4555600</v>
+        <v>4334300</v>
       </c>
       <c r="E81" s="3">
-        <v>4536000</v>
+        <v>4315600</v>
       </c>
       <c r="F81" s="3">
-        <v>4218500</v>
+        <v>4013600</v>
       </c>
       <c r="G81" s="3">
-        <v>2362900</v>
+        <v>2248100</v>
       </c>
       <c r="H81" s="3">
-        <v>3775600</v>
+        <v>3592200</v>
       </c>
       <c r="I81" s="3">
-        <v>2918200</v>
+        <v>2776400</v>
       </c>
       <c r="J81" s="3">
-        <v>3549800</v>
+        <v>3377300</v>
       </c>
       <c r="K81" s="3">
         <v>3301500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29666200</v>
+        <v>28224700</v>
       </c>
       <c r="E83" s="3">
-        <v>27140700</v>
+        <v>25821900</v>
       </c>
       <c r="F83" s="3">
-        <v>18920700</v>
+        <v>18001300</v>
       </c>
       <c r="G83" s="3">
-        <v>15093800</v>
+        <v>14360400</v>
       </c>
       <c r="H83" s="3">
-        <v>15912000</v>
+        <v>15138800</v>
       </c>
       <c r="I83" s="3">
-        <v>14596400</v>
+        <v>13887100</v>
       </c>
       <c r="J83" s="3">
-        <v>12392700</v>
+        <v>11790500</v>
       </c>
       <c r="K83" s="3">
         <v>11939100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35169800</v>
+        <v>33460900</v>
       </c>
       <c r="E89" s="3">
-        <v>25822900</v>
+        <v>24568100</v>
       </c>
       <c r="F89" s="3">
-        <v>25171700</v>
+        <v>23948500</v>
       </c>
       <c r="G89" s="3">
-        <v>19570900</v>
+        <v>18619900</v>
       </c>
       <c r="H89" s="3">
-        <v>18762600</v>
+        <v>17850800</v>
       </c>
       <c r="I89" s="3">
-        <v>16941800</v>
+        <v>16118600</v>
       </c>
       <c r="J89" s="3">
-        <v>16361500</v>
+        <v>15566400</v>
       </c>
       <c r="K89" s="3">
         <v>15158200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14853800</v>
+        <v>-14132000</v>
       </c>
       <c r="E91" s="3">
-        <v>-14114200</v>
+        <v>-13428400</v>
       </c>
       <c r="F91" s="3">
-        <v>-10889500</v>
+        <v>-10360300</v>
       </c>
       <c r="G91" s="3">
-        <v>-9969800</v>
+        <v>-9485400</v>
       </c>
       <c r="H91" s="3">
-        <v>-9980700</v>
+        <v>-9495700</v>
       </c>
       <c r="I91" s="3">
-        <v>-8767600</v>
+        <v>-8341600</v>
       </c>
       <c r="J91" s="3">
-        <v>-8909500</v>
+        <v>-8476500</v>
       </c>
       <c r="K91" s="3">
         <v>-8113700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29894200</v>
+        <v>-28441600</v>
       </c>
       <c r="E94" s="3">
-        <v>-24708000</v>
+        <v>-23507400</v>
       </c>
       <c r="F94" s="3">
-        <v>-15523600</v>
+        <v>-14769300</v>
       </c>
       <c r="G94" s="3">
-        <v>-15596700</v>
+        <v>-14838900</v>
       </c>
       <c r="H94" s="3">
-        <v>-18342600</v>
+        <v>-17451300</v>
       </c>
       <c r="I94" s="3">
-        <v>-14845100</v>
+        <v>-14123700</v>
       </c>
       <c r="J94" s="3">
-        <v>-16380000</v>
+        <v>-15584100</v>
       </c>
       <c r="K94" s="3">
         <v>-12150200</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3430900</v>
+        <v>-3264200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3345800</v>
+        <v>-3183200</v>
       </c>
       <c r="F96" s="3">
-        <v>-3884700</v>
+        <v>-3696000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3362200</v>
+        <v>-3198800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1700700</v>
+        <v>-1618100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1741100</v>
+        <v>-1656500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1370200</v>
+        <v>-1303600</v>
       </c>
       <c r="K96" s="3">
         <v>-1456500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11758900</v>
+        <v>-11187500</v>
       </c>
       <c r="E100" s="3">
-        <v>8248400</v>
+        <v>7847600</v>
       </c>
       <c r="F100" s="3">
-        <v>-7790200</v>
+        <v>-7411600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3555300</v>
+        <v>-3382500</v>
       </c>
       <c r="H100" s="3">
-        <v>-5011600</v>
+        <v>-4768100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1442200</v>
+        <v>-1372100</v>
       </c>
       <c r="J100" s="3">
-        <v>-955600</v>
+        <v>-909200</v>
       </c>
       <c r="K100" s="3">
         <v>-3877300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>676400</v>
+        <v>643500</v>
       </c>
       <c r="E101" s="3">
-        <v>-1130200</v>
+        <v>-1075300</v>
       </c>
       <c r="F101" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="G101" s="3">
-        <v>-18500</v>
+        <v>-17600</v>
       </c>
       <c r="H101" s="3">
-        <v>-246500</v>
+        <v>-234600</v>
       </c>
       <c r="I101" s="3">
-        <v>272700</v>
+        <v>259500</v>
       </c>
       <c r="J101" s="3">
-        <v>291300</v>
+        <v>277100</v>
       </c>
       <c r="K101" s="3">
         <v>364700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5806900</v>
+        <v>-5524700</v>
       </c>
       <c r="E102" s="3">
-        <v>8233100</v>
+        <v>7833000</v>
       </c>
       <c r="F102" s="3">
-        <v>1869800</v>
+        <v>1779000</v>
       </c>
       <c r="G102" s="3">
-        <v>400400</v>
+        <v>380900</v>
       </c>
       <c r="H102" s="3">
-        <v>-4838200</v>
+        <v>-4603100</v>
       </c>
       <c r="I102" s="3">
-        <v>927300</v>
+        <v>882200</v>
       </c>
       <c r="J102" s="3">
-        <v>-682900</v>
+        <v>-649700</v>
       </c>
       <c r="K102" s="3">
         <v>-504700</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>112917300</v>
+        <v>108511100</v>
       </c>
       <c r="E8" s="3">
-        <v>104826900</v>
+        <v>100736400</v>
       </c>
       <c r="F8" s="3">
-        <v>83583100</v>
+        <v>80321600</v>
       </c>
       <c r="G8" s="3">
-        <v>78523400</v>
+        <v>75459300</v>
       </c>
       <c r="H8" s="3">
-        <v>77787500</v>
+        <v>74752100</v>
       </c>
       <c r="I8" s="3">
-        <v>75865300</v>
+        <v>72905000</v>
       </c>
       <c r="J8" s="3">
-        <v>71851700</v>
+        <v>69048000</v>
       </c>
       <c r="K8" s="3">
         <v>70747100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48595500</v>
+        <v>46699300</v>
       </c>
       <c r="E9" s="3">
-        <v>43503600</v>
+        <v>41806000</v>
       </c>
       <c r="F9" s="3">
-        <v>35816900</v>
+        <v>34419300</v>
       </c>
       <c r="G9" s="3">
-        <v>37095600</v>
+        <v>35648100</v>
       </c>
       <c r="H9" s="3">
-        <v>37206600</v>
+        <v>35754800</v>
       </c>
       <c r="I9" s="3">
-        <v>36309900</v>
+        <v>34893000</v>
       </c>
       <c r="J9" s="3">
-        <v>43565900</v>
+        <v>41865900</v>
       </c>
       <c r="K9" s="3">
         <v>43514400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>64321800</v>
+        <v>61811900</v>
       </c>
       <c r="E10" s="3">
-        <v>61323300</v>
+        <v>58930400</v>
       </c>
       <c r="F10" s="3">
-        <v>47766200</v>
+        <v>45902300</v>
       </c>
       <c r="G10" s="3">
-        <v>41427800</v>
+        <v>39811200</v>
       </c>
       <c r="H10" s="3">
-        <v>40580900</v>
+        <v>38997300</v>
       </c>
       <c r="I10" s="3">
-        <v>39555400</v>
+        <v>38011900</v>
       </c>
       <c r="J10" s="3">
-        <v>28285900</v>
+        <v>27182100</v>
       </c>
       <c r="K10" s="3">
         <v>27232800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>874900</v>
+        <v>840800</v>
       </c>
       <c r="E14" s="3">
-        <v>183700</v>
+        <v>176500</v>
       </c>
       <c r="F14" s="3">
-        <v>762900</v>
+        <v>733100</v>
       </c>
       <c r="G14" s="3">
-        <v>1249600</v>
+        <v>1200900</v>
       </c>
       <c r="H14" s="3">
-        <v>509600</v>
+        <v>489700</v>
       </c>
       <c r="I14" s="3">
-        <v>700600</v>
+        <v>673200</v>
       </c>
       <c r="J14" s="3">
-        <v>153600</v>
+        <v>147600</v>
       </c>
       <c r="K14" s="3">
         <v>134400</v>
@@ -974,22 +974,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28228800</v>
+        <v>27127300</v>
       </c>
       <c r="E15" s="3">
-        <v>25979700</v>
+        <v>24965900</v>
       </c>
       <c r="F15" s="3">
-        <v>17924500</v>
+        <v>17225100</v>
       </c>
       <c r="G15" s="3">
-        <v>13611000</v>
+        <v>13079900</v>
       </c>
       <c r="H15" s="3">
-        <v>12901100</v>
+        <v>12397700</v>
       </c>
       <c r="I15" s="3">
-        <v>13168900</v>
+        <v>12655000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>99378900</v>
+        <v>95501100</v>
       </c>
       <c r="E17" s="3">
-        <v>91537600</v>
+        <v>87965700</v>
       </c>
       <c r="F17" s="3">
-        <v>73767700</v>
+        <v>70889200</v>
       </c>
       <c r="G17" s="3">
-        <v>70193200</v>
+        <v>67454200</v>
       </c>
       <c r="H17" s="3">
-        <v>68048900</v>
+        <v>65393500</v>
       </c>
       <c r="I17" s="3">
-        <v>66354000</v>
+        <v>63764800</v>
       </c>
       <c r="J17" s="3">
-        <v>64557400</v>
+        <v>62038300</v>
       </c>
       <c r="K17" s="3">
         <v>62564600</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13538400</v>
+        <v>13010100</v>
       </c>
       <c r="E18" s="3">
-        <v>13289300</v>
+        <v>12770700</v>
       </c>
       <c r="F18" s="3">
-        <v>9815400</v>
+        <v>9432400</v>
       </c>
       <c r="G18" s="3">
-        <v>8330200</v>
+        <v>8005100</v>
       </c>
       <c r="H18" s="3">
-        <v>9738600</v>
+        <v>9358600</v>
       </c>
       <c r="I18" s="3">
-        <v>9511300</v>
+        <v>9140200</v>
       </c>
       <c r="J18" s="3">
-        <v>7294400</v>
+        <v>7009700</v>
       </c>
       <c r="K18" s="3">
         <v>8182600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-76800</v>
+        <v>-73800</v>
       </c>
       <c r="E20" s="3">
-        <v>530400</v>
+        <v>509700</v>
       </c>
       <c r="F20" s="3">
-        <v>534500</v>
+        <v>513700</v>
       </c>
       <c r="G20" s="3">
-        <v>-808500</v>
+        <v>-777000</v>
       </c>
       <c r="H20" s="3">
-        <v>-1942900</v>
+        <v>-1867100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1974100</v>
+        <v>-1897100</v>
       </c>
       <c r="J20" s="3">
-        <v>372600</v>
+        <v>358100</v>
       </c>
       <c r="K20" s="3">
         <v>-262000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42045200</v>
+        <v>40035100</v>
       </c>
       <c r="E21" s="3">
-        <v>39970000</v>
+        <v>38072300</v>
       </c>
       <c r="F21" s="3">
-        <v>28580200</v>
+        <v>27229400</v>
       </c>
       <c r="G21" s="3">
-        <v>22064700</v>
+        <v>21015700</v>
       </c>
       <c r="H21" s="3">
-        <v>23127000</v>
+        <v>22026400</v>
       </c>
       <c r="I21" s="3">
-        <v>21600900</v>
+        <v>20576300</v>
       </c>
       <c r="J21" s="3">
-        <v>19607500</v>
+        <v>18688000</v>
       </c>
       <c r="K21" s="3">
         <v>19887200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5243500</v>
+        <v>5038900</v>
       </c>
       <c r="E22" s="3">
-        <v>4813800</v>
+        <v>4625900</v>
       </c>
       <c r="F22" s="3">
-        <v>2814800</v>
+        <v>2704900</v>
       </c>
       <c r="G22" s="3">
-        <v>2173400</v>
+        <v>2088600</v>
       </c>
       <c r="H22" s="3">
-        <v>2612400</v>
+        <v>2510500</v>
       </c>
       <c r="I22" s="3">
-        <v>2817900</v>
+        <v>2707900</v>
       </c>
       <c r="J22" s="3">
-        <v>2707900</v>
+        <v>2602200</v>
       </c>
       <c r="K22" s="3">
         <v>3009100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8218100</v>
+        <v>7897400</v>
       </c>
       <c r="E23" s="3">
-        <v>9005900</v>
+        <v>8654400</v>
       </c>
       <c r="F23" s="3">
-        <v>7535200</v>
+        <v>7241100</v>
       </c>
       <c r="G23" s="3">
-        <v>5348300</v>
+        <v>5139600</v>
       </c>
       <c r="H23" s="3">
-        <v>5183300</v>
+        <v>4981000</v>
       </c>
       <c r="I23" s="3">
-        <v>4719300</v>
+        <v>4535200</v>
       </c>
       <c r="J23" s="3">
-        <v>4959100</v>
+        <v>4765600</v>
       </c>
       <c r="K23" s="3">
         <v>4911600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1883800</v>
+        <v>1810300</v>
       </c>
       <c r="E24" s="3">
-        <v>2002100</v>
+        <v>1924000</v>
       </c>
       <c r="F24" s="3">
-        <v>2068500</v>
+        <v>1987800</v>
       </c>
       <c r="G24" s="3">
-        <v>1893100</v>
+        <v>1819300</v>
       </c>
       <c r="H24" s="3">
-        <v>-579100</v>
+        <v>-556500</v>
       </c>
       <c r="I24" s="3">
-        <v>1497700</v>
+        <v>1439200</v>
       </c>
       <c r="J24" s="3">
-        <v>1324400</v>
+        <v>1272700</v>
       </c>
       <c r="K24" s="3">
         <v>1248800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6334300</v>
+        <v>6087100</v>
       </c>
       <c r="E26" s="3">
-        <v>7003700</v>
+        <v>6730500</v>
       </c>
       <c r="F26" s="3">
-        <v>5466600</v>
+        <v>5253300</v>
       </c>
       <c r="G26" s="3">
-        <v>3455200</v>
+        <v>3320300</v>
       </c>
       <c r="H26" s="3">
-        <v>5762400</v>
+        <v>5537600</v>
       </c>
       <c r="I26" s="3">
-        <v>3221600</v>
+        <v>3095900</v>
       </c>
       <c r="J26" s="3">
-        <v>3634700</v>
+        <v>3492900</v>
       </c>
       <c r="K26" s="3">
         <v>3662800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4334300</v>
+        <v>4165100</v>
       </c>
       <c r="E27" s="3">
-        <v>4315600</v>
+        <v>4147200</v>
       </c>
       <c r="F27" s="3">
-        <v>4013600</v>
+        <v>3856900</v>
       </c>
       <c r="G27" s="3">
-        <v>2248100</v>
+        <v>2160400</v>
       </c>
       <c r="H27" s="3">
-        <v>3592200</v>
+        <v>3452000</v>
       </c>
       <c r="I27" s="3">
-        <v>2776400</v>
+        <v>2668000</v>
       </c>
       <c r="J27" s="3">
-        <v>3377300</v>
+        <v>3245500</v>
       </c>
       <c r="K27" s="3">
         <v>3301500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>76800</v>
+        <v>73800</v>
       </c>
       <c r="E32" s="3">
-        <v>-530400</v>
+        <v>-509700</v>
       </c>
       <c r="F32" s="3">
-        <v>-534500</v>
+        <v>-513700</v>
       </c>
       <c r="G32" s="3">
-        <v>808500</v>
+        <v>777000</v>
       </c>
       <c r="H32" s="3">
-        <v>1942900</v>
+        <v>1867100</v>
       </c>
       <c r="I32" s="3">
-        <v>1974100</v>
+        <v>1897100</v>
       </c>
       <c r="J32" s="3">
-        <v>-372600</v>
+        <v>-358100</v>
       </c>
       <c r="K32" s="3">
         <v>262000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4334300</v>
+        <v>4165100</v>
       </c>
       <c r="E33" s="3">
-        <v>4315600</v>
+        <v>4147200</v>
       </c>
       <c r="F33" s="3">
-        <v>4013600</v>
+        <v>3856900</v>
       </c>
       <c r="G33" s="3">
-        <v>2248100</v>
+        <v>2160400</v>
       </c>
       <c r="H33" s="3">
-        <v>3592200</v>
+        <v>3452000</v>
       </c>
       <c r="I33" s="3">
-        <v>2776400</v>
+        <v>2668000</v>
       </c>
       <c r="J33" s="3">
-        <v>3377300</v>
+        <v>3245500</v>
       </c>
       <c r="K33" s="3">
         <v>3301500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4334300</v>
+        <v>4165100</v>
       </c>
       <c r="E35" s="3">
-        <v>4315600</v>
+        <v>4147200</v>
       </c>
       <c r="F35" s="3">
-        <v>4013600</v>
+        <v>3856900</v>
       </c>
       <c r="G35" s="3">
-        <v>2248100</v>
+        <v>2160400</v>
       </c>
       <c r="H35" s="3">
-        <v>3592200</v>
+        <v>3452000</v>
       </c>
       <c r="I35" s="3">
-        <v>2776400</v>
+        <v>2668000</v>
       </c>
       <c r="J35" s="3">
-        <v>3377300</v>
+        <v>3245500</v>
       </c>
       <c r="K35" s="3">
         <v>3301500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7905700</v>
+        <v>7597200</v>
       </c>
       <c r="E41" s="3">
-        <v>13429400</v>
+        <v>12905400</v>
       </c>
       <c r="F41" s="3">
-        <v>5597400</v>
+        <v>5379000</v>
       </c>
       <c r="G41" s="3">
-        <v>3818400</v>
+        <v>3669400</v>
       </c>
       <c r="H41" s="3">
-        <v>3437500</v>
+        <v>3303400</v>
       </c>
       <c r="I41" s="3">
-        <v>8040600</v>
+        <v>7726900</v>
       </c>
       <c r="J41" s="3">
-        <v>7158400</v>
+        <v>6879100</v>
       </c>
       <c r="K41" s="3">
         <v>8494200</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>96500</v>
+        <v>92800</v>
       </c>
       <c r="E42" s="3">
-        <v>96500</v>
+        <v>92800</v>
       </c>
       <c r="F42" s="3">
-        <v>30100</v>
+        <v>28900</v>
       </c>
       <c r="G42" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J42" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K42" s="3">
         <v>3400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22234900</v>
+        <v>21367300</v>
       </c>
       <c r="E43" s="3">
-        <v>19641200</v>
+        <v>18874800</v>
       </c>
       <c r="F43" s="3">
-        <v>16959300</v>
+        <v>16297500</v>
       </c>
       <c r="G43" s="3">
-        <v>15494800</v>
+        <v>14890200</v>
       </c>
       <c r="H43" s="3">
-        <v>13465700</v>
+        <v>12940300</v>
       </c>
       <c r="I43" s="3">
-        <v>15240500</v>
+        <v>14645800</v>
       </c>
       <c r="J43" s="3">
-        <v>12518100</v>
+        <v>12029600</v>
       </c>
       <c r="K43" s="3">
         <v>14870200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2963200</v>
+        <v>2847600</v>
       </c>
       <c r="E44" s="3">
-        <v>2797100</v>
+        <v>2688000</v>
       </c>
       <c r="F44" s="3">
-        <v>1627400</v>
+        <v>1563900</v>
       </c>
       <c r="G44" s="3">
-        <v>1857800</v>
+        <v>1785300</v>
       </c>
       <c r="H44" s="3">
-        <v>2060200</v>
+        <v>1979800</v>
       </c>
       <c r="I44" s="3">
-        <v>1690700</v>
+        <v>1624800</v>
       </c>
       <c r="J44" s="3">
-        <v>1917000</v>
+        <v>1842200</v>
       </c>
       <c r="K44" s="3">
         <v>1697000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7069100</v>
+        <v>6793300</v>
       </c>
       <c r="E45" s="3">
-        <v>2742100</v>
+        <v>2635100</v>
       </c>
       <c r="F45" s="3">
-        <v>1410500</v>
+        <v>1355500</v>
       </c>
       <c r="G45" s="3">
-        <v>1515300</v>
+        <v>1456200</v>
       </c>
       <c r="H45" s="3">
-        <v>2201400</v>
+        <v>2115500</v>
       </c>
       <c r="I45" s="3">
-        <v>2673600</v>
+        <v>2569300</v>
       </c>
       <c r="J45" s="3">
-        <v>11806100</v>
+        <v>11345400</v>
       </c>
       <c r="K45" s="3">
         <v>8580000</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40269500</v>
+        <v>38698100</v>
       </c>
       <c r="E46" s="3">
-        <v>38706400</v>
+        <v>37196000</v>
       </c>
       <c r="F46" s="3">
-        <v>25624700</v>
+        <v>24624800</v>
       </c>
       <c r="G46" s="3">
-        <v>22698900</v>
+        <v>21813100</v>
       </c>
       <c r="H46" s="3">
-        <v>21164900</v>
+        <v>20339000</v>
       </c>
       <c r="I46" s="3">
-        <v>27647600</v>
+        <v>26568700</v>
       </c>
       <c r="J46" s="3">
-        <v>33403800</v>
+        <v>32100300</v>
       </c>
       <c r="K46" s="3">
         <v>33644900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5992800</v>
+        <v>5759000</v>
       </c>
       <c r="E47" s="3">
-        <v>7222700</v>
+        <v>6940900</v>
       </c>
       <c r="F47" s="3">
-        <v>4655000</v>
+        <v>4473300</v>
       </c>
       <c r="G47" s="3">
-        <v>2242900</v>
+        <v>2155400</v>
       </c>
       <c r="H47" s="3">
-        <v>6608300</v>
+        <v>6350400</v>
       </c>
       <c r="I47" s="3">
-        <v>8937400</v>
+        <v>8588600</v>
       </c>
       <c r="J47" s="3">
-        <v>4516900</v>
+        <v>4340700</v>
       </c>
       <c r="K47" s="3">
         <v>3275500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>96054500</v>
+        <v>92306400</v>
       </c>
       <c r="E48" s="3">
-        <v>94736400</v>
+        <v>91039700</v>
       </c>
       <c r="F48" s="3">
-        <v>70106000</v>
+        <v>67370400</v>
       </c>
       <c r="G48" s="3">
-        <v>52549900</v>
+        <v>50499400</v>
       </c>
       <c r="H48" s="3">
-        <v>48654700</v>
+        <v>46756100</v>
       </c>
       <c r="I48" s="3">
-        <v>48530100</v>
+        <v>46636400</v>
       </c>
       <c r="J48" s="3">
-        <v>46328700</v>
+        <v>44520900</v>
       </c>
       <c r="K48" s="3">
         <v>44730400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>137674000</v>
+        <v>132302000</v>
       </c>
       <c r="E49" s="3">
-        <v>122541000</v>
+        <v>117759000</v>
       </c>
       <c r="F49" s="3">
-        <v>70786900</v>
+        <v>68024700</v>
       </c>
       <c r="G49" s="3">
-        <v>67411600</v>
+        <v>64781100</v>
       </c>
       <c r="H49" s="3">
-        <v>65247600</v>
+        <v>62701600</v>
       </c>
       <c r="I49" s="3">
-        <v>62895700</v>
+        <v>60441400</v>
       </c>
       <c r="J49" s="3">
-        <v>59186200</v>
+        <v>56876700</v>
       </c>
       <c r="K49" s="3">
         <v>58222000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12309500</v>
+        <v>11829200</v>
       </c>
       <c r="E52" s="3">
-        <v>11751100</v>
+        <v>11292600</v>
       </c>
       <c r="F52" s="3">
-        <v>5967900</v>
+        <v>5735100</v>
       </c>
       <c r="G52" s="3">
-        <v>5981400</v>
+        <v>5748000</v>
       </c>
       <c r="H52" s="3">
-        <v>5015100</v>
+        <v>4819400</v>
       </c>
       <c r="I52" s="3">
-        <v>6101800</v>
+        <v>5863700</v>
       </c>
       <c r="J52" s="3">
-        <v>5938900</v>
+        <v>5707100</v>
       </c>
       <c r="K52" s="3">
         <v>6187500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>292301000</v>
+        <v>280895000</v>
       </c>
       <c r="E54" s="3">
-        <v>274957000</v>
+        <v>264228000</v>
       </c>
       <c r="F54" s="3">
-        <v>177141000</v>
+        <v>170228000</v>
       </c>
       <c r="G54" s="3">
-        <v>150885000</v>
+        <v>144997000</v>
       </c>
       <c r="H54" s="3">
-        <v>146691000</v>
+        <v>140967000</v>
       </c>
       <c r="I54" s="3">
-        <v>154113000</v>
+        <v>148099000</v>
       </c>
       <c r="J54" s="3">
-        <v>149375000</v>
+        <v>143546000</v>
       </c>
       <c r="K54" s="3">
         <v>146060000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10790000</v>
+        <v>10369000</v>
       </c>
       <c r="E57" s="3">
-        <v>10058300</v>
+        <v>9665800</v>
       </c>
       <c r="F57" s="3">
-        <v>9766600</v>
+        <v>9385500</v>
       </c>
       <c r="G57" s="3">
-        <v>11104500</v>
+        <v>10671200</v>
       </c>
       <c r="H57" s="3">
-        <v>11348400</v>
+        <v>10905600</v>
       </c>
       <c r="I57" s="3">
-        <v>10781700</v>
+        <v>10361000</v>
       </c>
       <c r="J57" s="3">
-        <v>11455300</v>
+        <v>11008300</v>
       </c>
       <c r="K57" s="3">
         <v>10874400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16333400</v>
+        <v>15696100</v>
       </c>
       <c r="E58" s="3">
-        <v>16722600</v>
+        <v>16070100</v>
       </c>
       <c r="F58" s="3">
-        <v>13506200</v>
+        <v>12979200</v>
       </c>
       <c r="G58" s="3">
-        <v>8943600</v>
+        <v>8594600</v>
       </c>
       <c r="H58" s="3">
-        <v>7215500</v>
+        <v>6933900</v>
       </c>
       <c r="I58" s="3">
-        <v>11786400</v>
+        <v>11326500</v>
       </c>
       <c r="J58" s="3">
-        <v>13046400</v>
+        <v>12537300</v>
       </c>
       <c r="K58" s="3">
         <v>9269900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13150200</v>
+        <v>12637100</v>
       </c>
       <c r="E59" s="3">
-        <v>11761500</v>
+        <v>11302500</v>
       </c>
       <c r="F59" s="3">
-        <v>10887600</v>
+        <v>10462700</v>
       </c>
       <c r="G59" s="3">
-        <v>10200500</v>
+        <v>9802400</v>
       </c>
       <c r="H59" s="3">
-        <v>9839300</v>
+        <v>9455400</v>
       </c>
       <c r="I59" s="3">
-        <v>11813400</v>
+        <v>11352400</v>
       </c>
       <c r="J59" s="3">
-        <v>10317800</v>
+        <v>9915200</v>
       </c>
       <c r="K59" s="3">
         <v>11694100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40273600</v>
+        <v>38702100</v>
       </c>
       <c r="E60" s="3">
-        <v>38542400</v>
+        <v>37038400</v>
       </c>
       <c r="F60" s="3">
-        <v>34160400</v>
+        <v>32827400</v>
       </c>
       <c r="G60" s="3">
-        <v>30248600</v>
+        <v>29068200</v>
       </c>
       <c r="H60" s="3">
-        <v>28403200</v>
+        <v>27294800</v>
       </c>
       <c r="I60" s="3">
-        <v>34381500</v>
+        <v>33039900</v>
       </c>
       <c r="J60" s="3">
-        <v>34819500</v>
+        <v>33460800</v>
       </c>
       <c r="K60" s="3">
         <v>31838400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>131119000</v>
+        <v>126003000</v>
       </c>
       <c r="E61" s="3">
-        <v>125735000</v>
+        <v>120829000</v>
       </c>
       <c r="F61" s="3">
-        <v>72704900</v>
+        <v>69867900</v>
       </c>
       <c r="G61" s="3">
-        <v>52903800</v>
+        <v>50839500</v>
       </c>
       <c r="H61" s="3">
-        <v>50151300</v>
+        <v>48194400</v>
       </c>
       <c r="I61" s="3">
-        <v>51658400</v>
+        <v>49642600</v>
       </c>
       <c r="J61" s="3">
-        <v>48979500</v>
+        <v>47068300</v>
       </c>
       <c r="K61" s="3">
         <v>49657800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36351400</v>
+        <v>34932900</v>
       </c>
       <c r="E62" s="3">
-        <v>35379900</v>
+        <v>33999400</v>
       </c>
       <c r="F62" s="3">
-        <v>22292000</v>
+        <v>21422200</v>
       </c>
       <c r="G62" s="3">
-        <v>22649100</v>
+        <v>21765300</v>
       </c>
       <c r="H62" s="3">
-        <v>24056400</v>
+        <v>23117700</v>
       </c>
       <c r="I62" s="3">
-        <v>27755500</v>
+        <v>26672500</v>
       </c>
       <c r="J62" s="3">
-        <v>25979700</v>
+        <v>24965900</v>
       </c>
       <c r="K62" s="3">
         <v>26100300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>248004000</v>
+        <v>238327000</v>
       </c>
       <c r="E66" s="3">
-        <v>237674000</v>
+        <v>228400000</v>
       </c>
       <c r="F66" s="3">
-        <v>144232000</v>
+        <v>138604000</v>
       </c>
       <c r="G66" s="3">
-        <v>118806000</v>
+        <v>114170000</v>
       </c>
       <c r="H66" s="3">
-        <v>114793000</v>
+        <v>110313000</v>
       </c>
       <c r="I66" s="3">
-        <v>123697000</v>
+        <v>118870000</v>
       </c>
       <c r="J66" s="3">
-        <v>118860000</v>
+        <v>114222000</v>
       </c>
       <c r="K66" s="3">
         <v>117340000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-33401700</v>
+        <v>-32098300</v>
       </c>
       <c r="E72" s="3">
-        <v>-36063900</v>
+        <v>-34656700</v>
       </c>
       <c r="F72" s="3">
-        <v>-36162500</v>
+        <v>-34751400</v>
       </c>
       <c r="G72" s="3">
-        <v>-36561100</v>
+        <v>-35134400</v>
       </c>
       <c r="H72" s="3">
-        <v>-36626500</v>
+        <v>-35197200</v>
       </c>
       <c r="I72" s="3">
-        <v>-37418400</v>
+        <v>-35958300</v>
       </c>
       <c r="J72" s="3">
-        <v>-37068600</v>
+        <v>-35622100</v>
       </c>
       <c r="K72" s="3">
         <v>-41617500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44296500</v>
+        <v>42568000</v>
       </c>
       <c r="E76" s="3">
-        <v>37283400</v>
+        <v>35828600</v>
       </c>
       <c r="F76" s="3">
-        <v>32908700</v>
+        <v>31624600</v>
       </c>
       <c r="G76" s="3">
-        <v>32078400</v>
+        <v>30826600</v>
       </c>
       <c r="H76" s="3">
-        <v>31897800</v>
+        <v>30653100</v>
       </c>
       <c r="I76" s="3">
-        <v>30415700</v>
+        <v>29228800</v>
       </c>
       <c r="J76" s="3">
-        <v>30514300</v>
+        <v>29323600</v>
       </c>
       <c r="K76" s="3">
         <v>28720900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4334300</v>
+        <v>4165100</v>
       </c>
       <c r="E81" s="3">
-        <v>4315600</v>
+        <v>4147200</v>
       </c>
       <c r="F81" s="3">
-        <v>4013600</v>
+        <v>3856900</v>
       </c>
       <c r="G81" s="3">
-        <v>2248100</v>
+        <v>2160400</v>
       </c>
       <c r="H81" s="3">
-        <v>3592200</v>
+        <v>3452000</v>
       </c>
       <c r="I81" s="3">
-        <v>2776400</v>
+        <v>2668000</v>
       </c>
       <c r="J81" s="3">
-        <v>3377300</v>
+        <v>3245500</v>
       </c>
       <c r="K81" s="3">
         <v>3301500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28224700</v>
+        <v>27123300</v>
       </c>
       <c r="E83" s="3">
-        <v>25821900</v>
+        <v>24814300</v>
       </c>
       <c r="F83" s="3">
-        <v>18001300</v>
+        <v>17298900</v>
       </c>
       <c r="G83" s="3">
-        <v>14360400</v>
+        <v>13800000</v>
       </c>
       <c r="H83" s="3">
-        <v>15138800</v>
+        <v>14548100</v>
       </c>
       <c r="I83" s="3">
-        <v>13887100</v>
+        <v>13345200</v>
       </c>
       <c r="J83" s="3">
-        <v>11790500</v>
+        <v>11330500</v>
       </c>
       <c r="K83" s="3">
         <v>11939100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33460900</v>
+        <v>32155200</v>
       </c>
       <c r="E89" s="3">
-        <v>24568100</v>
+        <v>23609500</v>
       </c>
       <c r="F89" s="3">
-        <v>23948500</v>
+        <v>23014000</v>
       </c>
       <c r="G89" s="3">
-        <v>18619900</v>
+        <v>17893400</v>
       </c>
       <c r="H89" s="3">
-        <v>17850800</v>
+        <v>17154300</v>
       </c>
       <c r="I89" s="3">
-        <v>16118600</v>
+        <v>15489600</v>
       </c>
       <c r="J89" s="3">
-        <v>15566400</v>
+        <v>14959000</v>
       </c>
       <c r="K89" s="3">
         <v>15158200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14132000</v>
+        <v>-13580600</v>
       </c>
       <c r="E91" s="3">
-        <v>-13428400</v>
+        <v>-12904400</v>
       </c>
       <c r="F91" s="3">
-        <v>-10360300</v>
+        <v>-9956000</v>
       </c>
       <c r="G91" s="3">
-        <v>-9485400</v>
+        <v>-9115200</v>
       </c>
       <c r="H91" s="3">
-        <v>-9495700</v>
+        <v>-9125200</v>
       </c>
       <c r="I91" s="3">
-        <v>-8341600</v>
+        <v>-8016100</v>
       </c>
       <c r="J91" s="3">
-        <v>-8476500</v>
+        <v>-8145800</v>
       </c>
       <c r="K91" s="3">
         <v>-8113700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28441600</v>
+        <v>-27331800</v>
       </c>
       <c r="E94" s="3">
-        <v>-23507400</v>
+        <v>-22590100</v>
       </c>
       <c r="F94" s="3">
-        <v>-14769300</v>
+        <v>-14193000</v>
       </c>
       <c r="G94" s="3">
-        <v>-14838900</v>
+        <v>-14259800</v>
       </c>
       <c r="H94" s="3">
-        <v>-17451300</v>
+        <v>-16770300</v>
       </c>
       <c r="I94" s="3">
-        <v>-14123700</v>
+        <v>-13572600</v>
       </c>
       <c r="J94" s="3">
-        <v>-15584100</v>
+        <v>-14976000</v>
       </c>
       <c r="K94" s="3">
         <v>-12150200</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3264200</v>
+        <v>-3136800</v>
       </c>
       <c r="E96" s="3">
-        <v>-3183200</v>
+        <v>-3059000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3696000</v>
+        <v>-3551700</v>
       </c>
       <c r="G96" s="3">
-        <v>-3198800</v>
+        <v>-3074000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1618100</v>
+        <v>-1554900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1656500</v>
+        <v>-1591900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1303600</v>
+        <v>-1252700</v>
       </c>
       <c r="K96" s="3">
         <v>-1456500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11187500</v>
+        <v>-10751000</v>
       </c>
       <c r="E100" s="3">
-        <v>7847600</v>
+        <v>7541300</v>
       </c>
       <c r="F100" s="3">
-        <v>-7411600</v>
+        <v>-7122400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3382500</v>
+        <v>-3250500</v>
       </c>
       <c r="H100" s="3">
-        <v>-4768100</v>
+        <v>-4582100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1372100</v>
+        <v>-1318600</v>
       </c>
       <c r="J100" s="3">
-        <v>-909200</v>
+        <v>-873700</v>
       </c>
       <c r="K100" s="3">
         <v>-3877300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>643500</v>
+        <v>618400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1075300</v>
+        <v>-1033300</v>
       </c>
       <c r="F101" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="G101" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="H101" s="3">
-        <v>-234600</v>
+        <v>-225400</v>
       </c>
       <c r="I101" s="3">
-        <v>259500</v>
+        <v>249400</v>
       </c>
       <c r="J101" s="3">
-        <v>277100</v>
+        <v>266300</v>
       </c>
       <c r="K101" s="3">
         <v>364700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5524700</v>
+        <v>-5309200</v>
       </c>
       <c r="E102" s="3">
-        <v>7833000</v>
+        <v>7527400</v>
       </c>
       <c r="F102" s="3">
-        <v>1779000</v>
+        <v>1709500</v>
       </c>
       <c r="G102" s="3">
-        <v>380900</v>
+        <v>366000</v>
       </c>
       <c r="H102" s="3">
-        <v>-4603100</v>
+        <v>-4423500</v>
       </c>
       <c r="I102" s="3">
-        <v>882200</v>
+        <v>847800</v>
       </c>
       <c r="J102" s="3">
-        <v>-649700</v>
+        <v>-624400</v>
       </c>
       <c r="K102" s="3">
         <v>-504700</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>108511100</v>
+        <v>111056900</v>
       </c>
       <c r="E8" s="3">
-        <v>100736400</v>
+        <v>103099800</v>
       </c>
       <c r="F8" s="3">
-        <v>80321600</v>
+        <v>82206000</v>
       </c>
       <c r="G8" s="3">
-        <v>75459300</v>
+        <v>77229600</v>
       </c>
       <c r="H8" s="3">
-        <v>74752100</v>
+        <v>76505900</v>
       </c>
       <c r="I8" s="3">
-        <v>72905000</v>
+        <v>74615400</v>
       </c>
       <c r="J8" s="3">
-        <v>69048000</v>
+        <v>70667900</v>
       </c>
       <c r="K8" s="3">
         <v>70747100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46699300</v>
+        <v>47794900</v>
       </c>
       <c r="E9" s="3">
-        <v>41806000</v>
+        <v>42786800</v>
       </c>
       <c r="F9" s="3">
-        <v>34419300</v>
+        <v>35226800</v>
       </c>
       <c r="G9" s="3">
-        <v>35648100</v>
+        <v>36484400</v>
       </c>
       <c r="H9" s="3">
-        <v>35754800</v>
+        <v>36593600</v>
       </c>
       <c r="I9" s="3">
-        <v>34893000</v>
+        <v>35711700</v>
       </c>
       <c r="J9" s="3">
-        <v>41865900</v>
+        <v>42848100</v>
       </c>
       <c r="K9" s="3">
         <v>43514400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>61811900</v>
+        <v>63262000</v>
       </c>
       <c r="E10" s="3">
-        <v>58930400</v>
+        <v>60312900</v>
       </c>
       <c r="F10" s="3">
-        <v>45902300</v>
+        <v>46979300</v>
       </c>
       <c r="G10" s="3">
-        <v>39811200</v>
+        <v>40745200</v>
       </c>
       <c r="H10" s="3">
-        <v>38997300</v>
+        <v>39912300</v>
       </c>
       <c r="I10" s="3">
-        <v>38011900</v>
+        <v>38903700</v>
       </c>
       <c r="J10" s="3">
-        <v>27182100</v>
+        <v>27819900</v>
       </c>
       <c r="K10" s="3">
         <v>27232800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>840800</v>
+        <v>860500</v>
       </c>
       <c r="E14" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="F14" s="3">
-        <v>733100</v>
+        <v>750300</v>
       </c>
       <c r="G14" s="3">
-        <v>1200900</v>
+        <v>1229000</v>
       </c>
       <c r="H14" s="3">
-        <v>489700</v>
+        <v>501200</v>
       </c>
       <c r="I14" s="3">
-        <v>673200</v>
+        <v>689000</v>
       </c>
       <c r="J14" s="3">
-        <v>147600</v>
+        <v>151100</v>
       </c>
       <c r="K14" s="3">
         <v>134400</v>
@@ -974,22 +974,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>27127300</v>
+        <v>27763700</v>
       </c>
       <c r="E15" s="3">
-        <v>24965900</v>
+        <v>25551600</v>
       </c>
       <c r="F15" s="3">
-        <v>17225100</v>
+        <v>17629200</v>
       </c>
       <c r="G15" s="3">
-        <v>13079900</v>
+        <v>13386800</v>
       </c>
       <c r="H15" s="3">
-        <v>12397700</v>
+        <v>12688500</v>
       </c>
       <c r="I15" s="3">
-        <v>12655000</v>
+        <v>12951900</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>95501100</v>
+        <v>97741600</v>
       </c>
       <c r="E17" s="3">
-        <v>87965700</v>
+        <v>90029500</v>
       </c>
       <c r="F17" s="3">
-        <v>70889200</v>
+        <v>72552300</v>
       </c>
       <c r="G17" s="3">
-        <v>67454200</v>
+        <v>69036700</v>
       </c>
       <c r="H17" s="3">
-        <v>65393500</v>
+        <v>66927700</v>
       </c>
       <c r="I17" s="3">
-        <v>63764800</v>
+        <v>65260800</v>
       </c>
       <c r="J17" s="3">
-        <v>62038300</v>
+        <v>63493800</v>
       </c>
       <c r="K17" s="3">
         <v>62564600</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13010100</v>
+        <v>13315300</v>
       </c>
       <c r="E18" s="3">
-        <v>12770700</v>
+        <v>13070300</v>
       </c>
       <c r="F18" s="3">
-        <v>9432400</v>
+        <v>9653700</v>
       </c>
       <c r="G18" s="3">
-        <v>8005100</v>
+        <v>8192900</v>
       </c>
       <c r="H18" s="3">
-        <v>9358600</v>
+        <v>9578200</v>
       </c>
       <c r="I18" s="3">
-        <v>9140200</v>
+        <v>9354600</v>
       </c>
       <c r="J18" s="3">
-        <v>7009700</v>
+        <v>7174200</v>
       </c>
       <c r="K18" s="3">
         <v>8182600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-73800</v>
+        <v>-75500</v>
       </c>
       <c r="E20" s="3">
-        <v>509700</v>
+        <v>521600</v>
       </c>
       <c r="F20" s="3">
-        <v>513700</v>
+        <v>525700</v>
       </c>
       <c r="G20" s="3">
-        <v>-777000</v>
+        <v>-795200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1867100</v>
+        <v>-1910900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1897100</v>
+        <v>-1941600</v>
       </c>
       <c r="J20" s="3">
-        <v>358100</v>
+        <v>366500</v>
       </c>
       <c r="K20" s="3">
         <v>-262000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>40035100</v>
+        <v>40463700</v>
       </c>
       <c r="E21" s="3">
-        <v>38072300</v>
+        <v>38498300</v>
       </c>
       <c r="F21" s="3">
-        <v>27229400</v>
+        <v>27542500</v>
       </c>
       <c r="G21" s="3">
-        <v>21015700</v>
+        <v>21249000</v>
       </c>
       <c r="H21" s="3">
-        <v>22026400</v>
+        <v>22269300</v>
       </c>
       <c r="I21" s="3">
-        <v>20576300</v>
+        <v>20807800</v>
       </c>
       <c r="J21" s="3">
-        <v>18688000</v>
+        <v>18913100</v>
       </c>
       <c r="K21" s="3">
         <v>19887200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5038900</v>
+        <v>5157100</v>
       </c>
       <c r="E22" s="3">
-        <v>4625900</v>
+        <v>4734500</v>
       </c>
       <c r="F22" s="3">
-        <v>2704900</v>
+        <v>2768400</v>
       </c>
       <c r="G22" s="3">
-        <v>2088600</v>
+        <v>2137600</v>
       </c>
       <c r="H22" s="3">
-        <v>2510500</v>
+        <v>2569400</v>
       </c>
       <c r="I22" s="3">
-        <v>2707900</v>
+        <v>2771500</v>
       </c>
       <c r="J22" s="3">
-        <v>2602200</v>
+        <v>2663300</v>
       </c>
       <c r="K22" s="3">
         <v>3009100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7897400</v>
+        <v>8082700</v>
       </c>
       <c r="E23" s="3">
-        <v>8654400</v>
+        <v>8857500</v>
       </c>
       <c r="F23" s="3">
-        <v>7241100</v>
+        <v>7411000</v>
       </c>
       <c r="G23" s="3">
-        <v>5139600</v>
+        <v>5260200</v>
       </c>
       <c r="H23" s="3">
-        <v>4981000</v>
+        <v>5097900</v>
       </c>
       <c r="I23" s="3">
-        <v>4535200</v>
+        <v>4641600</v>
       </c>
       <c r="J23" s="3">
-        <v>4765600</v>
+        <v>4877400</v>
       </c>
       <c r="K23" s="3">
         <v>4911600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1810300</v>
+        <v>1852800</v>
       </c>
       <c r="E24" s="3">
-        <v>1924000</v>
+        <v>1969100</v>
       </c>
       <c r="F24" s="3">
-        <v>1987800</v>
+        <v>2034500</v>
       </c>
       <c r="G24" s="3">
-        <v>1819300</v>
+        <v>1861900</v>
       </c>
       <c r="H24" s="3">
-        <v>-556500</v>
+        <v>-569600</v>
       </c>
       <c r="I24" s="3">
-        <v>1439200</v>
+        <v>1473000</v>
       </c>
       <c r="J24" s="3">
-        <v>1272700</v>
+        <v>1302500</v>
       </c>
       <c r="K24" s="3">
         <v>1248800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6087100</v>
+        <v>6229900</v>
       </c>
       <c r="E26" s="3">
-        <v>6730500</v>
+        <v>6888400</v>
       </c>
       <c r="F26" s="3">
-        <v>5253300</v>
+        <v>5376600</v>
       </c>
       <c r="G26" s="3">
-        <v>3320300</v>
+        <v>3398200</v>
       </c>
       <c r="H26" s="3">
-        <v>5537600</v>
+        <v>5667500</v>
       </c>
       <c r="I26" s="3">
-        <v>3095900</v>
+        <v>3168600</v>
       </c>
       <c r="J26" s="3">
-        <v>3492900</v>
+        <v>3574800</v>
       </c>
       <c r="K26" s="3">
         <v>3662800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4165100</v>
+        <v>4262900</v>
       </c>
       <c r="E27" s="3">
-        <v>4147200</v>
+        <v>4244500</v>
       </c>
       <c r="F27" s="3">
-        <v>3856900</v>
+        <v>3947400</v>
       </c>
       <c r="G27" s="3">
-        <v>2160400</v>
+        <v>2211100</v>
       </c>
       <c r="H27" s="3">
-        <v>3452000</v>
+        <v>3533000</v>
       </c>
       <c r="I27" s="3">
-        <v>2668000</v>
+        <v>2730600</v>
       </c>
       <c r="J27" s="3">
-        <v>3245500</v>
+        <v>3321700</v>
       </c>
       <c r="K27" s="3">
         <v>3301500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>73800</v>
+        <v>75500</v>
       </c>
       <c r="E32" s="3">
-        <v>-509700</v>
+        <v>-521600</v>
       </c>
       <c r="F32" s="3">
-        <v>-513700</v>
+        <v>-525700</v>
       </c>
       <c r="G32" s="3">
-        <v>777000</v>
+        <v>795200</v>
       </c>
       <c r="H32" s="3">
-        <v>1867100</v>
+        <v>1910900</v>
       </c>
       <c r="I32" s="3">
-        <v>1897100</v>
+        <v>1941600</v>
       </c>
       <c r="J32" s="3">
-        <v>-358100</v>
+        <v>-366500</v>
       </c>
       <c r="K32" s="3">
         <v>262000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4165100</v>
+        <v>4262900</v>
       </c>
       <c r="E33" s="3">
-        <v>4147200</v>
+        <v>4244500</v>
       </c>
       <c r="F33" s="3">
-        <v>3856900</v>
+        <v>3947400</v>
       </c>
       <c r="G33" s="3">
-        <v>2160400</v>
+        <v>2211100</v>
       </c>
       <c r="H33" s="3">
-        <v>3452000</v>
+        <v>3533000</v>
       </c>
       <c r="I33" s="3">
-        <v>2668000</v>
+        <v>2730600</v>
       </c>
       <c r="J33" s="3">
-        <v>3245500</v>
+        <v>3321700</v>
       </c>
       <c r="K33" s="3">
         <v>3301500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4165100</v>
+        <v>4262900</v>
       </c>
       <c r="E35" s="3">
-        <v>4147200</v>
+        <v>4244500</v>
       </c>
       <c r="F35" s="3">
-        <v>3856900</v>
+        <v>3947400</v>
       </c>
       <c r="G35" s="3">
-        <v>2160400</v>
+        <v>2211100</v>
       </c>
       <c r="H35" s="3">
-        <v>3452000</v>
+        <v>3533000</v>
       </c>
       <c r="I35" s="3">
-        <v>2668000</v>
+        <v>2730600</v>
       </c>
       <c r="J35" s="3">
-        <v>3245500</v>
+        <v>3321700</v>
       </c>
       <c r="K35" s="3">
         <v>3301500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7597200</v>
+        <v>7775400</v>
       </c>
       <c r="E41" s="3">
-        <v>12905400</v>
+        <v>13208100</v>
       </c>
       <c r="F41" s="3">
-        <v>5379000</v>
+        <v>5505200</v>
       </c>
       <c r="G41" s="3">
-        <v>3669400</v>
+        <v>3755500</v>
       </c>
       <c r="H41" s="3">
-        <v>3303400</v>
+        <v>3380900</v>
       </c>
       <c r="I41" s="3">
-        <v>7726900</v>
+        <v>7908100</v>
       </c>
       <c r="J41" s="3">
-        <v>6879100</v>
+        <v>7040500</v>
       </c>
       <c r="K41" s="3">
         <v>8494200</v>
@@ -1863,16 +1863,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92800</v>
+        <v>94900</v>
       </c>
       <c r="E42" s="3">
-        <v>92800</v>
+        <v>94900</v>
       </c>
       <c r="F42" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="G42" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>2000</v>
       </c>
       <c r="J42" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K42" s="3">
         <v>3400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21367300</v>
+        <v>21868600</v>
       </c>
       <c r="E43" s="3">
-        <v>18874800</v>
+        <v>19317600</v>
       </c>
       <c r="F43" s="3">
-        <v>16297500</v>
+        <v>16679900</v>
       </c>
       <c r="G43" s="3">
-        <v>14890200</v>
+        <v>15239500</v>
       </c>
       <c r="H43" s="3">
-        <v>12940300</v>
+        <v>13243900</v>
       </c>
       <c r="I43" s="3">
-        <v>14645800</v>
+        <v>14989400</v>
       </c>
       <c r="J43" s="3">
-        <v>12029600</v>
+        <v>12311900</v>
       </c>
       <c r="K43" s="3">
         <v>14870200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2847600</v>
+        <v>2914400</v>
       </c>
       <c r="E44" s="3">
-        <v>2688000</v>
+        <v>2751100</v>
       </c>
       <c r="F44" s="3">
-        <v>1563900</v>
+        <v>1600600</v>
       </c>
       <c r="G44" s="3">
-        <v>1785300</v>
+        <v>1827200</v>
       </c>
       <c r="H44" s="3">
-        <v>1979800</v>
+        <v>2026300</v>
       </c>
       <c r="I44" s="3">
-        <v>1624800</v>
+        <v>1662900</v>
       </c>
       <c r="J44" s="3">
-        <v>1842200</v>
+        <v>1885400</v>
       </c>
       <c r="K44" s="3">
         <v>1697000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6793300</v>
+        <v>6952700</v>
       </c>
       <c r="E45" s="3">
-        <v>2635100</v>
+        <v>2697000</v>
       </c>
       <c r="F45" s="3">
-        <v>1355500</v>
+        <v>1387300</v>
       </c>
       <c r="G45" s="3">
-        <v>1456200</v>
+        <v>1490400</v>
       </c>
       <c r="H45" s="3">
-        <v>2115500</v>
+        <v>2165100</v>
       </c>
       <c r="I45" s="3">
-        <v>2569300</v>
+        <v>2629600</v>
       </c>
       <c r="J45" s="3">
-        <v>11345400</v>
+        <v>11611600</v>
       </c>
       <c r="K45" s="3">
         <v>8580000</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38698100</v>
+        <v>39606000</v>
       </c>
       <c r="E46" s="3">
-        <v>37196000</v>
+        <v>38068700</v>
       </c>
       <c r="F46" s="3">
-        <v>24624800</v>
+        <v>25202500</v>
       </c>
       <c r="G46" s="3">
-        <v>21813100</v>
+        <v>22324900</v>
       </c>
       <c r="H46" s="3">
-        <v>20339000</v>
+        <v>20816200</v>
       </c>
       <c r="I46" s="3">
-        <v>26568700</v>
+        <v>27192100</v>
       </c>
       <c r="J46" s="3">
-        <v>32100300</v>
+        <v>32853400</v>
       </c>
       <c r="K46" s="3">
         <v>33644900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5759000</v>
+        <v>5894100</v>
       </c>
       <c r="E47" s="3">
-        <v>6940900</v>
+        <v>7103700</v>
       </c>
       <c r="F47" s="3">
-        <v>4473300</v>
+        <v>4578300</v>
       </c>
       <c r="G47" s="3">
-        <v>2155400</v>
+        <v>2205900</v>
       </c>
       <c r="H47" s="3">
-        <v>6350400</v>
+        <v>6499400</v>
       </c>
       <c r="I47" s="3">
-        <v>8588600</v>
+        <v>8790100</v>
       </c>
       <c r="J47" s="3">
-        <v>4340700</v>
+        <v>4442500</v>
       </c>
       <c r="K47" s="3">
         <v>3275500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>92306400</v>
+        <v>94472000</v>
       </c>
       <c r="E48" s="3">
-        <v>91039700</v>
+        <v>93175600</v>
       </c>
       <c r="F48" s="3">
-        <v>67370400</v>
+        <v>68951000</v>
       </c>
       <c r="G48" s="3">
-        <v>50499400</v>
+        <v>51684100</v>
       </c>
       <c r="H48" s="3">
-        <v>46756100</v>
+        <v>47853100</v>
       </c>
       <c r="I48" s="3">
-        <v>46636400</v>
+        <v>47730600</v>
       </c>
       <c r="J48" s="3">
-        <v>44520900</v>
+        <v>45565400</v>
       </c>
       <c r="K48" s="3">
         <v>44730400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>132302000</v>
+        <v>135406000</v>
       </c>
       <c r="E49" s="3">
-        <v>117759000</v>
+        <v>120522000</v>
       </c>
       <c r="F49" s="3">
-        <v>68024700</v>
+        <v>69620600</v>
       </c>
       <c r="G49" s="3">
-        <v>64781100</v>
+        <v>66301000</v>
       </c>
       <c r="H49" s="3">
-        <v>62701600</v>
+        <v>64172600</v>
       </c>
       <c r="I49" s="3">
-        <v>60441400</v>
+        <v>61859500</v>
       </c>
       <c r="J49" s="3">
-        <v>56876700</v>
+        <v>58211100</v>
       </c>
       <c r="K49" s="3">
         <v>58222000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11829200</v>
+        <v>12106700</v>
       </c>
       <c r="E52" s="3">
-        <v>11292600</v>
+        <v>11557500</v>
       </c>
       <c r="F52" s="3">
-        <v>5735100</v>
+        <v>5869600</v>
       </c>
       <c r="G52" s="3">
-        <v>5748000</v>
+        <v>5882900</v>
       </c>
       <c r="H52" s="3">
-        <v>4819400</v>
+        <v>4932500</v>
       </c>
       <c r="I52" s="3">
-        <v>5863700</v>
+        <v>6001300</v>
       </c>
       <c r="J52" s="3">
-        <v>5707100</v>
+        <v>5841000</v>
       </c>
       <c r="K52" s="3">
         <v>6187500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>280895000</v>
+        <v>287485000</v>
       </c>
       <c r="E54" s="3">
-        <v>264228000</v>
+        <v>270427000</v>
       </c>
       <c r="F54" s="3">
-        <v>170228000</v>
+        <v>174222000</v>
       </c>
       <c r="G54" s="3">
-        <v>144997000</v>
+        <v>148399000</v>
       </c>
       <c r="H54" s="3">
-        <v>140967000</v>
+        <v>144274000</v>
       </c>
       <c r="I54" s="3">
-        <v>148099000</v>
+        <v>151574000</v>
       </c>
       <c r="J54" s="3">
-        <v>143546000</v>
+        <v>146914000</v>
       </c>
       <c r="K54" s="3">
         <v>146060000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10369000</v>
+        <v>10612200</v>
       </c>
       <c r="E57" s="3">
-        <v>9665800</v>
+        <v>9892600</v>
       </c>
       <c r="F57" s="3">
-        <v>9385500</v>
+        <v>9605700</v>
       </c>
       <c r="G57" s="3">
-        <v>10671200</v>
+        <v>10921500</v>
       </c>
       <c r="H57" s="3">
-        <v>10905600</v>
+        <v>11161400</v>
       </c>
       <c r="I57" s="3">
-        <v>10361000</v>
+        <v>10604100</v>
       </c>
       <c r="J57" s="3">
-        <v>11008300</v>
+        <v>11266600</v>
       </c>
       <c r="K57" s="3">
         <v>10874400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15696100</v>
+        <v>16064300</v>
       </c>
       <c r="E58" s="3">
-        <v>16070100</v>
+        <v>16447100</v>
       </c>
       <c r="F58" s="3">
-        <v>12979200</v>
+        <v>13283700</v>
       </c>
       <c r="G58" s="3">
-        <v>8594600</v>
+        <v>8796200</v>
       </c>
       <c r="H58" s="3">
-        <v>6933900</v>
+        <v>7096600</v>
       </c>
       <c r="I58" s="3">
-        <v>11326500</v>
+        <v>11592200</v>
       </c>
       <c r="J58" s="3">
-        <v>12537300</v>
+        <v>12831500</v>
       </c>
       <c r="K58" s="3">
         <v>9269900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12637100</v>
+        <v>12933500</v>
       </c>
       <c r="E59" s="3">
-        <v>11302500</v>
+        <v>11567700</v>
       </c>
       <c r="F59" s="3">
-        <v>10462700</v>
+        <v>10708200</v>
       </c>
       <c r="G59" s="3">
-        <v>9802400</v>
+        <v>10032400</v>
       </c>
       <c r="H59" s="3">
-        <v>9455400</v>
+        <v>9677200</v>
       </c>
       <c r="I59" s="3">
-        <v>11352400</v>
+        <v>11618700</v>
       </c>
       <c r="J59" s="3">
-        <v>9915200</v>
+        <v>10147800</v>
       </c>
       <c r="K59" s="3">
         <v>11694100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38702100</v>
+        <v>39610100</v>
       </c>
       <c r="E60" s="3">
-        <v>37038400</v>
+        <v>37907400</v>
       </c>
       <c r="F60" s="3">
-        <v>32827400</v>
+        <v>33597600</v>
       </c>
       <c r="G60" s="3">
-        <v>29068200</v>
+        <v>29750200</v>
       </c>
       <c r="H60" s="3">
-        <v>27294800</v>
+        <v>27935200</v>
       </c>
       <c r="I60" s="3">
-        <v>33039900</v>
+        <v>33815000</v>
       </c>
       <c r="J60" s="3">
-        <v>33460800</v>
+        <v>34245800</v>
       </c>
       <c r="K60" s="3">
         <v>31838400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>126003000</v>
+        <v>128959000</v>
       </c>
       <c r="E61" s="3">
-        <v>120829000</v>
+        <v>123664000</v>
       </c>
       <c r="F61" s="3">
-        <v>69867900</v>
+        <v>71507000</v>
       </c>
       <c r="G61" s="3">
-        <v>50839500</v>
+        <v>52032200</v>
       </c>
       <c r="H61" s="3">
-        <v>48194400</v>
+        <v>49325100</v>
       </c>
       <c r="I61" s="3">
-        <v>49642600</v>
+        <v>50807300</v>
       </c>
       <c r="J61" s="3">
-        <v>47068300</v>
+        <v>48172600</v>
       </c>
       <c r="K61" s="3">
         <v>49657800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34932900</v>
+        <v>35752500</v>
       </c>
       <c r="E62" s="3">
-        <v>33999400</v>
+        <v>34797000</v>
       </c>
       <c r="F62" s="3">
-        <v>21422200</v>
+        <v>21924700</v>
       </c>
       <c r="G62" s="3">
-        <v>21765300</v>
+        <v>22275900</v>
       </c>
       <c r="H62" s="3">
-        <v>23117700</v>
+        <v>23660100</v>
       </c>
       <c r="I62" s="3">
-        <v>26672500</v>
+        <v>27298200</v>
       </c>
       <c r="J62" s="3">
-        <v>24965900</v>
+        <v>25551600</v>
       </c>
       <c r="K62" s="3">
         <v>26100300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>238327000</v>
+        <v>243918000</v>
       </c>
       <c r="E66" s="3">
-        <v>228400000</v>
+        <v>233758000</v>
       </c>
       <c r="F66" s="3">
-        <v>138604000</v>
+        <v>141856000</v>
       </c>
       <c r="G66" s="3">
-        <v>114170000</v>
+        <v>116849000</v>
       </c>
       <c r="H66" s="3">
-        <v>110313000</v>
+        <v>112902000</v>
       </c>
       <c r="I66" s="3">
-        <v>118870000</v>
+        <v>121659000</v>
       </c>
       <c r="J66" s="3">
-        <v>114222000</v>
+        <v>116902000</v>
       </c>
       <c r="K66" s="3">
         <v>117340000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-32098300</v>
+        <v>-32851400</v>
       </c>
       <c r="E72" s="3">
-        <v>-34656700</v>
+        <v>-35469700</v>
       </c>
       <c r="F72" s="3">
-        <v>-34751400</v>
+        <v>-35566700</v>
       </c>
       <c r="G72" s="3">
-        <v>-35134400</v>
+        <v>-35958700</v>
       </c>
       <c r="H72" s="3">
-        <v>-35197200</v>
+        <v>-36023000</v>
       </c>
       <c r="I72" s="3">
-        <v>-35958300</v>
+        <v>-36801900</v>
       </c>
       <c r="J72" s="3">
-        <v>-35622100</v>
+        <v>-36457900</v>
       </c>
       <c r="K72" s="3">
         <v>-41617500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42568000</v>
+        <v>43566700</v>
       </c>
       <c r="E76" s="3">
-        <v>35828600</v>
+        <v>36669200</v>
       </c>
       <c r="F76" s="3">
-        <v>31624600</v>
+        <v>32366500</v>
       </c>
       <c r="G76" s="3">
-        <v>30826600</v>
+        <v>31549900</v>
       </c>
       <c r="H76" s="3">
-        <v>30653100</v>
+        <v>31372200</v>
       </c>
       <c r="I76" s="3">
-        <v>29228800</v>
+        <v>29914500</v>
       </c>
       <c r="J76" s="3">
-        <v>29323600</v>
+        <v>30011500</v>
       </c>
       <c r="K76" s="3">
         <v>28720900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4165100</v>
+        <v>4262900</v>
       </c>
       <c r="E81" s="3">
-        <v>4147200</v>
+        <v>4244500</v>
       </c>
       <c r="F81" s="3">
-        <v>3856900</v>
+        <v>3947400</v>
       </c>
       <c r="G81" s="3">
-        <v>2160400</v>
+        <v>2211100</v>
       </c>
       <c r="H81" s="3">
-        <v>3452000</v>
+        <v>3533000</v>
       </c>
       <c r="I81" s="3">
-        <v>2668000</v>
+        <v>2730600</v>
       </c>
       <c r="J81" s="3">
-        <v>3245500</v>
+        <v>3321700</v>
       </c>
       <c r="K81" s="3">
         <v>3301500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27123300</v>
+        <v>27759600</v>
       </c>
       <c r="E83" s="3">
-        <v>24814300</v>
+        <v>25396500</v>
       </c>
       <c r="F83" s="3">
-        <v>17298900</v>
+        <v>17704800</v>
       </c>
       <c r="G83" s="3">
-        <v>13800000</v>
+        <v>14123800</v>
       </c>
       <c r="H83" s="3">
-        <v>14548100</v>
+        <v>14889400</v>
       </c>
       <c r="I83" s="3">
-        <v>13345200</v>
+        <v>13658300</v>
       </c>
       <c r="J83" s="3">
-        <v>11330500</v>
+        <v>11596300</v>
       </c>
       <c r="K83" s="3">
         <v>11939100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32155200</v>
+        <v>32909600</v>
       </c>
       <c r="E89" s="3">
-        <v>23609500</v>
+        <v>24163400</v>
       </c>
       <c r="F89" s="3">
-        <v>23014000</v>
+        <v>23553900</v>
       </c>
       <c r="G89" s="3">
-        <v>17893400</v>
+        <v>18313200</v>
       </c>
       <c r="H89" s="3">
-        <v>17154300</v>
+        <v>17556700</v>
       </c>
       <c r="I89" s="3">
-        <v>15489600</v>
+        <v>15853000</v>
       </c>
       <c r="J89" s="3">
-        <v>14959000</v>
+        <v>15310000</v>
       </c>
       <c r="K89" s="3">
         <v>15158200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13580600</v>
+        <v>-13899200</v>
       </c>
       <c r="E91" s="3">
-        <v>-12904400</v>
+        <v>-13207100</v>
       </c>
       <c r="F91" s="3">
-        <v>-9956000</v>
+        <v>-10189600</v>
       </c>
       <c r="G91" s="3">
-        <v>-9115200</v>
+        <v>-9329100</v>
       </c>
       <c r="H91" s="3">
-        <v>-9125200</v>
+        <v>-9339300</v>
       </c>
       <c r="I91" s="3">
-        <v>-8016100</v>
+        <v>-8204200</v>
       </c>
       <c r="J91" s="3">
-        <v>-8145800</v>
+        <v>-8336900</v>
       </c>
       <c r="K91" s="3">
         <v>-8113700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27331800</v>
+        <v>-27973000</v>
       </c>
       <c r="E94" s="3">
-        <v>-22590100</v>
+        <v>-23120100</v>
       </c>
       <c r="F94" s="3">
-        <v>-14193000</v>
+        <v>-14526000</v>
       </c>
       <c r="G94" s="3">
-        <v>-14259800</v>
+        <v>-14594400</v>
       </c>
       <c r="H94" s="3">
-        <v>-16770300</v>
+        <v>-17163700</v>
       </c>
       <c r="I94" s="3">
-        <v>-13572600</v>
+        <v>-13891000</v>
       </c>
       <c r="J94" s="3">
-        <v>-14976000</v>
+        <v>-15327300</v>
       </c>
       <c r="K94" s="3">
         <v>-12150200</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3136800</v>
+        <v>-3210400</v>
       </c>
       <c r="E96" s="3">
-        <v>-3059000</v>
+        <v>-3130800</v>
       </c>
       <c r="F96" s="3">
-        <v>-3551700</v>
+        <v>-3635100</v>
       </c>
       <c r="G96" s="3">
-        <v>-3074000</v>
+        <v>-3146100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1554900</v>
+        <v>-1591400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1591900</v>
+        <v>-1629200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1252700</v>
+        <v>-1282100</v>
       </c>
       <c r="K96" s="3">
         <v>-1456500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10751000</v>
+        <v>-11003200</v>
       </c>
       <c r="E100" s="3">
-        <v>7541300</v>
+        <v>7718300</v>
       </c>
       <c r="F100" s="3">
-        <v>-7122400</v>
+        <v>-7289500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3250500</v>
+        <v>-3326800</v>
       </c>
       <c r="H100" s="3">
-        <v>-4582100</v>
+        <v>-4689600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1318600</v>
+        <v>-1349500</v>
       </c>
       <c r="J100" s="3">
-        <v>-873700</v>
+        <v>-894200</v>
       </c>
       <c r="K100" s="3">
         <v>-3877300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>618400</v>
+        <v>632900</v>
       </c>
       <c r="E101" s="3">
-        <v>-1033300</v>
+        <v>-1057500</v>
       </c>
       <c r="F101" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="G101" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="H101" s="3">
-        <v>-225400</v>
+        <v>-230700</v>
       </c>
       <c r="I101" s="3">
-        <v>249400</v>
+        <v>255200</v>
       </c>
       <c r="J101" s="3">
-        <v>266300</v>
+        <v>272600</v>
       </c>
       <c r="K101" s="3">
         <v>364700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5309200</v>
+        <v>-5433700</v>
       </c>
       <c r="E102" s="3">
-        <v>7527400</v>
+        <v>7704000</v>
       </c>
       <c r="F102" s="3">
-        <v>1709500</v>
+        <v>1749700</v>
       </c>
       <c r="G102" s="3">
-        <v>366000</v>
+        <v>374600</v>
       </c>
       <c r="H102" s="3">
-        <v>-4423500</v>
+        <v>-4527200</v>
       </c>
       <c r="I102" s="3">
-        <v>847800</v>
+        <v>867700</v>
       </c>
       <c r="J102" s="3">
-        <v>-624400</v>
+        <v>-639000</v>
       </c>
       <c r="K102" s="3">
         <v>-504700</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>DTEGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>111056900</v>
+        <v>120820400</v>
       </c>
       <c r="E8" s="3">
-        <v>103099800</v>
+        <v>113851400</v>
       </c>
       <c r="F8" s="3">
-        <v>82206000</v>
+        <v>106856900</v>
       </c>
       <c r="G8" s="3">
-        <v>77229600</v>
+        <v>85201800</v>
       </c>
       <c r="H8" s="3">
-        <v>76505900</v>
+        <v>80044000</v>
       </c>
       <c r="I8" s="3">
-        <v>74615400</v>
+        <v>79293900</v>
       </c>
       <c r="J8" s="3">
+        <v>77334500</v>
+      </c>
+      <c r="K8" s="3">
         <v>70667900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70747100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71929900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63869600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68847500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47794900</v>
+        <v>52950800</v>
       </c>
       <c r="E9" s="3">
-        <v>42786800</v>
+        <v>49286900</v>
       </c>
       <c r="F9" s="3">
-        <v>35226800</v>
+        <v>44346100</v>
       </c>
       <c r="G9" s="3">
-        <v>36484400</v>
+        <v>36510500</v>
       </c>
       <c r="H9" s="3">
-        <v>36593600</v>
+        <v>37814000</v>
       </c>
       <c r="I9" s="3">
-        <v>35711700</v>
+        <v>37927200</v>
       </c>
       <c r="J9" s="3">
+        <v>37013100</v>
+      </c>
+      <c r="K9" s="3">
         <v>42848100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43514400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43368200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37613100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39774600</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>63262000</v>
+        <v>67869600</v>
       </c>
       <c r="E10" s="3">
-        <v>60312900</v>
+        <v>64564500</v>
       </c>
       <c r="F10" s="3">
-        <v>46979300</v>
+        <v>62510900</v>
       </c>
       <c r="G10" s="3">
-        <v>40745200</v>
+        <v>48691300</v>
       </c>
       <c r="H10" s="3">
-        <v>39912300</v>
+        <v>42230100</v>
       </c>
       <c r="I10" s="3">
-        <v>38903700</v>
+        <v>41366700</v>
       </c>
       <c r="J10" s="3">
+        <v>40321400</v>
+      </c>
+      <c r="K10" s="3">
         <v>27819900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27232800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28561700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26256500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29072900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,71 +944,77 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>860500</v>
+        <v>-540600</v>
       </c>
       <c r="E14" s="3">
-        <v>180700</v>
+        <v>889800</v>
       </c>
       <c r="F14" s="3">
-        <v>750300</v>
+        <v>187300</v>
       </c>
       <c r="G14" s="3">
-        <v>1229000</v>
+        <v>777600</v>
       </c>
       <c r="H14" s="3">
-        <v>501200</v>
+        <v>1273800</v>
       </c>
       <c r="I14" s="3">
-        <v>689000</v>
+        <v>519500</v>
       </c>
       <c r="J14" s="3">
+        <v>714200</v>
+      </c>
+      <c r="K14" s="3">
         <v>151100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>134400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>978500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>24202100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3917000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>27763700</v>
+        <v>28217900</v>
       </c>
       <c r="E15" s="3">
-        <v>25551600</v>
+        <v>28775500</v>
       </c>
       <c r="F15" s="3">
-        <v>17629200</v>
+        <v>26482800</v>
       </c>
       <c r="G15" s="3">
-        <v>13386800</v>
+        <v>18271700</v>
       </c>
       <c r="H15" s="3">
-        <v>12688500</v>
+        <v>13874600</v>
       </c>
       <c r="I15" s="3">
-        <v>12951900</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+        <v>13150900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>13423900</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>97741600</v>
+        <v>104512400</v>
       </c>
       <c r="E17" s="3">
-        <v>90029500</v>
+        <v>100555500</v>
       </c>
       <c r="F17" s="3">
-        <v>72552300</v>
+        <v>93310300</v>
       </c>
       <c r="G17" s="3">
-        <v>69036700</v>
+        <v>75196300</v>
       </c>
       <c r="H17" s="3">
-        <v>66927700</v>
+        <v>71552500</v>
       </c>
       <c r="I17" s="3">
-        <v>65260800</v>
+        <v>69366700</v>
       </c>
       <c r="J17" s="3">
+        <v>67639000</v>
+      </c>
+      <c r="K17" s="3">
         <v>63493800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62564600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>66032600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68219800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62290600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13315300</v>
+        <v>16308000</v>
       </c>
       <c r="E18" s="3">
-        <v>13070300</v>
+        <v>13295900</v>
       </c>
       <c r="F18" s="3">
-        <v>9653700</v>
+        <v>13546600</v>
       </c>
       <c r="G18" s="3">
-        <v>8192900</v>
+        <v>10005500</v>
       </c>
       <c r="H18" s="3">
-        <v>9578200</v>
+        <v>8491500</v>
       </c>
       <c r="I18" s="3">
-        <v>9354600</v>
+        <v>9927200</v>
       </c>
       <c r="J18" s="3">
+        <v>9695500</v>
+      </c>
+      <c r="K18" s="3">
         <v>7174200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8182600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5897300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4350300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6556900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-75500</v>
+        <v>1314000</v>
       </c>
       <c r="E20" s="3">
-        <v>521600</v>
+        <v>93100</v>
       </c>
       <c r="F20" s="3">
-        <v>525700</v>
+        <v>540600</v>
       </c>
       <c r="G20" s="3">
-        <v>-795200</v>
+        <v>544900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1910900</v>
+        <v>-824200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1941600</v>
+        <v>-1980600</v>
       </c>
       <c r="J20" s="3">
+        <v>-2012300</v>
+      </c>
+      <c r="K20" s="3">
         <v>366500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-262000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-492800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-80200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>30500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>40463700</v>
+        <v>45723900</v>
       </c>
       <c r="E21" s="3">
-        <v>38498300</v>
+        <v>42062300</v>
       </c>
       <c r="F21" s="3">
-        <v>27542500</v>
+        <v>40319700</v>
       </c>
       <c r="G21" s="3">
-        <v>21249000</v>
+        <v>28837900</v>
       </c>
       <c r="H21" s="3">
-        <v>22269300</v>
+        <v>22256000</v>
       </c>
       <c r="I21" s="3">
-        <v>20807800</v>
+        <v>23326100</v>
       </c>
       <c r="J21" s="3">
+        <v>21791100</v>
+      </c>
+      <c r="K21" s="3">
         <v>18913100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19887200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18394400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19715700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23544100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5157100</v>
+        <v>6008400</v>
       </c>
       <c r="E22" s="3">
-        <v>4734500</v>
+        <v>5318600</v>
       </c>
       <c r="F22" s="3">
-        <v>2768400</v>
+        <v>4907000</v>
       </c>
       <c r="G22" s="3">
-        <v>2137600</v>
+        <v>2869300</v>
       </c>
       <c r="H22" s="3">
-        <v>2569400</v>
+        <v>2215500</v>
       </c>
       <c r="I22" s="3">
-        <v>2771500</v>
+        <v>2663000</v>
       </c>
       <c r="J22" s="3">
+        <v>2872500</v>
+      </c>
+      <c r="K22" s="3">
         <v>2663300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3009100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2858900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2568200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3043700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8082700</v>
+        <v>11613700</v>
       </c>
       <c r="E23" s="3">
-        <v>8857500</v>
+        <v>8070400</v>
       </c>
       <c r="F23" s="3">
-        <v>7411000</v>
+        <v>9180300</v>
       </c>
       <c r="G23" s="3">
-        <v>5260200</v>
+        <v>7681100</v>
       </c>
       <c r="H23" s="3">
-        <v>5097900</v>
+        <v>5451900</v>
       </c>
       <c r="I23" s="3">
-        <v>4641600</v>
+        <v>5283700</v>
       </c>
       <c r="J23" s="3">
+        <v>4810700</v>
+      </c>
+      <c r="K23" s="3">
         <v>4877400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4911600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2545500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6998700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3543700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1852800</v>
+        <v>2049300</v>
       </c>
       <c r="E24" s="3">
-        <v>1969100</v>
+        <v>1832500</v>
       </c>
       <c r="F24" s="3">
-        <v>2034500</v>
+        <v>2040900</v>
       </c>
       <c r="G24" s="3">
-        <v>1861900</v>
+        <v>2108600</v>
       </c>
       <c r="H24" s="3">
-        <v>-569600</v>
+        <v>1929800</v>
       </c>
       <c r="I24" s="3">
-        <v>1473000</v>
+        <v>-590400</v>
       </c>
       <c r="J24" s="3">
+        <v>1526700</v>
+      </c>
+      <c r="K24" s="3">
         <v>1302500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1248800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1105300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1664600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2757300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6229900</v>
+        <v>9564300</v>
       </c>
       <c r="E26" s="3">
-        <v>6888400</v>
+        <v>6238000</v>
       </c>
       <c r="F26" s="3">
-        <v>5376600</v>
+        <v>7139400</v>
       </c>
       <c r="G26" s="3">
-        <v>3398200</v>
+        <v>5572500</v>
       </c>
       <c r="H26" s="3">
-        <v>5667500</v>
+        <v>3522100</v>
       </c>
       <c r="I26" s="3">
-        <v>3168600</v>
+        <v>5874000</v>
       </c>
       <c r="J26" s="3">
+        <v>3284000</v>
+      </c>
+      <c r="K26" s="3">
         <v>3574800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3662800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1440200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5334100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>786500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4262900</v>
+        <v>7996400</v>
       </c>
       <c r="E27" s="3">
-        <v>4244500</v>
+        <v>4199200</v>
       </c>
       <c r="F27" s="3">
-        <v>3947400</v>
+        <v>4399200</v>
       </c>
       <c r="G27" s="3">
-        <v>2211100</v>
+        <v>4091300</v>
       </c>
       <c r="H27" s="3">
-        <v>3533000</v>
+        <v>2291600</v>
       </c>
       <c r="I27" s="3">
-        <v>2730600</v>
+        <v>3661700</v>
       </c>
       <c r="J27" s="3">
+        <v>2830200</v>
+      </c>
+      <c r="K27" s="3">
         <v>3321700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3301500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1112500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5877600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>653800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,32 +1523,35 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>468700</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>219000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>75500</v>
+        <v>-1314000</v>
       </c>
       <c r="E32" s="3">
-        <v>-521600</v>
+        <v>-93100</v>
       </c>
       <c r="F32" s="3">
-        <v>-525700</v>
+        <v>-540600</v>
       </c>
       <c r="G32" s="3">
-        <v>795200</v>
+        <v>-544900</v>
       </c>
       <c r="H32" s="3">
-        <v>1910900</v>
+        <v>824200</v>
       </c>
       <c r="I32" s="3">
-        <v>1941600</v>
+        <v>1980600</v>
       </c>
       <c r="J32" s="3">
+        <v>2012300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-366500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>262000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>492800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>80200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-30500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4262900</v>
+        <v>8465100</v>
       </c>
       <c r="E33" s="3">
-        <v>4244500</v>
+        <v>4418200</v>
       </c>
       <c r="F33" s="3">
-        <v>3947400</v>
+        <v>4399200</v>
       </c>
       <c r="G33" s="3">
-        <v>2211100</v>
+        <v>4091300</v>
       </c>
       <c r="H33" s="3">
-        <v>3533000</v>
+        <v>2291600</v>
       </c>
       <c r="I33" s="3">
-        <v>2730600</v>
+        <v>3661700</v>
       </c>
       <c r="J33" s="3">
+        <v>2830200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3321700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3301500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1112500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5877600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>653800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4262900</v>
+        <v>8465100</v>
       </c>
       <c r="E35" s="3">
-        <v>4244500</v>
+        <v>4418200</v>
       </c>
       <c r="F35" s="3">
-        <v>3947400</v>
+        <v>4399200</v>
       </c>
       <c r="G35" s="3">
-        <v>2211100</v>
+        <v>4091300</v>
       </c>
       <c r="H35" s="3">
-        <v>3533000</v>
+        <v>2291600</v>
       </c>
       <c r="I35" s="3">
-        <v>2730600</v>
+        <v>3661700</v>
       </c>
       <c r="J35" s="3">
+        <v>2830200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3321700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3301500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1112500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5877600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>653800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7775400</v>
+        <v>6101500</v>
       </c>
       <c r="E41" s="3">
-        <v>13208100</v>
+        <v>8058800</v>
       </c>
       <c r="F41" s="3">
-        <v>5505200</v>
+        <v>13689500</v>
       </c>
       <c r="G41" s="3">
-        <v>3755500</v>
+        <v>5705800</v>
       </c>
       <c r="H41" s="3">
-        <v>3380900</v>
+        <v>3892400</v>
       </c>
       <c r="I41" s="3">
-        <v>7908100</v>
+        <v>3504100</v>
       </c>
       <c r="J41" s="3">
+        <v>8196300</v>
+      </c>
+      <c r="K41" s="3">
         <v>7040500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8494200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9533700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4420500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>94900</v>
+        <v>100500</v>
       </c>
       <c r="E42" s="3">
-        <v>94900</v>
+        <v>98400</v>
       </c>
       <c r="F42" s="3">
-        <v>29600</v>
+        <v>98400</v>
       </c>
       <c r="G42" s="3">
-        <v>12200</v>
+        <v>30700</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="I42" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K42" s="3">
         <v>4100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2301400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5570900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21868600</v>
+        <v>25398300</v>
       </c>
       <c r="E43" s="3">
-        <v>19317600</v>
+        <v>22665500</v>
       </c>
       <c r="F43" s="3">
-        <v>16679900</v>
+        <v>20021600</v>
       </c>
       <c r="G43" s="3">
-        <v>15239500</v>
+        <v>17287700</v>
       </c>
       <c r="H43" s="3">
-        <v>13243900</v>
+        <v>15794900</v>
       </c>
       <c r="I43" s="3">
-        <v>14989400</v>
+        <v>13726500</v>
       </c>
       <c r="J43" s="3">
+        <v>15535700</v>
+      </c>
+      <c r="K43" s="3">
         <v>12311900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14870200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12149800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9036500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15544800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2914400</v>
+        <v>2792100</v>
       </c>
       <c r="E44" s="3">
-        <v>2751100</v>
+        <v>3020600</v>
       </c>
       <c r="F44" s="3">
-        <v>1600600</v>
+        <v>2851300</v>
       </c>
       <c r="G44" s="3">
-        <v>1827200</v>
+        <v>1658900</v>
       </c>
       <c r="H44" s="3">
-        <v>2026300</v>
+        <v>1893800</v>
       </c>
       <c r="I44" s="3">
-        <v>1662900</v>
+        <v>2100100</v>
       </c>
       <c r="J44" s="3">
+        <v>1723500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1885400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1697000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1270400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1214400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2544800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6952700</v>
+        <v>7021900</v>
       </c>
       <c r="E45" s="3">
-        <v>2697000</v>
+        <v>7206000</v>
       </c>
       <c r="F45" s="3">
-        <v>1387300</v>
+        <v>2795200</v>
       </c>
       <c r="G45" s="3">
-        <v>1490400</v>
+        <v>1437800</v>
       </c>
       <c r="H45" s="3">
-        <v>2165100</v>
+        <v>1544700</v>
       </c>
       <c r="I45" s="3">
-        <v>2629600</v>
+        <v>2244000</v>
       </c>
       <c r="J45" s="3">
+        <v>2725400</v>
+      </c>
+      <c r="K45" s="3">
         <v>11611600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8580000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3312300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1735900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2315900</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39606000</v>
+        <v>41414400</v>
       </c>
       <c r="E46" s="3">
-        <v>38068700</v>
+        <v>41049300</v>
       </c>
       <c r="F46" s="3">
-        <v>25202500</v>
+        <v>39456000</v>
       </c>
       <c r="G46" s="3">
-        <v>22324900</v>
+        <v>26121000</v>
       </c>
       <c r="H46" s="3">
-        <v>20816200</v>
+        <v>23138500</v>
       </c>
       <c r="I46" s="3">
-        <v>27192100</v>
+        <v>21574700</v>
       </c>
       <c r="J46" s="3">
+        <v>28183000</v>
+      </c>
+      <c r="K46" s="3">
         <v>32853400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33644900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26272100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16490900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18622500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5894100</v>
+        <v>6731000</v>
       </c>
       <c r="E47" s="3">
-        <v>7103700</v>
+        <v>6108900</v>
       </c>
       <c r="F47" s="3">
-        <v>4578300</v>
+        <v>7362600</v>
       </c>
       <c r="G47" s="3">
-        <v>2205900</v>
+        <v>4745100</v>
       </c>
       <c r="H47" s="3">
-        <v>6499400</v>
+        <v>2286300</v>
       </c>
       <c r="I47" s="3">
-        <v>8790100</v>
+        <v>6736300</v>
       </c>
       <c r="J47" s="3">
+        <v>9110400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4442500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3275500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9006200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9472400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10527900</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>94472000</v>
+        <v>105224000</v>
       </c>
       <c r="E48" s="3">
-        <v>93175600</v>
+        <v>97914700</v>
       </c>
       <c r="F48" s="3">
-        <v>68951000</v>
+        <v>96571100</v>
       </c>
       <c r="G48" s="3">
-        <v>51684100</v>
+        <v>71463700</v>
       </c>
       <c r="H48" s="3">
-        <v>47853100</v>
+        <v>53567600</v>
       </c>
       <c r="I48" s="3">
-        <v>47730600</v>
+        <v>49596900</v>
       </c>
       <c r="J48" s="3">
+        <v>49470000</v>
+      </c>
+      <c r="K48" s="3">
         <v>45565400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44730400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44770200</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>202972000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135406000</v>
+        <v>148755000</v>
       </c>
       <c r="E49" s="3">
-        <v>120522000</v>
+        <v>140341000</v>
       </c>
       <c r="F49" s="3">
-        <v>69620600</v>
+        <v>124914000</v>
       </c>
       <c r="G49" s="3">
-        <v>66301000</v>
+        <v>72157700</v>
       </c>
       <c r="H49" s="3">
-        <v>64172600</v>
+        <v>68717100</v>
       </c>
       <c r="I49" s="3">
-        <v>61859500</v>
+        <v>66511200</v>
       </c>
       <c r="J49" s="3">
+        <v>64113700</v>
+      </c>
+      <c r="K49" s="3">
         <v>58211100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>58222000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54985700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>75914600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>117761000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12106700</v>
+        <v>13783600</v>
       </c>
       <c r="E52" s="3">
-        <v>11557500</v>
+        <v>12547900</v>
       </c>
       <c r="F52" s="3">
-        <v>5869600</v>
+        <v>11978700</v>
       </c>
       <c r="G52" s="3">
-        <v>5882900</v>
+        <v>6083500</v>
       </c>
       <c r="H52" s="3">
-        <v>4932500</v>
+        <v>6097300</v>
       </c>
       <c r="I52" s="3">
-        <v>6001300</v>
+        <v>5112300</v>
       </c>
       <c r="J52" s="3">
+        <v>6220000</v>
+      </c>
+      <c r="K52" s="3">
         <v>5841000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6187500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6294400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7088700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9460900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>287485000</v>
+        <v>315908000</v>
       </c>
       <c r="E54" s="3">
-        <v>270427000</v>
+        <v>297961000</v>
       </c>
       <c r="F54" s="3">
-        <v>174222000</v>
+        <v>280282000</v>
       </c>
       <c r="G54" s="3">
-        <v>148399000</v>
+        <v>180571000</v>
       </c>
       <c r="H54" s="3">
-        <v>144274000</v>
+        <v>153807000</v>
       </c>
       <c r="I54" s="3">
-        <v>151574000</v>
+        <v>149531000</v>
       </c>
       <c r="J54" s="3">
+        <v>157097000</v>
+      </c>
+      <c r="K54" s="3">
         <v>146914000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>146060000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>141329000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118520000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>143787000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10612200</v>
+        <v>12675900</v>
       </c>
       <c r="E57" s="3">
-        <v>9892600</v>
+        <v>10999000</v>
       </c>
       <c r="F57" s="3">
-        <v>9605700</v>
+        <v>10253100</v>
       </c>
       <c r="G57" s="3">
-        <v>10921500</v>
+        <v>9955800</v>
       </c>
       <c r="H57" s="3">
-        <v>11161400</v>
+        <v>11319500</v>
       </c>
       <c r="I57" s="3">
-        <v>10604100</v>
+        <v>11568200</v>
       </c>
       <c r="J57" s="3">
+        <v>10990500</v>
+      </c>
+      <c r="K57" s="3">
         <v>11266600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10874400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8649700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7043700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15077600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16064300</v>
+        <v>19915800</v>
       </c>
       <c r="E58" s="3">
-        <v>16447100</v>
+        <v>16649700</v>
       </c>
       <c r="F58" s="3">
-        <v>13283700</v>
+        <v>17046500</v>
       </c>
       <c r="G58" s="3">
-        <v>8796200</v>
+        <v>13767800</v>
       </c>
       <c r="H58" s="3">
-        <v>7096600</v>
+        <v>9116800</v>
       </c>
       <c r="I58" s="3">
-        <v>11592200</v>
+        <v>7355200</v>
       </c>
       <c r="J58" s="3">
+        <v>12014600</v>
+      </c>
+      <c r="K58" s="3">
         <v>12831500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9269900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7060000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8352500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23990300</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12933500</v>
+        <v>15429900</v>
       </c>
       <c r="E59" s="3">
-        <v>11567700</v>
+        <v>13404900</v>
       </c>
       <c r="F59" s="3">
-        <v>10708200</v>
+        <v>11989300</v>
       </c>
       <c r="G59" s="3">
-        <v>10032400</v>
+        <v>11098400</v>
       </c>
       <c r="H59" s="3">
-        <v>9677200</v>
+        <v>10398000</v>
       </c>
       <c r="I59" s="3">
-        <v>11618700</v>
+        <v>10029800</v>
       </c>
       <c r="J59" s="3">
+        <v>12042200</v>
+      </c>
+      <c r="K59" s="3">
         <v>10147800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11694100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11200000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17387900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17246800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39610100</v>
+        <v>48021600</v>
       </c>
       <c r="E60" s="3">
-        <v>37907400</v>
+        <v>41053600</v>
       </c>
       <c r="F60" s="3">
-        <v>33597600</v>
+        <v>39288800</v>
       </c>
       <c r="G60" s="3">
-        <v>29750200</v>
+        <v>34822000</v>
       </c>
       <c r="H60" s="3">
-        <v>27935200</v>
+        <v>30834400</v>
       </c>
       <c r="I60" s="3">
-        <v>33815000</v>
+        <v>28953200</v>
       </c>
       <c r="J60" s="3">
+        <v>35047300</v>
+      </c>
+      <c r="K60" s="3">
         <v>34245800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31838400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26909700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25248500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28423800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>128959000</v>
+        <v>136842000</v>
       </c>
       <c r="E61" s="3">
-        <v>123664000</v>
+        <v>133658000</v>
       </c>
       <c r="F61" s="3">
-        <v>71507000</v>
+        <v>128170000</v>
       </c>
       <c r="G61" s="3">
-        <v>52032200</v>
+        <v>74112900</v>
       </c>
       <c r="H61" s="3">
-        <v>49325100</v>
+        <v>53928400</v>
       </c>
       <c r="I61" s="3">
-        <v>50807300</v>
+        <v>51122600</v>
       </c>
       <c r="J61" s="3">
+        <v>52658800</v>
+      </c>
+      <c r="K61" s="3">
         <v>48172600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49657800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50550200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37940300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44721000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35752500</v>
+        <v>38660400</v>
       </c>
       <c r="E62" s="3">
-        <v>34797000</v>
+        <v>37055400</v>
       </c>
       <c r="F62" s="3">
-        <v>21924700</v>
+        <v>36065100</v>
       </c>
       <c r="G62" s="3">
-        <v>22275900</v>
+        <v>22723700</v>
       </c>
       <c r="H62" s="3">
-        <v>23660100</v>
+        <v>23087700</v>
       </c>
       <c r="I62" s="3">
-        <v>27298200</v>
+        <v>24522300</v>
       </c>
       <c r="J62" s="3">
+        <v>28293000</v>
+      </c>
+      <c r="K62" s="3">
         <v>25551600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26100300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25514900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28140600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30198600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>243918000</v>
+        <v>264534000</v>
       </c>
       <c r="E66" s="3">
-        <v>233758000</v>
+        <v>252807000</v>
       </c>
       <c r="F66" s="3">
-        <v>141856000</v>
+        <v>242277000</v>
       </c>
       <c r="G66" s="3">
-        <v>116849000</v>
+        <v>147025000</v>
       </c>
       <c r="H66" s="3">
-        <v>112902000</v>
+        <v>121107000</v>
       </c>
       <c r="I66" s="3">
-        <v>121659000</v>
+        <v>117016000</v>
       </c>
       <c r="J66" s="3">
+        <v>126092000</v>
+      </c>
+      <c r="K66" s="3">
         <v>116902000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117340000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112765000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90051400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102232000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-32851400</v>
+        <v>-28024300</v>
       </c>
       <c r="E72" s="3">
-        <v>-35469700</v>
+        <v>-34048600</v>
       </c>
       <c r="F72" s="3">
-        <v>-35566700</v>
+        <v>-36762300</v>
       </c>
       <c r="G72" s="3">
-        <v>-35958700</v>
+        <v>-36862800</v>
       </c>
       <c r="H72" s="3">
-        <v>-36023000</v>
+        <v>-37269100</v>
       </c>
       <c r="I72" s="3">
-        <v>-36801900</v>
+        <v>-37335800</v>
       </c>
       <c r="J72" s="3">
+        <v>-38143000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-36457900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41617500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43669700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-75680700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-58425200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43566700</v>
+        <v>51374400</v>
       </c>
       <c r="E76" s="3">
-        <v>36669200</v>
+        <v>45154400</v>
       </c>
       <c r="F76" s="3">
-        <v>32366500</v>
+        <v>38005500</v>
       </c>
       <c r="G76" s="3">
-        <v>31549900</v>
+        <v>33546000</v>
       </c>
       <c r="H76" s="3">
-        <v>31372200</v>
+        <v>32699600</v>
       </c>
       <c r="I76" s="3">
-        <v>29914500</v>
+        <v>32515500</v>
       </c>
       <c r="J76" s="3">
+        <v>31004700</v>
+      </c>
+      <c r="K76" s="3">
         <v>30011500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28720900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28564100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28468900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41555200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4262900</v>
+        <v>8465100</v>
       </c>
       <c r="E81" s="3">
-        <v>4244500</v>
+        <v>4418200</v>
       </c>
       <c r="F81" s="3">
-        <v>3947400</v>
+        <v>4399200</v>
       </c>
       <c r="G81" s="3">
-        <v>2211100</v>
+        <v>4091300</v>
       </c>
       <c r="H81" s="3">
-        <v>3533000</v>
+        <v>2291600</v>
       </c>
       <c r="I81" s="3">
-        <v>2730600</v>
+        <v>3661700</v>
       </c>
       <c r="J81" s="3">
+        <v>2830200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3321700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3301500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1112500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5877600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>653800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27759600</v>
+        <v>28197800</v>
       </c>
       <c r="E83" s="3">
-        <v>25396500</v>
+        <v>28771300</v>
       </c>
       <c r="F83" s="3">
-        <v>17704800</v>
+        <v>26322000</v>
       </c>
       <c r="G83" s="3">
-        <v>14123800</v>
+        <v>18350000</v>
       </c>
       <c r="H83" s="3">
-        <v>14889400</v>
+        <v>14638500</v>
       </c>
       <c r="I83" s="3">
-        <v>13658300</v>
+        <v>15432000</v>
       </c>
       <c r="J83" s="3">
+        <v>14156000</v>
+      </c>
+      <c r="K83" s="3">
         <v>11596300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11939100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13043400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24108800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16945100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32909600</v>
+        <v>37877500</v>
       </c>
       <c r="E89" s="3">
-        <v>24163400</v>
+        <v>34108900</v>
       </c>
       <c r="F89" s="3">
-        <v>23553900</v>
+        <v>25043900</v>
       </c>
       <c r="G89" s="3">
-        <v>18313200</v>
+        <v>24412300</v>
       </c>
       <c r="H89" s="3">
-        <v>17556700</v>
+        <v>18980500</v>
       </c>
       <c r="I89" s="3">
-        <v>15853000</v>
+        <v>18196500</v>
       </c>
       <c r="J89" s="3">
+        <v>16430700</v>
+      </c>
+      <c r="K89" s="3">
         <v>15310000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15158200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15532700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14907500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19032200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13899200</v>
+        <v>-17523700</v>
       </c>
       <c r="E91" s="3">
-        <v>-13207100</v>
+        <v>-14405700</v>
       </c>
       <c r="F91" s="3">
-        <v>-10189600</v>
+        <v>-13688400</v>
       </c>
       <c r="G91" s="3">
-        <v>-9329100</v>
+        <v>-10561000</v>
       </c>
       <c r="H91" s="3">
-        <v>-9339300</v>
+        <v>-9669100</v>
       </c>
       <c r="I91" s="3">
-        <v>-8204200</v>
+        <v>-9679600</v>
       </c>
       <c r="J91" s="3">
+        <v>-8503100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8336900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8113700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7859000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6171900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9867000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27973000</v>
+        <v>-23599700</v>
       </c>
       <c r="E94" s="3">
-        <v>-23120100</v>
+        <v>-28992400</v>
       </c>
       <c r="F94" s="3">
-        <v>-14526000</v>
+        <v>-23962600</v>
       </c>
       <c r="G94" s="3">
-        <v>-14594400</v>
+        <v>-15055300</v>
       </c>
       <c r="H94" s="3">
-        <v>-17163700</v>
+        <v>-15126200</v>
       </c>
       <c r="I94" s="3">
-        <v>-13891000</v>
+        <v>-17789200</v>
       </c>
       <c r="J94" s="3">
+        <v>-14397300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15327300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12150200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11837600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7324800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10887100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3210400</v>
+        <v>-3581300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3130800</v>
+        <v>-3327400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3635100</v>
+        <v>-3244900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3146100</v>
+        <v>-3767500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1591400</v>
+        <v>-3260800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1629200</v>
+        <v>-1649400</v>
       </c>
       <c r="J96" s="3">
+        <v>-1688600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1282100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1456500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2683100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3733200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4133000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11003200</v>
+        <v>-16333400</v>
       </c>
       <c r="E100" s="3">
-        <v>7718300</v>
+        <v>-11404200</v>
       </c>
       <c r="F100" s="3">
-        <v>-7289500</v>
+        <v>7999500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3326800</v>
+        <v>-7555200</v>
       </c>
       <c r="H100" s="3">
-        <v>-4689600</v>
+        <v>-3448000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1349500</v>
+        <v>-4860500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1398700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-894200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3877300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1222500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7247900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6993600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>632900</v>
+        <v>98400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1057500</v>
+        <v>656000</v>
       </c>
       <c r="F101" s="3">
-        <v>11200</v>
+        <v>-1096100</v>
       </c>
       <c r="G101" s="3">
-        <v>-17400</v>
+        <v>11600</v>
       </c>
       <c r="H101" s="3">
-        <v>-230700</v>
+        <v>-18000</v>
       </c>
       <c r="I101" s="3">
-        <v>255200</v>
+        <v>-239100</v>
       </c>
       <c r="J101" s="3">
+        <v>264500</v>
+      </c>
+      <c r="K101" s="3">
         <v>272600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>364700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-199800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-30700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-47000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5433700</v>
+        <v>-1957300</v>
       </c>
       <c r="E102" s="3">
-        <v>7704000</v>
+        <v>-5631700</v>
       </c>
       <c r="F102" s="3">
-        <v>1749700</v>
+        <v>7984700</v>
       </c>
       <c r="G102" s="3">
-        <v>374600</v>
+        <v>1813400</v>
       </c>
       <c r="H102" s="3">
-        <v>-4527200</v>
+        <v>388300</v>
       </c>
       <c r="I102" s="3">
-        <v>867700</v>
+        <v>-4692200</v>
       </c>
       <c r="J102" s="3">
+        <v>899300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-639000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-504700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4717800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>304100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1104600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>120820400</v>
+        <v>122978700</v>
       </c>
       <c r="E8" s="3">
-        <v>113851400</v>
+        <v>115885200</v>
       </c>
       <c r="F8" s="3">
-        <v>106856900</v>
+        <v>108765800</v>
       </c>
       <c r="G8" s="3">
-        <v>85201800</v>
+        <v>86723800</v>
       </c>
       <c r="H8" s="3">
-        <v>80044000</v>
+        <v>81473900</v>
       </c>
       <c r="I8" s="3">
-        <v>79293900</v>
+        <v>80710400</v>
       </c>
       <c r="J8" s="3">
-        <v>77334500</v>
+        <v>78716000</v>
       </c>
       <c r="K8" s="3">
         <v>70667900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52950800</v>
+        <v>53896700</v>
       </c>
       <c r="E9" s="3">
-        <v>49286900</v>
+        <v>50167400</v>
       </c>
       <c r="F9" s="3">
-        <v>44346100</v>
+        <v>45138300</v>
       </c>
       <c r="G9" s="3">
-        <v>36510500</v>
+        <v>37162700</v>
       </c>
       <c r="H9" s="3">
-        <v>37814000</v>
+        <v>38489500</v>
       </c>
       <c r="I9" s="3">
-        <v>37927200</v>
+        <v>38604700</v>
       </c>
       <c r="J9" s="3">
-        <v>37013100</v>
+        <v>37674300</v>
       </c>
       <c r="K9" s="3">
         <v>42848100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>67869600</v>
+        <v>69082100</v>
       </c>
       <c r="E10" s="3">
-        <v>64564500</v>
+        <v>65717800</v>
       </c>
       <c r="F10" s="3">
-        <v>62510900</v>
+        <v>63627600</v>
       </c>
       <c r="G10" s="3">
-        <v>48691300</v>
+        <v>49561100</v>
       </c>
       <c r="H10" s="3">
-        <v>42230100</v>
+        <v>42984500</v>
       </c>
       <c r="I10" s="3">
-        <v>41366700</v>
+        <v>42105700</v>
       </c>
       <c r="J10" s="3">
-        <v>40321400</v>
+        <v>41041700</v>
       </c>
       <c r="K10" s="3">
         <v>27819900</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-540600</v>
+        <v>-550300</v>
       </c>
       <c r="E14" s="3">
-        <v>889800</v>
+        <v>905700</v>
       </c>
       <c r="F14" s="3">
-        <v>187300</v>
+        <v>190600</v>
       </c>
       <c r="G14" s="3">
-        <v>777600</v>
+        <v>791500</v>
       </c>
       <c r="H14" s="3">
-        <v>1273800</v>
+        <v>1296600</v>
       </c>
       <c r="I14" s="3">
-        <v>519500</v>
+        <v>528800</v>
       </c>
       <c r="J14" s="3">
-        <v>714200</v>
+        <v>726900</v>
       </c>
       <c r="K14" s="3">
         <v>151100</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28217900</v>
+        <v>28722000</v>
       </c>
       <c r="E15" s="3">
-        <v>28775500</v>
+        <v>29289500</v>
       </c>
       <c r="F15" s="3">
-        <v>26482800</v>
+        <v>26955900</v>
       </c>
       <c r="G15" s="3">
-        <v>18271700</v>
+        <v>18598100</v>
       </c>
       <c r="H15" s="3">
-        <v>13874600</v>
+        <v>14122500</v>
       </c>
       <c r="I15" s="3">
-        <v>13150900</v>
+        <v>13385900</v>
       </c>
       <c r="J15" s="3">
-        <v>13423900</v>
+        <v>13663700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>104512400</v>
+        <v>106379400</v>
       </c>
       <c r="E17" s="3">
-        <v>100555500</v>
+        <v>102351800</v>
       </c>
       <c r="F17" s="3">
-        <v>93310300</v>
+        <v>94977200</v>
       </c>
       <c r="G17" s="3">
-        <v>75196300</v>
+        <v>76539600</v>
       </c>
       <c r="H17" s="3">
-        <v>71552500</v>
+        <v>72830700</v>
       </c>
       <c r="I17" s="3">
-        <v>69366700</v>
+        <v>70605900</v>
       </c>
       <c r="J17" s="3">
-        <v>67639000</v>
+        <v>68847300</v>
       </c>
       <c r="K17" s="3">
         <v>63493800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16308000</v>
+        <v>16599300</v>
       </c>
       <c r="E18" s="3">
-        <v>13295900</v>
+        <v>13533400</v>
       </c>
       <c r="F18" s="3">
-        <v>13546600</v>
+        <v>13788600</v>
       </c>
       <c r="G18" s="3">
-        <v>10005500</v>
+        <v>10184200</v>
       </c>
       <c r="H18" s="3">
-        <v>8491500</v>
+        <v>8643200</v>
       </c>
       <c r="I18" s="3">
-        <v>9927200</v>
+        <v>10104600</v>
       </c>
       <c r="J18" s="3">
-        <v>9695500</v>
+        <v>9868700</v>
       </c>
       <c r="K18" s="3">
         <v>7174200</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1314000</v>
+        <v>1337500</v>
       </c>
       <c r="E20" s="3">
-        <v>93100</v>
+        <v>94800</v>
       </c>
       <c r="F20" s="3">
-        <v>540600</v>
+        <v>550300</v>
       </c>
       <c r="G20" s="3">
-        <v>544900</v>
+        <v>554600</v>
       </c>
       <c r="H20" s="3">
-        <v>-824200</v>
+        <v>-838900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1980600</v>
+        <v>-2016000</v>
       </c>
       <c r="J20" s="3">
-        <v>-2012300</v>
+        <v>-2048300</v>
       </c>
       <c r="K20" s="3">
         <v>366500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45723900</v>
+        <v>46825200</v>
       </c>
       <c r="E21" s="3">
-        <v>42062300</v>
+        <v>43104000</v>
       </c>
       <c r="F21" s="3">
-        <v>40319700</v>
+        <v>41305500</v>
       </c>
       <c r="G21" s="3">
-        <v>28837900</v>
+        <v>29538200</v>
       </c>
       <c r="H21" s="3">
-        <v>22256000</v>
+        <v>22801300</v>
       </c>
       <c r="I21" s="3">
-        <v>23326100</v>
+        <v>23898500</v>
       </c>
       <c r="J21" s="3">
-        <v>21791100</v>
+        <v>22323200</v>
       </c>
       <c r="K21" s="3">
         <v>18913100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6008400</v>
+        <v>6115700</v>
       </c>
       <c r="E22" s="3">
-        <v>5318600</v>
+        <v>5413600</v>
       </c>
       <c r="F22" s="3">
-        <v>4907000</v>
+        <v>4994700</v>
       </c>
       <c r="G22" s="3">
-        <v>2869300</v>
+        <v>2920600</v>
       </c>
       <c r="H22" s="3">
-        <v>2215500</v>
+        <v>2255000</v>
       </c>
       <c r="I22" s="3">
-        <v>2663000</v>
+        <v>2710600</v>
       </c>
       <c r="J22" s="3">
-        <v>2872500</v>
+        <v>2923800</v>
       </c>
       <c r="K22" s="3">
         <v>2663300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11613700</v>
+        <v>11821100</v>
       </c>
       <c r="E23" s="3">
-        <v>8070400</v>
+        <v>8214600</v>
       </c>
       <c r="F23" s="3">
-        <v>9180300</v>
+        <v>9344300</v>
       </c>
       <c r="G23" s="3">
-        <v>7681100</v>
+        <v>7818300</v>
       </c>
       <c r="H23" s="3">
-        <v>5451900</v>
+        <v>5549300</v>
       </c>
       <c r="I23" s="3">
-        <v>5283700</v>
+        <v>5378000</v>
       </c>
       <c r="J23" s="3">
-        <v>4810700</v>
+        <v>4896700</v>
       </c>
       <c r="K23" s="3">
         <v>4877400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2049300</v>
+        <v>2086000</v>
       </c>
       <c r="E24" s="3">
-        <v>1832500</v>
+        <v>1865200</v>
       </c>
       <c r="F24" s="3">
-        <v>2040900</v>
+        <v>2077300</v>
       </c>
       <c r="G24" s="3">
-        <v>2108600</v>
+        <v>2146300</v>
       </c>
       <c r="H24" s="3">
-        <v>1929800</v>
+        <v>1964300</v>
       </c>
       <c r="I24" s="3">
-        <v>-590400</v>
+        <v>-600900</v>
       </c>
       <c r="J24" s="3">
-        <v>1526700</v>
+        <v>1554000</v>
       </c>
       <c r="K24" s="3">
         <v>1302500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9564300</v>
+        <v>9735200</v>
       </c>
       <c r="E26" s="3">
-        <v>6238000</v>
+        <v>6349400</v>
       </c>
       <c r="F26" s="3">
-        <v>7139400</v>
+        <v>7266900</v>
       </c>
       <c r="G26" s="3">
-        <v>5572500</v>
+        <v>5672000</v>
       </c>
       <c r="H26" s="3">
-        <v>3522100</v>
+        <v>3585000</v>
       </c>
       <c r="I26" s="3">
-        <v>5874000</v>
+        <v>5978900</v>
       </c>
       <c r="J26" s="3">
-        <v>3284000</v>
+        <v>3342700</v>
       </c>
       <c r="K26" s="3">
         <v>3574800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7996400</v>
+        <v>8139200</v>
       </c>
       <c r="E27" s="3">
-        <v>4199200</v>
+        <v>4274200</v>
       </c>
       <c r="F27" s="3">
-        <v>4399200</v>
+        <v>4477800</v>
       </c>
       <c r="G27" s="3">
-        <v>4091300</v>
+        <v>4164400</v>
       </c>
       <c r="H27" s="3">
-        <v>2291600</v>
+        <v>2332600</v>
       </c>
       <c r="I27" s="3">
-        <v>3661700</v>
+        <v>3727200</v>
       </c>
       <c r="J27" s="3">
-        <v>2830200</v>
+        <v>2880700</v>
       </c>
       <c r="K27" s="3">
         <v>3321700</v>
@@ -1533,10 +1533,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>468700</v>
+        <v>477100</v>
       </c>
       <c r="E29" s="3">
-        <v>219000</v>
+        <v>222900</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1314000</v>
+        <v>-1337500</v>
       </c>
       <c r="E32" s="3">
-        <v>-93100</v>
+        <v>-94800</v>
       </c>
       <c r="F32" s="3">
-        <v>-540600</v>
+        <v>-550300</v>
       </c>
       <c r="G32" s="3">
-        <v>-544900</v>
+        <v>-554600</v>
       </c>
       <c r="H32" s="3">
-        <v>824200</v>
+        <v>838900</v>
       </c>
       <c r="I32" s="3">
-        <v>1980600</v>
+        <v>2016000</v>
       </c>
       <c r="J32" s="3">
-        <v>2012300</v>
+        <v>2048300</v>
       </c>
       <c r="K32" s="3">
         <v>-366500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8465100</v>
+        <v>8616300</v>
       </c>
       <c r="E33" s="3">
-        <v>4418200</v>
+        <v>4497100</v>
       </c>
       <c r="F33" s="3">
-        <v>4399200</v>
+        <v>4477800</v>
       </c>
       <c r="G33" s="3">
-        <v>4091300</v>
+        <v>4164400</v>
       </c>
       <c r="H33" s="3">
-        <v>2291600</v>
+        <v>2332600</v>
       </c>
       <c r="I33" s="3">
-        <v>3661700</v>
+        <v>3727200</v>
       </c>
       <c r="J33" s="3">
-        <v>2830200</v>
+        <v>2880700</v>
       </c>
       <c r="K33" s="3">
         <v>3321700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8465100</v>
+        <v>8616300</v>
       </c>
       <c r="E35" s="3">
-        <v>4418200</v>
+        <v>4497100</v>
       </c>
       <c r="F35" s="3">
-        <v>4399200</v>
+        <v>4477800</v>
       </c>
       <c r="G35" s="3">
-        <v>4091300</v>
+        <v>4164400</v>
       </c>
       <c r="H35" s="3">
-        <v>2291600</v>
+        <v>2332600</v>
       </c>
       <c r="I35" s="3">
-        <v>3661700</v>
+        <v>3727200</v>
       </c>
       <c r="J35" s="3">
-        <v>2830200</v>
+        <v>2880700</v>
       </c>
       <c r="K35" s="3">
         <v>3321700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6101500</v>
+        <v>6210500</v>
       </c>
       <c r="E41" s="3">
-        <v>8058800</v>
+        <v>8202700</v>
       </c>
       <c r="F41" s="3">
-        <v>13689500</v>
+        <v>13934000</v>
       </c>
       <c r="G41" s="3">
-        <v>5705800</v>
+        <v>5807700</v>
       </c>
       <c r="H41" s="3">
-        <v>3892400</v>
+        <v>3961900</v>
       </c>
       <c r="I41" s="3">
-        <v>3504100</v>
+        <v>3566700</v>
       </c>
       <c r="J41" s="3">
-        <v>8196300</v>
+        <v>8342700</v>
       </c>
       <c r="K41" s="3">
         <v>7040500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100500</v>
+        <v>102300</v>
       </c>
       <c r="E42" s="3">
-        <v>98400</v>
+        <v>100200</v>
       </c>
       <c r="F42" s="3">
-        <v>98400</v>
+        <v>100200</v>
       </c>
       <c r="G42" s="3">
-        <v>30700</v>
+        <v>31200</v>
       </c>
       <c r="H42" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K42" s="3">
         <v>4100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25398300</v>
+        <v>25852100</v>
       </c>
       <c r="E43" s="3">
-        <v>22665500</v>
+        <v>23070400</v>
       </c>
       <c r="F43" s="3">
-        <v>20021600</v>
+        <v>20379300</v>
       </c>
       <c r="G43" s="3">
-        <v>17287700</v>
+        <v>17596500</v>
       </c>
       <c r="H43" s="3">
-        <v>15794900</v>
+        <v>16077000</v>
       </c>
       <c r="I43" s="3">
-        <v>13726500</v>
+        <v>13971700</v>
       </c>
       <c r="J43" s="3">
-        <v>15535700</v>
+        <v>15813200</v>
       </c>
       <c r="K43" s="3">
         <v>12311900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2792100</v>
+        <v>2841900</v>
       </c>
       <c r="E44" s="3">
-        <v>3020600</v>
+        <v>3074500</v>
       </c>
       <c r="F44" s="3">
-        <v>2851300</v>
+        <v>2902200</v>
       </c>
       <c r="G44" s="3">
-        <v>1658900</v>
+        <v>1688600</v>
       </c>
       <c r="H44" s="3">
-        <v>1893800</v>
+        <v>1927700</v>
       </c>
       <c r="I44" s="3">
-        <v>2100100</v>
+        <v>2137600</v>
       </c>
       <c r="J44" s="3">
-        <v>1723500</v>
+        <v>1754300</v>
       </c>
       <c r="K44" s="3">
         <v>1885400</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7021900</v>
+        <v>7147400</v>
       </c>
       <c r="E45" s="3">
-        <v>7206000</v>
+        <v>7334800</v>
       </c>
       <c r="F45" s="3">
-        <v>2795200</v>
+        <v>2845200</v>
       </c>
       <c r="G45" s="3">
-        <v>1437800</v>
+        <v>1463500</v>
       </c>
       <c r="H45" s="3">
-        <v>1544700</v>
+        <v>1572300</v>
       </c>
       <c r="I45" s="3">
-        <v>2244000</v>
+        <v>2284100</v>
       </c>
       <c r="J45" s="3">
-        <v>2725400</v>
+        <v>2774100</v>
       </c>
       <c r="K45" s="3">
         <v>11611600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>41414400</v>
+        <v>42154200</v>
       </c>
       <c r="E46" s="3">
-        <v>41049300</v>
+        <v>41782600</v>
       </c>
       <c r="F46" s="3">
-        <v>39456000</v>
+        <v>40160800</v>
       </c>
       <c r="G46" s="3">
-        <v>26121000</v>
+        <v>26587600</v>
       </c>
       <c r="H46" s="3">
-        <v>23138500</v>
+        <v>23551800</v>
       </c>
       <c r="I46" s="3">
-        <v>21574700</v>
+        <v>21960100</v>
       </c>
       <c r="J46" s="3">
-        <v>28183000</v>
+        <v>28686500</v>
       </c>
       <c r="K46" s="3">
         <v>32853400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6731000</v>
+        <v>6851200</v>
       </c>
       <c r="E47" s="3">
-        <v>6108900</v>
+        <v>6218000</v>
       </c>
       <c r="F47" s="3">
-        <v>7362600</v>
+        <v>7494100</v>
       </c>
       <c r="G47" s="3">
-        <v>4745100</v>
+        <v>4829900</v>
       </c>
       <c r="H47" s="3">
-        <v>2286300</v>
+        <v>2327200</v>
       </c>
       <c r="I47" s="3">
-        <v>6736300</v>
+        <v>6856600</v>
       </c>
       <c r="J47" s="3">
-        <v>9110400</v>
+        <v>9273200</v>
       </c>
       <c r="K47" s="3">
         <v>4442500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105224000</v>
+        <v>107104000</v>
       </c>
       <c r="E48" s="3">
-        <v>97914700</v>
+        <v>99663900</v>
       </c>
       <c r="F48" s="3">
-        <v>96571100</v>
+        <v>98296200</v>
       </c>
       <c r="G48" s="3">
-        <v>71463700</v>
+        <v>72740300</v>
       </c>
       <c r="H48" s="3">
-        <v>53567600</v>
+        <v>54524500</v>
       </c>
       <c r="I48" s="3">
-        <v>49596900</v>
+        <v>50482900</v>
       </c>
       <c r="J48" s="3">
-        <v>49470000</v>
+        <v>50353700</v>
       </c>
       <c r="K48" s="3">
         <v>45565400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>148755000</v>
+        <v>151412000</v>
       </c>
       <c r="E49" s="3">
-        <v>140341000</v>
+        <v>142848000</v>
       </c>
       <c r="F49" s="3">
-        <v>124914000</v>
+        <v>127145000</v>
       </c>
       <c r="G49" s="3">
-        <v>72157700</v>
+        <v>73446700</v>
       </c>
       <c r="H49" s="3">
-        <v>68717100</v>
+        <v>69944700</v>
       </c>
       <c r="I49" s="3">
-        <v>66511200</v>
+        <v>67699300</v>
       </c>
       <c r="J49" s="3">
-        <v>64113700</v>
+        <v>65259100</v>
       </c>
       <c r="K49" s="3">
         <v>58211100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13783600</v>
+        <v>14029900</v>
       </c>
       <c r="E52" s="3">
-        <v>12547900</v>
+        <v>12772000</v>
       </c>
       <c r="F52" s="3">
-        <v>11978700</v>
+        <v>12192700</v>
       </c>
       <c r="G52" s="3">
-        <v>6083500</v>
+        <v>6192200</v>
       </c>
       <c r="H52" s="3">
-        <v>6097300</v>
+        <v>6206200</v>
       </c>
       <c r="I52" s="3">
-        <v>5112300</v>
+        <v>5203600</v>
       </c>
       <c r="J52" s="3">
-        <v>6220000</v>
+        <v>6331100</v>
       </c>
       <c r="K52" s="3">
         <v>5841000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>315908000</v>
+        <v>321552000</v>
       </c>
       <c r="E54" s="3">
-        <v>297961000</v>
+        <v>303284000</v>
       </c>
       <c r="F54" s="3">
-        <v>280282000</v>
+        <v>285289000</v>
       </c>
       <c r="G54" s="3">
-        <v>180571000</v>
+        <v>183797000</v>
       </c>
       <c r="H54" s="3">
-        <v>153807000</v>
+        <v>156554000</v>
       </c>
       <c r="I54" s="3">
-        <v>149531000</v>
+        <v>152203000</v>
       </c>
       <c r="J54" s="3">
-        <v>157097000</v>
+        <v>159904000</v>
       </c>
       <c r="K54" s="3">
         <v>146914000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12675900</v>
+        <v>12902300</v>
       </c>
       <c r="E57" s="3">
-        <v>10999000</v>
+        <v>11195500</v>
       </c>
       <c r="F57" s="3">
-        <v>10253100</v>
+        <v>10436200</v>
       </c>
       <c r="G57" s="3">
-        <v>9955800</v>
+        <v>10133600</v>
       </c>
       <c r="H57" s="3">
-        <v>11319500</v>
+        <v>11521800</v>
       </c>
       <c r="I57" s="3">
-        <v>11568200</v>
+        <v>11774800</v>
       </c>
       <c r="J57" s="3">
-        <v>10990500</v>
+        <v>11186800</v>
       </c>
       <c r="K57" s="3">
         <v>11266600</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19915800</v>
+        <v>20271600</v>
       </c>
       <c r="E58" s="3">
-        <v>16649700</v>
+        <v>16947200</v>
       </c>
       <c r="F58" s="3">
-        <v>17046500</v>
+        <v>17351000</v>
       </c>
       <c r="G58" s="3">
-        <v>13767800</v>
+        <v>14013700</v>
       </c>
       <c r="H58" s="3">
-        <v>9116800</v>
+        <v>9279600</v>
       </c>
       <c r="I58" s="3">
-        <v>7355200</v>
+        <v>7486600</v>
       </c>
       <c r="J58" s="3">
-        <v>12014600</v>
+        <v>12229300</v>
       </c>
       <c r="K58" s="3">
         <v>12831500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15429900</v>
+        <v>15705500</v>
       </c>
       <c r="E59" s="3">
-        <v>13404900</v>
+        <v>13644300</v>
       </c>
       <c r="F59" s="3">
-        <v>11989300</v>
+        <v>12203400</v>
       </c>
       <c r="G59" s="3">
-        <v>11098400</v>
+        <v>11296700</v>
       </c>
       <c r="H59" s="3">
-        <v>10398000</v>
+        <v>10583800</v>
       </c>
       <c r="I59" s="3">
-        <v>10029800</v>
+        <v>10209000</v>
       </c>
       <c r="J59" s="3">
-        <v>12042200</v>
+        <v>12257300</v>
       </c>
       <c r="K59" s="3">
         <v>10147800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48021600</v>
+        <v>48879400</v>
       </c>
       <c r="E60" s="3">
-        <v>41053600</v>
+        <v>41787000</v>
       </c>
       <c r="F60" s="3">
-        <v>39288800</v>
+        <v>39990700</v>
       </c>
       <c r="G60" s="3">
-        <v>34822000</v>
+        <v>35444000</v>
       </c>
       <c r="H60" s="3">
-        <v>30834400</v>
+        <v>31385200</v>
       </c>
       <c r="I60" s="3">
-        <v>28953200</v>
+        <v>29470400</v>
       </c>
       <c r="J60" s="3">
-        <v>35047300</v>
+        <v>35673400</v>
       </c>
       <c r="K60" s="3">
         <v>34245800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>136842000</v>
+        <v>139286000</v>
       </c>
       <c r="E61" s="3">
-        <v>133658000</v>
+        <v>136046000</v>
       </c>
       <c r="F61" s="3">
-        <v>128170000</v>
+        <v>130460000</v>
       </c>
       <c r="G61" s="3">
-        <v>74112900</v>
+        <v>75436800</v>
       </c>
       <c r="H61" s="3">
-        <v>53928400</v>
+        <v>54891700</v>
       </c>
       <c r="I61" s="3">
-        <v>51122600</v>
+        <v>52035800</v>
       </c>
       <c r="J61" s="3">
-        <v>52658800</v>
+        <v>53599500</v>
       </c>
       <c r="K61" s="3">
         <v>48172600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38660400</v>
+        <v>39351000</v>
       </c>
       <c r="E62" s="3">
-        <v>37055400</v>
+        <v>37717300</v>
       </c>
       <c r="F62" s="3">
-        <v>36065100</v>
+        <v>36709400</v>
       </c>
       <c r="G62" s="3">
-        <v>22723700</v>
+        <v>23129700</v>
       </c>
       <c r="H62" s="3">
-        <v>23087700</v>
+        <v>23500100</v>
       </c>
       <c r="I62" s="3">
-        <v>24522300</v>
+        <v>24960400</v>
       </c>
       <c r="J62" s="3">
-        <v>28293000</v>
+        <v>28798500</v>
       </c>
       <c r="K62" s="3">
         <v>25551600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>264534000</v>
+        <v>269260000</v>
       </c>
       <c r="E66" s="3">
-        <v>252807000</v>
+        <v>257323000</v>
       </c>
       <c r="F66" s="3">
-        <v>242277000</v>
+        <v>246605000</v>
       </c>
       <c r="G66" s="3">
-        <v>147025000</v>
+        <v>149651000</v>
       </c>
       <c r="H66" s="3">
-        <v>121107000</v>
+        <v>123271000</v>
       </c>
       <c r="I66" s="3">
-        <v>117016000</v>
+        <v>119106000</v>
       </c>
       <c r="J66" s="3">
-        <v>126092000</v>
+        <v>128345000</v>
       </c>
       <c r="K66" s="3">
         <v>116902000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28024300</v>
+        <v>-28524900</v>
       </c>
       <c r="E72" s="3">
-        <v>-34048600</v>
+        <v>-34656800</v>
       </c>
       <c r="F72" s="3">
-        <v>-36762300</v>
+        <v>-37419000</v>
       </c>
       <c r="G72" s="3">
-        <v>-36862800</v>
+        <v>-37521300</v>
       </c>
       <c r="H72" s="3">
-        <v>-37269100</v>
+        <v>-37934900</v>
       </c>
       <c r="I72" s="3">
-        <v>-37335800</v>
+        <v>-38002700</v>
       </c>
       <c r="J72" s="3">
-        <v>-38143000</v>
+        <v>-38824400</v>
       </c>
       <c r="K72" s="3">
         <v>-36457900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51374400</v>
+        <v>52292100</v>
       </c>
       <c r="E76" s="3">
-        <v>45154400</v>
+        <v>45961000</v>
       </c>
       <c r="F76" s="3">
-        <v>38005500</v>
+        <v>38684400</v>
       </c>
       <c r="G76" s="3">
-        <v>33546000</v>
+        <v>34145300</v>
       </c>
       <c r="H76" s="3">
-        <v>32699600</v>
+        <v>33283700</v>
       </c>
       <c r="I76" s="3">
-        <v>32515500</v>
+        <v>33096400</v>
       </c>
       <c r="J76" s="3">
-        <v>31004700</v>
+        <v>31558600</v>
       </c>
       <c r="K76" s="3">
         <v>30011500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8465100</v>
+        <v>8616300</v>
       </c>
       <c r="E81" s="3">
-        <v>4418200</v>
+        <v>4497100</v>
       </c>
       <c r="F81" s="3">
-        <v>4399200</v>
+        <v>4477800</v>
       </c>
       <c r="G81" s="3">
-        <v>4091300</v>
+        <v>4164400</v>
       </c>
       <c r="H81" s="3">
-        <v>2291600</v>
+        <v>2332600</v>
       </c>
       <c r="I81" s="3">
-        <v>3661700</v>
+        <v>3727200</v>
       </c>
       <c r="J81" s="3">
-        <v>2830200</v>
+        <v>2880700</v>
       </c>
       <c r="K81" s="3">
         <v>3321700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28197800</v>
+        <v>28701500</v>
       </c>
       <c r="E83" s="3">
-        <v>28771300</v>
+        <v>29285200</v>
       </c>
       <c r="F83" s="3">
-        <v>26322000</v>
+        <v>26792200</v>
       </c>
       <c r="G83" s="3">
-        <v>18350000</v>
+        <v>18677800</v>
       </c>
       <c r="H83" s="3">
-        <v>14638500</v>
+        <v>14900000</v>
       </c>
       <c r="I83" s="3">
-        <v>15432000</v>
+        <v>15707700</v>
       </c>
       <c r="J83" s="3">
-        <v>14156000</v>
+        <v>14408900</v>
       </c>
       <c r="K83" s="3">
         <v>11596300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37877500</v>
+        <v>38554100</v>
       </c>
       <c r="E89" s="3">
-        <v>34108900</v>
+        <v>34718200</v>
       </c>
       <c r="F89" s="3">
-        <v>25043900</v>
+        <v>25491300</v>
       </c>
       <c r="G89" s="3">
-        <v>24412300</v>
+        <v>24848400</v>
       </c>
       <c r="H89" s="3">
-        <v>18980500</v>
+        <v>19319600</v>
       </c>
       <c r="I89" s="3">
-        <v>18196500</v>
+        <v>18521600</v>
       </c>
       <c r="J89" s="3">
-        <v>16430700</v>
+        <v>16724300</v>
       </c>
       <c r="K89" s="3">
         <v>15310000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17523700</v>
+        <v>-17836700</v>
       </c>
       <c r="E91" s="3">
-        <v>-14405700</v>
+        <v>-14663100</v>
       </c>
       <c r="F91" s="3">
-        <v>-13688400</v>
+        <v>-13932900</v>
       </c>
       <c r="G91" s="3">
-        <v>-10561000</v>
+        <v>-10749600</v>
       </c>
       <c r="H91" s="3">
-        <v>-9669100</v>
+        <v>-9841800</v>
       </c>
       <c r="I91" s="3">
-        <v>-9679600</v>
+        <v>-9852600</v>
       </c>
       <c r="J91" s="3">
-        <v>-8503100</v>
+        <v>-8655000</v>
       </c>
       <c r="K91" s="3">
         <v>-8336900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23599700</v>
+        <v>-24021300</v>
       </c>
       <c r="E94" s="3">
-        <v>-28992400</v>
+        <v>-29510300</v>
       </c>
       <c r="F94" s="3">
-        <v>-23962600</v>
+        <v>-24390700</v>
       </c>
       <c r="G94" s="3">
-        <v>-15055300</v>
+        <v>-15324300</v>
       </c>
       <c r="H94" s="3">
-        <v>-15126200</v>
+        <v>-15396400</v>
       </c>
       <c r="I94" s="3">
-        <v>-17789200</v>
+        <v>-18107000</v>
       </c>
       <c r="J94" s="3">
-        <v>-14397300</v>
+        <v>-14654500</v>
       </c>
       <c r="K94" s="3">
         <v>-15327300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3581300</v>
+        <v>-3645300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3327400</v>
+        <v>-3386900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3244900</v>
+        <v>-3302900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3767500</v>
+        <v>-3834800</v>
       </c>
       <c r="H96" s="3">
-        <v>-3260800</v>
+        <v>-3319000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1649400</v>
+        <v>-1678900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1688600</v>
+        <v>-1718700</v>
       </c>
       <c r="K96" s="3">
         <v>-1282100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16333400</v>
+        <v>-16625200</v>
       </c>
       <c r="E100" s="3">
-        <v>-11404200</v>
+        <v>-11607900</v>
       </c>
       <c r="F100" s="3">
-        <v>7999500</v>
+        <v>8142400</v>
       </c>
       <c r="G100" s="3">
-        <v>-7555200</v>
+        <v>-7690100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3448000</v>
+        <v>-3509600</v>
       </c>
       <c r="I100" s="3">
-        <v>-4860500</v>
+        <v>-4947300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1398700</v>
+        <v>-1423700</v>
       </c>
       <c r="K100" s="3">
         <v>-894200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>98400</v>
+        <v>100200</v>
       </c>
       <c r="E101" s="3">
-        <v>656000</v>
+        <v>667700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1096100</v>
+        <v>-1115700</v>
       </c>
       <c r="G101" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="H101" s="3">
-        <v>-18000</v>
+        <v>-18300</v>
       </c>
       <c r="I101" s="3">
-        <v>-239100</v>
+        <v>-243400</v>
       </c>
       <c r="J101" s="3">
-        <v>264500</v>
+        <v>269200</v>
       </c>
       <c r="K101" s="3">
         <v>272600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1957300</v>
+        <v>-1992300</v>
       </c>
       <c r="E102" s="3">
-        <v>-5631700</v>
+        <v>-5732300</v>
       </c>
       <c r="F102" s="3">
-        <v>7984700</v>
+        <v>8127400</v>
       </c>
       <c r="G102" s="3">
-        <v>1813400</v>
+        <v>1845800</v>
       </c>
       <c r="H102" s="3">
-        <v>388300</v>
+        <v>395200</v>
       </c>
       <c r="I102" s="3">
-        <v>-4692200</v>
+        <v>-4776100</v>
       </c>
       <c r="J102" s="3">
-        <v>899300</v>
+        <v>915400</v>
       </c>
       <c r="K102" s="3">
         <v>-639000</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>122978700</v>
+        <v>123801000</v>
       </c>
       <c r="E8" s="3">
-        <v>115885200</v>
+        <v>116660000</v>
       </c>
       <c r="F8" s="3">
-        <v>108765800</v>
+        <v>109493000</v>
       </c>
       <c r="G8" s="3">
-        <v>86723800</v>
+        <v>87303700</v>
       </c>
       <c r="H8" s="3">
-        <v>81473900</v>
+        <v>82018700</v>
       </c>
       <c r="I8" s="3">
-        <v>80710400</v>
+        <v>81250000</v>
       </c>
       <c r="J8" s="3">
-        <v>78716000</v>
+        <v>79242300</v>
       </c>
       <c r="K8" s="3">
         <v>70667900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>53896700</v>
+        <v>54257000</v>
       </c>
       <c r="E9" s="3">
-        <v>50167400</v>
+        <v>50502800</v>
       </c>
       <c r="F9" s="3">
-        <v>45138300</v>
+        <v>45440100</v>
       </c>
       <c r="G9" s="3">
-        <v>37162700</v>
+        <v>37411200</v>
       </c>
       <c r="H9" s="3">
-        <v>38489500</v>
+        <v>38746800</v>
       </c>
       <c r="I9" s="3">
-        <v>38604700</v>
+        <v>38862800</v>
       </c>
       <c r="J9" s="3">
-        <v>37674300</v>
+        <v>37926200</v>
       </c>
       <c r="K9" s="3">
         <v>42848100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>69082100</v>
+        <v>69543900</v>
       </c>
       <c r="E10" s="3">
-        <v>65717800</v>
+        <v>66157200</v>
       </c>
       <c r="F10" s="3">
-        <v>63627600</v>
+        <v>64053000</v>
       </c>
       <c r="G10" s="3">
-        <v>49561100</v>
+        <v>49892500</v>
       </c>
       <c r="H10" s="3">
-        <v>42984500</v>
+        <v>43271900</v>
       </c>
       <c r="I10" s="3">
-        <v>42105700</v>
+        <v>42387200</v>
       </c>
       <c r="J10" s="3">
-        <v>41041700</v>
+        <v>41316100</v>
       </c>
       <c r="K10" s="3">
         <v>27819900</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-550300</v>
+        <v>-554000</v>
       </c>
       <c r="E14" s="3">
-        <v>905700</v>
+        <v>911700</v>
       </c>
       <c r="F14" s="3">
-        <v>190600</v>
+        <v>191900</v>
       </c>
       <c r="G14" s="3">
-        <v>791500</v>
+        <v>796800</v>
       </c>
       <c r="H14" s="3">
-        <v>1296600</v>
+        <v>1305300</v>
       </c>
       <c r="I14" s="3">
-        <v>528800</v>
+        <v>532300</v>
       </c>
       <c r="J14" s="3">
-        <v>726900</v>
+        <v>731800</v>
       </c>
       <c r="K14" s="3">
         <v>151100</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28722000</v>
+        <v>28914000</v>
       </c>
       <c r="E15" s="3">
-        <v>29289500</v>
+        <v>29485400</v>
       </c>
       <c r="F15" s="3">
-        <v>26955900</v>
+        <v>27136100</v>
       </c>
       <c r="G15" s="3">
-        <v>18598100</v>
+        <v>18722400</v>
       </c>
       <c r="H15" s="3">
-        <v>14122500</v>
+        <v>14216900</v>
       </c>
       <c r="I15" s="3">
-        <v>13385900</v>
+        <v>13475400</v>
       </c>
       <c r="J15" s="3">
-        <v>13663700</v>
+        <v>13755100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106379400</v>
+        <v>107090700</v>
       </c>
       <c r="E17" s="3">
-        <v>102351800</v>
+        <v>103036100</v>
       </c>
       <c r="F17" s="3">
-        <v>94977200</v>
+        <v>95612200</v>
       </c>
       <c r="G17" s="3">
-        <v>76539600</v>
+        <v>77051300</v>
       </c>
       <c r="H17" s="3">
-        <v>72830700</v>
+        <v>73317700</v>
       </c>
       <c r="I17" s="3">
-        <v>70605900</v>
+        <v>71077900</v>
       </c>
       <c r="J17" s="3">
-        <v>68847300</v>
+        <v>69307600</v>
       </c>
       <c r="K17" s="3">
         <v>63493800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16599300</v>
+        <v>16710300</v>
       </c>
       <c r="E18" s="3">
-        <v>13533400</v>
+        <v>13623900</v>
       </c>
       <c r="F18" s="3">
-        <v>13788600</v>
+        <v>13880800</v>
       </c>
       <c r="G18" s="3">
-        <v>10184200</v>
+        <v>10252300</v>
       </c>
       <c r="H18" s="3">
-        <v>8643200</v>
+        <v>8701000</v>
       </c>
       <c r="I18" s="3">
-        <v>10104600</v>
+        <v>10172100</v>
       </c>
       <c r="J18" s="3">
-        <v>9868700</v>
+        <v>9934700</v>
       </c>
       <c r="K18" s="3">
         <v>7174200</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1337500</v>
+        <v>1346500</v>
       </c>
       <c r="E20" s="3">
-        <v>94800</v>
+        <v>95400</v>
       </c>
       <c r="F20" s="3">
-        <v>550300</v>
+        <v>554000</v>
       </c>
       <c r="G20" s="3">
-        <v>554600</v>
+        <v>558300</v>
       </c>
       <c r="H20" s="3">
-        <v>-838900</v>
+        <v>-844500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2016000</v>
+        <v>-2029400</v>
       </c>
       <c r="J20" s="3">
-        <v>-2048300</v>
+        <v>-2062000</v>
       </c>
       <c r="K20" s="3">
         <v>366500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46825200</v>
+        <v>46950200</v>
       </c>
       <c r="E21" s="3">
-        <v>43104000</v>
+        <v>43200300</v>
       </c>
       <c r="F21" s="3">
-        <v>41305500</v>
+        <v>41406100</v>
       </c>
       <c r="G21" s="3">
-        <v>29538200</v>
+        <v>29613300</v>
       </c>
       <c r="H21" s="3">
-        <v>22801300</v>
+        <v>22856100</v>
       </c>
       <c r="I21" s="3">
-        <v>23898500</v>
+        <v>23955400</v>
       </c>
       <c r="J21" s="3">
-        <v>22323200</v>
+        <v>22378000</v>
       </c>
       <c r="K21" s="3">
         <v>18913100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6115700</v>
+        <v>6156600</v>
       </c>
       <c r="E22" s="3">
-        <v>5413600</v>
+        <v>5449800</v>
       </c>
       <c r="F22" s="3">
-        <v>4994700</v>
+        <v>5028100</v>
       </c>
       <c r="G22" s="3">
-        <v>2920600</v>
+        <v>2940100</v>
       </c>
       <c r="H22" s="3">
-        <v>2255000</v>
+        <v>2270100</v>
       </c>
       <c r="I22" s="3">
-        <v>2710600</v>
+        <v>2728700</v>
       </c>
       <c r="J22" s="3">
-        <v>2923800</v>
+        <v>2943300</v>
       </c>
       <c r="K22" s="3">
         <v>2663300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11821100</v>
+        <v>11900200</v>
       </c>
       <c r="E23" s="3">
-        <v>8214600</v>
+        <v>8269500</v>
       </c>
       <c r="F23" s="3">
-        <v>9344300</v>
+        <v>9406700</v>
       </c>
       <c r="G23" s="3">
-        <v>7818300</v>
+        <v>7870600</v>
       </c>
       <c r="H23" s="3">
-        <v>5549300</v>
+        <v>5586400</v>
       </c>
       <c r="I23" s="3">
-        <v>5378000</v>
+        <v>5414000</v>
       </c>
       <c r="J23" s="3">
-        <v>4896700</v>
+        <v>4929400</v>
       </c>
       <c r="K23" s="3">
         <v>4877400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2086000</v>
+        <v>2099900</v>
       </c>
       <c r="E24" s="3">
-        <v>1865200</v>
+        <v>1877700</v>
       </c>
       <c r="F24" s="3">
-        <v>2077300</v>
+        <v>2091200</v>
       </c>
       <c r="G24" s="3">
-        <v>2146300</v>
+        <v>2160600</v>
       </c>
       <c r="H24" s="3">
-        <v>1964300</v>
+        <v>1977400</v>
       </c>
       <c r="I24" s="3">
-        <v>-600900</v>
+        <v>-604900</v>
       </c>
       <c r="J24" s="3">
-        <v>1554000</v>
+        <v>1564400</v>
       </c>
       <c r="K24" s="3">
         <v>1302500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9735200</v>
+        <v>9800300</v>
       </c>
       <c r="E26" s="3">
-        <v>6349400</v>
+        <v>6391900</v>
       </c>
       <c r="F26" s="3">
-        <v>7266900</v>
+        <v>7315500</v>
       </c>
       <c r="G26" s="3">
-        <v>5672000</v>
+        <v>5710000</v>
       </c>
       <c r="H26" s="3">
-        <v>3585000</v>
+        <v>3609000</v>
       </c>
       <c r="I26" s="3">
-        <v>5978900</v>
+        <v>6018900</v>
       </c>
       <c r="J26" s="3">
-        <v>3342700</v>
+        <v>3365000</v>
       </c>
       <c r="K26" s="3">
         <v>3574800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8139200</v>
+        <v>8193600</v>
       </c>
       <c r="E27" s="3">
-        <v>4274200</v>
+        <v>4302800</v>
       </c>
       <c r="F27" s="3">
-        <v>4477800</v>
+        <v>4507700</v>
       </c>
       <c r="G27" s="3">
-        <v>4164400</v>
+        <v>4192200</v>
       </c>
       <c r="H27" s="3">
-        <v>2332600</v>
+        <v>2348200</v>
       </c>
       <c r="I27" s="3">
-        <v>3727200</v>
+        <v>3752100</v>
       </c>
       <c r="J27" s="3">
-        <v>2880700</v>
+        <v>2900000</v>
       </c>
       <c r="K27" s="3">
         <v>3321700</v>
@@ -1533,10 +1533,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>477100</v>
+        <v>480300</v>
       </c>
       <c r="E29" s="3">
-        <v>222900</v>
+        <v>224400</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1337500</v>
+        <v>-1346500</v>
       </c>
       <c r="E32" s="3">
-        <v>-94800</v>
+        <v>-95400</v>
       </c>
       <c r="F32" s="3">
-        <v>-550300</v>
+        <v>-554000</v>
       </c>
       <c r="G32" s="3">
-        <v>-554600</v>
+        <v>-558300</v>
       </c>
       <c r="H32" s="3">
-        <v>838900</v>
+        <v>844500</v>
       </c>
       <c r="I32" s="3">
-        <v>2016000</v>
+        <v>2029400</v>
       </c>
       <c r="J32" s="3">
-        <v>2048300</v>
+        <v>2062000</v>
       </c>
       <c r="K32" s="3">
         <v>-366500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8616300</v>
+        <v>8673900</v>
       </c>
       <c r="E33" s="3">
-        <v>4497100</v>
+        <v>4527200</v>
       </c>
       <c r="F33" s="3">
-        <v>4477800</v>
+        <v>4507700</v>
       </c>
       <c r="G33" s="3">
-        <v>4164400</v>
+        <v>4192200</v>
       </c>
       <c r="H33" s="3">
-        <v>2332600</v>
+        <v>2348200</v>
       </c>
       <c r="I33" s="3">
-        <v>3727200</v>
+        <v>3752100</v>
       </c>
       <c r="J33" s="3">
-        <v>2880700</v>
+        <v>2900000</v>
       </c>
       <c r="K33" s="3">
         <v>3321700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8616300</v>
+        <v>8673900</v>
       </c>
       <c r="E35" s="3">
-        <v>4497100</v>
+        <v>4527200</v>
       </c>
       <c r="F35" s="3">
-        <v>4477800</v>
+        <v>4507700</v>
       </c>
       <c r="G35" s="3">
-        <v>4164400</v>
+        <v>4192200</v>
       </c>
       <c r="H35" s="3">
-        <v>2332600</v>
+        <v>2348200</v>
       </c>
       <c r="I35" s="3">
-        <v>3727200</v>
+        <v>3752100</v>
       </c>
       <c r="J35" s="3">
-        <v>2880700</v>
+        <v>2900000</v>
       </c>
       <c r="K35" s="3">
         <v>3321700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6210500</v>
+        <v>6252000</v>
       </c>
       <c r="E41" s="3">
-        <v>8202700</v>
+        <v>8257600</v>
       </c>
       <c r="F41" s="3">
-        <v>13934000</v>
+        <v>14027200</v>
       </c>
       <c r="G41" s="3">
-        <v>5807700</v>
+        <v>5846600</v>
       </c>
       <c r="H41" s="3">
-        <v>3961900</v>
+        <v>3988400</v>
       </c>
       <c r="I41" s="3">
-        <v>3566700</v>
+        <v>3590500</v>
       </c>
       <c r="J41" s="3">
-        <v>8342700</v>
+        <v>8398500</v>
       </c>
       <c r="K41" s="3">
         <v>7040500</v>
@@ -1952,19 +1952,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>102300</v>
+        <v>103000</v>
       </c>
       <c r="E42" s="3">
-        <v>100200</v>
+        <v>100800</v>
       </c>
       <c r="F42" s="3">
-        <v>100200</v>
+        <v>100800</v>
       </c>
       <c r="G42" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="H42" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25852100</v>
+        <v>26024900</v>
       </c>
       <c r="E43" s="3">
-        <v>23070400</v>
+        <v>23224700</v>
       </c>
       <c r="F43" s="3">
-        <v>20379300</v>
+        <v>20515500</v>
       </c>
       <c r="G43" s="3">
-        <v>17596500</v>
+        <v>17714200</v>
       </c>
       <c r="H43" s="3">
-        <v>16077000</v>
+        <v>16184500</v>
       </c>
       <c r="I43" s="3">
-        <v>13971700</v>
+        <v>14065100</v>
       </c>
       <c r="J43" s="3">
-        <v>15813200</v>
+        <v>15918900</v>
       </c>
       <c r="K43" s="3">
         <v>12311900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2841900</v>
+        <v>2860900</v>
       </c>
       <c r="E44" s="3">
-        <v>3074500</v>
+        <v>3095100</v>
       </c>
       <c r="F44" s="3">
-        <v>2902200</v>
+        <v>2921600</v>
       </c>
       <c r="G44" s="3">
-        <v>1688600</v>
+        <v>1699900</v>
       </c>
       <c r="H44" s="3">
-        <v>1927700</v>
+        <v>1940500</v>
       </c>
       <c r="I44" s="3">
-        <v>2137600</v>
+        <v>2151900</v>
       </c>
       <c r="J44" s="3">
-        <v>1754300</v>
+        <v>1766000</v>
       </c>
       <c r="K44" s="3">
         <v>1885400</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7147400</v>
+        <v>7195200</v>
       </c>
       <c r="E45" s="3">
-        <v>7334800</v>
+        <v>7383800</v>
       </c>
       <c r="F45" s="3">
-        <v>2845200</v>
+        <v>2864200</v>
       </c>
       <c r="G45" s="3">
-        <v>1463500</v>
+        <v>1473300</v>
       </c>
       <c r="H45" s="3">
-        <v>1572300</v>
+        <v>1582800</v>
       </c>
       <c r="I45" s="3">
-        <v>2284100</v>
+        <v>2299400</v>
       </c>
       <c r="J45" s="3">
-        <v>2774100</v>
+        <v>2792600</v>
       </c>
       <c r="K45" s="3">
         <v>11611600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42154200</v>
+        <v>42436000</v>
       </c>
       <c r="E46" s="3">
-        <v>41782600</v>
+        <v>42062000</v>
       </c>
       <c r="F46" s="3">
-        <v>40160800</v>
+        <v>40429300</v>
       </c>
       <c r="G46" s="3">
-        <v>26587600</v>
+        <v>26765300</v>
       </c>
       <c r="H46" s="3">
-        <v>23551800</v>
+        <v>23709300</v>
       </c>
       <c r="I46" s="3">
-        <v>21960100</v>
+        <v>22107000</v>
       </c>
       <c r="J46" s="3">
-        <v>28686500</v>
+        <v>28878300</v>
       </c>
       <c r="K46" s="3">
         <v>32853400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6851200</v>
+        <v>6897000</v>
       </c>
       <c r="E47" s="3">
-        <v>6218000</v>
+        <v>6259600</v>
       </c>
       <c r="F47" s="3">
-        <v>7494100</v>
+        <v>7544300</v>
       </c>
       <c r="G47" s="3">
-        <v>4829900</v>
+        <v>4862200</v>
       </c>
       <c r="H47" s="3">
-        <v>2327200</v>
+        <v>2342700</v>
       </c>
       <c r="I47" s="3">
-        <v>6856600</v>
+        <v>6902500</v>
       </c>
       <c r="J47" s="3">
-        <v>9273200</v>
+        <v>9335200</v>
       </c>
       <c r="K47" s="3">
         <v>4442500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107104000</v>
+        <v>107820000</v>
       </c>
       <c r="E48" s="3">
-        <v>99663900</v>
+        <v>100330000</v>
       </c>
       <c r="F48" s="3">
-        <v>98296200</v>
+        <v>98953400</v>
       </c>
       <c r="G48" s="3">
-        <v>72740300</v>
+        <v>73226600</v>
       </c>
       <c r="H48" s="3">
-        <v>54524500</v>
+        <v>54889100</v>
       </c>
       <c r="I48" s="3">
-        <v>50482900</v>
+        <v>50820400</v>
       </c>
       <c r="J48" s="3">
-        <v>50353700</v>
+        <v>50690300</v>
       </c>
       <c r="K48" s="3">
         <v>45565400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>151412000</v>
+        <v>152425000</v>
       </c>
       <c r="E49" s="3">
-        <v>142848000</v>
+        <v>143803000</v>
       </c>
       <c r="F49" s="3">
-        <v>127145000</v>
+        <v>127995000</v>
       </c>
       <c r="G49" s="3">
-        <v>73446700</v>
+        <v>73937800</v>
       </c>
       <c r="H49" s="3">
-        <v>69944700</v>
+        <v>70412300</v>
       </c>
       <c r="I49" s="3">
-        <v>67699300</v>
+        <v>68151900</v>
       </c>
       <c r="J49" s="3">
-        <v>65259100</v>
+        <v>65695400</v>
       </c>
       <c r="K49" s="3">
         <v>58211100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14029900</v>
+        <v>14123700</v>
       </c>
       <c r="E52" s="3">
-        <v>12772000</v>
+        <v>12857400</v>
       </c>
       <c r="F52" s="3">
-        <v>12192700</v>
+        <v>12274200</v>
       </c>
       <c r="G52" s="3">
-        <v>6192200</v>
+        <v>6233600</v>
       </c>
       <c r="H52" s="3">
-        <v>6206200</v>
+        <v>6247700</v>
       </c>
       <c r="I52" s="3">
-        <v>5203600</v>
+        <v>5238400</v>
       </c>
       <c r="J52" s="3">
-        <v>6331100</v>
+        <v>6373400</v>
       </c>
       <c r="K52" s="3">
         <v>5841000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>321552000</v>
+        <v>323701000</v>
       </c>
       <c r="E54" s="3">
-        <v>303284000</v>
+        <v>305312000</v>
       </c>
       <c r="F54" s="3">
-        <v>285289000</v>
+        <v>287197000</v>
       </c>
       <c r="G54" s="3">
-        <v>183797000</v>
+        <v>185026000</v>
       </c>
       <c r="H54" s="3">
-        <v>156554000</v>
+        <v>157601000</v>
       </c>
       <c r="I54" s="3">
-        <v>152203000</v>
+        <v>153220000</v>
       </c>
       <c r="J54" s="3">
-        <v>159904000</v>
+        <v>160973000</v>
       </c>
       <c r="K54" s="3">
         <v>146914000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12902300</v>
+        <v>12988600</v>
       </c>
       <c r="E57" s="3">
-        <v>11195500</v>
+        <v>11270300</v>
       </c>
       <c r="F57" s="3">
-        <v>10436200</v>
+        <v>10506000</v>
       </c>
       <c r="G57" s="3">
-        <v>10133600</v>
+        <v>10201400</v>
       </c>
       <c r="H57" s="3">
-        <v>11521800</v>
+        <v>11598800</v>
       </c>
       <c r="I57" s="3">
-        <v>11774800</v>
+        <v>11853500</v>
       </c>
       <c r="J57" s="3">
-        <v>11186800</v>
+        <v>11261600</v>
       </c>
       <c r="K57" s="3">
         <v>11266600</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20271600</v>
+        <v>20407100</v>
       </c>
       <c r="E58" s="3">
-        <v>16947200</v>
+        <v>17060500</v>
       </c>
       <c r="F58" s="3">
-        <v>17351000</v>
+        <v>17467000</v>
       </c>
       <c r="G58" s="3">
-        <v>14013700</v>
+        <v>14107400</v>
       </c>
       <c r="H58" s="3">
-        <v>9279600</v>
+        <v>9341700</v>
       </c>
       <c r="I58" s="3">
-        <v>7486600</v>
+        <v>7536700</v>
       </c>
       <c r="J58" s="3">
-        <v>12229300</v>
+        <v>12311000</v>
       </c>
       <c r="K58" s="3">
         <v>12831500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15705500</v>
+        <v>15810500</v>
       </c>
       <c r="E59" s="3">
-        <v>13644300</v>
+        <v>13735500</v>
       </c>
       <c r="F59" s="3">
-        <v>12203400</v>
+        <v>12285000</v>
       </c>
       <c r="G59" s="3">
-        <v>11296700</v>
+        <v>11372200</v>
       </c>
       <c r="H59" s="3">
-        <v>10583800</v>
+        <v>10654500</v>
       </c>
       <c r="I59" s="3">
-        <v>10209000</v>
+        <v>10277300</v>
       </c>
       <c r="J59" s="3">
-        <v>12257300</v>
+        <v>12339200</v>
       </c>
       <c r="K59" s="3">
         <v>10147800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48879400</v>
+        <v>49206200</v>
       </c>
       <c r="E60" s="3">
-        <v>41787000</v>
+        <v>42066300</v>
       </c>
       <c r="F60" s="3">
-        <v>39990700</v>
+        <v>40258100</v>
       </c>
       <c r="G60" s="3">
-        <v>35444000</v>
+        <v>35681000</v>
       </c>
       <c r="H60" s="3">
-        <v>31385200</v>
+        <v>31595000</v>
       </c>
       <c r="I60" s="3">
-        <v>29470400</v>
+        <v>29667500</v>
       </c>
       <c r="J60" s="3">
-        <v>35673400</v>
+        <v>35911900</v>
       </c>
       <c r="K60" s="3">
         <v>34245800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>139286000</v>
+        <v>140218000</v>
       </c>
       <c r="E61" s="3">
-        <v>136046000</v>
+        <v>136955000</v>
       </c>
       <c r="F61" s="3">
-        <v>130460000</v>
+        <v>131332000</v>
       </c>
       <c r="G61" s="3">
-        <v>75436800</v>
+        <v>75941200</v>
       </c>
       <c r="H61" s="3">
-        <v>54891700</v>
+        <v>55258700</v>
       </c>
       <c r="I61" s="3">
-        <v>52035800</v>
+        <v>52383700</v>
       </c>
       <c r="J61" s="3">
-        <v>53599500</v>
+        <v>53957800</v>
       </c>
       <c r="K61" s="3">
         <v>48172600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39351000</v>
+        <v>39614100</v>
       </c>
       <c r="E62" s="3">
-        <v>37717300</v>
+        <v>37969500</v>
       </c>
       <c r="F62" s="3">
-        <v>36709400</v>
+        <v>36954800</v>
       </c>
       <c r="G62" s="3">
-        <v>23129700</v>
+        <v>23284300</v>
       </c>
       <c r="H62" s="3">
-        <v>23500100</v>
+        <v>23657200</v>
       </c>
       <c r="I62" s="3">
-        <v>24960400</v>
+        <v>25127300</v>
       </c>
       <c r="J62" s="3">
-        <v>28798500</v>
+        <v>28991000</v>
       </c>
       <c r="K62" s="3">
         <v>25551600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>269260000</v>
+        <v>271060000</v>
       </c>
       <c r="E66" s="3">
-        <v>257323000</v>
+        <v>259044000</v>
       </c>
       <c r="F66" s="3">
-        <v>246605000</v>
+        <v>248254000</v>
       </c>
       <c r="G66" s="3">
-        <v>149651000</v>
+        <v>150652000</v>
       </c>
       <c r="H66" s="3">
-        <v>123271000</v>
+        <v>124095000</v>
       </c>
       <c r="I66" s="3">
-        <v>119106000</v>
+        <v>119903000</v>
       </c>
       <c r="J66" s="3">
-        <v>128345000</v>
+        <v>129203000</v>
       </c>
       <c r="K66" s="3">
         <v>116902000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28524900</v>
+        <v>-28715600</v>
       </c>
       <c r="E72" s="3">
-        <v>-34656800</v>
+        <v>-34888500</v>
       </c>
       <c r="F72" s="3">
-        <v>-37419000</v>
+        <v>-37669200</v>
       </c>
       <c r="G72" s="3">
-        <v>-37521300</v>
+        <v>-37772200</v>
       </c>
       <c r="H72" s="3">
-        <v>-37934900</v>
+        <v>-38188500</v>
       </c>
       <c r="I72" s="3">
-        <v>-38002700</v>
+        <v>-38256800</v>
       </c>
       <c r="J72" s="3">
-        <v>-38824400</v>
+        <v>-39084000</v>
       </c>
       <c r="K72" s="3">
         <v>-36457900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52292100</v>
+        <v>52641700</v>
       </c>
       <c r="E76" s="3">
-        <v>45961000</v>
+        <v>46268300</v>
       </c>
       <c r="F76" s="3">
-        <v>38684400</v>
+        <v>38943000</v>
       </c>
       <c r="G76" s="3">
-        <v>34145300</v>
+        <v>34373600</v>
       </c>
       <c r="H76" s="3">
-        <v>33283700</v>
+        <v>33506300</v>
       </c>
       <c r="I76" s="3">
-        <v>33096400</v>
+        <v>33317600</v>
       </c>
       <c r="J76" s="3">
-        <v>31558600</v>
+        <v>31769600</v>
       </c>
       <c r="K76" s="3">
         <v>30011500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8616300</v>
+        <v>8673900</v>
       </c>
       <c r="E81" s="3">
-        <v>4497100</v>
+        <v>4527200</v>
       </c>
       <c r="F81" s="3">
-        <v>4477800</v>
+        <v>4507700</v>
       </c>
       <c r="G81" s="3">
-        <v>4164400</v>
+        <v>4192200</v>
       </c>
       <c r="H81" s="3">
-        <v>2332600</v>
+        <v>2348200</v>
       </c>
       <c r="I81" s="3">
-        <v>3727200</v>
+        <v>3752100</v>
       </c>
       <c r="J81" s="3">
-        <v>2880700</v>
+        <v>2900000</v>
       </c>
       <c r="K81" s="3">
         <v>3321700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28701500</v>
+        <v>28893400</v>
       </c>
       <c r="E83" s="3">
-        <v>29285200</v>
+        <v>29481000</v>
       </c>
       <c r="F83" s="3">
-        <v>26792200</v>
+        <v>26971300</v>
       </c>
       <c r="G83" s="3">
-        <v>18677800</v>
+        <v>18802600</v>
       </c>
       <c r="H83" s="3">
-        <v>14900000</v>
+        <v>14999600</v>
       </c>
       <c r="I83" s="3">
-        <v>15707700</v>
+        <v>15812700</v>
       </c>
       <c r="J83" s="3">
-        <v>14408900</v>
+        <v>14505300</v>
       </c>
       <c r="K83" s="3">
         <v>11596300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38554100</v>
+        <v>38811900</v>
       </c>
       <c r="E89" s="3">
-        <v>34718200</v>
+        <v>34950300</v>
       </c>
       <c r="F89" s="3">
-        <v>25491300</v>
+        <v>25661700</v>
       </c>
       <c r="G89" s="3">
-        <v>24848400</v>
+        <v>25014500</v>
       </c>
       <c r="H89" s="3">
-        <v>19319600</v>
+        <v>19448800</v>
       </c>
       <c r="I89" s="3">
-        <v>18521600</v>
+        <v>18645400</v>
       </c>
       <c r="J89" s="3">
-        <v>16724300</v>
+        <v>16836100</v>
       </c>
       <c r="K89" s="3">
         <v>15310000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17836700</v>
+        <v>-17955900</v>
       </c>
       <c r="E91" s="3">
-        <v>-14663100</v>
+        <v>-14761100</v>
       </c>
       <c r="F91" s="3">
-        <v>-13932900</v>
+        <v>-14026100</v>
       </c>
       <c r="G91" s="3">
-        <v>-10749600</v>
+        <v>-10821500</v>
       </c>
       <c r="H91" s="3">
-        <v>-9841800</v>
+        <v>-9907600</v>
       </c>
       <c r="I91" s="3">
-        <v>-9852600</v>
+        <v>-9918400</v>
       </c>
       <c r="J91" s="3">
-        <v>-8655000</v>
+        <v>-8712900</v>
       </c>
       <c r="K91" s="3">
         <v>-8336900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24021300</v>
+        <v>-24181900</v>
       </c>
       <c r="E94" s="3">
-        <v>-29510300</v>
+        <v>-29707600</v>
       </c>
       <c r="F94" s="3">
-        <v>-24390700</v>
+        <v>-24553800</v>
       </c>
       <c r="G94" s="3">
-        <v>-15324300</v>
+        <v>-15426700</v>
       </c>
       <c r="H94" s="3">
-        <v>-15396400</v>
+        <v>-15499400</v>
       </c>
       <c r="I94" s="3">
-        <v>-18107000</v>
+        <v>-18228100</v>
       </c>
       <c r="J94" s="3">
-        <v>-14654500</v>
+        <v>-14752400</v>
       </c>
       <c r="K94" s="3">
         <v>-15327300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3645300</v>
+        <v>-3669700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3386900</v>
+        <v>-3409500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3302900</v>
+        <v>-3324900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3834800</v>
+        <v>-3860500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3319000</v>
+        <v>-3341200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1678900</v>
+        <v>-1690100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1718700</v>
+        <v>-1730200</v>
       </c>
       <c r="K96" s="3">
         <v>-1282100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16625200</v>
+        <v>-16736300</v>
       </c>
       <c r="E100" s="3">
-        <v>-11607900</v>
+        <v>-11685500</v>
       </c>
       <c r="F100" s="3">
-        <v>8142400</v>
+        <v>8196900</v>
       </c>
       <c r="G100" s="3">
-        <v>-7690100</v>
+        <v>-7741600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3509600</v>
+        <v>-3533100</v>
       </c>
       <c r="I100" s="3">
-        <v>-4947300</v>
+        <v>-4980400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1423700</v>
+        <v>-1433200</v>
       </c>
       <c r="K100" s="3">
         <v>-894200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100200</v>
+        <v>100800</v>
       </c>
       <c r="E101" s="3">
-        <v>667700</v>
+        <v>672100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1115700</v>
+        <v>-1123100</v>
       </c>
       <c r="G101" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="H101" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="I101" s="3">
-        <v>-243400</v>
+        <v>-245000</v>
       </c>
       <c r="J101" s="3">
-        <v>269200</v>
+        <v>271000</v>
       </c>
       <c r="K101" s="3">
         <v>272600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1992300</v>
+        <v>-2005600</v>
       </c>
       <c r="E102" s="3">
-        <v>-5732300</v>
+        <v>-5770700</v>
       </c>
       <c r="F102" s="3">
-        <v>8127400</v>
+        <v>8181700</v>
       </c>
       <c r="G102" s="3">
-        <v>1845800</v>
+        <v>1858100</v>
       </c>
       <c r="H102" s="3">
-        <v>395200</v>
+        <v>397900</v>
       </c>
       <c r="I102" s="3">
-        <v>-4776100</v>
+        <v>-4808000</v>
       </c>
       <c r="J102" s="3">
-        <v>915400</v>
+        <v>921500</v>
       </c>
       <c r="K102" s="3">
         <v>-639000</v>

--- a/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>123801000</v>
+        <v>123903700</v>
       </c>
       <c r="E8" s="3">
-        <v>116660000</v>
+        <v>116756900</v>
       </c>
       <c r="F8" s="3">
-        <v>109493000</v>
+        <v>109583900</v>
       </c>
       <c r="G8" s="3">
-        <v>87303700</v>
+        <v>87376100</v>
       </c>
       <c r="H8" s="3">
-        <v>82018700</v>
+        <v>82086800</v>
       </c>
       <c r="I8" s="3">
-        <v>81250000</v>
+        <v>81317500</v>
       </c>
       <c r="J8" s="3">
-        <v>79242300</v>
+        <v>79308100</v>
       </c>
       <c r="K8" s="3">
         <v>70667900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>54257000</v>
+        <v>54302100</v>
       </c>
       <c r="E9" s="3">
-        <v>50502800</v>
+        <v>50544700</v>
       </c>
       <c r="F9" s="3">
-        <v>45440100</v>
+        <v>45477800</v>
       </c>
       <c r="G9" s="3">
-        <v>37411200</v>
+        <v>37442300</v>
       </c>
       <c r="H9" s="3">
-        <v>38746800</v>
+        <v>38779000</v>
       </c>
       <c r="I9" s="3">
-        <v>38862800</v>
+        <v>38895100</v>
       </c>
       <c r="J9" s="3">
-        <v>37926200</v>
+        <v>37957600</v>
       </c>
       <c r="K9" s="3">
         <v>42848100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>69543900</v>
+        <v>69601700</v>
       </c>
       <c r="E10" s="3">
-        <v>66157200</v>
+        <v>66212100</v>
       </c>
       <c r="F10" s="3">
-        <v>64053000</v>
+        <v>64106100</v>
       </c>
       <c r="G10" s="3">
-        <v>49892500</v>
+        <v>49933900</v>
       </c>
       <c r="H10" s="3">
-        <v>43271900</v>
+        <v>43307800</v>
       </c>
       <c r="I10" s="3">
-        <v>42387200</v>
+        <v>42422400</v>
       </c>
       <c r="J10" s="3">
-        <v>41316100</v>
+        <v>41350400</v>
       </c>
       <c r="K10" s="3">
         <v>27819900</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-554000</v>
+        <v>-554400</v>
       </c>
       <c r="E14" s="3">
-        <v>911700</v>
+        <v>912500</v>
       </c>
       <c r="F14" s="3">
-        <v>191900</v>
+        <v>192000</v>
       </c>
       <c r="G14" s="3">
-        <v>796800</v>
+        <v>797500</v>
       </c>
       <c r="H14" s="3">
-        <v>1305300</v>
+        <v>1306300</v>
       </c>
       <c r="I14" s="3">
-        <v>532300</v>
+        <v>532700</v>
       </c>
       <c r="J14" s="3">
-        <v>731800</v>
+        <v>732400</v>
       </c>
       <c r="K14" s="3">
         <v>151100</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28914000</v>
+        <v>28938000</v>
       </c>
       <c r="E15" s="3">
-        <v>29485400</v>
+        <v>29509800</v>
       </c>
       <c r="F15" s="3">
-        <v>27136100</v>
+        <v>27158600</v>
       </c>
       <c r="G15" s="3">
-        <v>18722400</v>
+        <v>18738000</v>
       </c>
       <c r="H15" s="3">
-        <v>14216900</v>
+        <v>14228700</v>
       </c>
       <c r="I15" s="3">
-        <v>13475400</v>
+        <v>13486600</v>
       </c>
       <c r="J15" s="3">
-        <v>13755100</v>
+        <v>13766500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>107090700</v>
+        <v>107179600</v>
       </c>
       <c r="E17" s="3">
-        <v>103036100</v>
+        <v>103121700</v>
       </c>
       <c r="F17" s="3">
-        <v>95612200</v>
+        <v>95691600</v>
       </c>
       <c r="G17" s="3">
-        <v>77051300</v>
+        <v>77115300</v>
       </c>
       <c r="H17" s="3">
-        <v>73317700</v>
+        <v>73378600</v>
       </c>
       <c r="I17" s="3">
-        <v>71077900</v>
+        <v>71136900</v>
       </c>
       <c r="J17" s="3">
-        <v>69307600</v>
+        <v>69365100</v>
       </c>
       <c r="K17" s="3">
         <v>63493800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16710300</v>
+        <v>16724200</v>
       </c>
       <c r="E18" s="3">
-        <v>13623900</v>
+        <v>13635200</v>
       </c>
       <c r="F18" s="3">
-        <v>13880800</v>
+        <v>13892300</v>
       </c>
       <c r="G18" s="3">
-        <v>10252300</v>
+        <v>10260800</v>
       </c>
       <c r="H18" s="3">
-        <v>8701000</v>
+        <v>8708200</v>
       </c>
       <c r="I18" s="3">
-        <v>10172100</v>
+        <v>10180600</v>
       </c>
       <c r="J18" s="3">
-        <v>9934700</v>
+        <v>9942900</v>
       </c>
       <c r="K18" s="3">
         <v>7174200</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1346500</v>
+        <v>1347600</v>
       </c>
       <c r="E20" s="3">
-        <v>95400</v>
+        <v>95500</v>
       </c>
       <c r="F20" s="3">
-        <v>554000</v>
+        <v>554400</v>
       </c>
       <c r="G20" s="3">
-        <v>558300</v>
+        <v>558800</v>
       </c>
       <c r="H20" s="3">
-        <v>-844500</v>
+        <v>-845200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2029400</v>
+        <v>-2031100</v>
       </c>
       <c r="J20" s="3">
-        <v>-2062000</v>
+        <v>-2063700</v>
       </c>
       <c r="K20" s="3">
         <v>366500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46950200</v>
+        <v>46978500</v>
       </c>
       <c r="E21" s="3">
-        <v>43200300</v>
+        <v>43225300</v>
       </c>
       <c r="F21" s="3">
-        <v>41406100</v>
+        <v>41430500</v>
       </c>
       <c r="G21" s="3">
-        <v>29613300</v>
+        <v>29630900</v>
       </c>
       <c r="H21" s="3">
-        <v>22856100</v>
+        <v>22869500</v>
       </c>
       <c r="I21" s="3">
-        <v>23955400</v>
+        <v>23969400</v>
       </c>
       <c r="J21" s="3">
-        <v>22378000</v>
+        <v>22391200</v>
       </c>
       <c r="K21" s="3">
         <v>18913100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6156600</v>
+        <v>6161700</v>
       </c>
       <c r="E22" s="3">
-        <v>5449800</v>
+        <v>5454300</v>
       </c>
       <c r="F22" s="3">
-        <v>5028100</v>
+        <v>5032200</v>
       </c>
       <c r="G22" s="3">
-        <v>2940100</v>
+        <v>2942500</v>
       </c>
       <c r="H22" s="3">
-        <v>2270100</v>
+        <v>2272000</v>
       </c>
       <c r="I22" s="3">
-        <v>2728700</v>
+        <v>2730900</v>
       </c>
       <c r="J22" s="3">
-        <v>2943300</v>
+        <v>2945800</v>
       </c>
       <c r="K22" s="3">
         <v>2663300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11900200</v>
+        <v>11910000</v>
       </c>
       <c r="E23" s="3">
-        <v>8269500</v>
+        <v>8276400</v>
       </c>
       <c r="F23" s="3">
-        <v>9406700</v>
+        <v>9414500</v>
       </c>
       <c r="G23" s="3">
-        <v>7870600</v>
+        <v>7877100</v>
       </c>
       <c r="H23" s="3">
-        <v>5586400</v>
+        <v>5591000</v>
       </c>
       <c r="I23" s="3">
-        <v>5414000</v>
+        <v>5418500</v>
       </c>
       <c r="J23" s="3">
-        <v>4929400</v>
+        <v>4933500</v>
       </c>
       <c r="K23" s="3">
         <v>4877400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2099900</v>
+        <v>2101600</v>
       </c>
       <c r="E24" s="3">
-        <v>1877700</v>
+        <v>1879200</v>
       </c>
       <c r="F24" s="3">
-        <v>2091200</v>
+        <v>2093000</v>
       </c>
       <c r="G24" s="3">
-        <v>2160600</v>
+        <v>2162400</v>
       </c>
       <c r="H24" s="3">
-        <v>1977400</v>
+        <v>1979000</v>
       </c>
       <c r="I24" s="3">
-        <v>-604900</v>
+        <v>-605400</v>
       </c>
       <c r="J24" s="3">
-        <v>1564400</v>
+        <v>1565700</v>
       </c>
       <c r="K24" s="3">
         <v>1302500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9800300</v>
+        <v>9808400</v>
       </c>
       <c r="E26" s="3">
-        <v>6391900</v>
+        <v>6397200</v>
       </c>
       <c r="F26" s="3">
-        <v>7315500</v>
+        <v>7321600</v>
       </c>
       <c r="G26" s="3">
-        <v>5710000</v>
+        <v>5714700</v>
       </c>
       <c r="H26" s="3">
-        <v>3609000</v>
+        <v>3612000</v>
       </c>
       <c r="I26" s="3">
-        <v>6018900</v>
+        <v>6023900</v>
       </c>
       <c r="J26" s="3">
-        <v>3365000</v>
+        <v>3367800</v>
       </c>
       <c r="K26" s="3">
         <v>3574800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8193600</v>
+        <v>8200400</v>
       </c>
       <c r="E27" s="3">
-        <v>4302800</v>
+        <v>4306400</v>
       </c>
       <c r="F27" s="3">
-        <v>4507700</v>
+        <v>4511400</v>
       </c>
       <c r="G27" s="3">
-        <v>4192200</v>
+        <v>4195700</v>
       </c>
       <c r="H27" s="3">
-        <v>2348200</v>
+        <v>2350100</v>
       </c>
       <c r="I27" s="3">
-        <v>3752100</v>
+        <v>3755200</v>
       </c>
       <c r="J27" s="3">
-        <v>2900000</v>
+        <v>2902400</v>
       </c>
       <c r="K27" s="3">
         <v>3321700</v>
@@ -1533,10 +1533,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>480300</v>
+        <v>480700</v>
       </c>
       <c r="E29" s="3">
-        <v>224400</v>
+        <v>224600</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1346500</v>
+        <v>-1347600</v>
       </c>
       <c r="E32" s="3">
-        <v>-95400</v>
+        <v>-95500</v>
       </c>
       <c r="F32" s="3">
-        <v>-554000</v>
+        <v>-554400</v>
       </c>
       <c r="G32" s="3">
-        <v>-558300</v>
+        <v>-558800</v>
       </c>
       <c r="H32" s="3">
-        <v>844500</v>
+        <v>845200</v>
       </c>
       <c r="I32" s="3">
-        <v>2029400</v>
+        <v>2031100</v>
       </c>
       <c r="J32" s="3">
-        <v>2062000</v>
+        <v>2063700</v>
       </c>
       <c r="K32" s="3">
         <v>-366500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8673900</v>
+        <v>8681100</v>
       </c>
       <c r="E33" s="3">
-        <v>4527200</v>
+        <v>4531000</v>
       </c>
       <c r="F33" s="3">
-        <v>4507700</v>
+        <v>4511400</v>
       </c>
       <c r="G33" s="3">
-        <v>4192200</v>
+        <v>4195700</v>
       </c>
       <c r="H33" s="3">
-        <v>2348200</v>
+        <v>2350100</v>
       </c>
       <c r="I33" s="3">
-        <v>3752100</v>
+        <v>3755200</v>
       </c>
       <c r="J33" s="3">
-        <v>2900000</v>
+        <v>2902400</v>
       </c>
       <c r="K33" s="3">
         <v>3321700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8673900</v>
+        <v>8681100</v>
       </c>
       <c r="E35" s="3">
-        <v>4527200</v>
+        <v>4531000</v>
       </c>
       <c r="F35" s="3">
-        <v>4507700</v>
+        <v>4511400</v>
       </c>
       <c r="G35" s="3">
-        <v>4192200</v>
+        <v>4195700</v>
       </c>
       <c r="H35" s="3">
-        <v>2348200</v>
+        <v>2350100</v>
       </c>
       <c r="I35" s="3">
-        <v>3752100</v>
+        <v>3755200</v>
       </c>
       <c r="J35" s="3">
-        <v>2900000</v>
+        <v>2902400</v>
       </c>
       <c r="K35" s="3">
         <v>3321700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6252000</v>
+        <v>6257200</v>
       </c>
       <c r="E41" s="3">
-        <v>8257600</v>
+        <v>8264400</v>
       </c>
       <c r="F41" s="3">
-        <v>14027200</v>
+        <v>14038800</v>
       </c>
       <c r="G41" s="3">
-        <v>5846600</v>
+        <v>5851400</v>
       </c>
       <c r="H41" s="3">
-        <v>3988400</v>
+        <v>3991700</v>
       </c>
       <c r="I41" s="3">
-        <v>3590500</v>
+        <v>3593500</v>
       </c>
       <c r="J41" s="3">
-        <v>8398500</v>
+        <v>8405500</v>
       </c>
       <c r="K41" s="3">
         <v>7040500</v>
@@ -1952,16 +1952,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>103000</v>
+        <v>103100</v>
       </c>
       <c r="E42" s="3">
-        <v>100800</v>
+        <v>100900</v>
       </c>
       <c r="F42" s="3">
-        <v>100800</v>
+        <v>100900</v>
       </c>
       <c r="G42" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="H42" s="3">
         <v>13000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26024900</v>
+        <v>26046500</v>
       </c>
       <c r="E43" s="3">
-        <v>23224700</v>
+        <v>23244000</v>
       </c>
       <c r="F43" s="3">
-        <v>20515500</v>
+        <v>20532500</v>
       </c>
       <c r="G43" s="3">
-        <v>17714200</v>
+        <v>17728900</v>
       </c>
       <c r="H43" s="3">
-        <v>16184500</v>
+        <v>16198000</v>
       </c>
       <c r="I43" s="3">
-        <v>14065100</v>
+        <v>14076800</v>
       </c>
       <c r="J43" s="3">
-        <v>15918900</v>
+        <v>15932100</v>
       </c>
       <c r="K43" s="3">
         <v>12311900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2860900</v>
+        <v>2863300</v>
       </c>
       <c r="E44" s="3">
-        <v>3095100</v>
+        <v>3097700</v>
       </c>
       <c r="F44" s="3">
-        <v>2921600</v>
+        <v>2924100</v>
       </c>
       <c r="G44" s="3">
-        <v>1699900</v>
+        <v>1701300</v>
       </c>
       <c r="H44" s="3">
-        <v>1940500</v>
+        <v>1942100</v>
       </c>
       <c r="I44" s="3">
-        <v>2151900</v>
+        <v>2153700</v>
       </c>
       <c r="J44" s="3">
-        <v>1766000</v>
+        <v>1767500</v>
       </c>
       <c r="K44" s="3">
         <v>1885400</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7195200</v>
+        <v>7201100</v>
       </c>
       <c r="E45" s="3">
-        <v>7383800</v>
+        <v>7389900</v>
       </c>
       <c r="F45" s="3">
-        <v>2864200</v>
+        <v>2866600</v>
       </c>
       <c r="G45" s="3">
-        <v>1473300</v>
+        <v>1474500</v>
       </c>
       <c r="H45" s="3">
-        <v>1582800</v>
+        <v>1584100</v>
       </c>
       <c r="I45" s="3">
-        <v>2299400</v>
+        <v>2301300</v>
       </c>
       <c r="J45" s="3">
-        <v>2792600</v>
+        <v>2795000</v>
       </c>
       <c r="K45" s="3">
         <v>11611600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42436000</v>
+        <v>42471200</v>
       </c>
       <c r="E46" s="3">
-        <v>42062000</v>
+        <v>42096900</v>
       </c>
       <c r="F46" s="3">
-        <v>40429300</v>
+        <v>40462900</v>
       </c>
       <c r="G46" s="3">
-        <v>26765300</v>
+        <v>26787600</v>
       </c>
       <c r="H46" s="3">
-        <v>23709300</v>
+        <v>23729000</v>
       </c>
       <c r="I46" s="3">
-        <v>22107000</v>
+        <v>22125300</v>
       </c>
       <c r="J46" s="3">
-        <v>28878300</v>
+        <v>28902200</v>
       </c>
       <c r="K46" s="3">
         <v>32853400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6897000</v>
+        <v>6902800</v>
       </c>
       <c r="E47" s="3">
-        <v>6259600</v>
+        <v>6264800</v>
       </c>
       <c r="F47" s="3">
-        <v>7544300</v>
+        <v>7550500</v>
       </c>
       <c r="G47" s="3">
-        <v>4862200</v>
+        <v>4866200</v>
       </c>
       <c r="H47" s="3">
-        <v>2342700</v>
+        <v>2344700</v>
       </c>
       <c r="I47" s="3">
-        <v>6902500</v>
+        <v>6908200</v>
       </c>
       <c r="J47" s="3">
-        <v>9335200</v>
+        <v>9342900</v>
       </c>
       <c r="K47" s="3">
         <v>4442500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107820000</v>
+        <v>107910000</v>
       </c>
       <c r="E48" s="3">
-        <v>100330000</v>
+        <v>100414000</v>
       </c>
       <c r="F48" s="3">
-        <v>98953400</v>
+        <v>99035500</v>
       </c>
       <c r="G48" s="3">
-        <v>73226600</v>
+        <v>73287400</v>
       </c>
       <c r="H48" s="3">
-        <v>54889100</v>
+        <v>54934600</v>
       </c>
       <c r="I48" s="3">
-        <v>50820400</v>
+        <v>50862600</v>
       </c>
       <c r="J48" s="3">
-        <v>50690300</v>
+        <v>50732400</v>
       </c>
       <c r="K48" s="3">
         <v>45565400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>152425000</v>
+        <v>152551000</v>
       </c>
       <c r="E49" s="3">
-        <v>143803000</v>
+        <v>143922000</v>
       </c>
       <c r="F49" s="3">
-        <v>127995000</v>
+        <v>128102000</v>
       </c>
       <c r="G49" s="3">
-        <v>73937800</v>
+        <v>73999200</v>
       </c>
       <c r="H49" s="3">
-        <v>70412300</v>
+        <v>70470800</v>
       </c>
       <c r="I49" s="3">
-        <v>68151900</v>
+        <v>68208500</v>
       </c>
       <c r="J49" s="3">
-        <v>65695400</v>
+        <v>65749900</v>
       </c>
       <c r="K49" s="3">
         <v>58211100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14123700</v>
+        <v>14135400</v>
       </c>
       <c r="E52" s="3">
-        <v>12857400</v>
+        <v>12868100</v>
       </c>
       <c r="F52" s="3">
-        <v>12274200</v>
+        <v>12284400</v>
       </c>
       <c r="G52" s="3">
-        <v>6233600</v>
+        <v>6238800</v>
       </c>
       <c r="H52" s="3">
-        <v>6247700</v>
+        <v>6252900</v>
       </c>
       <c r="I52" s="3">
-        <v>5238400</v>
+        <v>5242700</v>
       </c>
       <c r="J52" s="3">
-        <v>6373400</v>
+        <v>6378700</v>
       </c>
       <c r="K52" s="3">
         <v>5841000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>323701000</v>
+        <v>323970000</v>
       </c>
       <c r="E54" s="3">
-        <v>305312000</v>
+        <v>305565000</v>
       </c>
       <c r="F54" s="3">
-        <v>287197000</v>
+        <v>287435000</v>
       </c>
       <c r="G54" s="3">
-        <v>185026000</v>
+        <v>185179000</v>
       </c>
       <c r="H54" s="3">
-        <v>157601000</v>
+        <v>157732000</v>
       </c>
       <c r="I54" s="3">
-        <v>153220000</v>
+        <v>153347000</v>
       </c>
       <c r="J54" s="3">
-        <v>160973000</v>
+        <v>161106000</v>
       </c>
       <c r="K54" s="3">
         <v>146914000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12988600</v>
+        <v>12999400</v>
       </c>
       <c r="E57" s="3">
-        <v>11270300</v>
+        <v>11279700</v>
       </c>
       <c r="F57" s="3">
-        <v>10506000</v>
+        <v>10514700</v>
       </c>
       <c r="G57" s="3">
-        <v>10201400</v>
+        <v>10209900</v>
       </c>
       <c r="H57" s="3">
-        <v>11598800</v>
+        <v>11608400</v>
       </c>
       <c r="I57" s="3">
-        <v>11853500</v>
+        <v>11863400</v>
       </c>
       <c r="J57" s="3">
-        <v>11261600</v>
+        <v>11271000</v>
       </c>
       <c r="K57" s="3">
         <v>11266600</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20407100</v>
+        <v>20424000</v>
       </c>
       <c r="E58" s="3">
-        <v>17060500</v>
+        <v>17074600</v>
       </c>
       <c r="F58" s="3">
-        <v>17467000</v>
+        <v>17481500</v>
       </c>
       <c r="G58" s="3">
-        <v>14107400</v>
+        <v>14119100</v>
       </c>
       <c r="H58" s="3">
-        <v>9341700</v>
+        <v>9349400</v>
       </c>
       <c r="I58" s="3">
-        <v>7536700</v>
+        <v>7542900</v>
       </c>
       <c r="J58" s="3">
-        <v>12311000</v>
+        <v>12321300</v>
       </c>
       <c r="K58" s="3">
         <v>12831500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15810500</v>
+        <v>15823600</v>
       </c>
       <c r="E59" s="3">
-        <v>13735500</v>
+        <v>13746900</v>
       </c>
       <c r="F59" s="3">
-        <v>12285000</v>
+        <v>12295200</v>
       </c>
       <c r="G59" s="3">
-        <v>11372200</v>
+        <v>11381600</v>
       </c>
       <c r="H59" s="3">
-        <v>10654500</v>
+        <v>10663400</v>
       </c>
       <c r="I59" s="3">
-        <v>10277300</v>
+        <v>10285800</v>
       </c>
       <c r="J59" s="3">
-        <v>12339200</v>
+        <v>12349500</v>
       </c>
       <c r="K59" s="3">
         <v>10147800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49206200</v>
+        <v>49247100</v>
       </c>
       <c r="E60" s="3">
-        <v>42066300</v>
+        <v>42101300</v>
       </c>
       <c r="F60" s="3">
-        <v>40258100</v>
+        <v>40291500</v>
       </c>
       <c r="G60" s="3">
-        <v>35681000</v>
+        <v>35710600</v>
       </c>
       <c r="H60" s="3">
-        <v>31595000</v>
+        <v>31621200</v>
       </c>
       <c r="I60" s="3">
-        <v>29667500</v>
+        <v>29692100</v>
       </c>
       <c r="J60" s="3">
-        <v>35911900</v>
+        <v>35941700</v>
       </c>
       <c r="K60" s="3">
         <v>34245800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>140218000</v>
+        <v>140334000</v>
       </c>
       <c r="E61" s="3">
-        <v>136955000</v>
+        <v>137069000</v>
       </c>
       <c r="F61" s="3">
-        <v>131332000</v>
+        <v>131441000</v>
       </c>
       <c r="G61" s="3">
-        <v>75941200</v>
+        <v>76004300</v>
       </c>
       <c r="H61" s="3">
-        <v>55258700</v>
+        <v>55304600</v>
       </c>
       <c r="I61" s="3">
-        <v>52383700</v>
+        <v>52427200</v>
       </c>
       <c r="J61" s="3">
-        <v>53957800</v>
+        <v>54002600</v>
       </c>
       <c r="K61" s="3">
         <v>48172600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39614100</v>
+        <v>39647000</v>
       </c>
       <c r="E62" s="3">
-        <v>37969500</v>
+        <v>38001000</v>
       </c>
       <c r="F62" s="3">
-        <v>36954800</v>
+        <v>36985500</v>
       </c>
       <c r="G62" s="3">
-        <v>23284300</v>
+        <v>23303600</v>
       </c>
       <c r="H62" s="3">
-        <v>23657200</v>
+        <v>23676900</v>
       </c>
       <c r="I62" s="3">
-        <v>25127300</v>
+        <v>25148100</v>
       </c>
       <c r="J62" s="3">
-        <v>28991000</v>
+        <v>29015100</v>
       </c>
       <c r="K62" s="3">
         <v>25551600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>271060000</v>
+        <v>271285000</v>
       </c>
       <c r="E66" s="3">
-        <v>259044000</v>
+        <v>259259000</v>
       </c>
       <c r="F66" s="3">
-        <v>248254000</v>
+        <v>248460000</v>
       </c>
       <c r="G66" s="3">
-        <v>150652000</v>
+        <v>150777000</v>
       </c>
       <c r="H66" s="3">
-        <v>124095000</v>
+        <v>124198000</v>
       </c>
       <c r="I66" s="3">
-        <v>119903000</v>
+        <v>120002000</v>
       </c>
       <c r="J66" s="3">
-        <v>129203000</v>
+        <v>129310000</v>
       </c>
       <c r="K66" s="3">
         <v>116902000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28715600</v>
+        <v>-28739500</v>
       </c>
       <c r="E72" s="3">
-        <v>-34888500</v>
+        <v>-34917500</v>
       </c>
       <c r="F72" s="3">
-        <v>-37669200</v>
+        <v>-37700500</v>
       </c>
       <c r="G72" s="3">
-        <v>-37772200</v>
+        <v>-37803600</v>
       </c>
       <c r="H72" s="3">
-        <v>-38188500</v>
+        <v>-38220200</v>
       </c>
       <c r="I72" s="3">
-        <v>-38256800</v>
+        <v>-38288600</v>
       </c>
       <c r="J72" s="3">
-        <v>-39084000</v>
+        <v>-39116400</v>
       </c>
       <c r="K72" s="3">
         <v>-36457900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52641700</v>
+        <v>52685400</v>
       </c>
       <c r="E76" s="3">
-        <v>46268300</v>
+        <v>46306700</v>
       </c>
       <c r="F76" s="3">
-        <v>38943000</v>
+        <v>38975400</v>
       </c>
       <c r="G76" s="3">
-        <v>34373600</v>
+        <v>34402100</v>
       </c>
       <c r="H76" s="3">
-        <v>33506300</v>
+        <v>33534100</v>
       </c>
       <c r="I76" s="3">
-        <v>33317600</v>
+        <v>33345300</v>
       </c>
       <c r="J76" s="3">
-        <v>31769600</v>
+        <v>31795900</v>
       </c>
       <c r="K76" s="3">
         <v>30011500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8673900</v>
+        <v>8681100</v>
       </c>
       <c r="E81" s="3">
-        <v>4527200</v>
+        <v>4531000</v>
       </c>
       <c r="F81" s="3">
-        <v>4507700</v>
+        <v>4511400</v>
       </c>
       <c r="G81" s="3">
-        <v>4192200</v>
+        <v>4195700</v>
       </c>
       <c r="H81" s="3">
-        <v>2348200</v>
+        <v>2350100</v>
       </c>
       <c r="I81" s="3">
-        <v>3752100</v>
+        <v>3755200</v>
       </c>
       <c r="J81" s="3">
-        <v>2900000</v>
+        <v>2902400</v>
       </c>
       <c r="K81" s="3">
         <v>3321700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28893400</v>
+        <v>28917400</v>
       </c>
       <c r="E83" s="3">
-        <v>29481000</v>
+        <v>29505500</v>
       </c>
       <c r="F83" s="3">
-        <v>26971300</v>
+        <v>26993700</v>
       </c>
       <c r="G83" s="3">
-        <v>18802600</v>
+        <v>18818200</v>
       </c>
       <c r="H83" s="3">
-        <v>14999600</v>
+        <v>15012100</v>
       </c>
       <c r="I83" s="3">
-        <v>15812700</v>
+        <v>15825800</v>
       </c>
       <c r="J83" s="3">
-        <v>14505300</v>
+        <v>14517300</v>
       </c>
       <c r="K83" s="3">
         <v>11596300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38811900</v>
+        <v>38844100</v>
       </c>
       <c r="E89" s="3">
-        <v>34950300</v>
+        <v>34979300</v>
       </c>
       <c r="F89" s="3">
-        <v>25661700</v>
+        <v>25683000</v>
       </c>
       <c r="G89" s="3">
-        <v>25014500</v>
+        <v>25035300</v>
       </c>
       <c r="H89" s="3">
-        <v>19448800</v>
+        <v>19464900</v>
       </c>
       <c r="I89" s="3">
-        <v>18645400</v>
+        <v>18660900</v>
       </c>
       <c r="J89" s="3">
-        <v>16836100</v>
+        <v>16850100</v>
       </c>
       <c r="K89" s="3">
         <v>15310000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17955900</v>
+        <v>-17970900</v>
       </c>
       <c r="E91" s="3">
-        <v>-14761100</v>
+        <v>-14773400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14026100</v>
+        <v>-14037700</v>
       </c>
       <c r="G91" s="3">
-        <v>-10821500</v>
+        <v>-10830500</v>
       </c>
       <c r="H91" s="3">
-        <v>-9907600</v>
+        <v>-9915800</v>
       </c>
       <c r="I91" s="3">
-        <v>-9918400</v>
+        <v>-9926700</v>
       </c>
       <c r="J91" s="3">
-        <v>-8712900</v>
+        <v>-8720100</v>
       </c>
       <c r="K91" s="3">
         <v>-8336900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24181900</v>
+        <v>-24202000</v>
       </c>
       <c r="E94" s="3">
-        <v>-29707600</v>
+        <v>-29732300</v>
       </c>
       <c r="F94" s="3">
-        <v>-24553800</v>
+        <v>-24574200</v>
       </c>
       <c r="G94" s="3">
-        <v>-15426700</v>
+        <v>-15439600</v>
       </c>
       <c r="H94" s="3">
-        <v>-15499400</v>
+        <v>-15512200</v>
       </c>
       <c r="I94" s="3">
-        <v>-18228100</v>
+        <v>-18243200</v>
       </c>
       <c r="J94" s="3">
-        <v>-14752400</v>
+        <v>-14764700</v>
       </c>
       <c r="K94" s="3">
         <v>-15327300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3669700</v>
+        <v>-3672700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3409500</v>
+        <v>-3412300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3324900</v>
+        <v>-3327700</v>
       </c>
       <c r="G96" s="3">
-        <v>-3860500</v>
+        <v>-3863700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3341200</v>
+        <v>-3344000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1690100</v>
+        <v>-1691500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1730200</v>
+        <v>-1731700</v>
       </c>
       <c r="K96" s="3">
         <v>-1282100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16736300</v>
+        <v>-16750200</v>
       </c>
       <c r="E100" s="3">
-        <v>-11685500</v>
+        <v>-11695200</v>
       </c>
       <c r="F100" s="3">
-        <v>8196900</v>
+        <v>8203700</v>
       </c>
       <c r="G100" s="3">
-        <v>-7741600</v>
+        <v>-7748000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3533100</v>
+        <v>-3536000</v>
       </c>
       <c r="I100" s="3">
-        <v>-4980400</v>
+        <v>-4984500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1433200</v>
+        <v>-1434400</v>
       </c>
       <c r="K100" s="3">
         <v>-894200</v>
@@ -4207,13 +4207,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100800</v>
+        <v>100900</v>
       </c>
       <c r="E101" s="3">
-        <v>672100</v>
+        <v>672700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1123100</v>
+        <v>-1124100</v>
       </c>
       <c r="G101" s="3">
         <v>11900</v>
@@ -4222,10 +4222,10 @@
         <v>-18400</v>
       </c>
       <c r="I101" s="3">
-        <v>-245000</v>
+        <v>-245200</v>
       </c>
       <c r="J101" s="3">
-        <v>271000</v>
+        <v>271300</v>
       </c>
       <c r="K101" s="3">
         <v>272600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2005600</v>
+        <v>-2007300</v>
       </c>
       <c r="E102" s="3">
-        <v>-5770700</v>
+        <v>-5775500</v>
       </c>
       <c r="F102" s="3">
-        <v>8181700</v>
+        <v>8188500</v>
       </c>
       <c r="G102" s="3">
-        <v>1858100</v>
+        <v>1859700</v>
       </c>
       <c r="H102" s="3">
-        <v>397900</v>
+        <v>398200</v>
       </c>
       <c r="I102" s="3">
-        <v>-4808000</v>
+        <v>-4812000</v>
       </c>
       <c r="J102" s="3">
-        <v>921500</v>
+        <v>922300</v>
       </c>
       <c r="K102" s="3">
         <v>-639000</v>
